--- a/resources/factories.xlsx
+++ b/resources/factories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vico/Sites/diggersfactory/api/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC132894-2973-FF41-A7D6-EF3086BCC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C892FD9-7F85-D247-B5A4-101D0C444052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46600" yWindow="4780" windowWidth="31780" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="774">
   <si>
     <t>F</t>
   </si>
@@ -3094,9 +3094,6 @@
   </si>
   <si>
     <t>Stickering</t>
-  </si>
-  <si>
-    <t>Forfait changement de couleur</t>
   </si>
 </sst>
 </file>
@@ -3420,7 +3417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3799,17 +3796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3826,7 +3812,7 @@
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4278,20 +4264,40 @@
     <xf numFmtId="1" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4303,19 +4309,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4325,33 +4318,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -4645,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BE0D3-BEF4-8549-9F8D-EB0B148D3BC3}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4684,7 +4664,7 @@
       <c r="A2" s="72" t="s">
         <v>599</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="110">
@@ -4707,7 +4687,7 @@
       <c r="A3" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="110">
@@ -4730,7 +4710,7 @@
       <c r="A4" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="110">
@@ -4753,7 +4733,7 @@
       <c r="A5" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="110">
@@ -4776,7 +4756,7 @@
       <c r="A6" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="110">
@@ -4799,7 +4779,7 @@
       <c r="A7" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="110">
@@ -4866,7 +4846,7 @@
       <c r="A10" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="111">
@@ -4889,7 +4869,7 @@
       <c r="A11" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="112">
@@ -4912,7 +4892,7 @@
       <c r="A12" s="76" t="s">
         <v>609</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="112">
@@ -4935,7 +4915,7 @@
       <c r="A13" s="76" t="s">
         <v>610</v>
       </c>
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="112">
@@ -4958,7 +4938,7 @@
       <c r="A14" s="76" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="112">
@@ -4981,7 +4961,7 @@
       <c r="A15" s="76" t="s">
         <v>612</v>
       </c>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="112">
@@ -5004,7 +4984,7 @@
       <c r="A16" s="76" t="s">
         <v>613</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="112">
@@ -5027,7 +5007,7 @@
       <c r="A17" s="76" t="s">
         <v>614</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="112">
@@ -5050,7 +5030,7 @@
       <c r="A18" s="76" t="s">
         <v>615</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="112">
@@ -5073,7 +5053,7 @@
       <c r="A19" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="112">
@@ -5096,7 +5076,7 @@
       <c r="A20" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="112">
@@ -5119,7 +5099,7 @@
       <c r="A21" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="111">
@@ -5142,7 +5122,7 @@
       <c r="A22" s="76" t="s">
         <v>619</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="112">
@@ -5165,7 +5145,7 @@
       <c r="A23" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="111">
@@ -5188,7 +5168,7 @@
       <c r="A24" s="76" t="s">
         <v>621</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="111">
@@ -5211,7 +5191,7 @@
       <c r="A25" s="76" t="s">
         <v>622</v>
       </c>
-      <c r="B25" s="176" t="s">
+      <c r="B25" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="111">
@@ -5234,7 +5214,7 @@
       <c r="A26" s="76" t="s">
         <v>623</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="111">
@@ -5257,7 +5237,7 @@
       <c r="A27" s="76" t="s">
         <v>624</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="111">
@@ -5280,7 +5260,7 @@
       <c r="A28" s="76" t="s">
         <v>625</v>
       </c>
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="111">
@@ -5303,7 +5283,7 @@
       <c r="A29" s="76" t="s">
         <v>626</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="111">
@@ -5326,7 +5306,7 @@
       <c r="A30" s="76" t="s">
         <v>627</v>
       </c>
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="111">
@@ -5343,29 +5323,6 @@
       </c>
       <c r="G30" s="111">
         <v>0.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="175" t="s">
-        <v>774</v>
-      </c>
-      <c r="B31" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="112">
-        <v>165</v>
-      </c>
-      <c r="D31" s="112">
-        <v>165</v>
-      </c>
-      <c r="E31" s="112">
-        <v>165</v>
-      </c>
-      <c r="F31" s="112">
-        <v>165</v>
-      </c>
-      <c r="G31" s="112">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5387,11 +5344,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="173"/>
       <c r="D1" s="81" t="s">
         <v>71</v>
       </c>
@@ -5427,11 +5384,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="84"/>
@@ -5445,11 +5402,11 @@
       <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="85"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
@@ -5483,11 +5440,11 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
       <c r="D4" s="85"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -5521,11 +5478,11 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="85"/>
       <c r="E5" s="6" t="s">
         <v>0</v>
@@ -5559,11 +5516,11 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="85"/>
       <c r="E6" s="6" t="s">
         <v>0</v>
@@ -5597,11 +5554,11 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="85"/>
       <c r="E7" s="6" t="s">
         <v>0</v>
@@ -5635,11 +5592,11 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="85"/>
       <c r="E8" s="6" t="s">
         <v>0</v>
@@ -5673,11 +5630,11 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="167"/>
       <c r="D9" s="85"/>
       <c r="E9" s="6" t="s">
         <v>0</v>
@@ -5711,11 +5668,11 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="85"/>
       <c r="E10" s="6" t="s">
         <v>0</v>
@@ -5749,11 +5706,11 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="161"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
       <c r="D11" s="85"/>
       <c r="E11" s="6" t="s">
         <v>0</v>
@@ -5787,11 +5744,11 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="161"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="85"/>
       <c r="E12" s="6" t="s">
         <v>0</v>
@@ -5825,11 +5782,11 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="160"/>
-      <c r="C13" s="161"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="85"/>
       <c r="E13" s="6" t="s">
         <v>0</v>
@@ -5863,11 +5820,11 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="161"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="85"/>
       <c r="E14" s="6" t="s">
         <v>0</v>
@@ -5901,11 +5858,11 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="161"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="85"/>
       <c r="E15" s="6" t="s">
         <v>0</v>
@@ -5939,11 +5896,11 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="160"/>
-      <c r="C16" s="161"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="85"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
@@ -5977,11 +5934,11 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="161"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="85"/>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -6015,11 +5972,11 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="85"/>
       <c r="E18" s="6" t="s">
         <v>0</v>
@@ -6053,10 +6010,10 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="158"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="162"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6071,11 +6028,11 @@
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="85"/>
       <c r="E20" s="6" t="s">
         <v>0</v>
@@ -6109,11 +6066,11 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="85"/>
       <c r="E21" s="6" t="s">
         <v>0</v>
@@ -6147,11 +6104,11 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="159" t="s">
+      <c r="A22" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="161"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
       <c r="D22" s="85"/>
       <c r="E22" s="6" t="s">
         <v>0</v>
@@ -6185,11 +6142,11 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="161"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="85"/>
       <c r="E23" s="6" t="s">
         <v>0</v>
@@ -6223,10 +6180,10 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="157" t="s">
+      <c r="A24" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="158"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="162"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6241,11 +6198,11 @@
       <c r="N24" s="84"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
       <c r="D25" s="85"/>
       <c r="E25" s="6" t="s">
         <v>0</v>
@@ -6279,10 +6236,10 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="161"/>
       <c r="C26" s="162"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -6297,11 +6254,11 @@
       <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="161"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="85"/>
       <c r="E27" s="6" t="s">
         <v>0</v>
@@ -6335,11 +6292,11 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
       <c r="D28" s="85"/>
       <c r="E28" s="6" t="s">
         <v>0</v>
@@ -6373,11 +6330,11 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
       <c r="D29" s="85"/>
       <c r="E29" s="6" t="s">
         <v>0</v>
@@ -6411,11 +6368,11 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
       <c r="D30" s="85"/>
       <c r="E30" s="6" t="s">
         <v>0</v>
@@ -6449,11 +6406,11 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
       <c r="D31" s="85"/>
       <c r="E31" s="6" t="s">
         <v>0</v>
@@ -6487,11 +6444,11 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="161"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
       <c r="D32" s="85"/>
       <c r="E32" s="6" t="s">
         <v>0</v>
@@ -6593,11 +6550,11 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="168"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="170"/>
       <c r="D36" s="15"/>
       <c r="E36" s="82" t="s">
         <v>72</v>
@@ -6649,10 +6606,10 @@
       <c r="N37" s="94"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="158"/>
+      <c r="B38" s="161"/>
       <c r="C38" s="162"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -6667,11 +6624,11 @@
       <c r="N38" s="84"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="165"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="157"/>
       <c r="D39" s="20"/>
       <c r="E39" s="6" t="s">
         <v>5</v>
@@ -6705,11 +6662,11 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="163" t="s">
+      <c r="A40" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="164"/>
-      <c r="C40" s="165"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="157"/>
       <c r="D40" s="20"/>
       <c r="E40" s="6" t="s">
         <v>5</v>
@@ -6743,11 +6700,11 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="165"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="20"/>
       <c r="E41" s="6" t="s">
         <v>5</v>
@@ -6781,11 +6738,11 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="163" t="s">
+      <c r="A42" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="165"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="20"/>
       <c r="E42" s="6" t="s">
         <v>5</v>
@@ -6819,11 +6776,11 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="164"/>
-      <c r="C43" s="165"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="20"/>
       <c r="E43" s="6" t="s">
         <v>5</v>
@@ -6857,11 +6814,11 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="165"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="20"/>
       <c r="E44" s="6" t="s">
         <v>5</v>
@@ -6895,11 +6852,11 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="20"/>
       <c r="E45" s="6" t="s">
         <v>5</v>
@@ -6949,10 +6906,10 @@
       <c r="N46" s="97"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="158"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="162"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -6967,11 +6924,11 @@
       <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="165"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="20"/>
       <c r="E48" s="6" t="s">
         <v>5</v>
@@ -7005,11 +6962,11 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="164"/>
-      <c r="C49" s="165"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="157"/>
       <c r="D49" s="20"/>
       <c r="E49" s="6" t="s">
         <v>5</v>
@@ -7043,11 +7000,11 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="165"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="157"/>
       <c r="D50" s="20"/>
       <c r="E50" s="6" t="s">
         <v>5</v>
@@ -7081,11 +7038,11 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="163" t="s">
+      <c r="A51" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="164"/>
-      <c r="C51" s="165"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="157"/>
       <c r="D51" s="20"/>
       <c r="E51" s="6" t="s">
         <v>5</v>
@@ -7119,11 +7076,11 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="163" t="s">
+      <c r="A52" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="165"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="157"/>
       <c r="D52" s="20"/>
       <c r="E52" s="6" t="s">
         <v>5</v>
@@ -7157,11 +7114,11 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="165"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="157"/>
       <c r="D53" s="20"/>
       <c r="E53" s="6" t="s">
         <v>5</v>
@@ -7195,11 +7152,11 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="163" t="s">
+      <c r="A54" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="164"/>
-      <c r="C54" s="165"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
       <c r="D54" s="20"/>
       <c r="E54" s="6" t="s">
         <v>5</v>
@@ -7233,11 +7190,11 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="163" t="s">
+      <c r="A55" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="164"/>
-      <c r="C55" s="165"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="157"/>
       <c r="D55" s="20"/>
       <c r="E55" s="6" t="s">
         <v>5</v>
@@ -7271,11 +7228,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="164"/>
-      <c r="C56" s="165"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="157"/>
       <c r="D56" s="20"/>
       <c r="E56" s="6" t="s">
         <v>5</v>
@@ -7309,11 +7266,11 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="164"/>
-      <c r="C57" s="165"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="157"/>
       <c r="D57" s="20"/>
       <c r="E57" s="6" t="s">
         <v>5</v>
@@ -7347,11 +7304,11 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="163" t="s">
+      <c r="A58" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="165"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
       <c r="D58" s="20"/>
       <c r="E58" s="6" t="s">
         <v>5</v>
@@ -7385,11 +7342,11 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="163" t="s">
+      <c r="A59" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="164"/>
-      <c r="C59" s="165"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="157"/>
       <c r="D59" s="20"/>
       <c r="E59" s="6" t="s">
         <v>5</v>
@@ -7423,11 +7380,11 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="163" t="s">
+      <c r="A60" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="164"/>
-      <c r="C60" s="165"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="20"/>
       <c r="E60" s="6" t="s">
         <v>5</v>
@@ -7461,11 +7418,11 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="163" t="s">
+      <c r="A61" s="155" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="164"/>
-      <c r="C61" s="165"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="157"/>
       <c r="D61" s="20"/>
       <c r="E61" s="6" t="s">
         <v>5</v>
@@ -7499,11 +7456,11 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="163" t="s">
+      <c r="A62" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="164"/>
-      <c r="C62" s="165"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="20"/>
       <c r="E62" s="6" t="s">
         <v>5</v>
@@ -7537,11 +7494,11 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="163" t="s">
+      <c r="A63" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="164"/>
-      <c r="C63" s="165"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="157"/>
       <c r="D63" s="20"/>
       <c r="E63" s="6" t="s">
         <v>5</v>
@@ -7575,11 +7532,11 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="164"/>
-      <c r="C64" s="165"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="157"/>
       <c r="D64" s="20"/>
       <c r="E64" s="6" t="s">
         <v>5</v>
@@ -7613,11 +7570,11 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="163" t="s">
+      <c r="A65" s="155" t="s">
         <v>628</v>
       </c>
-      <c r="B65" s="164"/>
-      <c r="C65" s="165"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="157"/>
       <c r="D65" s="20"/>
       <c r="E65" s="6" t="s">
         <v>5</v>
@@ -7651,11 +7608,11 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="163" t="s">
+      <c r="A66" s="155" t="s">
         <v>629</v>
       </c>
-      <c r="B66" s="164"/>
-      <c r="C66" s="165"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="157"/>
       <c r="D66" s="20"/>
       <c r="E66" s="6" t="s">
         <v>5</v>
@@ -7689,11 +7646,11 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="163" t="s">
+      <c r="A67" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="164"/>
-      <c r="C67" s="165"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="157"/>
       <c r="D67" s="20"/>
       <c r="E67" s="6" t="s">
         <v>5</v>
@@ -7727,11 +7684,11 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="163" t="s">
+      <c r="A68" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="165"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="157"/>
       <c r="D68" s="20"/>
       <c r="E68" s="6" t="s">
         <v>5</v>
@@ -7781,10 +7738,10 @@
       <c r="N69" s="98"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="157" t="s">
+      <c r="A70" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="158"/>
+      <c r="B70" s="161"/>
       <c r="C70" s="162"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
@@ -7799,11 +7756,11 @@
       <c r="N70" s="84"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="163" t="s">
+      <c r="A71" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="164"/>
-      <c r="C71" s="165"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="157"/>
       <c r="D71" s="20"/>
       <c r="E71" s="6" t="s">
         <v>0</v>
@@ -7837,11 +7794,11 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="163" t="s">
+      <c r="A72" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="165"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="157"/>
       <c r="D72" s="20"/>
       <c r="E72" s="6" t="s">
         <v>0</v>
@@ -7875,11 +7832,11 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="163" t="s">
+      <c r="A73" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="164"/>
-      <c r="C73" s="165"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="157"/>
       <c r="D73" s="20"/>
       <c r="E73" s="6" t="s">
         <v>0</v>
@@ -7913,11 +7870,11 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="163" t="s">
+      <c r="A74" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="164"/>
-      <c r="C74" s="165"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="157"/>
       <c r="D74" s="20"/>
       <c r="E74" s="6" t="s">
         <v>0</v>
@@ -7951,11 +7908,11 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="163" t="s">
+      <c r="A75" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="164"/>
-      <c r="C75" s="165"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="157"/>
       <c r="D75" s="20"/>
       <c r="E75" s="6" t="s">
         <v>0</v>
@@ -7989,11 +7946,11 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="163" t="s">
+      <c r="A76" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="164"/>
-      <c r="C76" s="165"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="20"/>
       <c r="E76" s="6" t="s">
         <v>0</v>
@@ -8043,10 +8000,10 @@
       <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="157" t="s">
+      <c r="A78" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="158"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="162"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
@@ -8061,11 +8018,11 @@
       <c r="N78" s="84"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="163" t="s">
+      <c r="A79" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="165"/>
+      <c r="B79" s="156"/>
+      <c r="C79" s="157"/>
       <c r="D79" s="20"/>
       <c r="E79" s="6" t="s">
         <v>0</v>
@@ -8099,11 +8056,11 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="163" t="s">
+      <c r="A80" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="164"/>
-      <c r="C80" s="165"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="157"/>
       <c r="D80" s="20"/>
       <c r="E80" s="6" t="s">
         <v>0</v>
@@ -8137,11 +8094,11 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="163" t="s">
+      <c r="A81" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="164"/>
-      <c r="C81" s="165"/>
+      <c r="B81" s="156"/>
+      <c r="C81" s="157"/>
       <c r="D81" s="20"/>
       <c r="E81" s="6" t="s">
         <v>5</v>
@@ -8175,11 +8132,11 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="163" t="s">
+      <c r="A82" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="164"/>
-      <c r="C82" s="165"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="157"/>
       <c r="D82" s="20"/>
       <c r="E82" s="6" t="s">
         <v>5</v>
@@ -8213,11 +8170,11 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="163" t="s">
+      <c r="A83" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="164"/>
-      <c r="C83" s="165"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="157"/>
       <c r="D83" s="20"/>
       <c r="E83" s="6" t="s">
         <v>5</v>
@@ -8251,11 +8208,11 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="163" t="s">
+      <c r="A84" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="164"/>
-      <c r="C84" s="165"/>
+      <c r="B84" s="156"/>
+      <c r="C84" s="157"/>
       <c r="D84" s="20"/>
       <c r="E84" s="6" t="s">
         <v>5</v>
@@ -8289,11 +8246,11 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="163" t="s">
+      <c r="A85" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="164"/>
-      <c r="C85" s="165"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="157"/>
       <c r="D85" s="20"/>
       <c r="E85" s="6" t="s">
         <v>5</v>
@@ -8327,11 +8284,11 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="163" t="s">
+      <c r="A86" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="164"/>
-      <c r="C86" s="165"/>
+      <c r="B86" s="156"/>
+      <c r="C86" s="157"/>
       <c r="D86" s="20"/>
       <c r="E86" s="6" t="s">
         <v>5</v>
@@ -8415,10 +8372,10 @@
       <c r="N89" s="101"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="157" t="s">
+      <c r="A90" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="158"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="162"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5"/>
@@ -8433,11 +8390,11 @@
       <c r="N90" s="84"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="163" t="s">
+      <c r="A91" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="164"/>
-      <c r="C91" s="165"/>
+      <c r="B91" s="156"/>
+      <c r="C91" s="157"/>
       <c r="D91" s="20"/>
       <c r="E91" s="6" t="s">
         <v>5</v>
@@ -8471,11 +8428,11 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="163" t="s">
+      <c r="A92" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="164"/>
-      <c r="C92" s="165"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="157"/>
       <c r="D92" s="20"/>
       <c r="E92" s="6" t="s">
         <v>5</v>
@@ -8509,11 +8466,11 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="163" t="s">
+      <c r="A93" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="164"/>
-      <c r="C93" s="165"/>
+      <c r="B93" s="156"/>
+      <c r="C93" s="157"/>
       <c r="D93" s="20">
         <v>6</v>
       </c>
@@ -8549,11 +8506,11 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="163" t="s">
+      <c r="A94" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="164"/>
-      <c r="C94" s="165"/>
+      <c r="B94" s="156"/>
+      <c r="C94" s="157"/>
       <c r="D94" s="20">
         <v>6</v>
       </c>
@@ -8589,11 +8546,11 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="163" t="s">
+      <c r="A95" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="164"/>
-      <c r="C95" s="165"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="157"/>
       <c r="D95" s="20">
         <v>6</v>
       </c>
@@ -8629,11 +8586,11 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="163" t="s">
+      <c r="A96" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="164"/>
-      <c r="C96" s="165"/>
+      <c r="B96" s="156"/>
+      <c r="C96" s="157"/>
       <c r="D96" s="20">
         <v>6</v>
       </c>
@@ -8669,11 +8626,11 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="163" t="s">
+      <c r="A97" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="164"/>
-      <c r="C97" s="165"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="157"/>
       <c r="D97" s="20">
         <v>6</v>
       </c>
@@ -8709,11 +8666,11 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="163" t="s">
+      <c r="A98" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="164"/>
-      <c r="C98" s="165"/>
+      <c r="B98" s="156"/>
+      <c r="C98" s="157"/>
       <c r="D98" s="20">
         <v>6</v>
       </c>
@@ -8749,11 +8706,11 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="163" t="s">
+      <c r="A99" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B99" s="164"/>
-      <c r="C99" s="165"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="157"/>
       <c r="D99" s="20">
         <v>6</v>
       </c>
@@ -8789,11 +8746,11 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="163" t="s">
+      <c r="A100" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B100" s="164"/>
-      <c r="C100" s="165"/>
+      <c r="B100" s="156"/>
+      <c r="C100" s="157"/>
       <c r="D100" s="20">
         <v>6</v>
       </c>
@@ -8845,10 +8802,10 @@
       <c r="N101" s="97"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="157" t="s">
+      <c r="A102" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="B102" s="158"/>
+      <c r="B102" s="161"/>
       <c r="C102" s="162"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5"/>
@@ -8863,11 +8820,11 @@
       <c r="N102" s="84"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="163" t="s">
+      <c r="A103" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="164"/>
-      <c r="C103" s="165"/>
+      <c r="B103" s="156"/>
+      <c r="C103" s="157"/>
       <c r="D103" s="20"/>
       <c r="E103" s="6" t="s">
         <v>5</v>
@@ -8901,11 +8858,11 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="163" t="s">
+      <c r="A104" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="164"/>
-      <c r="C104" s="165"/>
+      <c r="B104" s="156"/>
+      <c r="C104" s="157"/>
       <c r="D104" s="20"/>
       <c r="E104" s="6" t="s">
         <v>5</v>
@@ -8939,11 +8896,11 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="163" t="s">
+      <c r="A105" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="164"/>
-      <c r="C105" s="165"/>
+      <c r="B105" s="156"/>
+      <c r="C105" s="157"/>
       <c r="D105" s="20"/>
       <c r="E105" s="6" t="s">
         <v>5</v>
@@ -8977,11 +8934,11 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="163" t="s">
+      <c r="A106" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="164"/>
-      <c r="C106" s="165"/>
+      <c r="B106" s="156"/>
+      <c r="C106" s="157"/>
       <c r="D106" s="20"/>
       <c r="E106" s="6" t="s">
         <v>5</v>
@@ -9015,11 +8972,11 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="163" t="s">
+      <c r="A107" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B107" s="164"/>
-      <c r="C107" s="165"/>
+      <c r="B107" s="156"/>
+      <c r="C107" s="157"/>
       <c r="D107" s="20"/>
       <c r="E107" s="6" t="s">
         <v>5</v>
@@ -9053,11 +9010,11 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="163" t="s">
+      <c r="A108" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="164"/>
-      <c r="C108" s="165"/>
+      <c r="B108" s="156"/>
+      <c r="C108" s="157"/>
       <c r="D108" s="20"/>
       <c r="E108" s="6" t="s">
         <v>5</v>
@@ -9091,11 +9048,11 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="163" t="s">
+      <c r="A109" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="164"/>
-      <c r="C109" s="165"/>
+      <c r="B109" s="156"/>
+      <c r="C109" s="157"/>
       <c r="D109" s="20"/>
       <c r="E109" s="6" t="s">
         <v>5</v>
@@ -9129,11 +9086,11 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="163" t="s">
+      <c r="A110" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="164"/>
-      <c r="C110" s="165"/>
+      <c r="B110" s="156"/>
+      <c r="C110" s="157"/>
       <c r="D110" s="20"/>
       <c r="E110" s="6" t="s">
         <v>5</v>
@@ -9167,11 +9124,11 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="164"/>
-      <c r="C111" s="165"/>
+      <c r="B111" s="156"/>
+      <c r="C111" s="157"/>
       <c r="D111" s="20"/>
       <c r="E111" s="6" t="s">
         <v>5</v>
@@ -9205,11 +9162,11 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="163" t="s">
+      <c r="A112" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="164"/>
-      <c r="C112" s="165"/>
+      <c r="B112" s="156"/>
+      <c r="C112" s="157"/>
       <c r="D112" s="20"/>
       <c r="E112" s="6" t="s">
         <v>5</v>
@@ -9243,11 +9200,11 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="163" t="s">
+      <c r="A113" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="164"/>
-      <c r="C113" s="165"/>
+      <c r="B113" s="156"/>
+      <c r="C113" s="157"/>
       <c r="D113" s="20"/>
       <c r="E113" s="6" t="s">
         <v>5</v>
@@ -9281,11 +9238,11 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="163" t="s">
+      <c r="A114" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B114" s="164"/>
-      <c r="C114" s="165"/>
+      <c r="B114" s="156"/>
+      <c r="C114" s="157"/>
       <c r="D114" s="20"/>
       <c r="E114" s="6" t="s">
         <v>5</v>
@@ -9319,11 +9276,11 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="163" t="s">
+      <c r="A115" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="164"/>
-      <c r="C115" s="165"/>
+      <c r="B115" s="156"/>
+      <c r="C115" s="157"/>
       <c r="D115" s="20"/>
       <c r="E115" s="6" t="s">
         <v>5</v>
@@ -9373,10 +9330,10 @@
       <c r="N116" s="97"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="157" t="s">
+      <c r="A117" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="158"/>
+      <c r="B117" s="161"/>
       <c r="C117" s="162"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
@@ -9391,11 +9348,11 @@
       <c r="N117" s="84"/>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="163" t="s">
+      <c r="A118" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B118" s="164"/>
-      <c r="C118" s="165"/>
+      <c r="B118" s="156"/>
+      <c r="C118" s="157"/>
       <c r="D118" s="20">
         <v>1</v>
       </c>
@@ -9431,11 +9388,11 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="163" t="s">
+      <c r="A119" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="164"/>
-      <c r="C119" s="165"/>
+      <c r="B119" s="156"/>
+      <c r="C119" s="157"/>
       <c r="D119" s="20">
         <v>1</v>
       </c>
@@ -9471,11 +9428,11 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="163" t="s">
+      <c r="A120" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="B120" s="164"/>
-      <c r="C120" s="165"/>
+      <c r="B120" s="156"/>
+      <c r="C120" s="157"/>
       <c r="D120" s="20">
         <v>1</v>
       </c>
@@ -9511,11 +9468,11 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="163" t="s">
+      <c r="A121" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="B121" s="164"/>
-      <c r="C121" s="165"/>
+      <c r="B121" s="156"/>
+      <c r="C121" s="157"/>
       <c r="D121" s="20">
         <v>1</v>
       </c>
@@ -9551,11 +9508,11 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="B122" s="164"/>
-      <c r="C122" s="165"/>
+      <c r="B122" s="156"/>
+      <c r="C122" s="157"/>
       <c r="D122" s="20">
         <v>3</v>
       </c>
@@ -9591,11 +9548,11 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="163" t="s">
+      <c r="A123" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="B123" s="164"/>
-      <c r="C123" s="165"/>
+      <c r="B123" s="156"/>
+      <c r="C123" s="157"/>
       <c r="D123" s="20">
         <v>3</v>
       </c>
@@ -9631,11 +9588,11 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="163" t="s">
+      <c r="A124" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="B124" s="164"/>
-      <c r="C124" s="165"/>
+      <c r="B124" s="156"/>
+      <c r="C124" s="157"/>
       <c r="D124" s="20">
         <v>3</v>
       </c>
@@ -9671,11 +9628,11 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="163" t="s">
+      <c r="A125" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="164"/>
-      <c r="C125" s="165"/>
+      <c r="B125" s="156"/>
+      <c r="C125" s="157"/>
       <c r="D125" s="20">
         <v>3</v>
       </c>
@@ -9727,10 +9684,10 @@
       <c r="N126" s="97"/>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="157" t="s">
+      <c r="A127" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="158"/>
+      <c r="B127" s="161"/>
       <c r="C127" s="162"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5"/>
@@ -9745,11 +9702,11 @@
       <c r="N127" s="84"/>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="163" t="s">
+      <c r="A128" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="164"/>
-      <c r="C128" s="165"/>
+      <c r="B128" s="156"/>
+      <c r="C128" s="157"/>
       <c r="D128" s="20">
         <v>1</v>
       </c>
@@ -9785,11 +9742,11 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="163" t="s">
+      <c r="A129" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="164"/>
-      <c r="C129" s="165"/>
+      <c r="B129" s="156"/>
+      <c r="C129" s="157"/>
       <c r="D129" s="20">
         <v>1</v>
       </c>
@@ -9825,11 +9782,11 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="163" t="s">
+      <c r="A130" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="164"/>
-      <c r="C130" s="165"/>
+      <c r="B130" s="156"/>
+      <c r="C130" s="157"/>
       <c r="D130" s="20">
         <v>1</v>
       </c>
@@ -9865,11 +9822,11 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="163" t="s">
+      <c r="A131" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="164"/>
-      <c r="C131" s="165"/>
+      <c r="B131" s="156"/>
+      <c r="C131" s="157"/>
       <c r="D131" s="20">
         <v>3</v>
       </c>
@@ -9905,11 +9862,11 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="163" t="s">
+      <c r="A132" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="B132" s="164"/>
-      <c r="C132" s="165"/>
+      <c r="B132" s="156"/>
+      <c r="C132" s="157"/>
       <c r="D132" s="20">
         <v>3</v>
       </c>
@@ -9945,11 +9902,11 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="163" t="s">
+      <c r="A133" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="B133" s="164"/>
-      <c r="C133" s="165"/>
+      <c r="B133" s="156"/>
+      <c r="C133" s="157"/>
       <c r="D133" s="20">
         <v>3</v>
       </c>
@@ -10001,10 +9958,10 @@
       <c r="N134" s="97"/>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="157" t="s">
+      <c r="A135" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="158"/>
+      <c r="B135" s="161"/>
       <c r="C135" s="162"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5"/>
@@ -10019,11 +9976,11 @@
       <c r="N135" s="84"/>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="163" t="s">
+      <c r="A136" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="B136" s="164"/>
-      <c r="C136" s="165"/>
+      <c r="B136" s="156"/>
+      <c r="C136" s="157"/>
       <c r="D136" s="20"/>
       <c r="E136" s="6" t="s">
         <v>5</v>
@@ -10057,11 +10014,11 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="163" t="s">
+      <c r="A137" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="B137" s="164"/>
-      <c r="C137" s="165"/>
+      <c r="B137" s="156"/>
+      <c r="C137" s="157"/>
       <c r="D137" s="20">
         <v>2</v>
       </c>
@@ -10097,11 +10054,11 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="163" t="s">
+      <c r="A138" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="B138" s="164"/>
-      <c r="C138" s="165"/>
+      <c r="B138" s="156"/>
+      <c r="C138" s="157"/>
       <c r="D138" s="20">
         <v>2</v>
       </c>
@@ -10137,11 +10094,11 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="163" t="s">
+      <c r="A139" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="B139" s="164"/>
-      <c r="C139" s="165"/>
+      <c r="B139" s="156"/>
+      <c r="C139" s="157"/>
       <c r="D139" s="20">
         <v>2</v>
       </c>
@@ -10177,11 +10134,11 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="163" t="s">
+      <c r="A140" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="B140" s="164"/>
-      <c r="C140" s="165"/>
+      <c r="B140" s="156"/>
+      <c r="C140" s="157"/>
       <c r="D140" s="20">
         <v>2</v>
       </c>
@@ -10217,11 +10174,11 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="163" t="s">
+      <c r="A141" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="B141" s="164"/>
-      <c r="C141" s="165"/>
+      <c r="B141" s="156"/>
+      <c r="C141" s="157"/>
       <c r="D141" s="20">
         <v>2</v>
       </c>
@@ -10257,11 +10214,11 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="163" t="s">
+      <c r="A142" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="B142" s="164"/>
-      <c r="C142" s="165"/>
+      <c r="B142" s="156"/>
+      <c r="C142" s="157"/>
       <c r="D142" s="20">
         <v>2</v>
       </c>
@@ -10297,11 +10254,11 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="163" t="s">
+      <c r="A143" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="B143" s="164"/>
-      <c r="C143" s="165"/>
+      <c r="B143" s="156"/>
+      <c r="C143" s="157"/>
       <c r="D143" s="20">
         <v>2</v>
       </c>
@@ -10337,11 +10294,11 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="163" t="s">
+      <c r="A144" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="164"/>
-      <c r="C144" s="165"/>
+      <c r="B144" s="156"/>
+      <c r="C144" s="157"/>
       <c r="D144" s="20">
         <v>2</v>
       </c>
@@ -10377,11 +10334,11 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="163" t="s">
+      <c r="A145" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="B145" s="164"/>
-      <c r="C145" s="165"/>
+      <c r="B145" s="156"/>
+      <c r="C145" s="157"/>
       <c r="D145" s="20">
         <v>2</v>
       </c>
@@ -10417,11 +10374,11 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="163" t="s">
+      <c r="A146" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="B146" s="164"/>
-      <c r="C146" s="165"/>
+      <c r="B146" s="156"/>
+      <c r="C146" s="157"/>
       <c r="D146" s="20">
         <v>2</v>
       </c>
@@ -10457,11 +10414,11 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="163" t="s">
+      <c r="A147" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="164"/>
-      <c r="C147" s="165"/>
+      <c r="B147" s="156"/>
+      <c r="C147" s="157"/>
       <c r="D147" s="20">
         <v>2</v>
       </c>
@@ -10497,11 +10454,11 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="163" t="s">
+      <c r="A148" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="B148" s="164"/>
-      <c r="C148" s="165"/>
+      <c r="B148" s="156"/>
+      <c r="C148" s="157"/>
       <c r="D148" s="20">
         <v>2</v>
       </c>
@@ -10537,11 +10494,11 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="163" t="s">
+      <c r="A149" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="B149" s="164"/>
-      <c r="C149" s="165"/>
+      <c r="B149" s="156"/>
+      <c r="C149" s="157"/>
       <c r="D149" s="20">
         <v>2</v>
       </c>
@@ -10577,11 +10534,11 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="163" t="s">
+      <c r="A150" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="B150" s="164"/>
-      <c r="C150" s="165"/>
+      <c r="B150" s="156"/>
+      <c r="C150" s="157"/>
       <c r="D150" s="20">
         <v>2</v>
       </c>
@@ -10617,11 +10574,11 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="163" t="s">
+      <c r="A151" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="164"/>
-      <c r="C151" s="165"/>
+      <c r="B151" s="156"/>
+      <c r="C151" s="157"/>
       <c r="D151" s="20">
         <v>2</v>
       </c>
@@ -10657,11 +10614,11 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="163" t="s">
+      <c r="A152" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="B152" s="164"/>
-      <c r="C152" s="165"/>
+      <c r="B152" s="156"/>
+      <c r="C152" s="157"/>
       <c r="D152" s="20">
         <v>2</v>
       </c>
@@ -10697,11 +10654,11 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="163" t="s">
+      <c r="A153" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="B153" s="164"/>
-      <c r="C153" s="165"/>
+      <c r="B153" s="156"/>
+      <c r="C153" s="157"/>
       <c r="D153" s="20">
         <v>2</v>
       </c>
@@ -10737,11 +10694,11 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="163" t="s">
+      <c r="A154" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="B154" s="164"/>
-      <c r="C154" s="165"/>
+      <c r="B154" s="156"/>
+      <c r="C154" s="157"/>
       <c r="D154" s="20">
         <v>2</v>
       </c>
@@ -10777,11 +10734,11 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="163" t="s">
+      <c r="A155" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B155" s="164"/>
-      <c r="C155" s="165"/>
+      <c r="B155" s="156"/>
+      <c r="C155" s="157"/>
       <c r="D155" s="20">
         <v>2</v>
       </c>
@@ -10817,11 +10774,11 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="163" t="s">
+      <c r="A156" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="B156" s="164"/>
-      <c r="C156" s="165"/>
+      <c r="B156" s="156"/>
+      <c r="C156" s="157"/>
       <c r="D156" s="20">
         <v>2</v>
       </c>
@@ -10857,11 +10814,11 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="163" t="s">
+      <c r="A157" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="B157" s="164"/>
-      <c r="C157" s="165"/>
+      <c r="B157" s="156"/>
+      <c r="C157" s="157"/>
       <c r="D157" s="20">
         <v>2</v>
       </c>
@@ -10897,11 +10854,11 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="163" t="s">
+      <c r="A158" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="B158" s="164"/>
-      <c r="C158" s="165"/>
+      <c r="B158" s="156"/>
+      <c r="C158" s="157"/>
       <c r="D158" s="20">
         <v>2</v>
       </c>
@@ -10953,10 +10910,10 @@
       <c r="N159" s="97"/>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="157" t="s">
+      <c r="A160" s="160" t="s">
         <v>204</v>
       </c>
-      <c r="B160" s="158"/>
+      <c r="B160" s="161"/>
       <c r="C160" s="162"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5"/>
@@ -10971,11 +10928,11 @@
       <c r="N160" s="84"/>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="163" t="s">
+      <c r="A161" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="164"/>
-      <c r="C161" s="165"/>
+      <c r="B161" s="156"/>
+      <c r="C161" s="157"/>
       <c r="D161" s="20">
         <v>1</v>
       </c>
@@ -11011,11 +10968,11 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="163" t="s">
+      <c r="A162" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="164"/>
-      <c r="C162" s="165"/>
+      <c r="B162" s="156"/>
+      <c r="C162" s="157"/>
       <c r="D162" s="20">
         <v>1</v>
       </c>
@@ -11051,11 +11008,11 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="163" t="s">
+      <c r="A163" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="164"/>
-      <c r="C163" s="165"/>
+      <c r="B163" s="156"/>
+      <c r="C163" s="157"/>
       <c r="D163" s="20">
         <v>1</v>
       </c>
@@ -11091,11 +11048,11 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="163" t="s">
+      <c r="A164" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="B164" s="164"/>
-      <c r="C164" s="165"/>
+      <c r="B164" s="156"/>
+      <c r="C164" s="157"/>
       <c r="D164" s="20">
         <v>1</v>
       </c>
@@ -11131,11 +11088,11 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="163" t="s">
+      <c r="A165" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="164"/>
-      <c r="C165" s="165"/>
+      <c r="B165" s="156"/>
+      <c r="C165" s="157"/>
       <c r="D165" s="20">
         <v>1</v>
       </c>
@@ -11171,11 +11128,11 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="163" t="s">
+      <c r="A166" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="B166" s="164"/>
-      <c r="C166" s="165"/>
+      <c r="B166" s="156"/>
+      <c r="C166" s="157"/>
       <c r="D166" s="20">
         <v>1</v>
       </c>
@@ -11211,11 +11168,11 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="163" t="s">
+      <c r="A167" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="164"/>
-      <c r="C167" s="165"/>
+      <c r="B167" s="156"/>
+      <c r="C167" s="157"/>
       <c r="D167" s="20"/>
       <c r="E167" s="6" t="s">
         <v>5</v>
@@ -11265,10 +11222,10 @@
       <c r="N168" s="97"/>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="157" t="s">
+      <c r="A169" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="B169" s="158"/>
+      <c r="B169" s="161"/>
       <c r="C169" s="162"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5"/>
@@ -11283,11 +11240,11 @@
       <c r="N169" s="84"/>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="163" t="s">
+      <c r="A170" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="B170" s="164"/>
-      <c r="C170" s="165"/>
+      <c r="B170" s="156"/>
+      <c r="C170" s="157"/>
       <c r="D170" s="20">
         <v>2</v>
       </c>
@@ -11323,11 +11280,11 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="163" t="s">
+      <c r="A171" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="164"/>
-      <c r="C171" s="165"/>
+      <c r="B171" s="156"/>
+      <c r="C171" s="157"/>
       <c r="D171" s="20">
         <v>2</v>
       </c>
@@ -11379,10 +11336,10 @@
       <c r="N172" s="97"/>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="157" t="s">
+      <c r="A173" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="B173" s="158"/>
+      <c r="B173" s="161"/>
       <c r="C173" s="162"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5"/>
@@ -11397,11 +11354,11 @@
       <c r="N173" s="84"/>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="163" t="s">
+      <c r="A174" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B174" s="164"/>
-      <c r="C174" s="165"/>
+      <c r="B174" s="156"/>
+      <c r="C174" s="157"/>
       <c r="D174" s="20">
         <v>1</v>
       </c>
@@ -11437,11 +11394,11 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="163" t="s">
+      <c r="A175" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="B175" s="164"/>
-      <c r="C175" s="165"/>
+      <c r="B175" s="156"/>
+      <c r="C175" s="157"/>
       <c r="D175" s="20">
         <v>1</v>
       </c>
@@ -11477,11 +11434,11 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="163" t="s">
+      <c r="A176" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="B176" s="164"/>
-      <c r="C176" s="165"/>
+      <c r="B176" s="156"/>
+      <c r="C176" s="157"/>
       <c r="D176" s="20">
         <v>1</v>
       </c>
@@ -11517,11 +11474,11 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="B177" s="164"/>
-      <c r="C177" s="165"/>
+      <c r="B177" s="156"/>
+      <c r="C177" s="157"/>
       <c r="D177" s="20">
         <v>1</v>
       </c>
@@ -11557,11 +11514,11 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="163" t="s">
+      <c r="A178" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="B178" s="164"/>
-      <c r="C178" s="165"/>
+      <c r="B178" s="156"/>
+      <c r="C178" s="157"/>
       <c r="D178" s="20">
         <v>1</v>
       </c>
@@ -11597,11 +11554,11 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="163" t="s">
+      <c r="A179" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="B179" s="164"/>
-      <c r="C179" s="165"/>
+      <c r="B179" s="156"/>
+      <c r="C179" s="157"/>
       <c r="D179" s="20">
         <v>1</v>
       </c>
@@ -11637,11 +11594,11 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="163" t="s">
+      <c r="A180" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="B180" s="164"/>
-      <c r="C180" s="165"/>
+      <c r="B180" s="156"/>
+      <c r="C180" s="157"/>
       <c r="D180" s="20">
         <v>1</v>
       </c>
@@ -11677,11 +11634,11 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="163" t="s">
+      <c r="A181" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="B181" s="164"/>
-      <c r="C181" s="165"/>
+      <c r="B181" s="156"/>
+      <c r="C181" s="157"/>
       <c r="D181" s="20">
         <v>1</v>
       </c>
@@ -11717,11 +11674,11 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="163" t="s">
+      <c r="A182" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="B182" s="164"/>
-      <c r="C182" s="165"/>
+      <c r="B182" s="156"/>
+      <c r="C182" s="157"/>
       <c r="D182" s="20">
         <v>1</v>
       </c>
@@ -11757,11 +11714,11 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="163" t="s">
+      <c r="A183" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="B183" s="164"/>
-      <c r="C183" s="165"/>
+      <c r="B183" s="156"/>
+      <c r="C183" s="157"/>
       <c r="D183" s="20">
         <v>1</v>
       </c>
@@ -11797,11 +11754,11 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="163" t="s">
+      <c r="A184" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="B184" s="164"/>
-      <c r="C184" s="165"/>
+      <c r="B184" s="156"/>
+      <c r="C184" s="157"/>
       <c r="D184" s="20">
         <v>1</v>
       </c>
@@ -11837,11 +11794,11 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="163" t="s">
+      <c r="A185" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="B185" s="164"/>
-      <c r="C185" s="165"/>
+      <c r="B185" s="156"/>
+      <c r="C185" s="157"/>
       <c r="D185" s="20">
         <v>1</v>
       </c>
@@ -11909,11 +11866,11 @@
       <c r="N187" s="102"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="169" t="s">
+      <c r="A188" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="B188" s="170"/>
-      <c r="C188" s="171"/>
+      <c r="B188" s="159"/>
+      <c r="C188" s="164"/>
       <c r="D188" s="32"/>
       <c r="E188" s="103"/>
       <c r="F188" s="104"/>
@@ -11927,10 +11884,10 @@
       <c r="N188" s="104"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="172" t="s">
+      <c r="A189" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="B189" s="158"/>
+      <c r="B189" s="161"/>
       <c r="C189" s="162"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5"/>
@@ -11945,11 +11902,11 @@
       <c r="N189" s="84"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="163" t="s">
+      <c r="A190" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="B190" s="164"/>
-      <c r="C190" s="165"/>
+      <c r="B190" s="156"/>
+      <c r="C190" s="157"/>
       <c r="D190" s="20">
         <v>1</v>
       </c>
@@ -11985,11 +11942,11 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="163" t="s">
+      <c r="A191" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="B191" s="164"/>
-      <c r="C191" s="165"/>
+      <c r="B191" s="156"/>
+      <c r="C191" s="157"/>
       <c r="D191" s="20">
         <v>1</v>
       </c>
@@ -12025,11 +11982,11 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="163" t="s">
+      <c r="A192" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="B192" s="164"/>
-      <c r="C192" s="165"/>
+      <c r="B192" s="156"/>
+      <c r="C192" s="157"/>
       <c r="D192" s="20"/>
       <c r="E192" s="6" t="s">
         <v>5</v>
@@ -12063,11 +12020,11 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="163" t="s">
+      <c r="A193" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="B193" s="164"/>
-      <c r="C193" s="165"/>
+      <c r="B193" s="156"/>
+      <c r="C193" s="157"/>
       <c r="D193" s="20"/>
       <c r="E193" s="6" t="s">
         <v>5</v>
@@ -12101,11 +12058,11 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="163" t="s">
+      <c r="A194" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="B194" s="164"/>
-      <c r="C194" s="165"/>
+      <c r="B194" s="156"/>
+      <c r="C194" s="157"/>
       <c r="D194" s="20"/>
       <c r="E194" s="6" t="s">
         <v>5</v>
@@ -12139,11 +12096,11 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="163" t="s">
+      <c r="A195" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="B195" s="164"/>
-      <c r="C195" s="165"/>
+      <c r="B195" s="156"/>
+      <c r="C195" s="157"/>
       <c r="D195" s="20"/>
       <c r="E195" s="6" t="s">
         <v>5</v>
@@ -12177,11 +12134,11 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="163" t="s">
+      <c r="A196" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="B196" s="164"/>
-      <c r="C196" s="165"/>
+      <c r="B196" s="156"/>
+      <c r="C196" s="157"/>
       <c r="D196" s="20"/>
       <c r="E196" s="6" t="s">
         <v>5</v>
@@ -12215,11 +12172,11 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="163" t="s">
+      <c r="A197" s="155" t="s">
         <v>235</v>
       </c>
-      <c r="B197" s="164"/>
-      <c r="C197" s="165"/>
+      <c r="B197" s="156"/>
+      <c r="C197" s="157"/>
       <c r="D197" s="20"/>
       <c r="E197" s="6" t="s">
         <v>5</v>
@@ -12253,11 +12210,11 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="163" t="s">
+      <c r="A198" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="B198" s="164"/>
-      <c r="C198" s="165"/>
+      <c r="B198" s="156"/>
+      <c r="C198" s="157"/>
       <c r="D198" s="20"/>
       <c r="E198" s="6" t="s">
         <v>5</v>
@@ -12291,11 +12248,11 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="163" t="s">
+      <c r="A199" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B199" s="164"/>
-      <c r="C199" s="165"/>
+      <c r="B199" s="156"/>
+      <c r="C199" s="157"/>
       <c r="D199" s="20"/>
       <c r="E199" s="6" t="s">
         <v>5</v>
@@ -12345,10 +12302,10 @@
       <c r="N200" s="97"/>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="172" t="s">
+      <c r="A201" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B201" s="158"/>
+      <c r="B201" s="161"/>
       <c r="C201" s="162"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5"/>
@@ -12363,11 +12320,11 @@
       <c r="N201" s="84"/>
     </row>
     <row r="202" spans="1:14">
-      <c r="A202" s="163" t="s">
+      <c r="A202" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="B202" s="164"/>
-      <c r="C202" s="165"/>
+      <c r="B202" s="156"/>
+      <c r="C202" s="157"/>
       <c r="D202" s="20">
         <v>1</v>
       </c>
@@ -12403,11 +12360,11 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="163" t="s">
+      <c r="A203" s="155" t="s">
         <v>240</v>
       </c>
-      <c r="B203" s="164"/>
-      <c r="C203" s="165"/>
+      <c r="B203" s="156"/>
+      <c r="C203" s="157"/>
       <c r="D203" s="20">
         <v>1</v>
       </c>
@@ -12443,11 +12400,11 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="163" t="s">
+      <c r="A204" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="B204" s="164"/>
-      <c r="C204" s="165"/>
+      <c r="B204" s="156"/>
+      <c r="C204" s="157"/>
       <c r="D204" s="20">
         <v>1</v>
       </c>
@@ -12483,11 +12440,11 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="163" t="s">
+      <c r="A205" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="B205" s="164"/>
-      <c r="C205" s="165"/>
+      <c r="B205" s="156"/>
+      <c r="C205" s="157"/>
       <c r="D205" s="20"/>
       <c r="E205" s="6" t="s">
         <v>5</v>
@@ -12521,11 +12478,11 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="163" t="s">
+      <c r="A206" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="B206" s="164"/>
-      <c r="C206" s="165"/>
+      <c r="B206" s="156"/>
+      <c r="C206" s="157"/>
       <c r="D206" s="20"/>
       <c r="E206" s="6" t="s">
         <v>5</v>
@@ -12559,11 +12516,11 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="163" t="s">
+      <c r="A207" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="B207" s="164"/>
-      <c r="C207" s="165"/>
+      <c r="B207" s="156"/>
+      <c r="C207" s="157"/>
       <c r="D207" s="20"/>
       <c r="E207" s="6" t="s">
         <v>5</v>
@@ -12597,11 +12554,11 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="163" t="s">
+      <c r="A208" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="B208" s="164"/>
-      <c r="C208" s="165"/>
+      <c r="B208" s="156"/>
+      <c r="C208" s="157"/>
       <c r="D208" s="20"/>
       <c r="E208" s="6" t="s">
         <v>5</v>
@@ -12635,11 +12592,11 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="163" t="s">
+      <c r="A209" s="155" t="s">
         <v>246</v>
       </c>
-      <c r="B209" s="164"/>
-      <c r="C209" s="165"/>
+      <c r="B209" s="156"/>
+      <c r="C209" s="157"/>
       <c r="D209" s="20"/>
       <c r="E209" s="6" t="s">
         <v>5</v>
@@ -12673,11 +12630,11 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="163" t="s">
+      <c r="A210" s="155" t="s">
         <v>247</v>
       </c>
-      <c r="B210" s="164"/>
-      <c r="C210" s="165"/>
+      <c r="B210" s="156"/>
+      <c r="C210" s="157"/>
       <c r="D210" s="20"/>
       <c r="E210" s="6" t="s">
         <v>5</v>
@@ -12727,10 +12684,10 @@
       <c r="N211" s="97"/>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="172" t="s">
+      <c r="A212" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="B212" s="158"/>
+      <c r="B212" s="161"/>
       <c r="C212" s="162"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5"/>
@@ -12745,11 +12702,11 @@
       <c r="N212" s="105"/>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="163" t="s">
+      <c r="A213" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="B213" s="164"/>
-      <c r="C213" s="165"/>
+      <c r="B213" s="156"/>
+      <c r="C213" s="157"/>
       <c r="D213" s="20">
         <v>1</v>
       </c>
@@ -12785,11 +12742,11 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="163" t="s">
+      <c r="A214" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="B214" s="164"/>
-      <c r="C214" s="165"/>
+      <c r="B214" s="156"/>
+      <c r="C214" s="157"/>
       <c r="D214" s="20">
         <v>1</v>
       </c>
@@ -12825,11 +12782,11 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="163" t="s">
+      <c r="A215" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="B215" s="164"/>
-      <c r="C215" s="165"/>
+      <c r="B215" s="156"/>
+      <c r="C215" s="157"/>
       <c r="D215" s="20">
         <v>1</v>
       </c>
@@ -12865,11 +12822,11 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="163" t="s">
+      <c r="A216" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="B216" s="164"/>
-      <c r="C216" s="165"/>
+      <c r="B216" s="156"/>
+      <c r="C216" s="157"/>
       <c r="D216" s="20">
         <v>1</v>
       </c>
@@ -12905,11 +12862,11 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="163" t="s">
+      <c r="A217" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="B217" s="164"/>
-      <c r="C217" s="165"/>
+      <c r="B217" s="156"/>
+      <c r="C217" s="157"/>
       <c r="D217" s="20"/>
       <c r="E217" s="6" t="s">
         <v>5</v>
@@ -12943,11 +12900,11 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="163" t="s">
+      <c r="A218" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="B218" s="164"/>
-      <c r="C218" s="165"/>
+      <c r="B218" s="156"/>
+      <c r="C218" s="157"/>
       <c r="D218" s="20"/>
       <c r="E218" s="6" t="s">
         <v>5</v>
@@ -12981,11 +12938,11 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="163" t="s">
+      <c r="A219" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="B219" s="164"/>
-      <c r="C219" s="165"/>
+      <c r="B219" s="156"/>
+      <c r="C219" s="157"/>
       <c r="D219" s="20"/>
       <c r="E219" s="6" t="s">
         <v>5</v>
@@ -13019,11 +12976,11 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="163" t="s">
+      <c r="A220" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="B220" s="164"/>
-      <c r="C220" s="165"/>
+      <c r="B220" s="156"/>
+      <c r="C220" s="157"/>
       <c r="D220" s="20"/>
       <c r="E220" s="6" t="s">
         <v>5</v>
@@ -13057,11 +13014,11 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="163" t="s">
+      <c r="A221" s="155" t="s">
         <v>257</v>
       </c>
-      <c r="B221" s="164"/>
-      <c r="C221" s="165"/>
+      <c r="B221" s="156"/>
+      <c r="C221" s="157"/>
       <c r="D221" s="20"/>
       <c r="E221" s="6" t="s">
         <v>5</v>
@@ -13095,11 +13052,11 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="163" t="s">
+      <c r="A222" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="B222" s="164"/>
-      <c r="C222" s="165"/>
+      <c r="B222" s="156"/>
+      <c r="C222" s="157"/>
       <c r="D222" s="20"/>
       <c r="E222" s="6" t="s">
         <v>5</v>
@@ -13149,10 +13106,10 @@
       <c r="N223" s="97"/>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="172" t="s">
+      <c r="A224" s="163" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="158"/>
+      <c r="B224" s="161"/>
       <c r="C224" s="162"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5"/>
@@ -13167,11 +13124,11 @@
       <c r="N224" s="84"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="163" t="s">
+      <c r="A225" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="164"/>
-      <c r="C225" s="165"/>
+      <c r="B225" s="156"/>
+      <c r="C225" s="157"/>
       <c r="D225" s="20">
         <v>1</v>
       </c>
@@ -13207,11 +13164,11 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="163" t="s">
+      <c r="A226" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="164"/>
-      <c r="C226" s="165"/>
+      <c r="B226" s="156"/>
+      <c r="C226" s="157"/>
       <c r="D226" s="20">
         <v>1</v>
       </c>
@@ -13247,11 +13204,11 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="163" t="s">
+      <c r="A227" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="164"/>
-      <c r="C227" s="165"/>
+      <c r="B227" s="156"/>
+      <c r="C227" s="157"/>
       <c r="D227" s="20"/>
       <c r="E227" s="6" t="s">
         <v>5</v>
@@ -13285,11 +13242,11 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="163" t="s">
+      <c r="A228" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="164"/>
-      <c r="C228" s="165"/>
+      <c r="B228" s="156"/>
+      <c r="C228" s="157"/>
       <c r="D228" s="20"/>
       <c r="E228" s="6" t="s">
         <v>5</v>
@@ -13323,11 +13280,11 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="163" t="s">
+      <c r="A229" s="155" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="164"/>
-      <c r="C229" s="165"/>
+      <c r="B229" s="156"/>
+      <c r="C229" s="157"/>
       <c r="D229" s="20"/>
       <c r="E229" s="6" t="s">
         <v>5</v>
@@ -13361,11 +13318,11 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="163" t="s">
+      <c r="A230" s="155" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="164"/>
-      <c r="C230" s="165"/>
+      <c r="B230" s="156"/>
+      <c r="C230" s="157"/>
       <c r="D230" s="20"/>
       <c r="E230" s="6" t="s">
         <v>5</v>
@@ -13399,11 +13356,11 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="163" t="s">
+      <c r="A231" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="164"/>
-      <c r="C231" s="165"/>
+      <c r="B231" s="156"/>
+      <c r="C231" s="157"/>
       <c r="D231" s="20"/>
       <c r="E231" s="6" t="s">
         <v>5</v>
@@ -13453,10 +13410,10 @@
       <c r="N232" s="97"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="172" t="s">
+      <c r="A233" s="163" t="s">
         <v>267</v>
       </c>
-      <c r="B233" s="158"/>
+      <c r="B233" s="161"/>
       <c r="C233" s="162"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5"/>
@@ -13471,11 +13428,11 @@
       <c r="N233" s="84"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="163" t="s">
+      <c r="A234" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="B234" s="164"/>
-      <c r="C234" s="165"/>
+      <c r="B234" s="156"/>
+      <c r="C234" s="157"/>
       <c r="D234" s="20"/>
       <c r="E234" s="6" t="s">
         <v>0</v>
@@ -13525,10 +13482,10 @@
       <c r="N235" s="107"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="157" t="s">
+      <c r="A236" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="B236" s="158"/>
+      <c r="B236" s="161"/>
       <c r="C236" s="162"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5"/>
@@ -13545,11 +13502,11 @@
       <c r="N236" s="84"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="163" t="s">
+      <c r="A237" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B237" s="164"/>
-      <c r="C237" s="165"/>
+      <c r="B237" s="156"/>
+      <c r="C237" s="157"/>
       <c r="D237" s="20"/>
       <c r="E237" s="6" t="s">
         <v>5</v>
@@ -13583,11 +13540,11 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="163" t="s">
+      <c r="A238" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="B238" s="164"/>
-      <c r="C238" s="165"/>
+      <c r="B238" s="156"/>
+      <c r="C238" s="157"/>
       <c r="D238" s="20"/>
       <c r="E238" s="6" t="s">
         <v>5</v>
@@ -13637,10 +13594,10 @@
       <c r="N239" s="97"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="157" t="s">
+      <c r="A240" s="160" t="s">
         <v>272</v>
       </c>
-      <c r="B240" s="158"/>
+      <c r="B240" s="161"/>
       <c r="C240" s="162"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5"/>
@@ -13655,11 +13612,11 @@
       <c r="N240" s="84"/>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="163" t="s">
+      <c r="A241" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="164"/>
-      <c r="C241" s="165"/>
+      <c r="B241" s="156"/>
+      <c r="C241" s="157"/>
       <c r="D241" s="20">
         <v>6</v>
       </c>
@@ -13695,11 +13652,11 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="163" t="s">
+      <c r="A242" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="B242" s="164"/>
-      <c r="C242" s="165"/>
+      <c r="B242" s="156"/>
+      <c r="C242" s="157"/>
       <c r="D242" s="20">
         <v>6</v>
       </c>
@@ -13735,11 +13692,11 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="163" t="s">
+      <c r="A243" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="B243" s="164"/>
-      <c r="C243" s="165"/>
+      <c r="B243" s="156"/>
+      <c r="C243" s="157"/>
       <c r="D243" s="20">
         <v>6</v>
       </c>
@@ -13775,11 +13732,11 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="163" t="s">
+      <c r="A244" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B244" s="164"/>
-      <c r="C244" s="165"/>
+      <c r="B244" s="156"/>
+      <c r="C244" s="157"/>
       <c r="D244" s="20">
         <v>6</v>
       </c>
@@ -13847,11 +13804,11 @@
       <c r="N246" s="109"/>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="169" t="s">
+      <c r="A247" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="B247" s="170"/>
-      <c r="C247" s="170"/>
+      <c r="B247" s="159"/>
+      <c r="C247" s="159"/>
       <c r="D247" s="33"/>
       <c r="E247" s="103"/>
       <c r="F247" s="104"/>
@@ -13865,10 +13822,10 @@
       <c r="N247" s="104"/>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="157" t="s">
+      <c r="A248" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="B248" s="158"/>
+      <c r="B248" s="161"/>
       <c r="C248" s="162"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5"/>
@@ -13883,11 +13840,11 @@
       <c r="N248" s="84"/>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="163" t="s">
+      <c r="A249" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="164"/>
-      <c r="C249" s="165"/>
+      <c r="B249" s="156"/>
+      <c r="C249" s="157"/>
       <c r="D249" s="20"/>
       <c r="E249" s="6" t="s">
         <v>5</v>
@@ -13921,11 +13878,11 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="163" t="s">
+      <c r="A250" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B250" s="164"/>
-      <c r="C250" s="165"/>
+      <c r="B250" s="156"/>
+      <c r="C250" s="157"/>
       <c r="D250" s="20"/>
       <c r="E250" s="6" t="s">
         <v>5</v>
@@ -13959,11 +13916,11 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="163" t="s">
+      <c r="A251" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B251" s="164"/>
-      <c r="C251" s="165"/>
+      <c r="B251" s="156"/>
+      <c r="C251" s="157"/>
       <c r="D251" s="20"/>
       <c r="E251" s="6" t="s">
         <v>5</v>
@@ -13997,11 +13954,11 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="163" t="s">
+      <c r="A252" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B252" s="164"/>
-      <c r="C252" s="165"/>
+      <c r="B252" s="156"/>
+      <c r="C252" s="157"/>
       <c r="D252" s="20"/>
       <c r="E252" s="6" t="s">
         <v>5</v>
@@ -14035,11 +13992,11 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="163" t="s">
+      <c r="A253" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="B253" s="164"/>
-      <c r="C253" s="165"/>
+      <c r="B253" s="156"/>
+      <c r="C253" s="157"/>
       <c r="D253" s="20"/>
       <c r="E253" s="6" t="s">
         <v>5</v>
@@ -14073,11 +14030,11 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="163" t="s">
+      <c r="A254" s="155" t="s">
         <v>278</v>
       </c>
-      <c r="B254" s="164"/>
-      <c r="C254" s="165"/>
+      <c r="B254" s="156"/>
+      <c r="C254" s="157"/>
       <c r="D254" s="20"/>
       <c r="E254" s="6" t="s">
         <v>5</v>
@@ -14187,11 +14144,11 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="163" t="s">
+      <c r="A257" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="164"/>
-      <c r="C257" s="165"/>
+      <c r="B257" s="156"/>
+      <c r="C257" s="157"/>
       <c r="D257" s="20"/>
       <c r="E257" s="6" t="s">
         <v>5</v>
@@ -14225,11 +14182,11 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="163" t="s">
+      <c r="A258" s="155" t="s">
         <v>281</v>
       </c>
-      <c r="B258" s="164"/>
-      <c r="C258" s="165"/>
+      <c r="B258" s="156"/>
+      <c r="C258" s="157"/>
       <c r="D258" s="20"/>
       <c r="E258" s="6" t="s">
         <v>5</v>
@@ -14263,11 +14220,11 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="163" t="s">
+      <c r="A259" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="B259" s="164"/>
-      <c r="C259" s="165"/>
+      <c r="B259" s="156"/>
+      <c r="C259" s="157"/>
       <c r="D259" s="20"/>
       <c r="E259" s="6" t="s">
         <v>5</v>
@@ -14301,11 +14258,11 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="163" t="s">
+      <c r="A260" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B260" s="164"/>
-      <c r="C260" s="165"/>
+      <c r="B260" s="156"/>
+      <c r="C260" s="157"/>
       <c r="D260" s="20"/>
       <c r="E260" s="6" t="s">
         <v>5</v>
@@ -14339,11 +14296,11 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="163" t="s">
+      <c r="A261" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B261" s="164"/>
-      <c r="C261" s="165"/>
+      <c r="B261" s="156"/>
+      <c r="C261" s="157"/>
       <c r="D261" s="20"/>
       <c r="E261" s="6" t="s">
         <v>5</v>
@@ -14409,9 +14366,9 @@
       <c r="N263" s="109"/>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="169"/>
-      <c r="B264" s="170"/>
-      <c r="C264" s="170"/>
+      <c r="A264" s="158"/>
+      <c r="B264" s="159"/>
+      <c r="C264" s="159"/>
       <c r="D264" s="33"/>
       <c r="E264" s="103"/>
       <c r="F264" s="104"/>
@@ -14425,8 +14382,8 @@
       <c r="N264" s="104"/>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="157"/>
-      <c r="B265" s="158"/>
+      <c r="A265" s="160"/>
+      <c r="B265" s="161"/>
       <c r="C265" s="162"/>
       <c r="D265" s="4"/>
       <c r="E265" s="5"/>
@@ -14441,9 +14398,9 @@
       <c r="N265" s="84"/>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="163"/>
-      <c r="B266" s="164"/>
-      <c r="C266" s="165"/>
+      <c r="A266" s="155"/>
+      <c r="B266" s="156"/>
+      <c r="C266" s="157"/>
       <c r="D266" s="20"/>
       <c r="E266" s="6"/>
       <c r="F266" s="95"/>
@@ -14457,9 +14414,9 @@
       <c r="N266" s="95"/>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="163"/>
-      <c r="B267" s="164"/>
-      <c r="C267" s="165"/>
+      <c r="A267" s="155"/>
+      <c r="B267" s="156"/>
+      <c r="C267" s="157"/>
       <c r="D267" s="20"/>
       <c r="E267" s="6"/>
       <c r="F267" s="95"/>
@@ -14473,9 +14430,9 @@
       <c r="N267" s="95"/>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="163"/>
-      <c r="B268" s="164"/>
-      <c r="C268" s="165"/>
+      <c r="A268" s="155"/>
+      <c r="B268" s="156"/>
+      <c r="C268" s="157"/>
       <c r="D268" s="20"/>
       <c r="E268" s="6"/>
       <c r="F268" s="95"/>
@@ -14489,9 +14446,9 @@
       <c r="N268" s="95"/>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="163"/>
-      <c r="B269" s="164"/>
-      <c r="C269" s="165"/>
+      <c r="A269" s="155"/>
+      <c r="B269" s="156"/>
+      <c r="C269" s="157"/>
       <c r="D269" s="20"/>
       <c r="E269" s="6"/>
       <c r="F269" s="95"/>
@@ -14505,9 +14462,9 @@
       <c r="N269" s="95"/>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="163"/>
-      <c r="B270" s="164"/>
-      <c r="C270" s="165"/>
+      <c r="A270" s="155"/>
+      <c r="B270" s="156"/>
+      <c r="C270" s="157"/>
       <c r="D270" s="20"/>
       <c r="E270" s="6"/>
       <c r="F270" s="95"/>
@@ -14521,9 +14478,9 @@
       <c r="N270" s="95"/>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="163"/>
-      <c r="B271" s="164"/>
-      <c r="C271" s="165"/>
+      <c r="A271" s="155"/>
+      <c r="B271" s="156"/>
+      <c r="C271" s="157"/>
       <c r="D271" s="20"/>
       <c r="E271" s="6"/>
       <c r="F271" s="95"/>
@@ -14569,11 +14526,11 @@
       <c r="N273" s="109"/>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="169" t="s">
+      <c r="A274" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="B274" s="170"/>
-      <c r="C274" s="170"/>
+      <c r="B274" s="159"/>
+      <c r="C274" s="159"/>
       <c r="D274" s="33"/>
       <c r="E274" s="103"/>
       <c r="F274" s="104"/>
@@ -14587,10 +14544,10 @@
       <c r="N274" s="104"/>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="157" t="s">
+      <c r="A275" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="B275" s="158"/>
+      <c r="B275" s="161"/>
       <c r="C275" s="162"/>
       <c r="D275" s="4"/>
       <c r="E275" s="5"/>
@@ -14605,11 +14562,11 @@
       <c r="N275" s="84"/>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="163" t="s">
+      <c r="A276" s="155" t="s">
         <v>284</v>
       </c>
-      <c r="B276" s="164"/>
-      <c r="C276" s="165"/>
+      <c r="B276" s="156"/>
+      <c r="C276" s="157"/>
       <c r="D276" s="20">
         <v>1</v>
       </c>
@@ -14645,11 +14602,11 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="163" t="s">
+      <c r="A277" s="155" t="s">
         <v>285</v>
       </c>
-      <c r="B277" s="164"/>
-      <c r="C277" s="165"/>
+      <c r="B277" s="156"/>
+      <c r="C277" s="157"/>
       <c r="D277" s="20">
         <v>2</v>
       </c>
@@ -14685,11 +14642,11 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="163" t="s">
+      <c r="A278" s="155" t="s">
         <v>286</v>
       </c>
-      <c r="B278" s="164"/>
-      <c r="C278" s="165"/>
+      <c r="B278" s="156"/>
+      <c r="C278" s="157"/>
       <c r="D278" s="20">
         <v>3</v>
       </c>
@@ -14725,11 +14682,11 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="163" t="s">
+      <c r="A279" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="B279" s="164"/>
-      <c r="C279" s="165"/>
+      <c r="B279" s="156"/>
+      <c r="C279" s="157"/>
       <c r="D279" s="20">
         <v>6</v>
       </c>
@@ -14765,11 +14722,11 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="163" t="s">
+      <c r="A280" s="155" t="s">
         <v>630</v>
       </c>
-      <c r="B280" s="164"/>
-      <c r="C280" s="165"/>
+      <c r="B280" s="156"/>
+      <c r="C280" s="157"/>
       <c r="D280" s="20">
         <v>1</v>
       </c>
@@ -14805,11 +14762,11 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="163" t="s">
+      <c r="A281" s="155" t="s">
         <v>631</v>
       </c>
-      <c r="B281" s="164"/>
-      <c r="C281" s="165"/>
+      <c r="B281" s="156"/>
+      <c r="C281" s="157"/>
       <c r="D281" s="20">
         <v>2</v>
       </c>
@@ -14845,11 +14802,11 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="163" t="s">
+      <c r="A282" s="155" t="s">
         <v>632</v>
       </c>
-      <c r="B282" s="164"/>
-      <c r="C282" s="165"/>
+      <c r="B282" s="156"/>
+      <c r="C282" s="157"/>
       <c r="D282" s="20">
         <v>3</v>
       </c>
@@ -14885,11 +14842,11 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="163" t="s">
+      <c r="A283" s="155" t="s">
         <v>633</v>
       </c>
-      <c r="B283" s="164"/>
-      <c r="C283" s="165"/>
+      <c r="B283" s="156"/>
+      <c r="C283" s="157"/>
       <c r="D283" s="20">
         <v>6</v>
       </c>
@@ -14925,11 +14882,11 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="163" t="s">
+      <c r="A284" s="155" t="s">
         <v>288</v>
       </c>
-      <c r="B284" s="164"/>
-      <c r="C284" s="165"/>
+      <c r="B284" s="156"/>
+      <c r="C284" s="157"/>
       <c r="D284" s="20">
         <v>1</v>
       </c>
@@ -14965,11 +14922,11 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="163" t="s">
+      <c r="A285" s="155" t="s">
         <v>289</v>
       </c>
-      <c r="B285" s="164"/>
-      <c r="C285" s="165"/>
+      <c r="B285" s="156"/>
+      <c r="C285" s="157"/>
       <c r="D285" s="20">
         <v>2</v>
       </c>
@@ -15005,11 +14962,11 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="163" t="s">
+      <c r="A286" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="B286" s="164"/>
-      <c r="C286" s="165"/>
+      <c r="B286" s="156"/>
+      <c r="C286" s="157"/>
       <c r="D286" s="20">
         <v>3</v>
       </c>
@@ -15045,11 +15002,11 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="163" t="s">
+      <c r="A287" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="B287" s="164"/>
-      <c r="C287" s="165"/>
+      <c r="B287" s="156"/>
+      <c r="C287" s="157"/>
       <c r="D287" s="20">
         <v>6</v>
       </c>
@@ -15085,11 +15042,11 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="163" t="s">
+      <c r="A288" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="B288" s="164"/>
-      <c r="C288" s="165"/>
+      <c r="B288" s="156"/>
+      <c r="C288" s="157"/>
       <c r="D288" s="20">
         <v>1</v>
       </c>
@@ -15125,11 +15082,11 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="163" t="s">
+      <c r="A289" s="155" t="s">
         <v>293</v>
       </c>
-      <c r="B289" s="164"/>
-      <c r="C289" s="165"/>
+      <c r="B289" s="156"/>
+      <c r="C289" s="157"/>
       <c r="D289" s="20">
         <v>2</v>
       </c>
@@ -15165,11 +15122,11 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="163" t="s">
+      <c r="A290" s="155" t="s">
         <v>294</v>
       </c>
-      <c r="B290" s="164"/>
-      <c r="C290" s="165"/>
+      <c r="B290" s="156"/>
+      <c r="C290" s="157"/>
       <c r="D290" s="20">
         <v>3</v>
       </c>
@@ -15205,11 +15162,11 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="163" t="s">
+      <c r="A291" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="B291" s="164"/>
-      <c r="C291" s="165"/>
+      <c r="B291" s="156"/>
+      <c r="C291" s="157"/>
       <c r="D291" s="20">
         <v>6</v>
       </c>
@@ -15245,11 +15202,11 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="163" t="s">
+      <c r="A292" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="B292" s="164"/>
-      <c r="C292" s="165"/>
+      <c r="B292" s="156"/>
+      <c r="C292" s="157"/>
       <c r="D292" s="20">
         <v>1</v>
       </c>
@@ -15285,11 +15242,11 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="163" t="s">
+      <c r="A293" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="B293" s="164"/>
-      <c r="C293" s="165"/>
+      <c r="B293" s="156"/>
+      <c r="C293" s="157"/>
       <c r="D293" s="20">
         <v>2</v>
       </c>
@@ -15325,11 +15282,11 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="163" t="s">
+      <c r="A294" s="155" t="s">
         <v>298</v>
       </c>
-      <c r="B294" s="164"/>
-      <c r="C294" s="165"/>
+      <c r="B294" s="156"/>
+      <c r="C294" s="157"/>
       <c r="D294" s="20">
         <v>3</v>
       </c>
@@ -15365,11 +15322,11 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="163" t="s">
+      <c r="A295" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="B295" s="164"/>
-      <c r="C295" s="165"/>
+      <c r="B295" s="156"/>
+      <c r="C295" s="157"/>
       <c r="D295" s="20">
         <v>6</v>
       </c>
@@ -15405,11 +15362,11 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="163" t="s">
+      <c r="A296" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="B296" s="164"/>
-      <c r="C296" s="165"/>
+      <c r="B296" s="156"/>
+      <c r="C296" s="157"/>
       <c r="D296" s="20">
         <v>1</v>
       </c>
@@ -15445,11 +15402,11 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="163" t="s">
+      <c r="A297" s="155" t="s">
         <v>634</v>
       </c>
-      <c r="B297" s="164"/>
-      <c r="C297" s="165"/>
+      <c r="B297" s="156"/>
+      <c r="C297" s="157"/>
       <c r="D297" s="20">
         <v>2</v>
       </c>
@@ -15485,11 +15442,11 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="163" t="s">
+      <c r="A298" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="B298" s="164"/>
-      <c r="C298" s="165"/>
+      <c r="B298" s="156"/>
+      <c r="C298" s="157"/>
       <c r="D298" s="20">
         <v>3</v>
       </c>
@@ -15525,11 +15482,11 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="163" t="s">
+      <c r="A299" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="B299" s="164"/>
-      <c r="C299" s="165"/>
+      <c r="B299" s="156"/>
+      <c r="C299" s="157"/>
       <c r="D299" s="20">
         <v>6</v>
       </c>
@@ -15565,11 +15522,11 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="163" t="s">
+      <c r="A300" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="B300" s="164"/>
-      <c r="C300" s="165"/>
+      <c r="B300" s="156"/>
+      <c r="C300" s="157"/>
       <c r="D300" s="20">
         <v>1</v>
       </c>
@@ -15605,11 +15562,11 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="163" t="s">
+      <c r="A301" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="B301" s="164"/>
-      <c r="C301" s="165"/>
+      <c r="B301" s="156"/>
+      <c r="C301" s="157"/>
       <c r="D301" s="20">
         <v>2</v>
       </c>
@@ -15645,11 +15602,11 @@
       </c>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="163" t="s">
+      <c r="A302" s="155" t="s">
         <v>305</v>
       </c>
-      <c r="B302" s="164"/>
-      <c r="C302" s="165"/>
+      <c r="B302" s="156"/>
+      <c r="C302" s="157"/>
       <c r="D302" s="20">
         <v>3</v>
       </c>
@@ -15685,11 +15642,11 @@
       </c>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="163" t="s">
+      <c r="A303" s="155" t="s">
         <v>635</v>
       </c>
-      <c r="B303" s="164"/>
-      <c r="C303" s="165"/>
+      <c r="B303" s="156"/>
+      <c r="C303" s="157"/>
       <c r="D303" s="20">
         <v>6</v>
       </c>
@@ -15725,11 +15682,11 @@
       </c>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="163" t="s">
+      <c r="A304" s="155" t="s">
         <v>306</v>
       </c>
-      <c r="B304" s="164"/>
-      <c r="C304" s="165"/>
+      <c r="B304" s="156"/>
+      <c r="C304" s="157"/>
       <c r="D304" s="20">
         <v>1</v>
       </c>
@@ -15765,11 +15722,11 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="163" t="s">
+      <c r="A305" s="155" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="164"/>
-      <c r="C305" s="165"/>
+      <c r="B305" s="156"/>
+      <c r="C305" s="157"/>
       <c r="D305" s="20">
         <v>2</v>
       </c>
@@ -15805,11 +15762,11 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="163" t="s">
+      <c r="A306" s="155" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="164"/>
-      <c r="C306" s="165"/>
+      <c r="B306" s="156"/>
+      <c r="C306" s="157"/>
       <c r="D306" s="20">
         <v>3</v>
       </c>
@@ -15845,11 +15802,11 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="163" t="s">
+      <c r="A307" s="155" t="s">
         <v>309</v>
       </c>
-      <c r="B307" s="164"/>
-      <c r="C307" s="165"/>
+      <c r="B307" s="156"/>
+      <c r="C307" s="157"/>
       <c r="D307" s="20">
         <v>6</v>
       </c>
@@ -15885,11 +15842,11 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="163" t="s">
+      <c r="A308" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="164"/>
-      <c r="C308" s="165"/>
+      <c r="B308" s="156"/>
+      <c r="C308" s="157"/>
       <c r="D308" s="20">
         <v>1</v>
       </c>
@@ -15925,11 +15882,11 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="163" t="s">
+      <c r="A309" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="B309" s="164"/>
-      <c r="C309" s="165"/>
+      <c r="B309" s="156"/>
+      <c r="C309" s="157"/>
       <c r="D309" s="20">
         <v>2</v>
       </c>
@@ -15965,11 +15922,11 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="163" t="s">
+      <c r="A310" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="164"/>
-      <c r="C310" s="165"/>
+      <c r="B310" s="156"/>
+      <c r="C310" s="157"/>
       <c r="D310" s="20">
         <v>3</v>
       </c>
@@ -16005,11 +15962,11 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="163" t="s">
+      <c r="A311" s="155" t="s">
         <v>313</v>
       </c>
-      <c r="B311" s="164"/>
-      <c r="C311" s="165"/>
+      <c r="B311" s="156"/>
+      <c r="C311" s="157"/>
       <c r="D311" s="20">
         <v>6</v>
       </c>
@@ -16045,11 +16002,11 @@
       </c>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="163" t="s">
+      <c r="A312" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="B312" s="164"/>
-      <c r="C312" s="165"/>
+      <c r="B312" s="156"/>
+      <c r="C312" s="157"/>
       <c r="D312" s="20">
         <v>1</v>
       </c>
@@ -16085,11 +16042,11 @@
       </c>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="163" t="s">
+      <c r="A313" s="155" t="s">
         <v>315</v>
       </c>
-      <c r="B313" s="164"/>
-      <c r="C313" s="165"/>
+      <c r="B313" s="156"/>
+      <c r="C313" s="157"/>
       <c r="D313" s="20">
         <v>2</v>
       </c>
@@ -16125,11 +16082,11 @@
       </c>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="163" t="s">
+      <c r="A314" s="155" t="s">
         <v>316</v>
       </c>
-      <c r="B314" s="164"/>
-      <c r="C314" s="165"/>
+      <c r="B314" s="156"/>
+      <c r="C314" s="157"/>
       <c r="D314" s="20">
         <v>3</v>
       </c>
@@ -16165,11 +16122,11 @@
       </c>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="163" t="s">
+      <c r="A315" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="164"/>
-      <c r="C315" s="165"/>
+      <c r="B315" s="156"/>
+      <c r="C315" s="157"/>
       <c r="D315" s="20">
         <v>6</v>
       </c>
@@ -16205,11 +16162,11 @@
       </c>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="163" t="s">
+      <c r="A316" s="155" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="164"/>
-      <c r="C316" s="165"/>
+      <c r="B316" s="156"/>
+      <c r="C316" s="157"/>
       <c r="D316" s="20">
         <v>1</v>
       </c>
@@ -16245,11 +16202,11 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="163" t="s">
+      <c r="A317" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="164"/>
-      <c r="C317" s="165"/>
+      <c r="B317" s="156"/>
+      <c r="C317" s="157"/>
       <c r="D317" s="20">
         <v>2</v>
       </c>
@@ -16285,11 +16242,11 @@
       </c>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="163" t="s">
+      <c r="A318" s="155" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="164"/>
-      <c r="C318" s="165"/>
+      <c r="B318" s="156"/>
+      <c r="C318" s="157"/>
       <c r="D318" s="20">
         <v>3</v>
       </c>
@@ -16325,11 +16282,11 @@
       </c>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="163" t="s">
+      <c r="A319" s="155" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="164"/>
-      <c r="C319" s="165"/>
+      <c r="B319" s="156"/>
+      <c r="C319" s="157"/>
       <c r="D319" s="20">
         <v>6</v>
       </c>
@@ -16365,11 +16322,11 @@
       </c>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="163" t="s">
+      <c r="A320" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="B320" s="164"/>
-      <c r="C320" s="165"/>
+      <c r="B320" s="156"/>
+      <c r="C320" s="157"/>
       <c r="D320" s="20">
         <v>1</v>
       </c>
@@ -16405,11 +16362,11 @@
       </c>
     </row>
     <row r="321" spans="1:14">
-      <c r="A321" s="163" t="s">
+      <c r="A321" s="155" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="164"/>
-      <c r="C321" s="165"/>
+      <c r="B321" s="156"/>
+      <c r="C321" s="157"/>
       <c r="D321" s="20">
         <v>2</v>
       </c>
@@ -16445,11 +16402,11 @@
       </c>
     </row>
     <row r="322" spans="1:14">
-      <c r="A322" s="163" t="s">
+      <c r="A322" s="155" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="164"/>
-      <c r="C322" s="165"/>
+      <c r="B322" s="156"/>
+      <c r="C322" s="157"/>
       <c r="D322" s="20">
         <v>3</v>
       </c>
@@ -16485,11 +16442,11 @@
       </c>
     </row>
     <row r="323" spans="1:14">
-      <c r="A323" s="163" t="s">
+      <c r="A323" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="164"/>
-      <c r="C323" s="165"/>
+      <c r="B323" s="156"/>
+      <c r="C323" s="157"/>
       <c r="D323" s="20">
         <v>6</v>
       </c>
@@ -16525,11 +16482,11 @@
       </c>
     </row>
     <row r="324" spans="1:14">
-      <c r="A324" s="163" t="s">
+      <c r="A324" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="164"/>
-      <c r="C324" s="165"/>
+      <c r="B324" s="156"/>
+      <c r="C324" s="157"/>
       <c r="D324" s="20">
         <v>1</v>
       </c>
@@ -16565,11 +16522,11 @@
       </c>
     </row>
     <row r="325" spans="1:14">
-      <c r="A325" s="163" t="s">
+      <c r="A325" s="155" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="164"/>
-      <c r="C325" s="165"/>
+      <c r="B325" s="156"/>
+      <c r="C325" s="157"/>
       <c r="D325" s="20">
         <v>2</v>
       </c>
@@ -16605,11 +16562,11 @@
       </c>
     </row>
     <row r="326" spans="1:14">
-      <c r="A326" s="163" t="s">
+      <c r="A326" s="155" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="164"/>
-      <c r="C326" s="165"/>
+      <c r="B326" s="156"/>
+      <c r="C326" s="157"/>
       <c r="D326" s="20">
         <v>3</v>
       </c>
@@ -16645,11 +16602,11 @@
       </c>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="163" t="s">
+      <c r="A327" s="155" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="164"/>
-      <c r="C327" s="165"/>
+      <c r="B327" s="156"/>
+      <c r="C327" s="157"/>
       <c r="D327" s="20">
         <v>6</v>
       </c>
@@ -16685,11 +16642,11 @@
       </c>
     </row>
     <row r="328" spans="1:14">
-      <c r="A328" s="163" t="s">
+      <c r="A328" s="155" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="164"/>
-      <c r="C328" s="165"/>
+      <c r="B328" s="156"/>
+      <c r="C328" s="157"/>
       <c r="D328" s="20">
         <v>1</v>
       </c>
@@ -16725,11 +16682,11 @@
       </c>
     </row>
     <row r="329" spans="1:14">
-      <c r="A329" s="163" t="s">
+      <c r="A329" s="155" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="164"/>
-      <c r="C329" s="165"/>
+      <c r="B329" s="156"/>
+      <c r="C329" s="157"/>
       <c r="D329" s="20">
         <v>2</v>
       </c>
@@ -16765,11 +16722,11 @@
       </c>
     </row>
     <row r="330" spans="1:14">
-      <c r="A330" s="163" t="s">
+      <c r="A330" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="164"/>
-      <c r="C330" s="165"/>
+      <c r="B330" s="156"/>
+      <c r="C330" s="157"/>
       <c r="D330" s="20">
         <v>3</v>
       </c>
@@ -16805,11 +16762,11 @@
       </c>
     </row>
     <row r="331" spans="1:14">
-      <c r="A331" s="163" t="s">
+      <c r="A331" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="164"/>
-      <c r="C331" s="165"/>
+      <c r="B331" s="156"/>
+      <c r="C331" s="157"/>
       <c r="D331" s="20">
         <v>6</v>
       </c>
@@ -16845,11 +16802,11 @@
       </c>
     </row>
     <row r="332" spans="1:14">
-      <c r="A332" s="163" t="s">
+      <c r="A332" s="155" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="164"/>
-      <c r="C332" s="165"/>
+      <c r="B332" s="156"/>
+      <c r="C332" s="157"/>
       <c r="D332" s="20">
         <v>1</v>
       </c>
@@ -16885,11 +16842,11 @@
       </c>
     </row>
     <row r="333" spans="1:14">
-      <c r="A333" s="163" t="s">
+      <c r="A333" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="B333" s="164"/>
-      <c r="C333" s="165"/>
+      <c r="B333" s="156"/>
+      <c r="C333" s="157"/>
       <c r="D333" s="20">
         <v>2</v>
       </c>
@@ -16925,11 +16882,11 @@
       </c>
     </row>
     <row r="334" spans="1:14">
-      <c r="A334" s="163" t="s">
+      <c r="A334" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="B334" s="164"/>
-      <c r="C334" s="165"/>
+      <c r="B334" s="156"/>
+      <c r="C334" s="157"/>
       <c r="D334" s="20">
         <v>3</v>
       </c>
@@ -16965,11 +16922,11 @@
       </c>
     </row>
     <row r="335" spans="1:14">
-      <c r="A335" s="163" t="s">
+      <c r="A335" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="B335" s="164"/>
-      <c r="C335" s="165"/>
+      <c r="B335" s="156"/>
+      <c r="C335" s="157"/>
       <c r="D335" s="20">
         <v>6</v>
       </c>
@@ -17005,11 +16962,11 @@
       </c>
     </row>
     <row r="336" spans="1:14">
-      <c r="A336" s="163" t="s">
+      <c r="A336" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="164"/>
-      <c r="C336" s="165"/>
+      <c r="B336" s="156"/>
+      <c r="C336" s="157"/>
       <c r="D336" s="20">
         <v>1</v>
       </c>
@@ -17045,11 +17002,11 @@
       </c>
     </row>
     <row r="337" spans="1:14">
-      <c r="A337" s="163" t="s">
+      <c r="A337" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="164"/>
-      <c r="C337" s="165"/>
+      <c r="B337" s="156"/>
+      <c r="C337" s="157"/>
       <c r="D337" s="20">
         <v>2</v>
       </c>
@@ -17085,11 +17042,11 @@
       </c>
     </row>
     <row r="338" spans="1:14">
-      <c r="A338" s="163" t="s">
+      <c r="A338" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="B338" s="164"/>
-      <c r="C338" s="165"/>
+      <c r="B338" s="156"/>
+      <c r="C338" s="157"/>
       <c r="D338" s="20">
         <v>3</v>
       </c>
@@ -17125,11 +17082,11 @@
       </c>
     </row>
     <row r="339" spans="1:14">
-      <c r="A339" s="163" t="s">
+      <c r="A339" s="155" t="s">
         <v>341</v>
       </c>
-      <c r="B339" s="164"/>
-      <c r="C339" s="165"/>
+      <c r="B339" s="156"/>
+      <c r="C339" s="157"/>
       <c r="D339" s="20">
         <v>6</v>
       </c>
@@ -17165,11 +17122,11 @@
       </c>
     </row>
     <row r="340" spans="1:14">
-      <c r="A340" s="163" t="s">
+      <c r="A340" s="155" t="s">
         <v>342</v>
       </c>
-      <c r="B340" s="164"/>
-      <c r="C340" s="165"/>
+      <c r="B340" s="156"/>
+      <c r="C340" s="157"/>
       <c r="D340" s="20">
         <v>1</v>
       </c>
@@ -17205,11 +17162,11 @@
       </c>
     </row>
     <row r="341" spans="1:14">
-      <c r="A341" s="163" t="s">
+      <c r="A341" s="155" t="s">
         <v>343</v>
       </c>
-      <c r="B341" s="164"/>
-      <c r="C341" s="165"/>
+      <c r="B341" s="156"/>
+      <c r="C341" s="157"/>
       <c r="D341" s="20">
         <v>2</v>
       </c>
@@ -17245,11 +17202,11 @@
       </c>
     </row>
     <row r="342" spans="1:14">
-      <c r="A342" s="163" t="s">
+      <c r="A342" s="155" t="s">
         <v>344</v>
       </c>
-      <c r="B342" s="164"/>
-      <c r="C342" s="165"/>
+      <c r="B342" s="156"/>
+      <c r="C342" s="157"/>
       <c r="D342" s="20">
         <v>3</v>
       </c>
@@ -17285,11 +17242,11 @@
       </c>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="163" t="s">
+      <c r="A343" s="155" t="s">
         <v>345</v>
       </c>
-      <c r="B343" s="164"/>
-      <c r="C343" s="165"/>
+      <c r="B343" s="156"/>
+      <c r="C343" s="157"/>
       <c r="D343" s="20">
         <v>6</v>
       </c>
@@ -17325,11 +17282,11 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="163" t="s">
+      <c r="A344" s="155" t="s">
         <v>346</v>
       </c>
-      <c r="B344" s="164"/>
-      <c r="C344" s="165"/>
+      <c r="B344" s="156"/>
+      <c r="C344" s="157"/>
       <c r="D344" s="20">
         <v>1</v>
       </c>
@@ -17365,11 +17322,11 @@
       </c>
     </row>
     <row r="345" spans="1:14">
-      <c r="A345" s="163" t="s">
+      <c r="A345" s="155" t="s">
         <v>347</v>
       </c>
-      <c r="B345" s="164"/>
-      <c r="C345" s="165"/>
+      <c r="B345" s="156"/>
+      <c r="C345" s="157"/>
       <c r="D345" s="20">
         <v>2</v>
       </c>
@@ -17405,11 +17362,11 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="163" t="s">
+      <c r="A346" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="B346" s="164"/>
-      <c r="C346" s="165"/>
+      <c r="B346" s="156"/>
+      <c r="C346" s="157"/>
       <c r="D346" s="20">
         <v>3</v>
       </c>
@@ -17445,11 +17402,11 @@
       </c>
     </row>
     <row r="347" spans="1:14">
-      <c r="A347" s="163" t="s">
+      <c r="A347" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="B347" s="164"/>
-      <c r="C347" s="165"/>
+      <c r="B347" s="156"/>
+      <c r="C347" s="157"/>
       <c r="D347" s="20">
         <v>6</v>
       </c>
@@ -17485,11 +17442,11 @@
       </c>
     </row>
     <row r="348" spans="1:14">
-      <c r="A348" s="163" t="s">
+      <c r="A348" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="B348" s="164"/>
-      <c r="C348" s="165"/>
+      <c r="B348" s="156"/>
+      <c r="C348" s="157"/>
       <c r="D348" s="20">
         <v>1</v>
       </c>
@@ -17525,11 +17482,11 @@
       </c>
     </row>
     <row r="349" spans="1:14">
-      <c r="A349" s="163" t="s">
+      <c r="A349" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="B349" s="164"/>
-      <c r="C349" s="165"/>
+      <c r="B349" s="156"/>
+      <c r="C349" s="157"/>
       <c r="D349" s="20">
         <v>2</v>
       </c>
@@ -17565,11 +17522,11 @@
       </c>
     </row>
     <row r="350" spans="1:14">
-      <c r="A350" s="163" t="s">
+      <c r="A350" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="B350" s="164"/>
-      <c r="C350" s="165"/>
+      <c r="B350" s="156"/>
+      <c r="C350" s="157"/>
       <c r="D350" s="20">
         <v>3</v>
       </c>
@@ -17605,11 +17562,11 @@
       </c>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="163" t="s">
+      <c r="A351" s="155" t="s">
         <v>353</v>
       </c>
-      <c r="B351" s="164"/>
-      <c r="C351" s="165"/>
+      <c r="B351" s="156"/>
+      <c r="C351" s="157"/>
       <c r="D351" s="20">
         <v>6</v>
       </c>
@@ -17645,11 +17602,11 @@
       </c>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352" s="163" t="s">
+      <c r="A352" s="155" t="s">
         <v>354</v>
       </c>
-      <c r="B352" s="164"/>
-      <c r="C352" s="165"/>
+      <c r="B352" s="156"/>
+      <c r="C352" s="157"/>
       <c r="D352" s="20">
         <v>1</v>
       </c>
@@ -17685,11 +17642,11 @@
       </c>
     </row>
     <row r="353" spans="1:14">
-      <c r="A353" s="163" t="s">
+      <c r="A353" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="B353" s="164"/>
-      <c r="C353" s="165"/>
+      <c r="B353" s="156"/>
+      <c r="C353" s="157"/>
       <c r="D353" s="20">
         <v>2</v>
       </c>
@@ -17725,11 +17682,11 @@
       </c>
     </row>
     <row r="354" spans="1:14">
-      <c r="A354" s="163" t="s">
+      <c r="A354" s="155" t="s">
         <v>356</v>
       </c>
-      <c r="B354" s="164"/>
-      <c r="C354" s="165"/>
+      <c r="B354" s="156"/>
+      <c r="C354" s="157"/>
       <c r="D354" s="20">
         <v>3</v>
       </c>
@@ -17765,11 +17722,11 @@
       </c>
     </row>
     <row r="355" spans="1:14">
-      <c r="A355" s="163" t="s">
+      <c r="A355" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="B355" s="164"/>
-      <c r="C355" s="165"/>
+      <c r="B355" s="156"/>
+      <c r="C355" s="157"/>
       <c r="D355" s="20">
         <v>6</v>
       </c>
@@ -17805,11 +17762,11 @@
       </c>
     </row>
     <row r="356" spans="1:14">
-      <c r="A356" s="163" t="s">
+      <c r="A356" s="155" t="s">
         <v>358</v>
       </c>
-      <c r="B356" s="164"/>
-      <c r="C356" s="165"/>
+      <c r="B356" s="156"/>
+      <c r="C356" s="157"/>
       <c r="D356" s="20">
         <v>1</v>
       </c>
@@ -17845,11 +17802,11 @@
       </c>
     </row>
     <row r="357" spans="1:14">
-      <c r="A357" s="163" t="s">
+      <c r="A357" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="B357" s="164"/>
-      <c r="C357" s="165"/>
+      <c r="B357" s="156"/>
+      <c r="C357" s="157"/>
       <c r="D357" s="20">
         <v>2</v>
       </c>
@@ -17885,11 +17842,11 @@
       </c>
     </row>
     <row r="358" spans="1:14">
-      <c r="A358" s="163" t="s">
+      <c r="A358" s="155" t="s">
         <v>360</v>
       </c>
-      <c r="B358" s="164"/>
-      <c r="C358" s="165"/>
+      <c r="B358" s="156"/>
+      <c r="C358" s="157"/>
       <c r="D358" s="20">
         <v>3</v>
       </c>
@@ -17925,11 +17882,11 @@
       </c>
     </row>
     <row r="359" spans="1:14">
-      <c r="A359" s="163" t="s">
+      <c r="A359" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="B359" s="164"/>
-      <c r="C359" s="165"/>
+      <c r="B359" s="156"/>
+      <c r="C359" s="157"/>
       <c r="D359" s="20">
         <v>6</v>
       </c>
@@ -17997,11 +17954,11 @@
       <c r="N361" s="109"/>
     </row>
     <row r="362" spans="1:14">
-      <c r="A362" s="169" t="s">
+      <c r="A362" s="158" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="170"/>
-      <c r="C362" s="170"/>
+      <c r="B362" s="159"/>
+      <c r="C362" s="159"/>
       <c r="D362" s="33"/>
       <c r="E362" s="103"/>
       <c r="F362" s="104"/>
@@ -18015,10 +17972,10 @@
       <c r="N362" s="104"/>
     </row>
     <row r="363" spans="1:14">
-      <c r="A363" s="157" t="s">
+      <c r="A363" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="158"/>
+      <c r="B363" s="161"/>
       <c r="C363" s="162"/>
       <c r="D363" s="4"/>
       <c r="E363" s="5"/>
@@ -18033,11 +17990,11 @@
       <c r="N363" s="84"/>
     </row>
     <row r="364" spans="1:14">
-      <c r="A364" s="163" t="s">
+      <c r="A364" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="164"/>
-      <c r="C364" s="165"/>
+      <c r="B364" s="156"/>
+      <c r="C364" s="157"/>
       <c r="D364" s="20">
         <v>1</v>
       </c>
@@ -18073,11 +18030,11 @@
       </c>
     </row>
     <row r="365" spans="1:14">
-      <c r="A365" s="163" t="s">
+      <c r="A365" s="155" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="164"/>
-      <c r="C365" s="165"/>
+      <c r="B365" s="156"/>
+      <c r="C365" s="157"/>
       <c r="D365" s="20">
         <v>1</v>
       </c>
@@ -18113,11 +18070,11 @@
       </c>
     </row>
     <row r="366" spans="1:14">
-      <c r="A366" s="163" t="s">
+      <c r="A366" s="155" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="164"/>
-      <c r="C366" s="165"/>
+      <c r="B366" s="156"/>
+      <c r="C366" s="157"/>
       <c r="D366" s="20">
         <v>1</v>
       </c>
@@ -18153,11 +18110,11 @@
       </c>
     </row>
     <row r="367" spans="1:14">
-      <c r="A367" s="163" t="s">
+      <c r="A367" s="155" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="164"/>
-      <c r="C367" s="165"/>
+      <c r="B367" s="156"/>
+      <c r="C367" s="157"/>
       <c r="D367" s="20">
         <v>1</v>
       </c>
@@ -18193,11 +18150,11 @@
       </c>
     </row>
     <row r="368" spans="1:14">
-      <c r="A368" s="163" t="s">
+      <c r="A368" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B368" s="164"/>
-      <c r="C368" s="165"/>
+      <c r="B368" s="156"/>
+      <c r="C368" s="157"/>
       <c r="D368" s="20">
         <v>1</v>
       </c>
@@ -18233,11 +18190,11 @@
       </c>
     </row>
     <row r="369" spans="1:14">
-      <c r="A369" s="163" t="s">
+      <c r="A369" s="155" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="164"/>
-      <c r="C369" s="165"/>
+      <c r="B369" s="156"/>
+      <c r="C369" s="157"/>
       <c r="D369" s="20">
         <v>1</v>
       </c>
@@ -18273,11 +18230,11 @@
       </c>
     </row>
     <row r="370" spans="1:14">
-      <c r="A370" s="163" t="s">
+      <c r="A370" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="164"/>
-      <c r="C370" s="165"/>
+      <c r="B370" s="156"/>
+      <c r="C370" s="157"/>
       <c r="D370" s="20">
         <v>1</v>
       </c>
@@ -18313,11 +18270,11 @@
       </c>
     </row>
     <row r="371" spans="1:14">
-      <c r="A371" s="163" t="s">
+      <c r="A371" s="155" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="164"/>
-      <c r="C371" s="165"/>
+      <c r="B371" s="156"/>
+      <c r="C371" s="157"/>
       <c r="D371" s="20">
         <v>1</v>
       </c>
@@ -18353,11 +18310,11 @@
       </c>
     </row>
     <row r="372" spans="1:14">
-      <c r="A372" s="163" t="s">
+      <c r="A372" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="164"/>
-      <c r="C372" s="165"/>
+      <c r="B372" s="156"/>
+      <c r="C372" s="157"/>
       <c r="D372" s="20">
         <v>1</v>
       </c>
@@ -18393,11 +18350,11 @@
       </c>
     </row>
     <row r="373" spans="1:14">
-      <c r="A373" s="163" t="s">
+      <c r="A373" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B373" s="164"/>
-      <c r="C373" s="165"/>
+      <c r="B373" s="156"/>
+      <c r="C373" s="157"/>
       <c r="D373" s="20">
         <v>1</v>
       </c>
@@ -18433,11 +18390,11 @@
       </c>
     </row>
     <row r="374" spans="1:14">
-      <c r="A374" s="163" t="s">
+      <c r="A374" s="155" t="s">
         <v>372</v>
       </c>
-      <c r="B374" s="164"/>
-      <c r="C374" s="165"/>
+      <c r="B374" s="156"/>
+      <c r="C374" s="157"/>
       <c r="D374" s="20">
         <v>1</v>
       </c>
@@ -18473,11 +18430,11 @@
       </c>
     </row>
     <row r="375" spans="1:14">
-      <c r="A375" s="163" t="s">
+      <c r="A375" s="155" t="s">
         <v>373</v>
       </c>
-      <c r="B375" s="164"/>
-      <c r="C375" s="165"/>
+      <c r="B375" s="156"/>
+      <c r="C375" s="157"/>
       <c r="D375" s="20">
         <v>1</v>
       </c>
@@ -18513,11 +18470,11 @@
       </c>
     </row>
     <row r="376" spans="1:14">
-      <c r="A376" s="163" t="s">
+      <c r="A376" s="155" t="s">
         <v>374</v>
       </c>
-      <c r="B376" s="164"/>
-      <c r="C376" s="165"/>
+      <c r="B376" s="156"/>
+      <c r="C376" s="157"/>
       <c r="D376" s="20">
         <v>1</v>
       </c>
@@ -18553,11 +18510,11 @@
       </c>
     </row>
     <row r="377" spans="1:14">
-      <c r="A377" s="163" t="s">
+      <c r="A377" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="B377" s="164"/>
-      <c r="C377" s="165"/>
+      <c r="B377" s="156"/>
+      <c r="C377" s="157"/>
       <c r="D377" s="20">
         <v>1</v>
       </c>
@@ -18593,11 +18550,11 @@
       </c>
     </row>
     <row r="378" spans="1:14">
-      <c r="A378" s="163" t="s">
+      <c r="A378" s="155" t="s">
         <v>376</v>
       </c>
-      <c r="B378" s="164"/>
-      <c r="C378" s="165"/>
+      <c r="B378" s="156"/>
+      <c r="C378" s="157"/>
       <c r="D378" s="20">
         <v>1</v>
       </c>
@@ -18633,11 +18590,11 @@
       </c>
     </row>
     <row r="379" spans="1:14">
-      <c r="A379" s="163" t="s">
+      <c r="A379" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="B379" s="164"/>
-      <c r="C379" s="165"/>
+      <c r="B379" s="156"/>
+      <c r="C379" s="157"/>
       <c r="D379" s="20">
         <v>1</v>
       </c>
@@ -18673,11 +18630,11 @@
       </c>
     </row>
     <row r="380" spans="1:14">
-      <c r="A380" s="163" t="s">
+      <c r="A380" s="155" t="s">
         <v>378</v>
       </c>
-      <c r="B380" s="164"/>
-      <c r="C380" s="165"/>
+      <c r="B380" s="156"/>
+      <c r="C380" s="157"/>
       <c r="D380" s="20">
         <v>1</v>
       </c>
@@ -18713,11 +18670,11 @@
       </c>
     </row>
     <row r="381" spans="1:14">
-      <c r="A381" s="163" t="s">
+      <c r="A381" s="155" t="s">
         <v>379</v>
       </c>
-      <c r="B381" s="164"/>
-      <c r="C381" s="165"/>
+      <c r="B381" s="156"/>
+      <c r="C381" s="157"/>
       <c r="D381" s="20">
         <v>1</v>
       </c>
@@ -18753,11 +18710,11 @@
       </c>
     </row>
     <row r="382" spans="1:14">
-      <c r="A382" s="163" t="s">
+      <c r="A382" s="155" t="s">
         <v>380</v>
       </c>
-      <c r="B382" s="164"/>
-      <c r="C382" s="165"/>
+      <c r="B382" s="156"/>
+      <c r="C382" s="157"/>
       <c r="D382" s="20">
         <v>1</v>
       </c>
@@ -18793,11 +18750,11 @@
       </c>
     </row>
     <row r="383" spans="1:14">
-      <c r="A383" s="163" t="s">
+      <c r="A383" s="155" t="s">
         <v>381</v>
       </c>
-      <c r="B383" s="164"/>
-      <c r="C383" s="165"/>
+      <c r="B383" s="156"/>
+      <c r="C383" s="157"/>
       <c r="D383" s="20">
         <v>1</v>
       </c>
@@ -18833,11 +18790,11 @@
       </c>
     </row>
     <row r="384" spans="1:14">
-      <c r="A384" s="163" t="s">
+      <c r="A384" s="155" t="s">
         <v>382</v>
       </c>
-      <c r="B384" s="164"/>
-      <c r="C384" s="165"/>
+      <c r="B384" s="156"/>
+      <c r="C384" s="157"/>
       <c r="D384" s="20">
         <v>1</v>
       </c>
@@ -18873,11 +18830,11 @@
       </c>
     </row>
     <row r="385" spans="1:14">
-      <c r="A385" s="163" t="s">
+      <c r="A385" s="155" t="s">
         <v>383</v>
       </c>
-      <c r="B385" s="164"/>
-      <c r="C385" s="165"/>
+      <c r="B385" s="156"/>
+      <c r="C385" s="157"/>
       <c r="D385" s="20">
         <v>1</v>
       </c>
@@ -18913,11 +18870,11 @@
       </c>
     </row>
     <row r="386" spans="1:14">
-      <c r="A386" s="163" t="s">
+      <c r="A386" s="155" t="s">
         <v>384</v>
       </c>
-      <c r="B386" s="164"/>
-      <c r="C386" s="165"/>
+      <c r="B386" s="156"/>
+      <c r="C386" s="157"/>
       <c r="D386" s="20">
         <v>1</v>
       </c>
@@ -18953,11 +18910,11 @@
       </c>
     </row>
     <row r="387" spans="1:14">
-      <c r="A387" s="163" t="s">
+      <c r="A387" s="155" t="s">
         <v>385</v>
       </c>
-      <c r="B387" s="164"/>
-      <c r="C387" s="165"/>
+      <c r="B387" s="156"/>
+      <c r="C387" s="157"/>
       <c r="D387" s="20">
         <v>1</v>
       </c>
@@ -18993,11 +18950,11 @@
       </c>
     </row>
     <row r="388" spans="1:14">
-      <c r="A388" s="163" t="s">
+      <c r="A388" s="155" t="s">
         <v>386</v>
       </c>
-      <c r="B388" s="164"/>
-      <c r="C388" s="165"/>
+      <c r="B388" s="156"/>
+      <c r="C388" s="157"/>
       <c r="D388" s="20">
         <v>1</v>
       </c>
@@ -19033,11 +18990,11 @@
       </c>
     </row>
     <row r="389" spans="1:14">
-      <c r="A389" s="163" t="s">
+      <c r="A389" s="155" t="s">
         <v>387</v>
       </c>
-      <c r="B389" s="164"/>
-      <c r="C389" s="165"/>
+      <c r="B389" s="156"/>
+      <c r="C389" s="157"/>
       <c r="D389" s="20">
         <v>1</v>
       </c>
@@ -19073,11 +19030,11 @@
       </c>
     </row>
     <row r="390" spans="1:14">
-      <c r="A390" s="163" t="s">
+      <c r="A390" s="155" t="s">
         <v>388</v>
       </c>
-      <c r="B390" s="164"/>
-      <c r="C390" s="165"/>
+      <c r="B390" s="156"/>
+      <c r="C390" s="157"/>
       <c r="D390" s="20">
         <v>1</v>
       </c>
@@ -19113,11 +19070,11 @@
       </c>
     </row>
     <row r="391" spans="1:14">
-      <c r="A391" s="163" t="s">
+      <c r="A391" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="B391" s="164"/>
-      <c r="C391" s="165"/>
+      <c r="B391" s="156"/>
+      <c r="C391" s="157"/>
       <c r="D391" s="20">
         <v>1</v>
       </c>
@@ -19153,11 +19110,11 @@
       </c>
     </row>
     <row r="392" spans="1:14">
-      <c r="A392" s="163" t="s">
+      <c r="A392" s="155" t="s">
         <v>390</v>
       </c>
-      <c r="B392" s="164"/>
-      <c r="C392" s="165"/>
+      <c r="B392" s="156"/>
+      <c r="C392" s="157"/>
       <c r="D392" s="20">
         <v>1</v>
       </c>
@@ -19193,11 +19150,11 @@
       </c>
     </row>
     <row r="393" spans="1:14">
-      <c r="A393" s="163" t="s">
+      <c r="A393" s="155" t="s">
         <v>391</v>
       </c>
-      <c r="B393" s="164"/>
-      <c r="C393" s="165"/>
+      <c r="B393" s="156"/>
+      <c r="C393" s="157"/>
       <c r="D393" s="20">
         <v>1</v>
       </c>
@@ -19233,11 +19190,11 @@
       </c>
     </row>
     <row r="394" spans="1:14">
-      <c r="A394" s="163" t="s">
+      <c r="A394" s="155" t="s">
         <v>392</v>
       </c>
-      <c r="B394" s="164"/>
-      <c r="C394" s="165"/>
+      <c r="B394" s="156"/>
+      <c r="C394" s="157"/>
       <c r="D394" s="20">
         <v>1</v>
       </c>
@@ -19273,11 +19230,11 @@
       </c>
     </row>
     <row r="395" spans="1:14">
-      <c r="A395" s="163" t="s">
+      <c r="A395" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="B395" s="164"/>
-      <c r="C395" s="165"/>
+      <c r="B395" s="156"/>
+      <c r="C395" s="157"/>
       <c r="D395" s="20">
         <v>1</v>
       </c>
@@ -19313,11 +19270,11 @@
       </c>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396" s="163" t="s">
+      <c r="A396" s="155" t="s">
         <v>394</v>
       </c>
-      <c r="B396" s="164"/>
-      <c r="C396" s="165"/>
+      <c r="B396" s="156"/>
+      <c r="C396" s="157"/>
       <c r="D396" s="20">
         <v>1</v>
       </c>
@@ -19353,11 +19310,11 @@
       </c>
     </row>
     <row r="397" spans="1:14">
-      <c r="A397" s="163" t="s">
+      <c r="A397" s="155" t="s">
         <v>395</v>
       </c>
-      <c r="B397" s="164"/>
-      <c r="C397" s="165"/>
+      <c r="B397" s="156"/>
+      <c r="C397" s="157"/>
       <c r="D397" s="20">
         <v>1</v>
       </c>
@@ -19393,11 +19350,11 @@
       </c>
     </row>
     <row r="398" spans="1:14">
-      <c r="A398" s="163" t="s">
+      <c r="A398" s="155" t="s">
         <v>396</v>
       </c>
-      <c r="B398" s="164"/>
-      <c r="C398" s="165"/>
+      <c r="B398" s="156"/>
+      <c r="C398" s="157"/>
       <c r="D398" s="20">
         <v>1</v>
       </c>
@@ -19433,11 +19390,11 @@
       </c>
     </row>
     <row r="399" spans="1:14">
-      <c r="A399" s="163" t="s">
+      <c r="A399" s="155" t="s">
         <v>397</v>
       </c>
-      <c r="B399" s="164"/>
-      <c r="C399" s="165"/>
+      <c r="B399" s="156"/>
+      <c r="C399" s="157"/>
       <c r="D399" s="20">
         <v>1</v>
       </c>
@@ -19473,11 +19430,11 @@
       </c>
     </row>
     <row r="400" spans="1:14">
-      <c r="A400" s="163" t="s">
+      <c r="A400" s="155" t="s">
         <v>398</v>
       </c>
-      <c r="B400" s="164"/>
-      <c r="C400" s="165"/>
+      <c r="B400" s="156"/>
+      <c r="C400" s="157"/>
       <c r="D400" s="20">
         <v>1</v>
       </c>
@@ -19513,11 +19470,11 @@
       </c>
     </row>
     <row r="401" spans="1:14">
-      <c r="A401" s="163" t="s">
+      <c r="A401" s="155" t="s">
         <v>399</v>
       </c>
-      <c r="B401" s="164"/>
-      <c r="C401" s="165"/>
+      <c r="B401" s="156"/>
+      <c r="C401" s="157"/>
       <c r="D401" s="20">
         <v>1</v>
       </c>
@@ -19553,11 +19510,11 @@
       </c>
     </row>
     <row r="402" spans="1:14">
-      <c r="A402" s="163" t="s">
+      <c r="A402" s="155" t="s">
         <v>400</v>
       </c>
-      <c r="B402" s="164"/>
-      <c r="C402" s="165"/>
+      <c r="B402" s="156"/>
+      <c r="C402" s="157"/>
       <c r="D402" s="20">
         <v>1</v>
       </c>
@@ -19593,11 +19550,11 @@
       </c>
     </row>
     <row r="403" spans="1:14">
-      <c r="A403" s="163" t="s">
+      <c r="A403" s="155" t="s">
         <v>401</v>
       </c>
-      <c r="B403" s="164"/>
-      <c r="C403" s="165"/>
+      <c r="B403" s="156"/>
+      <c r="C403" s="157"/>
       <c r="D403" s="20">
         <v>1</v>
       </c>
@@ -19633,11 +19590,11 @@
       </c>
     </row>
     <row r="404" spans="1:14">
-      <c r="A404" s="163" t="s">
+      <c r="A404" s="155" t="s">
         <v>402</v>
       </c>
-      <c r="B404" s="164"/>
-      <c r="C404" s="165"/>
+      <c r="B404" s="156"/>
+      <c r="C404" s="157"/>
       <c r="D404" s="20">
         <v>1</v>
       </c>
@@ -19673,11 +19630,11 @@
       </c>
     </row>
     <row r="405" spans="1:14">
-      <c r="A405" s="163" t="s">
+      <c r="A405" s="155" t="s">
         <v>403</v>
       </c>
-      <c r="B405" s="164"/>
-      <c r="C405" s="165"/>
+      <c r="B405" s="156"/>
+      <c r="C405" s="157"/>
       <c r="D405" s="20">
         <v>1</v>
       </c>
@@ -19713,11 +19670,11 @@
       </c>
     </row>
     <row r="406" spans="1:14">
-      <c r="A406" s="163" t="s">
+      <c r="A406" s="155" t="s">
         <v>404</v>
       </c>
-      <c r="B406" s="164"/>
-      <c r="C406" s="165"/>
+      <c r="B406" s="156"/>
+      <c r="C406" s="157"/>
       <c r="D406" s="20">
         <v>1</v>
       </c>
@@ -19753,11 +19710,11 @@
       </c>
     </row>
     <row r="407" spans="1:14">
-      <c r="A407" s="163" t="s">
+      <c r="A407" s="155" t="s">
         <v>405</v>
       </c>
-      <c r="B407" s="164"/>
-      <c r="C407" s="165"/>
+      <c r="B407" s="156"/>
+      <c r="C407" s="157"/>
       <c r="D407" s="20">
         <v>1</v>
       </c>
@@ -19793,11 +19750,11 @@
       </c>
     </row>
     <row r="408" spans="1:14">
-      <c r="A408" s="163" t="s">
+      <c r="A408" s="155" t="s">
         <v>406</v>
       </c>
-      <c r="B408" s="164"/>
-      <c r="C408" s="165"/>
+      <c r="B408" s="156"/>
+      <c r="C408" s="157"/>
       <c r="D408" s="20">
         <v>1</v>
       </c>
@@ -19833,11 +19790,11 @@
       </c>
     </row>
     <row r="409" spans="1:14">
-      <c r="A409" s="163" t="s">
+      <c r="A409" s="155" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="164"/>
-      <c r="C409" s="165"/>
+      <c r="B409" s="156"/>
+      <c r="C409" s="157"/>
       <c r="D409" s="20">
         <v>1</v>
       </c>
@@ -19873,11 +19830,11 @@
       </c>
     </row>
     <row r="410" spans="1:14">
-      <c r="A410" s="163" t="s">
+      <c r="A410" s="155" t="s">
         <v>408</v>
       </c>
-      <c r="B410" s="164"/>
-      <c r="C410" s="165"/>
+      <c r="B410" s="156"/>
+      <c r="C410" s="157"/>
       <c r="D410" s="20">
         <v>1</v>
       </c>
@@ -19913,11 +19870,11 @@
       </c>
     </row>
     <row r="411" spans="1:14">
-      <c r="A411" s="163" t="s">
+      <c r="A411" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="164"/>
-      <c r="C411" s="165"/>
+      <c r="B411" s="156"/>
+      <c r="C411" s="157"/>
       <c r="D411" s="20">
         <v>1</v>
       </c>
@@ -19953,11 +19910,11 @@
       </c>
     </row>
     <row r="412" spans="1:14">
-      <c r="A412" s="163" t="s">
+      <c r="A412" s="155" t="s">
         <v>410</v>
       </c>
-      <c r="B412" s="164"/>
-      <c r="C412" s="165"/>
+      <c r="B412" s="156"/>
+      <c r="C412" s="157"/>
       <c r="D412" s="20">
         <v>1</v>
       </c>
@@ -19993,11 +19950,11 @@
       </c>
     </row>
     <row r="413" spans="1:14">
-      <c r="A413" s="163" t="s">
+      <c r="A413" s="155" t="s">
         <v>411</v>
       </c>
-      <c r="B413" s="164"/>
-      <c r="C413" s="165"/>
+      <c r="B413" s="156"/>
+      <c r="C413" s="157"/>
       <c r="D413" s="20">
         <v>1</v>
       </c>
@@ -20033,11 +19990,11 @@
       </c>
     </row>
     <row r="414" spans="1:14">
-      <c r="A414" s="163" t="s">
+      <c r="A414" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="B414" s="164"/>
-      <c r="C414" s="165"/>
+      <c r="B414" s="156"/>
+      <c r="C414" s="157"/>
       <c r="D414" s="20">
         <v>1</v>
       </c>
@@ -20073,11 +20030,11 @@
       </c>
     </row>
     <row r="415" spans="1:14">
-      <c r="A415" s="163" t="s">
+      <c r="A415" s="155" t="s">
         <v>413</v>
       </c>
-      <c r="B415" s="164"/>
-      <c r="C415" s="165"/>
+      <c r="B415" s="156"/>
+      <c r="C415" s="157"/>
       <c r="D415" s="20">
         <v>1</v>
       </c>
@@ -20113,11 +20070,11 @@
       </c>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416" s="163" t="s">
+      <c r="A416" s="155" t="s">
         <v>414</v>
       </c>
-      <c r="B416" s="164"/>
-      <c r="C416" s="165"/>
+      <c r="B416" s="156"/>
+      <c r="C416" s="157"/>
       <c r="D416" s="20">
         <v>1</v>
       </c>
@@ -20153,11 +20110,11 @@
       </c>
     </row>
     <row r="417" spans="1:14">
-      <c r="A417" s="163" t="s">
+      <c r="A417" s="155" t="s">
         <v>415</v>
       </c>
-      <c r="B417" s="164"/>
-      <c r="C417" s="165"/>
+      <c r="B417" s="156"/>
+      <c r="C417" s="157"/>
       <c r="D417" s="20">
         <v>1</v>
       </c>
@@ -20193,11 +20150,11 @@
       </c>
     </row>
     <row r="418" spans="1:14">
-      <c r="A418" s="163" t="s">
+      <c r="A418" s="155" t="s">
         <v>416</v>
       </c>
-      <c r="B418" s="164"/>
-      <c r="C418" s="165"/>
+      <c r="B418" s="156"/>
+      <c r="C418" s="157"/>
       <c r="D418" s="20">
         <v>1</v>
       </c>
@@ -20233,11 +20190,11 @@
       </c>
     </row>
     <row r="419" spans="1:14">
-      <c r="A419" s="163" t="s">
+      <c r="A419" s="155" t="s">
         <v>417</v>
       </c>
-      <c r="B419" s="164"/>
-      <c r="C419" s="165"/>
+      <c r="B419" s="156"/>
+      <c r="C419" s="157"/>
       <c r="D419" s="20">
         <v>1</v>
       </c>
@@ -20273,11 +20230,11 @@
       </c>
     </row>
     <row r="420" spans="1:14">
-      <c r="A420" s="163" t="s">
+      <c r="A420" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="B420" s="164"/>
-      <c r="C420" s="165"/>
+      <c r="B420" s="156"/>
+      <c r="C420" s="157"/>
       <c r="D420" s="20">
         <v>1</v>
       </c>
@@ -20313,11 +20270,11 @@
       </c>
     </row>
     <row r="421" spans="1:14">
-      <c r="A421" s="163" t="s">
+      <c r="A421" s="155" t="s">
         <v>419</v>
       </c>
-      <c r="B421" s="164"/>
-      <c r="C421" s="165"/>
+      <c r="B421" s="156"/>
+      <c r="C421" s="157"/>
       <c r="D421" s="20">
         <v>1</v>
       </c>
@@ -20353,11 +20310,11 @@
       </c>
     </row>
     <row r="422" spans="1:14">
-      <c r="A422" s="163" t="s">
+      <c r="A422" s="155" t="s">
         <v>420</v>
       </c>
-      <c r="B422" s="164"/>
-      <c r="C422" s="165"/>
+      <c r="B422" s="156"/>
+      <c r="C422" s="157"/>
       <c r="D422" s="20">
         <v>1</v>
       </c>
@@ -20393,11 +20350,11 @@
       </c>
     </row>
     <row r="423" spans="1:14">
-      <c r="A423" s="163" t="s">
+      <c r="A423" s="155" t="s">
         <v>421</v>
       </c>
-      <c r="B423" s="164"/>
-      <c r="C423" s="165"/>
+      <c r="B423" s="156"/>
+      <c r="C423" s="157"/>
       <c r="D423" s="20">
         <v>1</v>
       </c>
@@ -20433,11 +20390,11 @@
       </c>
     </row>
     <row r="424" spans="1:14">
-      <c r="A424" s="163" t="s">
+      <c r="A424" s="155" t="s">
         <v>422</v>
       </c>
-      <c r="B424" s="164"/>
-      <c r="C424" s="165"/>
+      <c r="B424" s="156"/>
+      <c r="C424" s="157"/>
       <c r="D424" s="20">
         <v>1</v>
       </c>
@@ -20473,11 +20430,11 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="163" t="s">
+      <c r="A425" s="155" t="s">
         <v>423</v>
       </c>
-      <c r="B425" s="164"/>
-      <c r="C425" s="165"/>
+      <c r="B425" s="156"/>
+      <c r="C425" s="157"/>
       <c r="D425" s="20">
         <v>1</v>
       </c>
@@ -20513,11 +20470,11 @@
       </c>
     </row>
     <row r="426" spans="1:14">
-      <c r="A426" s="163" t="s">
+      <c r="A426" s="155" t="s">
         <v>424</v>
       </c>
-      <c r="B426" s="164"/>
-      <c r="C426" s="165"/>
+      <c r="B426" s="156"/>
+      <c r="C426" s="157"/>
       <c r="D426" s="20">
         <v>1</v>
       </c>
@@ -20553,11 +20510,11 @@
       </c>
     </row>
     <row r="427" spans="1:14">
-      <c r="A427" s="163" t="s">
+      <c r="A427" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="B427" s="164"/>
-      <c r="C427" s="165"/>
+      <c r="B427" s="156"/>
+      <c r="C427" s="157"/>
       <c r="D427" s="20">
         <v>1</v>
       </c>
@@ -20593,11 +20550,11 @@
       </c>
     </row>
     <row r="428" spans="1:14">
-      <c r="A428" s="163" t="s">
+      <c r="A428" s="155" t="s">
         <v>426</v>
       </c>
-      <c r="B428" s="164"/>
-      <c r="C428" s="165"/>
+      <c r="B428" s="156"/>
+      <c r="C428" s="157"/>
       <c r="D428" s="20">
         <v>1</v>
       </c>
@@ -20633,11 +20590,11 @@
       </c>
     </row>
     <row r="429" spans="1:14">
-      <c r="A429" s="163" t="s">
+      <c r="A429" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="B429" s="164"/>
-      <c r="C429" s="165"/>
+      <c r="B429" s="156"/>
+      <c r="C429" s="157"/>
       <c r="D429" s="20">
         <v>1</v>
       </c>
@@ -20673,11 +20630,11 @@
       </c>
     </row>
     <row r="430" spans="1:14">
-      <c r="A430" s="163" t="s">
+      <c r="A430" s="155" t="s">
         <v>428</v>
       </c>
-      <c r="B430" s="164"/>
-      <c r="C430" s="165"/>
+      <c r="B430" s="156"/>
+      <c r="C430" s="157"/>
       <c r="D430" s="20">
         <v>1</v>
       </c>
@@ -20713,11 +20670,11 @@
       </c>
     </row>
     <row r="431" spans="1:14">
-      <c r="A431" s="163" t="s">
+      <c r="A431" s="155" t="s">
         <v>429</v>
       </c>
-      <c r="B431" s="164"/>
-      <c r="C431" s="165"/>
+      <c r="B431" s="156"/>
+      <c r="C431" s="157"/>
       <c r="D431" s="20">
         <v>1</v>
       </c>
@@ -20753,11 +20710,11 @@
       </c>
     </row>
     <row r="432" spans="1:14">
-      <c r="A432" s="163" t="s">
+      <c r="A432" s="155" t="s">
         <v>430</v>
       </c>
-      <c r="B432" s="164"/>
-      <c r="C432" s="165"/>
+      <c r="B432" s="156"/>
+      <c r="C432" s="157"/>
       <c r="D432" s="20">
         <v>1</v>
       </c>
@@ -20793,11 +20750,11 @@
       </c>
     </row>
     <row r="433" spans="1:14">
-      <c r="A433" s="163" t="s">
+      <c r="A433" s="155" t="s">
         <v>431</v>
       </c>
-      <c r="B433" s="164"/>
-      <c r="C433" s="165"/>
+      <c r="B433" s="156"/>
+      <c r="C433" s="157"/>
       <c r="D433" s="20">
         <v>1</v>
       </c>
@@ -20833,11 +20790,11 @@
       </c>
     </row>
     <row r="434" spans="1:14">
-      <c r="A434" s="163" t="s">
+      <c r="A434" s="155" t="s">
         <v>432</v>
       </c>
-      <c r="B434" s="164"/>
-      <c r="C434" s="165"/>
+      <c r="B434" s="156"/>
+      <c r="C434" s="157"/>
       <c r="D434" s="20">
         <v>1</v>
       </c>
@@ -20873,11 +20830,11 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="163" t="s">
+      <c r="A435" s="155" t="s">
         <v>433</v>
       </c>
-      <c r="B435" s="164"/>
-      <c r="C435" s="165"/>
+      <c r="B435" s="156"/>
+      <c r="C435" s="157"/>
       <c r="D435" s="20">
         <v>1</v>
       </c>
@@ -20913,11 +20870,11 @@
       </c>
     </row>
     <row r="436" spans="1:14">
-      <c r="A436" s="163" t="s">
+      <c r="A436" s="155" t="s">
         <v>434</v>
       </c>
-      <c r="B436" s="164"/>
-      <c r="C436" s="165"/>
+      <c r="B436" s="156"/>
+      <c r="C436" s="157"/>
       <c r="D436" s="20">
         <v>1</v>
       </c>
@@ -20953,11 +20910,11 @@
       </c>
     </row>
     <row r="437" spans="1:14">
-      <c r="A437" s="163" t="s">
+      <c r="A437" s="155" t="s">
         <v>435</v>
       </c>
-      <c r="B437" s="164"/>
-      <c r="C437" s="165"/>
+      <c r="B437" s="156"/>
+      <c r="C437" s="157"/>
       <c r="D437" s="20">
         <v>1</v>
       </c>
@@ -20993,11 +20950,11 @@
       </c>
     </row>
     <row r="438" spans="1:14">
-      <c r="A438" s="163" t="s">
+      <c r="A438" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="B438" s="164"/>
-      <c r="C438" s="165"/>
+      <c r="B438" s="156"/>
+      <c r="C438" s="157"/>
       <c r="D438" s="20">
         <v>1</v>
       </c>
@@ -21033,11 +20990,11 @@
       </c>
     </row>
     <row r="439" spans="1:14">
-      <c r="A439" s="163" t="s">
+      <c r="A439" s="155" t="s">
         <v>437</v>
       </c>
-      <c r="B439" s="164"/>
-      <c r="C439" s="165"/>
+      <c r="B439" s="156"/>
+      <c r="C439" s="157"/>
       <c r="D439" s="20">
         <v>1</v>
       </c>
@@ -21073,11 +21030,11 @@
       </c>
     </row>
     <row r="440" spans="1:14">
-      <c r="A440" s="163" t="s">
+      <c r="A440" s="155" t="s">
         <v>438</v>
       </c>
-      <c r="B440" s="164"/>
-      <c r="C440" s="165"/>
+      <c r="B440" s="156"/>
+      <c r="C440" s="157"/>
       <c r="D440" s="20">
         <v>1</v>
       </c>
@@ -21113,11 +21070,11 @@
       </c>
     </row>
     <row r="441" spans="1:14">
-      <c r="A441" s="163" t="s">
+      <c r="A441" s="155" t="s">
         <v>439</v>
       </c>
-      <c r="B441" s="164"/>
-      <c r="C441" s="165"/>
+      <c r="B441" s="156"/>
+      <c r="C441" s="157"/>
       <c r="D441" s="20">
         <v>1</v>
       </c>
@@ -21153,11 +21110,11 @@
       </c>
     </row>
     <row r="442" spans="1:14">
-      <c r="A442" s="163" t="s">
+      <c r="A442" s="155" t="s">
         <v>440</v>
       </c>
-      <c r="B442" s="164"/>
-      <c r="C442" s="165"/>
+      <c r="B442" s="156"/>
+      <c r="C442" s="157"/>
       <c r="D442" s="20">
         <v>1</v>
       </c>
@@ -21193,11 +21150,11 @@
       </c>
     </row>
     <row r="443" spans="1:14">
-      <c r="A443" s="163" t="s">
+      <c r="A443" s="155" t="s">
         <v>441</v>
       </c>
-      <c r="B443" s="164"/>
-      <c r="C443" s="165"/>
+      <c r="B443" s="156"/>
+      <c r="C443" s="157"/>
       <c r="D443" s="20">
         <v>1</v>
       </c>
@@ -21233,11 +21190,11 @@
       </c>
     </row>
     <row r="444" spans="1:14">
-      <c r="A444" s="163" t="s">
+      <c r="A444" s="155" t="s">
         <v>442</v>
       </c>
-      <c r="B444" s="164"/>
-      <c r="C444" s="165"/>
+      <c r="B444" s="156"/>
+      <c r="C444" s="157"/>
       <c r="D444" s="20">
         <v>1</v>
       </c>
@@ -21273,11 +21230,11 @@
       </c>
     </row>
     <row r="445" spans="1:14">
-      <c r="A445" s="163" t="s">
+      <c r="A445" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="B445" s="164"/>
-      <c r="C445" s="165"/>
+      <c r="B445" s="156"/>
+      <c r="C445" s="157"/>
       <c r="D445" s="20">
         <v>1</v>
       </c>
@@ -21313,11 +21270,11 @@
       </c>
     </row>
     <row r="446" spans="1:14">
-      <c r="A446" s="163" t="s">
+      <c r="A446" s="155" t="s">
         <v>444</v>
       </c>
-      <c r="B446" s="164"/>
-      <c r="C446" s="165"/>
+      <c r="B446" s="156"/>
+      <c r="C446" s="157"/>
       <c r="D446" s="20">
         <v>1</v>
       </c>
@@ -21353,11 +21310,11 @@
       </c>
     </row>
     <row r="447" spans="1:14">
-      <c r="A447" s="163" t="s">
+      <c r="A447" s="155" t="s">
         <v>445</v>
       </c>
-      <c r="B447" s="164"/>
-      <c r="C447" s="165"/>
+      <c r="B447" s="156"/>
+      <c r="C447" s="157"/>
       <c r="D447" s="20">
         <v>1</v>
       </c>
@@ -21393,11 +21350,11 @@
       </c>
     </row>
     <row r="448" spans="1:14">
-      <c r="A448" s="163" t="s">
+      <c r="A448" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="B448" s="164"/>
-      <c r="C448" s="165"/>
+      <c r="B448" s="156"/>
+      <c r="C448" s="157"/>
       <c r="D448" s="20">
         <v>1</v>
       </c>
@@ -21433,11 +21390,11 @@
       </c>
     </row>
     <row r="449" spans="1:14">
-      <c r="A449" s="163" t="s">
+      <c r="A449" s="155" t="s">
         <v>447</v>
       </c>
-      <c r="B449" s="164"/>
-      <c r="C449" s="165"/>
+      <c r="B449" s="156"/>
+      <c r="C449" s="157"/>
       <c r="D449" s="20">
         <v>1</v>
       </c>
@@ -21473,11 +21430,11 @@
       </c>
     </row>
     <row r="450" spans="1:14">
-      <c r="A450" s="163" t="s">
+      <c r="A450" s="155" t="s">
         <v>448</v>
       </c>
-      <c r="B450" s="164"/>
-      <c r="C450" s="165"/>
+      <c r="B450" s="156"/>
+      <c r="C450" s="157"/>
       <c r="D450" s="20">
         <v>1</v>
       </c>
@@ -21513,11 +21470,11 @@
       </c>
     </row>
     <row r="451" spans="1:14">
-      <c r="A451" s="163" t="s">
+      <c r="A451" s="155" t="s">
         <v>449</v>
       </c>
-      <c r="B451" s="164"/>
-      <c r="C451" s="165"/>
+      <c r="B451" s="156"/>
+      <c r="C451" s="157"/>
       <c r="D451" s="20">
         <v>1</v>
       </c>
@@ -21553,11 +21510,11 @@
       </c>
     </row>
     <row r="452" spans="1:14">
-      <c r="A452" s="163" t="s">
+      <c r="A452" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="B452" s="164"/>
-      <c r="C452" s="165"/>
+      <c r="B452" s="156"/>
+      <c r="C452" s="157"/>
       <c r="D452" s="20">
         <v>1</v>
       </c>
@@ -21593,11 +21550,11 @@
       </c>
     </row>
     <row r="453" spans="1:14">
-      <c r="A453" s="163" t="s">
+      <c r="A453" s="155" t="s">
         <v>451</v>
       </c>
-      <c r="B453" s="164"/>
-      <c r="C453" s="165"/>
+      <c r="B453" s="156"/>
+      <c r="C453" s="157"/>
       <c r="D453" s="20">
         <v>1</v>
       </c>
@@ -21633,11 +21590,11 @@
       </c>
     </row>
     <row r="454" spans="1:14">
-      <c r="A454" s="163" t="s">
+      <c r="A454" s="155" t="s">
         <v>452</v>
       </c>
-      <c r="B454" s="164"/>
-      <c r="C454" s="165"/>
+      <c r="B454" s="156"/>
+      <c r="C454" s="157"/>
       <c r="D454" s="20">
         <v>1</v>
       </c>
@@ -21673,11 +21630,11 @@
       </c>
     </row>
     <row r="455" spans="1:14">
-      <c r="A455" s="163" t="s">
+      <c r="A455" s="155" t="s">
         <v>453</v>
       </c>
-      <c r="B455" s="164"/>
-      <c r="C455" s="165"/>
+      <c r="B455" s="156"/>
+      <c r="C455" s="157"/>
       <c r="D455" s="20">
         <v>1</v>
       </c>
@@ -21713,11 +21670,11 @@
       </c>
     </row>
     <row r="456" spans="1:14">
-      <c r="A456" s="163" t="s">
+      <c r="A456" s="155" t="s">
         <v>454</v>
       </c>
-      <c r="B456" s="164"/>
-      <c r="C456" s="165"/>
+      <c r="B456" s="156"/>
+      <c r="C456" s="157"/>
       <c r="D456" s="20">
         <v>1</v>
       </c>
@@ -21753,11 +21710,11 @@
       </c>
     </row>
     <row r="457" spans="1:14">
-      <c r="A457" s="163" t="s">
+      <c r="A457" s="155" t="s">
         <v>455</v>
       </c>
-      <c r="B457" s="164"/>
-      <c r="C457" s="165"/>
+      <c r="B457" s="156"/>
+      <c r="C457" s="157"/>
       <c r="D457" s="20">
         <v>1</v>
       </c>
@@ -21793,11 +21750,11 @@
       </c>
     </row>
     <row r="458" spans="1:14">
-      <c r="A458" s="163" t="s">
+      <c r="A458" s="155" t="s">
         <v>456</v>
       </c>
-      <c r="B458" s="164"/>
-      <c r="C458" s="165"/>
+      <c r="B458" s="156"/>
+      <c r="C458" s="157"/>
       <c r="D458" s="20">
         <v>1</v>
       </c>
@@ -21833,11 +21790,11 @@
       </c>
     </row>
     <row r="459" spans="1:14">
-      <c r="A459" s="163" t="s">
+      <c r="A459" s="155" t="s">
         <v>457</v>
       </c>
-      <c r="B459" s="164"/>
-      <c r="C459" s="165"/>
+      <c r="B459" s="156"/>
+      <c r="C459" s="157"/>
       <c r="D459" s="20">
         <v>1</v>
       </c>
@@ -21873,11 +21830,11 @@
       </c>
     </row>
     <row r="460" spans="1:14">
-      <c r="A460" s="163" t="s">
+      <c r="A460" s="155" t="s">
         <v>458</v>
       </c>
-      <c r="B460" s="164"/>
-      <c r="C460" s="165"/>
+      <c r="B460" s="156"/>
+      <c r="C460" s="157"/>
       <c r="D460" s="20">
         <v>1</v>
       </c>
@@ -21913,11 +21870,11 @@
       </c>
     </row>
     <row r="461" spans="1:14">
-      <c r="A461" s="163" t="s">
+      <c r="A461" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="B461" s="164"/>
-      <c r="C461" s="165"/>
+      <c r="B461" s="156"/>
+      <c r="C461" s="157"/>
       <c r="D461" s="20">
         <v>1</v>
       </c>
@@ -21953,11 +21910,11 @@
       </c>
     </row>
     <row r="462" spans="1:14">
-      <c r="A462" s="163" t="s">
+      <c r="A462" s="155" t="s">
         <v>460</v>
       </c>
-      <c r="B462" s="164"/>
-      <c r="C462" s="165"/>
+      <c r="B462" s="156"/>
+      <c r="C462" s="157"/>
       <c r="D462" s="20">
         <v>1</v>
       </c>
@@ -21993,11 +21950,11 @@
       </c>
     </row>
     <row r="463" spans="1:14">
-      <c r="A463" s="163" t="s">
+      <c r="A463" s="155" t="s">
         <v>461</v>
       </c>
-      <c r="B463" s="164"/>
-      <c r="C463" s="165"/>
+      <c r="B463" s="156"/>
+      <c r="C463" s="157"/>
       <c r="D463" s="20">
         <v>1</v>
       </c>
@@ -22033,11 +21990,11 @@
       </c>
     </row>
     <row r="464" spans="1:14">
-      <c r="A464" s="163" t="s">
+      <c r="A464" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="B464" s="164"/>
-      <c r="C464" s="165"/>
+      <c r="B464" s="156"/>
+      <c r="C464" s="157"/>
       <c r="D464" s="20">
         <v>1</v>
       </c>
@@ -22073,11 +22030,11 @@
       </c>
     </row>
     <row r="465" spans="1:14">
-      <c r="A465" s="163" t="s">
+      <c r="A465" s="155" t="s">
         <v>463</v>
       </c>
-      <c r="B465" s="164"/>
-      <c r="C465" s="165"/>
+      <c r="B465" s="156"/>
+      <c r="C465" s="157"/>
       <c r="D465" s="20">
         <v>1</v>
       </c>
@@ -22113,11 +22070,11 @@
       </c>
     </row>
     <row r="466" spans="1:14">
-      <c r="A466" s="163" t="s">
+      <c r="A466" s="155" t="s">
         <v>464</v>
       </c>
-      <c r="B466" s="164"/>
-      <c r="C466" s="165"/>
+      <c r="B466" s="156"/>
+      <c r="C466" s="157"/>
       <c r="D466" s="20">
         <v>1</v>
       </c>
@@ -22153,11 +22110,11 @@
       </c>
     </row>
     <row r="467" spans="1:14">
-      <c r="A467" s="163" t="s">
+      <c r="A467" s="155" t="s">
         <v>465</v>
       </c>
-      <c r="B467" s="164"/>
-      <c r="C467" s="165"/>
+      <c r="B467" s="156"/>
+      <c r="C467" s="157"/>
       <c r="D467" s="20">
         <v>1</v>
       </c>
@@ -22193,11 +22150,11 @@
       </c>
     </row>
     <row r="468" spans="1:14">
-      <c r="A468" s="163" t="s">
+      <c r="A468" s="155" t="s">
         <v>466</v>
       </c>
-      <c r="B468" s="164"/>
-      <c r="C468" s="165"/>
+      <c r="B468" s="156"/>
+      <c r="C468" s="157"/>
       <c r="D468" s="20">
         <v>1</v>
       </c>
@@ -22233,11 +22190,11 @@
       </c>
     </row>
     <row r="469" spans="1:14">
-      <c r="A469" s="163" t="s">
+      <c r="A469" s="155" t="s">
         <v>467</v>
       </c>
-      <c r="B469" s="164"/>
-      <c r="C469" s="165"/>
+      <c r="B469" s="156"/>
+      <c r="C469" s="157"/>
       <c r="D469" s="20">
         <v>1</v>
       </c>
@@ -22273,11 +22230,11 @@
       </c>
     </row>
     <row r="470" spans="1:14">
-      <c r="A470" s="163" t="s">
+      <c r="A470" s="155" t="s">
         <v>468</v>
       </c>
-      <c r="B470" s="164"/>
-      <c r="C470" s="165"/>
+      <c r="B470" s="156"/>
+      <c r="C470" s="157"/>
       <c r="D470" s="20">
         <v>1</v>
       </c>
@@ -22313,11 +22270,11 @@
       </c>
     </row>
     <row r="471" spans="1:14">
-      <c r="A471" s="163" t="s">
+      <c r="A471" s="155" t="s">
         <v>469</v>
       </c>
-      <c r="B471" s="164"/>
-      <c r="C471" s="165"/>
+      <c r="B471" s="156"/>
+      <c r="C471" s="157"/>
       <c r="D471" s="20">
         <v>1</v>
       </c>
@@ -22353,11 +22310,11 @@
       </c>
     </row>
     <row r="472" spans="1:14">
-      <c r="A472" s="163" t="s">
+      <c r="A472" s="155" t="s">
         <v>470</v>
       </c>
-      <c r="B472" s="164"/>
-      <c r="C472" s="165"/>
+      <c r="B472" s="156"/>
+      <c r="C472" s="157"/>
       <c r="D472" s="20">
         <v>1</v>
       </c>
@@ -22393,11 +22350,11 @@
       </c>
     </row>
     <row r="473" spans="1:14">
-      <c r="A473" s="163" t="s">
+      <c r="A473" s="155" t="s">
         <v>471</v>
       </c>
-      <c r="B473" s="164"/>
-      <c r="C473" s="165"/>
+      <c r="B473" s="156"/>
+      <c r="C473" s="157"/>
       <c r="D473" s="20">
         <v>1</v>
       </c>
@@ -22433,11 +22390,11 @@
       </c>
     </row>
     <row r="474" spans="1:14">
-      <c r="A474" s="163" t="s">
+      <c r="A474" s="155" t="s">
         <v>472</v>
       </c>
-      <c r="B474" s="164"/>
-      <c r="C474" s="165"/>
+      <c r="B474" s="156"/>
+      <c r="C474" s="157"/>
       <c r="D474" s="20">
         <v>1</v>
       </c>
@@ -22473,11 +22430,11 @@
       </c>
     </row>
     <row r="475" spans="1:14">
-      <c r="A475" s="163" t="s">
+      <c r="A475" s="155" t="s">
         <v>473</v>
       </c>
-      <c r="B475" s="164"/>
-      <c r="C475" s="165"/>
+      <c r="B475" s="156"/>
+      <c r="C475" s="157"/>
       <c r="D475" s="20">
         <v>1</v>
       </c>
@@ -22513,11 +22470,11 @@
       </c>
     </row>
     <row r="476" spans="1:14">
-      <c r="A476" s="163" t="s">
+      <c r="A476" s="155" t="s">
         <v>474</v>
       </c>
-      <c r="B476" s="164"/>
-      <c r="C476" s="165"/>
+      <c r="B476" s="156"/>
+      <c r="C476" s="157"/>
       <c r="D476" s="20">
         <v>1</v>
       </c>
@@ -22553,11 +22510,11 @@
       </c>
     </row>
     <row r="477" spans="1:14">
-      <c r="A477" s="163" t="s">
+      <c r="A477" s="155" t="s">
         <v>475</v>
       </c>
-      <c r="B477" s="164"/>
-      <c r="C477" s="165"/>
+      <c r="B477" s="156"/>
+      <c r="C477" s="157"/>
       <c r="D477" s="20">
         <v>1</v>
       </c>
@@ -22593,11 +22550,11 @@
       </c>
     </row>
     <row r="478" spans="1:14">
-      <c r="A478" s="163" t="s">
+      <c r="A478" s="155" t="s">
         <v>476</v>
       </c>
-      <c r="B478" s="164"/>
-      <c r="C478" s="165"/>
+      <c r="B478" s="156"/>
+      <c r="C478" s="157"/>
       <c r="D478" s="20">
         <v>1</v>
       </c>
@@ -22633,11 +22590,11 @@
       </c>
     </row>
     <row r="479" spans="1:14">
-      <c r="A479" s="163" t="s">
+      <c r="A479" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="B479" s="164"/>
-      <c r="C479" s="165"/>
+      <c r="B479" s="156"/>
+      <c r="C479" s="157"/>
       <c r="D479" s="20">
         <v>1</v>
       </c>
@@ -22673,11 +22630,11 @@
       </c>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480" s="163" t="s">
+      <c r="A480" s="155" t="s">
         <v>478</v>
       </c>
-      <c r="B480" s="164"/>
-      <c r="C480" s="165"/>
+      <c r="B480" s="156"/>
+      <c r="C480" s="157"/>
       <c r="D480" s="20">
         <v>1</v>
       </c>
@@ -22713,11 +22670,11 @@
       </c>
     </row>
     <row r="481" spans="1:14">
-      <c r="A481" s="163" t="s">
+      <c r="A481" s="155" t="s">
         <v>479</v>
       </c>
-      <c r="B481" s="164"/>
-      <c r="C481" s="165"/>
+      <c r="B481" s="156"/>
+      <c r="C481" s="157"/>
       <c r="D481" s="20">
         <v>1</v>
       </c>
@@ -22753,11 +22710,11 @@
       </c>
     </row>
     <row r="482" spans="1:14">
-      <c r="A482" s="163" t="s">
+      <c r="A482" s="155" t="s">
         <v>480</v>
       </c>
-      <c r="B482" s="164"/>
-      <c r="C482" s="165"/>
+      <c r="B482" s="156"/>
+      <c r="C482" s="157"/>
       <c r="D482" s="20">
         <v>1</v>
       </c>
@@ -22793,11 +22750,11 @@
       </c>
     </row>
     <row r="483" spans="1:14">
-      <c r="A483" s="163" t="s">
+      <c r="A483" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="B483" s="164"/>
-      <c r="C483" s="165"/>
+      <c r="B483" s="156"/>
+      <c r="C483" s="157"/>
       <c r="D483" s="20">
         <v>1</v>
       </c>
@@ -22833,11 +22790,11 @@
       </c>
     </row>
     <row r="484" spans="1:14">
-      <c r="A484" s="163" t="s">
+      <c r="A484" s="155" t="s">
         <v>482</v>
       </c>
-      <c r="B484" s="164"/>
-      <c r="C484" s="165"/>
+      <c r="B484" s="156"/>
+      <c r="C484" s="157"/>
       <c r="D484" s="20">
         <v>1</v>
       </c>
@@ -22873,11 +22830,11 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="163" t="s">
+      <c r="A485" s="155" t="s">
         <v>483</v>
       </c>
-      <c r="B485" s="164"/>
-      <c r="C485" s="165"/>
+      <c r="B485" s="156"/>
+      <c r="C485" s="157"/>
       <c r="D485" s="20">
         <v>1</v>
       </c>
@@ -22913,11 +22870,11 @@
       </c>
     </row>
     <row r="486" spans="1:14">
-      <c r="A486" s="163" t="s">
+      <c r="A486" s="155" t="s">
         <v>484</v>
       </c>
-      <c r="B486" s="164"/>
-      <c r="C486" s="165"/>
+      <c r="B486" s="156"/>
+      <c r="C486" s="157"/>
       <c r="D486" s="20">
         <v>1</v>
       </c>
@@ -22953,11 +22910,11 @@
       </c>
     </row>
     <row r="487" spans="1:14">
-      <c r="A487" s="163" t="s">
+      <c r="A487" s="155" t="s">
         <v>485</v>
       </c>
-      <c r="B487" s="164"/>
-      <c r="C487" s="165"/>
+      <c r="B487" s="156"/>
+      <c r="C487" s="157"/>
       <c r="D487" s="20">
         <v>1</v>
       </c>
@@ -22993,11 +22950,11 @@
       </c>
     </row>
     <row r="488" spans="1:14">
-      <c r="A488" s="163" t="s">
+      <c r="A488" s="155" t="s">
         <v>486</v>
       </c>
-      <c r="B488" s="164"/>
-      <c r="C488" s="165"/>
+      <c r="B488" s="156"/>
+      <c r="C488" s="157"/>
       <c r="D488" s="20">
         <v>1</v>
       </c>
@@ -23033,11 +22990,11 @@
       </c>
     </row>
     <row r="489" spans="1:14">
-      <c r="A489" s="163" t="s">
+      <c r="A489" s="155" t="s">
         <v>487</v>
       </c>
-      <c r="B489" s="164"/>
-      <c r="C489" s="165"/>
+      <c r="B489" s="156"/>
+      <c r="C489" s="157"/>
       <c r="D489" s="20">
         <v>1</v>
       </c>
@@ -23073,11 +23030,11 @@
       </c>
     </row>
     <row r="490" spans="1:14">
-      <c r="A490" s="163" t="s">
+      <c r="A490" s="155" t="s">
         <v>488</v>
       </c>
-      <c r="B490" s="164"/>
-      <c r="C490" s="165"/>
+      <c r="B490" s="156"/>
+      <c r="C490" s="157"/>
       <c r="D490" s="20">
         <v>1</v>
       </c>
@@ -23113,11 +23070,11 @@
       </c>
     </row>
     <row r="491" spans="1:14">
-      <c r="A491" s="163" t="s">
+      <c r="A491" s="155" t="s">
         <v>489</v>
       </c>
-      <c r="B491" s="164"/>
-      <c r="C491" s="165"/>
+      <c r="B491" s="156"/>
+      <c r="C491" s="157"/>
       <c r="D491" s="20">
         <v>1</v>
       </c>
@@ -23153,11 +23110,11 @@
       </c>
     </row>
     <row r="492" spans="1:14">
-      <c r="A492" s="163" t="s">
+      <c r="A492" s="155" t="s">
         <v>490</v>
       </c>
-      <c r="B492" s="164"/>
-      <c r="C492" s="165"/>
+      <c r="B492" s="156"/>
+      <c r="C492" s="157"/>
       <c r="D492" s="20">
         <v>1</v>
       </c>
@@ -23193,11 +23150,11 @@
       </c>
     </row>
     <row r="493" spans="1:14">
-      <c r="A493" s="163" t="s">
+      <c r="A493" s="155" t="s">
         <v>491</v>
       </c>
-      <c r="B493" s="164"/>
-      <c r="C493" s="165"/>
+      <c r="B493" s="156"/>
+      <c r="C493" s="157"/>
       <c r="D493" s="20">
         <v>1</v>
       </c>
@@ -23233,11 +23190,11 @@
       </c>
     </row>
     <row r="494" spans="1:14">
-      <c r="A494" s="163" t="s">
+      <c r="A494" s="155" t="s">
         <v>492</v>
       </c>
-      <c r="B494" s="164"/>
-      <c r="C494" s="165"/>
+      <c r="B494" s="156"/>
+      <c r="C494" s="157"/>
       <c r="D494" s="20">
         <v>1</v>
       </c>
@@ -23273,11 +23230,11 @@
       </c>
     </row>
     <row r="495" spans="1:14">
-      <c r="A495" s="163" t="s">
+      <c r="A495" s="155" t="s">
         <v>493</v>
       </c>
-      <c r="B495" s="164"/>
-      <c r="C495" s="165"/>
+      <c r="B495" s="156"/>
+      <c r="C495" s="157"/>
       <c r="D495" s="20">
         <v>1</v>
       </c>
@@ -23313,11 +23270,11 @@
       </c>
     </row>
     <row r="496" spans="1:14">
-      <c r="A496" s="163" t="s">
+      <c r="A496" s="155" t="s">
         <v>494</v>
       </c>
-      <c r="B496" s="164"/>
-      <c r="C496" s="165"/>
+      <c r="B496" s="156"/>
+      <c r="C496" s="157"/>
       <c r="D496" s="20">
         <v>1</v>
       </c>
@@ -23353,11 +23310,11 @@
       </c>
     </row>
     <row r="497" spans="1:14">
-      <c r="A497" s="163" t="s">
+      <c r="A497" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="B497" s="164"/>
-      <c r="C497" s="165"/>
+      <c r="B497" s="156"/>
+      <c r="C497" s="157"/>
       <c r="D497" s="20">
         <v>1</v>
       </c>
@@ -23393,11 +23350,11 @@
       </c>
     </row>
     <row r="498" spans="1:14">
-      <c r="A498" s="163" t="s">
+      <c r="A498" s="155" t="s">
         <v>496</v>
       </c>
-      <c r="B498" s="164"/>
-      <c r="C498" s="165"/>
+      <c r="B498" s="156"/>
+      <c r="C498" s="157"/>
       <c r="D498" s="20">
         <v>1</v>
       </c>
@@ -23433,11 +23390,11 @@
       </c>
     </row>
     <row r="499" spans="1:14">
-      <c r="A499" s="163" t="s">
+      <c r="A499" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="B499" s="164"/>
-      <c r="C499" s="165"/>
+      <c r="B499" s="156"/>
+      <c r="C499" s="157"/>
       <c r="D499" s="20">
         <v>1</v>
       </c>
@@ -23473,11 +23430,11 @@
       </c>
     </row>
     <row r="500" spans="1:14">
-      <c r="A500" s="163" t="s">
+      <c r="A500" s="155" t="s">
         <v>498</v>
       </c>
-      <c r="B500" s="164"/>
-      <c r="C500" s="165"/>
+      <c r="B500" s="156"/>
+      <c r="C500" s="157"/>
       <c r="D500" s="20">
         <v>1</v>
       </c>
@@ -23513,11 +23470,11 @@
       </c>
     </row>
     <row r="501" spans="1:14">
-      <c r="A501" s="163" t="s">
+      <c r="A501" s="155" t="s">
         <v>499</v>
       </c>
-      <c r="B501" s="164"/>
-      <c r="C501" s="165"/>
+      <c r="B501" s="156"/>
+      <c r="C501" s="157"/>
       <c r="D501" s="20">
         <v>1</v>
       </c>
@@ -23553,11 +23510,11 @@
       </c>
     </row>
     <row r="502" spans="1:14">
-      <c r="A502" s="163" t="s">
+      <c r="A502" s="155" t="s">
         <v>500</v>
       </c>
-      <c r="B502" s="164"/>
-      <c r="C502" s="165"/>
+      <c r="B502" s="156"/>
+      <c r="C502" s="157"/>
       <c r="D502" s="20">
         <v>1</v>
       </c>
@@ -23593,11 +23550,11 @@
       </c>
     </row>
     <row r="503" spans="1:14">
-      <c r="A503" s="163" t="s">
+      <c r="A503" s="155" t="s">
         <v>501</v>
       </c>
-      <c r="B503" s="164"/>
-      <c r="C503" s="165"/>
+      <c r="B503" s="156"/>
+      <c r="C503" s="157"/>
       <c r="D503" s="20">
         <v>1</v>
       </c>
@@ -23633,11 +23590,11 @@
       </c>
     </row>
     <row r="504" spans="1:14">
-      <c r="A504" s="163" t="s">
+      <c r="A504" s="155" t="s">
         <v>502</v>
       </c>
-      <c r="B504" s="164"/>
-      <c r="C504" s="165"/>
+      <c r="B504" s="156"/>
+      <c r="C504" s="157"/>
       <c r="D504" s="20">
         <v>1</v>
       </c>
@@ -23673,11 +23630,11 @@
       </c>
     </row>
     <row r="505" spans="1:14">
-      <c r="A505" s="163" t="s">
+      <c r="A505" s="155" t="s">
         <v>503</v>
       </c>
-      <c r="B505" s="164"/>
-      <c r="C505" s="165"/>
+      <c r="B505" s="156"/>
+      <c r="C505" s="157"/>
       <c r="D505" s="20">
         <v>1</v>
       </c>
@@ -23713,11 +23670,11 @@
       </c>
     </row>
     <row r="506" spans="1:14">
-      <c r="A506" s="163" t="s">
+      <c r="A506" s="155" t="s">
         <v>504</v>
       </c>
-      <c r="B506" s="164"/>
-      <c r="C506" s="165"/>
+      <c r="B506" s="156"/>
+      <c r="C506" s="157"/>
       <c r="D506" s="20">
         <v>1</v>
       </c>
@@ -23753,11 +23710,11 @@
       </c>
     </row>
     <row r="507" spans="1:14">
-      <c r="A507" s="163" t="s">
+      <c r="A507" s="155" t="s">
         <v>505</v>
       </c>
-      <c r="B507" s="164"/>
-      <c r="C507" s="165"/>
+      <c r="B507" s="156"/>
+      <c r="C507" s="157"/>
       <c r="D507" s="20">
         <v>1</v>
       </c>
@@ -23793,11 +23750,11 @@
       </c>
     </row>
     <row r="508" spans="1:14">
-      <c r="A508" s="163" t="s">
+      <c r="A508" s="155" t="s">
         <v>506</v>
       </c>
-      <c r="B508" s="164"/>
-      <c r="C508" s="165"/>
+      <c r="B508" s="156"/>
+      <c r="C508" s="157"/>
       <c r="D508" s="20">
         <v>1</v>
       </c>
@@ -23833,11 +23790,11 @@
       </c>
     </row>
     <row r="509" spans="1:14">
-      <c r="A509" s="163" t="s">
+      <c r="A509" s="155" t="s">
         <v>507</v>
       </c>
-      <c r="B509" s="164"/>
-      <c r="C509" s="165"/>
+      <c r="B509" s="156"/>
+      <c r="C509" s="157"/>
       <c r="D509" s="20">
         <v>1</v>
       </c>
@@ -23873,11 +23830,11 @@
       </c>
     </row>
     <row r="510" spans="1:14">
-      <c r="A510" s="163" t="s">
+      <c r="A510" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="B510" s="164"/>
-      <c r="C510" s="165"/>
+      <c r="B510" s="156"/>
+      <c r="C510" s="157"/>
       <c r="D510" s="20">
         <v>1</v>
       </c>
@@ -23913,11 +23870,11 @@
       </c>
     </row>
     <row r="511" spans="1:14">
-      <c r="A511" s="163" t="s">
+      <c r="A511" s="155" t="s">
         <v>509</v>
       </c>
-      <c r="B511" s="164"/>
-      <c r="C511" s="165"/>
+      <c r="B511" s="156"/>
+      <c r="C511" s="157"/>
       <c r="D511" s="20">
         <v>1</v>
       </c>
@@ -23953,11 +23910,11 @@
       </c>
     </row>
     <row r="512" spans="1:14">
-      <c r="A512" s="163" t="s">
+      <c r="A512" s="155" t="s">
         <v>510</v>
       </c>
-      <c r="B512" s="164"/>
-      <c r="C512" s="165"/>
+      <c r="B512" s="156"/>
+      <c r="C512" s="157"/>
       <c r="D512" s="20">
         <v>1</v>
       </c>
@@ -23993,11 +23950,11 @@
       </c>
     </row>
     <row r="513" spans="1:14">
-      <c r="A513" s="163" t="s">
+      <c r="A513" s="155" t="s">
         <v>511</v>
       </c>
-      <c r="B513" s="164"/>
-      <c r="C513" s="165"/>
+      <c r="B513" s="156"/>
+      <c r="C513" s="157"/>
       <c r="D513" s="20">
         <v>1</v>
       </c>
@@ -24033,11 +23990,11 @@
       </c>
     </row>
     <row r="514" spans="1:14">
-      <c r="A514" s="163" t="s">
+      <c r="A514" s="155" t="s">
         <v>512</v>
       </c>
-      <c r="B514" s="164"/>
-      <c r="C514" s="165"/>
+      <c r="B514" s="156"/>
+      <c r="C514" s="157"/>
       <c r="D514" s="20">
         <v>1</v>
       </c>
@@ -24073,11 +24030,11 @@
       </c>
     </row>
     <row r="515" spans="1:14">
-      <c r="A515" s="163" t="s">
+      <c r="A515" s="155" t="s">
         <v>513</v>
       </c>
-      <c r="B515" s="164"/>
-      <c r="C515" s="165"/>
+      <c r="B515" s="156"/>
+      <c r="C515" s="157"/>
       <c r="D515" s="20">
         <v>1</v>
       </c>
@@ -24113,11 +24070,11 @@
       </c>
     </row>
     <row r="516" spans="1:14">
-      <c r="A516" s="163" t="s">
+      <c r="A516" s="155" t="s">
         <v>514</v>
       </c>
-      <c r="B516" s="164"/>
-      <c r="C516" s="165"/>
+      <c r="B516" s="156"/>
+      <c r="C516" s="157"/>
       <c r="D516" s="20">
         <v>1</v>
       </c>
@@ -24153,11 +24110,11 @@
       </c>
     </row>
     <row r="517" spans="1:14">
-      <c r="A517" s="163" t="s">
+      <c r="A517" s="155" t="s">
         <v>515</v>
       </c>
-      <c r="B517" s="164"/>
-      <c r="C517" s="165"/>
+      <c r="B517" s="156"/>
+      <c r="C517" s="157"/>
       <c r="D517" s="20">
         <v>1</v>
       </c>
@@ -24193,11 +24150,11 @@
       </c>
     </row>
     <row r="518" spans="1:14">
-      <c r="A518" s="163" t="s">
+      <c r="A518" s="155" t="s">
         <v>516</v>
       </c>
-      <c r="B518" s="164"/>
-      <c r="C518" s="165"/>
+      <c r="B518" s="156"/>
+      <c r="C518" s="157"/>
       <c r="D518" s="20">
         <v>1</v>
       </c>
@@ -24233,11 +24190,11 @@
       </c>
     </row>
     <row r="519" spans="1:14">
-      <c r="A519" s="163" t="s">
+      <c r="A519" s="155" t="s">
         <v>517</v>
       </c>
-      <c r="B519" s="164"/>
-      <c r="C519" s="165"/>
+      <c r="B519" s="156"/>
+      <c r="C519" s="157"/>
       <c r="D519" s="20">
         <v>1</v>
       </c>
@@ -24273,11 +24230,11 @@
       </c>
     </row>
     <row r="520" spans="1:14">
-      <c r="A520" s="163" t="s">
+      <c r="A520" s="155" t="s">
         <v>518</v>
       </c>
-      <c r="B520" s="164"/>
-      <c r="C520" s="165"/>
+      <c r="B520" s="156"/>
+      <c r="C520" s="157"/>
       <c r="D520" s="20">
         <v>1</v>
       </c>
@@ -24313,11 +24270,11 @@
       </c>
     </row>
     <row r="521" spans="1:14">
-      <c r="A521" s="163" t="s">
+      <c r="A521" s="155" t="s">
         <v>519</v>
       </c>
-      <c r="B521" s="164"/>
-      <c r="C521" s="165"/>
+      <c r="B521" s="156"/>
+      <c r="C521" s="157"/>
       <c r="D521" s="20">
         <v>1</v>
       </c>
@@ -24353,11 +24310,11 @@
       </c>
     </row>
     <row r="522" spans="1:14">
-      <c r="A522" s="163" t="s">
+      <c r="A522" s="155" t="s">
         <v>520</v>
       </c>
-      <c r="B522" s="164"/>
-      <c r="C522" s="165"/>
+      <c r="B522" s="156"/>
+      <c r="C522" s="157"/>
       <c r="D522" s="20">
         <v>1</v>
       </c>
@@ -24393,11 +24350,11 @@
       </c>
     </row>
     <row r="523" spans="1:14">
-      <c r="A523" s="163" t="s">
+      <c r="A523" s="155" t="s">
         <v>521</v>
       </c>
-      <c r="B523" s="164"/>
-      <c r="C523" s="165"/>
+      <c r="B523" s="156"/>
+      <c r="C523" s="157"/>
       <c r="D523" s="20">
         <v>1</v>
       </c>
@@ -24433,11 +24390,11 @@
       </c>
     </row>
     <row r="524" spans="1:14">
-      <c r="A524" s="163" t="s">
+      <c r="A524" s="155" t="s">
         <v>522</v>
       </c>
-      <c r="B524" s="164"/>
-      <c r="C524" s="165"/>
+      <c r="B524" s="156"/>
+      <c r="C524" s="157"/>
       <c r="D524" s="20">
         <v>1</v>
       </c>
@@ -24473,11 +24430,11 @@
       </c>
     </row>
     <row r="525" spans="1:14">
-      <c r="A525" s="163" t="s">
+      <c r="A525" s="155" t="s">
         <v>523</v>
       </c>
-      <c r="B525" s="164"/>
-      <c r="C525" s="165"/>
+      <c r="B525" s="156"/>
+      <c r="C525" s="157"/>
       <c r="D525" s="20">
         <v>1</v>
       </c>
@@ -24513,11 +24470,11 @@
       </c>
     </row>
     <row r="526" spans="1:14">
-      <c r="A526" s="163" t="s">
+      <c r="A526" s="155" t="s">
         <v>524</v>
       </c>
-      <c r="B526" s="164"/>
-      <c r="C526" s="165"/>
+      <c r="B526" s="156"/>
+      <c r="C526" s="157"/>
       <c r="D526" s="20">
         <v>1</v>
       </c>
@@ -24553,11 +24510,11 @@
       </c>
     </row>
     <row r="527" spans="1:14">
-      <c r="A527" s="163" t="s">
+      <c r="A527" s="155" t="s">
         <v>525</v>
       </c>
-      <c r="B527" s="164"/>
-      <c r="C527" s="165"/>
+      <c r="B527" s="156"/>
+      <c r="C527" s="157"/>
       <c r="D527" s="20">
         <v>1</v>
       </c>
@@ -24593,11 +24550,11 @@
       </c>
     </row>
     <row r="528" spans="1:14">
-      <c r="A528" s="163" t="s">
+      <c r="A528" s="155" t="s">
         <v>526</v>
       </c>
-      <c r="B528" s="164"/>
-      <c r="C528" s="165"/>
+      <c r="B528" s="156"/>
+      <c r="C528" s="157"/>
       <c r="D528" s="20">
         <v>1</v>
       </c>
@@ -24633,11 +24590,11 @@
       </c>
     </row>
     <row r="529" spans="1:14">
-      <c r="A529" s="163" t="s">
+      <c r="A529" s="155" t="s">
         <v>527</v>
       </c>
-      <c r="B529" s="164"/>
-      <c r="C529" s="165"/>
+      <c r="B529" s="156"/>
+      <c r="C529" s="157"/>
       <c r="D529" s="20">
         <v>1</v>
       </c>
@@ -24673,11 +24630,11 @@
       </c>
     </row>
     <row r="530" spans="1:14">
-      <c r="A530" s="163" t="s">
+      <c r="A530" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="B530" s="164"/>
-      <c r="C530" s="165"/>
+      <c r="B530" s="156"/>
+      <c r="C530" s="157"/>
       <c r="D530" s="20">
         <v>1</v>
       </c>
@@ -24713,11 +24670,11 @@
       </c>
     </row>
     <row r="531" spans="1:14">
-      <c r="A531" s="163" t="s">
+      <c r="A531" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="B531" s="164"/>
-      <c r="C531" s="165"/>
+      <c r="B531" s="156"/>
+      <c r="C531" s="157"/>
       <c r="D531" s="20">
         <v>1</v>
       </c>
@@ -24753,11 +24710,11 @@
       </c>
     </row>
     <row r="532" spans="1:14">
-      <c r="A532" s="163" t="s">
+      <c r="A532" s="155" t="s">
         <v>530</v>
       </c>
-      <c r="B532" s="164"/>
-      <c r="C532" s="165"/>
+      <c r="B532" s="156"/>
+      <c r="C532" s="157"/>
       <c r="D532" s="20">
         <v>1</v>
       </c>
@@ -24794,17 +24751,480 @@
     </row>
   </sheetData>
   <mergeCells count="497">
-    <mergeCell ref="A528:C528"/>
-    <mergeCell ref="A529:C529"/>
-    <mergeCell ref="A530:C530"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A532:C532"/>
-    <mergeCell ref="A522:C522"/>
-    <mergeCell ref="A523:C523"/>
-    <mergeCell ref="A524:C524"/>
-    <mergeCell ref="A525:C525"/>
-    <mergeCell ref="A526:C526"/>
-    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C415"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="A426:C426"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="A445:C445"/>
+    <mergeCell ref="A446:C446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A438:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A455:C455"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A465:C465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C481"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A478:C478"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A492:C492"/>
+    <mergeCell ref="A493:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="A490:C490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A498:C498"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A501:C501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C503"/>
     <mergeCell ref="A516:C516"/>
     <mergeCell ref="A517:C517"/>
     <mergeCell ref="A518:C518"/>
@@ -24817,480 +25237,17 @@
     <mergeCell ref="A513:C513"/>
     <mergeCell ref="A514:C514"/>
     <mergeCell ref="A515:C515"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A498:C498"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A501:C501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C503"/>
-    <mergeCell ref="A492:C492"/>
-    <mergeCell ref="A493:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="A490:C490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A478:C478"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A465:C465"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A455:C455"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="A445:C445"/>
-    <mergeCell ref="A446:C446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A438:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A443:C443"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="A426:C426"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C415"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A528:C528"/>
+    <mergeCell ref="A529:C529"/>
+    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A532:C532"/>
+    <mergeCell ref="A522:C522"/>
+    <mergeCell ref="A523:C523"/>
+    <mergeCell ref="A524:C524"/>
+    <mergeCell ref="A525:C525"/>
+    <mergeCell ref="A526:C526"/>
+    <mergeCell ref="A527:C527"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25503,10 +25460,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="175" t="s">
         <v>539</v>
       </c>
-      <c r="B9" s="174"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="51">
         <v>60</v>
       </c>
@@ -25877,10 +25834,10 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="175" t="s">
         <v>548</v>
       </c>
-      <c r="B24" s="174"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="54">
         <v>0.15</v>
       </c>
@@ -26383,22 +26340,22 @@
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="173">
+      <c r="C45" s="174">
         <v>0.318</v>
       </c>
-      <c r="D45" s="173">
+      <c r="D45" s="174">
         <v>0.254</v>
       </c>
-      <c r="E45" s="173">
+      <c r="E45" s="174">
         <v>0.182</v>
       </c>
-      <c r="F45" s="173">
+      <c r="F45" s="174">
         <v>0.253</v>
       </c>
-      <c r="G45" s="173">
+      <c r="G45" s="174">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H45" s="173">
+      <c r="H45" s="174">
         <v>0.151</v>
       </c>
     </row>
@@ -26409,12 +26366,12 @@
       <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="174"/>
+      <c r="H46" s="174"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">

--- a/resources/factories.xlsx
+++ b/resources/factories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vico/Sites/diggersfactory/api/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C892FD9-7F85-D247-B5A4-101D0C444052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660EFAE-0E19-7D4B-81D6-A8ED213D12F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46600" yWindow="4780" windowWidth="31780" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDP" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="793">
   <si>
     <t>F</t>
   </si>
@@ -3095,6 +3095,63 @@
   <si>
     <t>Stickering</t>
   </si>
+  <si>
+    <t>Sticker Imprimés 4 Couleurs Extra Large (101 à 200 cm²)</t>
+  </si>
+  <si>
+    <t>Sticker Imprimés 4 Couleurs Large (51 à 100 cm²)</t>
+  </si>
+  <si>
+    <t>Sticker Imprimés 4 Couleurs medium (11 à 50 cm²)</t>
+  </si>
+  <si>
+    <t>Sticker Imprimés 4 Couleurs Small (up to 10 cm²)</t>
+  </si>
+  <si>
+    <t>Collage pochette Gatefold</t>
+  </si>
+  <si>
+    <t>Dispatch 2ème adresse TP Europe</t>
+  </si>
+  <si>
+    <t>Dispatch 2ème adresse TP USA</t>
+  </si>
+  <si>
+    <t>PVC sans rabat</t>
+  </si>
+  <si>
+    <t>Leaflet / encart 4 pages impression 4/4</t>
+  </si>
+  <si>
+    <t>Insert one side</t>
+  </si>
+  <si>
+    <t>Insert two sides</t>
+  </si>
+  <si>
+    <t>Poster one side 30x60 / Insert 4pp</t>
+  </si>
+  <si>
+    <t>Poster two sides 30x60 / Insert 4 pp 4/4</t>
+  </si>
+  <si>
+    <t>Booklet 4 pages / 8pp</t>
+  </si>
+  <si>
+    <t>Booklet 8 pages /16pp</t>
+  </si>
+  <si>
+    <t>Supplément pochette kraft</t>
+  </si>
+  <si>
+    <t>Barcode Sticker</t>
+  </si>
+  <si>
+    <t>Vinyl 7"</t>
+  </si>
+  <si>
+    <t>Forfait changement de couleur (même référence)</t>
+  </si>
 </sst>
 </file>
 
@@ -3116,7 +3173,7 @@
     <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="#,##0.00[$€];[Red]\-#,##0.00[$€]"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3336,6 +3393,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3812,7 +3888,7 @@
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4267,37 +4343,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4309,6 +4368,19 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4318,14 +4390,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4333,6 +4409,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro 2" xfId="7" xr:uid="{432DEE75-1BDC-A54A-BC5D-CAF4D250B185}"/>
@@ -4625,10 +4704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BE0D3-BEF4-8549-9F8D-EB0B148D3BC3}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5323,6 +5402,466 @@
       </c>
       <c r="G30" s="111">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="176" t="s">
+        <v>774</v>
+      </c>
+      <c r="B31" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="176">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31" s="176">
+        <v>0.44</v>
+      </c>
+      <c r="E31" s="176">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="176">
+        <v>0.24</v>
+      </c>
+      <c r="G31" s="176">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="176" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="176">
+        <v>0.46</v>
+      </c>
+      <c r="D32" s="176">
+        <v>0.39</v>
+      </c>
+      <c r="E32" s="176">
+        <v>0.24</v>
+      </c>
+      <c r="F32" s="176">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="176">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="176" t="s">
+        <v>776</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="176">
+        <v>0.43</v>
+      </c>
+      <c r="D33" s="176">
+        <v>0.35</v>
+      </c>
+      <c r="E33" s="176">
+        <v>0.22</v>
+      </c>
+      <c r="F33" s="176">
+        <v>0.18</v>
+      </c>
+      <c r="G33" s="176">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="176" t="s">
+        <v>777</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="176">
+        <v>0.35</v>
+      </c>
+      <c r="D34" s="176">
+        <v>0.32</v>
+      </c>
+      <c r="E34" s="176">
+        <v>0.21</v>
+      </c>
+      <c r="F34" s="176">
+        <v>0.17</v>
+      </c>
+      <c r="G34" s="176">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="176" t="s">
+        <v>778</v>
+      </c>
+      <c r="B35" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="176">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="176">
+        <v>0.15</v>
+      </c>
+      <c r="E35" s="176">
+        <v>0.12</v>
+      </c>
+      <c r="F35" s="176">
+        <v>0.12</v>
+      </c>
+      <c r="G35" s="176">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="176" t="s">
+        <v>779</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="176">
+        <v>35</v>
+      </c>
+      <c r="D36" s="176">
+        <v>35</v>
+      </c>
+      <c r="E36" s="176">
+        <v>35</v>
+      </c>
+      <c r="F36" s="176">
+        <v>35</v>
+      </c>
+      <c r="G36" s="176">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="177" t="s">
+        <v>780</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="176">
+        <v>45</v>
+      </c>
+      <c r="D37" s="176">
+        <v>45</v>
+      </c>
+      <c r="E37" s="176">
+        <v>45</v>
+      </c>
+      <c r="F37" s="176">
+        <v>45</v>
+      </c>
+      <c r="G37" s="176">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="176" t="s">
+        <v>781</v>
+      </c>
+      <c r="B38" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="176">
+        <v>0.61</v>
+      </c>
+      <c r="D38" s="176">
+        <v>0.61</v>
+      </c>
+      <c r="E38" s="176">
+        <v>0.61</v>
+      </c>
+      <c r="F38" s="176">
+        <v>0.61</v>
+      </c>
+      <c r="G38" s="176">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="176" t="s">
+        <v>782</v>
+      </c>
+      <c r="B39" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="178">
+        <v>0.82</v>
+      </c>
+      <c r="D39" s="178">
+        <v>0.49</v>
+      </c>
+      <c r="E39" s="178">
+        <v>0.35</v>
+      </c>
+      <c r="F39" s="178">
+        <v>0.17</v>
+      </c>
+      <c r="G39" s="178">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="176" t="s">
+        <v>783</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="176">
+        <v>0.42</v>
+      </c>
+      <c r="D40" s="176">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E40" s="176">
+        <v>0.17</v>
+      </c>
+      <c r="F40" s="176">
+        <v>0.11</v>
+      </c>
+      <c r="G40" s="176">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="176" t="s">
+        <v>784</v>
+      </c>
+      <c r="B41" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="176">
+        <v>0.47</v>
+      </c>
+      <c r="D41" s="176">
+        <v>0.33</v>
+      </c>
+      <c r="E41" s="176">
+        <v>0.22</v>
+      </c>
+      <c r="F41" s="176">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G41" s="176">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="176" t="s">
+        <v>785</v>
+      </c>
+      <c r="B42" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="176">
+        <v>0.83</v>
+      </c>
+      <c r="D42" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="176">
+        <v>0.33</v>
+      </c>
+      <c r="F42" s="176">
+        <v>0.17</v>
+      </c>
+      <c r="G42" s="176">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="176" t="s">
+        <v>786</v>
+      </c>
+      <c r="B43" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="176">
+        <v>0.9</v>
+      </c>
+      <c r="D43" s="176">
+        <v>0.54</v>
+      </c>
+      <c r="E43" s="176">
+        <v>0.39</v>
+      </c>
+      <c r="F43" s="176">
+        <v>0.19</v>
+      </c>
+      <c r="G43" s="176">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="176" t="s">
+        <v>787</v>
+      </c>
+      <c r="B44" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="176">
+        <v>1.63</v>
+      </c>
+      <c r="D44" s="176">
+        <v>0.98</v>
+      </c>
+      <c r="E44" s="176">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F44" s="176">
+        <v>0.31</v>
+      </c>
+      <c r="G44" s="176">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="176" t="s">
+        <v>788</v>
+      </c>
+      <c r="B45" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="176">
+        <v>2.92</v>
+      </c>
+      <c r="D45" s="176">
+        <v>1.75</v>
+      </c>
+      <c r="E45" s="176">
+        <v>0.95</v>
+      </c>
+      <c r="F45" s="176">
+        <v>0.51</v>
+      </c>
+      <c r="G45" s="176">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="176" t="s">
+        <v>789</v>
+      </c>
+      <c r="B46" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="176">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="176">
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="176">
+        <v>0.15</v>
+      </c>
+      <c r="E47" s="176">
+        <v>0.15</v>
+      </c>
+      <c r="F47" s="176">
+        <v>0.15</v>
+      </c>
+      <c r="G47" s="176">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="176" t="s">
+        <v>790</v>
+      </c>
+      <c r="B48" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="176">
+        <v>0.33</v>
+      </c>
+      <c r="D48" s="176">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E48" s="176">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="176">
+        <v>0.19</v>
+      </c>
+      <c r="G48" s="176">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="176" t="s">
+        <v>791</v>
+      </c>
+      <c r="B49" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="176">
+        <v>2.92</v>
+      </c>
+      <c r="D49" s="176">
+        <v>2.82</v>
+      </c>
+      <c r="E49" s="176">
+        <v>2.02</v>
+      </c>
+      <c r="F49" s="176">
+        <v>2.02</v>
+      </c>
+      <c r="G49" s="176">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="176" t="s">
+        <v>792</v>
+      </c>
+      <c r="B50" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="176">
+        <v>165</v>
+      </c>
+      <c r="D50" s="176">
+        <v>165</v>
+      </c>
+      <c r="E50" s="176">
+        <v>165</v>
+      </c>
+      <c r="F50" s="176">
+        <v>165</v>
+      </c>
+      <c r="G50" s="176">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5344,11 +5883,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
       <c r="D1" s="81" t="s">
         <v>71</v>
       </c>
@@ -5384,11 +5923,11 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="84"/>
@@ -5402,11 +5941,11 @@
       <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="85"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
@@ -5440,11 +5979,11 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="85"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -5478,11 +6017,11 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="85"/>
       <c r="E5" s="6" t="s">
         <v>0</v>
@@ -5516,11 +6055,11 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="85"/>
       <c r="E6" s="6" t="s">
         <v>0</v>
@@ -5554,11 +6093,11 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="85"/>
       <c r="E7" s="6" t="s">
         <v>0</v>
@@ -5592,11 +6131,11 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="85"/>
       <c r="E8" s="6" t="s">
         <v>0</v>
@@ -5630,11 +6169,11 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="167"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="85"/>
       <c r="E9" s="6" t="s">
         <v>0</v>
@@ -5668,11 +6207,11 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="85"/>
       <c r="E10" s="6" t="s">
         <v>0</v>
@@ -5706,11 +6245,11 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="167"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="85"/>
       <c r="E11" s="6" t="s">
         <v>0</v>
@@ -5744,11 +6283,11 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="85"/>
       <c r="E12" s="6" t="s">
         <v>0</v>
@@ -5782,11 +6321,11 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="85"/>
       <c r="E13" s="6" t="s">
         <v>0</v>
@@ -5820,11 +6359,11 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="85"/>
       <c r="E14" s="6" t="s">
         <v>0</v>
@@ -5858,11 +6397,11 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="167"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
       <c r="D15" s="85"/>
       <c r="E15" s="6" t="s">
         <v>0</v>
@@ -5896,11 +6435,11 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
       <c r="D16" s="85"/>
       <c r="E16" s="6" t="s">
         <v>0</v>
@@ -5934,11 +6473,11 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
       <c r="D17" s="85"/>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -5972,11 +6511,11 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="85"/>
       <c r="E18" s="6" t="s">
         <v>0</v>
@@ -6010,11 +6549,11 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="84"/>
@@ -6028,11 +6567,11 @@
       <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
       <c r="D20" s="85"/>
       <c r="E20" s="6" t="s">
         <v>0</v>
@@ -6066,11 +6605,11 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="167"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="85"/>
       <c r="E21" s="6" t="s">
         <v>0</v>
@@ -6104,11 +6643,11 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="85"/>
       <c r="E22" s="6" t="s">
         <v>0</v>
@@ -6142,11 +6681,11 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="85"/>
       <c r="E23" s="6" t="s">
         <v>0</v>
@@ -6180,11 +6719,11 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="163"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="84"/>
@@ -6198,11 +6737,11 @@
       <c r="N24" s="84"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
       <c r="D25" s="85"/>
       <c r="E25" s="6" t="s">
         <v>0</v>
@@ -6236,11 +6775,11 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="162"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="84"/>
@@ -6254,11 +6793,11 @@
       <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="167"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
       <c r="D27" s="85"/>
       <c r="E27" s="6" t="s">
         <v>0</v>
@@ -6292,11 +6831,11 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
       <c r="D28" s="85"/>
       <c r="E28" s="6" t="s">
         <v>0</v>
@@ -6330,11 +6869,11 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="85"/>
       <c r="E29" s="6" t="s">
         <v>0</v>
@@ -6368,11 +6907,11 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="85"/>
       <c r="E30" s="6" t="s">
         <v>0</v>
@@ -6406,11 +6945,11 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="85"/>
       <c r="E31" s="6" t="s">
         <v>0</v>
@@ -6444,11 +6983,11 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
       <c r="D32" s="85"/>
       <c r="E32" s="6" t="s">
         <v>0</v>
@@ -6550,11 +7089,11 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="170"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="169"/>
       <c r="D36" s="15"/>
       <c r="E36" s="82" t="s">
         <v>72</v>
@@ -6606,11 +7145,11 @@
       <c r="N37" s="94"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="161"/>
-      <c r="C38" s="162"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="163"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="84"/>
@@ -6624,11 +7163,11 @@
       <c r="N38" s="84"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="166"/>
       <c r="D39" s="20"/>
       <c r="E39" s="6" t="s">
         <v>5</v>
@@ -6662,11 +7201,11 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
       <c r="D40" s="20"/>
       <c r="E40" s="6" t="s">
         <v>5</v>
@@ -6700,11 +7239,11 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="155" t="s">
+      <c r="A41" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="20"/>
       <c r="E41" s="6" t="s">
         <v>5</v>
@@ -6738,11 +7277,11 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="20"/>
       <c r="E42" s="6" t="s">
         <v>5</v>
@@ -6776,11 +7315,11 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="20"/>
       <c r="E43" s="6" t="s">
         <v>5</v>
@@ -6814,11 +7353,11 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="20"/>
       <c r="E44" s="6" t="s">
         <v>5</v>
@@ -6852,11 +7391,11 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="20"/>
       <c r="E45" s="6" t="s">
         <v>5</v>
@@ -6906,11 +7445,11 @@
       <c r="N46" s="97"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="160" t="s">
+      <c r="A47" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="161"/>
-      <c r="C47" s="162"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="84"/>
@@ -6924,11 +7463,11 @@
       <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="156"/>
-      <c r="C48" s="157"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
       <c r="D48" s="20"/>
       <c r="E48" s="6" t="s">
         <v>5</v>
@@ -6962,11 +7501,11 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="156"/>
-      <c r="C49" s="157"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
       <c r="D49" s="20"/>
       <c r="E49" s="6" t="s">
         <v>5</v>
@@ -7000,11 +7539,11 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="157"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
       <c r="D50" s="20"/>
       <c r="E50" s="6" t="s">
         <v>5</v>
@@ -7038,11 +7577,11 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="157"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
       <c r="D51" s="20"/>
       <c r="E51" s="6" t="s">
         <v>5</v>
@@ -7076,11 +7615,11 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="156"/>
-      <c r="C52" s="157"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
       <c r="D52" s="20"/>
       <c r="E52" s="6" t="s">
         <v>5</v>
@@ -7114,11 +7653,11 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="156"/>
-      <c r="C53" s="157"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
       <c r="D53" s="20"/>
       <c r="E53" s="6" t="s">
         <v>5</v>
@@ -7152,11 +7691,11 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
       <c r="D54" s="20"/>
       <c r="E54" s="6" t="s">
         <v>5</v>
@@ -7190,11 +7729,11 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="155" t="s">
+      <c r="A55" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="156"/>
-      <c r="C55" s="157"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
       <c r="D55" s="20"/>
       <c r="E55" s="6" t="s">
         <v>5</v>
@@ -7228,11 +7767,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="156"/>
-      <c r="C56" s="157"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="20"/>
       <c r="E56" s="6" t="s">
         <v>5</v>
@@ -7266,11 +7805,11 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="157"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
       <c r="D57" s="20"/>
       <c r="E57" s="6" t="s">
         <v>5</v>
@@ -7304,11 +7843,11 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="155" t="s">
+      <c r="A58" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
       <c r="D58" s="20"/>
       <c r="E58" s="6" t="s">
         <v>5</v>
@@ -7342,11 +7881,11 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
       <c r="D59" s="20"/>
       <c r="E59" s="6" t="s">
         <v>5</v>
@@ -7380,11 +7919,11 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
       <c r="D60" s="20"/>
       <c r="E60" s="6" t="s">
         <v>5</v>
@@ -7418,11 +7957,11 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="157"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
       <c r="D61" s="20"/>
       <c r="E61" s="6" t="s">
         <v>5</v>
@@ -7456,11 +7995,11 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="155" t="s">
+      <c r="A62" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="157"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="166"/>
       <c r="D62" s="20"/>
       <c r="E62" s="6" t="s">
         <v>5</v>
@@ -7494,11 +8033,11 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="157"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="166"/>
       <c r="D63" s="20"/>
       <c r="E63" s="6" t="s">
         <v>5</v>
@@ -7532,11 +8071,11 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="155" t="s">
+      <c r="A64" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="156"/>
-      <c r="C64" s="157"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
       <c r="D64" s="20"/>
       <c r="E64" s="6" t="s">
         <v>5</v>
@@ -7570,11 +8109,11 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="164" t="s">
         <v>628</v>
       </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="157"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="166"/>
       <c r="D65" s="20"/>
       <c r="E65" s="6" t="s">
         <v>5</v>
@@ -7608,11 +8147,11 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="164" t="s">
         <v>629</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="157"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
       <c r="D66" s="20"/>
       <c r="E66" s="6" t="s">
         <v>5</v>
@@ -7646,11 +8185,11 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="155" t="s">
+      <c r="A67" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="156"/>
-      <c r="C67" s="157"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
       <c r="D67" s="20"/>
       <c r="E67" s="6" t="s">
         <v>5</v>
@@ -7684,11 +8223,11 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="156"/>
-      <c r="C68" s="157"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
       <c r="D68" s="20"/>
       <c r="E68" s="6" t="s">
         <v>5</v>
@@ -7738,11 +8277,11 @@
       <c r="N69" s="98"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="160" t="s">
+      <c r="A70" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="162"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="163"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="84"/>
@@ -7756,11 +8295,11 @@
       <c r="N70" s="84"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="157"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
       <c r="D71" s="20"/>
       <c r="E71" s="6" t="s">
         <v>0</v>
@@ -7794,11 +8333,11 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="156"/>
-      <c r="C72" s="157"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
       <c r="D72" s="20"/>
       <c r="E72" s="6" t="s">
         <v>0</v>
@@ -7832,11 +8371,11 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="155" t="s">
+      <c r="A73" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="156"/>
-      <c r="C73" s="157"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
       <c r="D73" s="20"/>
       <c r="E73" s="6" t="s">
         <v>0</v>
@@ -7870,11 +8409,11 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="155" t="s">
+      <c r="A74" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="C74" s="157"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
       <c r="D74" s="20"/>
       <c r="E74" s="6" t="s">
         <v>0</v>
@@ -7908,11 +8447,11 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="156"/>
-      <c r="C75" s="157"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
       <c r="D75" s="20"/>
       <c r="E75" s="6" t="s">
         <v>0</v>
@@ -7946,11 +8485,11 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="155" t="s">
+      <c r="A76" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="156"/>
-      <c r="C76" s="157"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
       <c r="D76" s="20"/>
       <c r="E76" s="6" t="s">
         <v>0</v>
@@ -8000,11 +8539,11 @@
       <c r="N77" s="89"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="160" t="s">
+      <c r="A78" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="161"/>
-      <c r="C78" s="162"/>
+      <c r="B78" s="159"/>
+      <c r="C78" s="163"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
       <c r="F78" s="84"/>
@@ -8018,11 +8557,11 @@
       <c r="N78" s="84"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="155" t="s">
+      <c r="A79" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="156"/>
-      <c r="C79" s="157"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="166"/>
       <c r="D79" s="20"/>
       <c r="E79" s="6" t="s">
         <v>0</v>
@@ -8056,11 +8595,11 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="155" t="s">
+      <c r="A80" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="156"/>
-      <c r="C80" s="157"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="166"/>
       <c r="D80" s="20"/>
       <c r="E80" s="6" t="s">
         <v>0</v>
@@ -8094,11 +8633,11 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="155" t="s">
+      <c r="A81" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="156"/>
-      <c r="C81" s="157"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="166"/>
       <c r="D81" s="20"/>
       <c r="E81" s="6" t="s">
         <v>5</v>
@@ -8132,11 +8671,11 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="157"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="166"/>
       <c r="D82" s="20"/>
       <c r="E82" s="6" t="s">
         <v>5</v>
@@ -8170,11 +8709,11 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="155" t="s">
+      <c r="A83" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="156"/>
-      <c r="C83" s="157"/>
+      <c r="B83" s="165"/>
+      <c r="C83" s="166"/>
       <c r="D83" s="20"/>
       <c r="E83" s="6" t="s">
         <v>5</v>
@@ -8208,11 +8747,11 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="156"/>
-      <c r="C84" s="157"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="166"/>
       <c r="D84" s="20"/>
       <c r="E84" s="6" t="s">
         <v>5</v>
@@ -8246,11 +8785,11 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="157"/>
+      <c r="B85" s="165"/>
+      <c r="C85" s="166"/>
       <c r="D85" s="20"/>
       <c r="E85" s="6" t="s">
         <v>5</v>
@@ -8284,11 +8823,11 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="156"/>
-      <c r="C86" s="157"/>
+      <c r="B86" s="165"/>
+      <c r="C86" s="166"/>
       <c r="D86" s="20"/>
       <c r="E86" s="6" t="s">
         <v>5</v>
@@ -8372,11 +8911,11 @@
       <c r="N89" s="101"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="160" t="s">
+      <c r="A90" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="162"/>
+      <c r="B90" s="159"/>
+      <c r="C90" s="163"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5"/>
       <c r="F90" s="84"/>
@@ -8390,11 +8929,11 @@
       <c r="N90" s="84"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="155" t="s">
+      <c r="A91" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="157"/>
+      <c r="B91" s="165"/>
+      <c r="C91" s="166"/>
       <c r="D91" s="20"/>
       <c r="E91" s="6" t="s">
         <v>5</v>
@@ -8428,11 +8967,11 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="156"/>
-      <c r="C92" s="157"/>
+      <c r="B92" s="165"/>
+      <c r="C92" s="166"/>
       <c r="D92" s="20"/>
       <c r="E92" s="6" t="s">
         <v>5</v>
@@ -8466,11 +9005,11 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="157"/>
+      <c r="B93" s="165"/>
+      <c r="C93" s="166"/>
       <c r="D93" s="20">
         <v>6</v>
       </c>
@@ -8506,11 +9045,11 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="157"/>
+      <c r="B94" s="165"/>
+      <c r="C94" s="166"/>
       <c r="D94" s="20">
         <v>6</v>
       </c>
@@ -8546,11 +9085,11 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="156"/>
-      <c r="C95" s="157"/>
+      <c r="B95" s="165"/>
+      <c r="C95" s="166"/>
       <c r="D95" s="20">
         <v>6</v>
       </c>
@@ -8586,11 +9125,11 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="155" t="s">
+      <c r="A96" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="156"/>
-      <c r="C96" s="157"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="166"/>
       <c r="D96" s="20">
         <v>6</v>
       </c>
@@ -8626,11 +9165,11 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="155" t="s">
+      <c r="A97" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="156"/>
-      <c r="C97" s="157"/>
+      <c r="B97" s="165"/>
+      <c r="C97" s="166"/>
       <c r="D97" s="20">
         <v>6</v>
       </c>
@@ -8666,11 +9205,11 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="155" t="s">
+      <c r="A98" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="156"/>
-      <c r="C98" s="157"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="166"/>
       <c r="D98" s="20">
         <v>6</v>
       </c>
@@ -8706,11 +9245,11 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="155" t="s">
+      <c r="A99" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="B99" s="156"/>
-      <c r="C99" s="157"/>
+      <c r="B99" s="165"/>
+      <c r="C99" s="166"/>
       <c r="D99" s="20">
         <v>6</v>
       </c>
@@ -8746,11 +9285,11 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="155" t="s">
+      <c r="A100" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="B100" s="156"/>
-      <c r="C100" s="157"/>
+      <c r="B100" s="165"/>
+      <c r="C100" s="166"/>
       <c r="D100" s="20">
         <v>6</v>
       </c>
@@ -8802,11 +9341,11 @@
       <c r="N101" s="97"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="160" t="s">
+      <c r="A102" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="B102" s="161"/>
-      <c r="C102" s="162"/>
+      <c r="B102" s="159"/>
+      <c r="C102" s="163"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5"/>
       <c r="F102" s="84"/>
@@ -8820,11 +9359,11 @@
       <c r="N102" s="84"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="155" t="s">
+      <c r="A103" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="156"/>
-      <c r="C103" s="157"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="166"/>
       <c r="D103" s="20"/>
       <c r="E103" s="6" t="s">
         <v>5</v>
@@ -8858,11 +9397,11 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="155" t="s">
+      <c r="A104" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="156"/>
-      <c r="C104" s="157"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="166"/>
       <c r="D104" s="20"/>
       <c r="E104" s="6" t="s">
         <v>5</v>
@@ -8896,11 +9435,11 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="155" t="s">
+      <c r="A105" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="156"/>
-      <c r="C105" s="157"/>
+      <c r="B105" s="165"/>
+      <c r="C105" s="166"/>
       <c r="D105" s="20"/>
       <c r="E105" s="6" t="s">
         <v>5</v>
@@ -8934,11 +9473,11 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="155" t="s">
+      <c r="A106" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="156"/>
-      <c r="C106" s="157"/>
+      <c r="B106" s="165"/>
+      <c r="C106" s="166"/>
       <c r="D106" s="20"/>
       <c r="E106" s="6" t="s">
         <v>5</v>
@@ -8972,11 +9511,11 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="157"/>
+      <c r="B107" s="165"/>
+      <c r="C107" s="166"/>
       <c r="D107" s="20"/>
       <c r="E107" s="6" t="s">
         <v>5</v>
@@ -9010,11 +9549,11 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="155" t="s">
+      <c r="A108" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="156"/>
-      <c r="C108" s="157"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="166"/>
       <c r="D108" s="20"/>
       <c r="E108" s="6" t="s">
         <v>5</v>
@@ -9048,11 +9587,11 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="155" t="s">
+      <c r="A109" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="156"/>
-      <c r="C109" s="157"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="166"/>
       <c r="D109" s="20"/>
       <c r="E109" s="6" t="s">
         <v>5</v>
@@ -9086,11 +9625,11 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="155" t="s">
+      <c r="A110" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="156"/>
-      <c r="C110" s="157"/>
+      <c r="B110" s="165"/>
+      <c r="C110" s="166"/>
       <c r="D110" s="20"/>
       <c r="E110" s="6" t="s">
         <v>5</v>
@@ -9124,11 +9663,11 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="155" t="s">
+      <c r="A111" s="164" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="156"/>
-      <c r="C111" s="157"/>
+      <c r="B111" s="165"/>
+      <c r="C111" s="166"/>
       <c r="D111" s="20"/>
       <c r="E111" s="6" t="s">
         <v>5</v>
@@ -9162,11 +9701,11 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="155" t="s">
+      <c r="A112" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="156"/>
-      <c r="C112" s="157"/>
+      <c r="B112" s="165"/>
+      <c r="C112" s="166"/>
       <c r="D112" s="20"/>
       <c r="E112" s="6" t="s">
         <v>5</v>
@@ -9200,11 +9739,11 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="155" t="s">
+      <c r="A113" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="157"/>
+      <c r="B113" s="165"/>
+      <c r="C113" s="166"/>
       <c r="D113" s="20"/>
       <c r="E113" s="6" t="s">
         <v>5</v>
@@ -9238,11 +9777,11 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="155" t="s">
+      <c r="A114" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="B114" s="156"/>
-      <c r="C114" s="157"/>
+      <c r="B114" s="165"/>
+      <c r="C114" s="166"/>
       <c r="D114" s="20"/>
       <c r="E114" s="6" t="s">
         <v>5</v>
@@ -9276,11 +9815,11 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="155" t="s">
+      <c r="A115" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="156"/>
-      <c r="C115" s="157"/>
+      <c r="B115" s="165"/>
+      <c r="C115" s="166"/>
       <c r="D115" s="20"/>
       <c r="E115" s="6" t="s">
         <v>5</v>
@@ -9330,11 +9869,11 @@
       <c r="N116" s="97"/>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="160" t="s">
+      <c r="A117" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="161"/>
-      <c r="C117" s="162"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="163"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
       <c r="F117" s="84"/>
@@ -9348,11 +9887,11 @@
       <c r="N117" s="84"/>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="155" t="s">
+      <c r="A118" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="B118" s="156"/>
-      <c r="C118" s="157"/>
+      <c r="B118" s="165"/>
+      <c r="C118" s="166"/>
       <c r="D118" s="20">
         <v>1</v>
       </c>
@@ -9388,11 +9927,11 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="155" t="s">
+      <c r="A119" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="156"/>
-      <c r="C119" s="157"/>
+      <c r="B119" s="165"/>
+      <c r="C119" s="166"/>
       <c r="D119" s="20">
         <v>1</v>
       </c>
@@ -9428,11 +9967,11 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="155" t="s">
+      <c r="A120" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="B120" s="156"/>
-      <c r="C120" s="157"/>
+      <c r="B120" s="165"/>
+      <c r="C120" s="166"/>
       <c r="D120" s="20">
         <v>1</v>
       </c>
@@ -9468,11 +10007,11 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="155" t="s">
+      <c r="A121" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="B121" s="156"/>
-      <c r="C121" s="157"/>
+      <c r="B121" s="165"/>
+      <c r="C121" s="166"/>
       <c r="D121" s="20">
         <v>1</v>
       </c>
@@ -9508,11 +10047,11 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="155" t="s">
+      <c r="A122" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="B122" s="156"/>
-      <c r="C122" s="157"/>
+      <c r="B122" s="165"/>
+      <c r="C122" s="166"/>
       <c r="D122" s="20">
         <v>3</v>
       </c>
@@ -9548,11 +10087,11 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="155" t="s">
+      <c r="A123" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="B123" s="156"/>
-      <c r="C123" s="157"/>
+      <c r="B123" s="165"/>
+      <c r="C123" s="166"/>
       <c r="D123" s="20">
         <v>3</v>
       </c>
@@ -9588,11 +10127,11 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="155" t="s">
+      <c r="A124" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="B124" s="156"/>
-      <c r="C124" s="157"/>
+      <c r="B124" s="165"/>
+      <c r="C124" s="166"/>
       <c r="D124" s="20">
         <v>3</v>
       </c>
@@ -9628,11 +10167,11 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="155" t="s">
+      <c r="A125" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="157"/>
+      <c r="B125" s="165"/>
+      <c r="C125" s="166"/>
       <c r="D125" s="20">
         <v>3</v>
       </c>
@@ -9684,11 +10223,11 @@
       <c r="N126" s="97"/>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="160" t="s">
+      <c r="A127" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="161"/>
-      <c r="C127" s="162"/>
+      <c r="B127" s="159"/>
+      <c r="C127" s="163"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5"/>
       <c r="F127" s="84"/>
@@ -9702,11 +10241,11 @@
       <c r="N127" s="84"/>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="155" t="s">
+      <c r="A128" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="156"/>
-      <c r="C128" s="157"/>
+      <c r="B128" s="165"/>
+      <c r="C128" s="166"/>
       <c r="D128" s="20">
         <v>1</v>
       </c>
@@ -9742,11 +10281,11 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="155" t="s">
+      <c r="A129" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="156"/>
-      <c r="C129" s="157"/>
+      <c r="B129" s="165"/>
+      <c r="C129" s="166"/>
       <c r="D129" s="20">
         <v>1</v>
       </c>
@@ -9782,11 +10321,11 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="155" t="s">
+      <c r="A130" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="156"/>
-      <c r="C130" s="157"/>
+      <c r="B130" s="165"/>
+      <c r="C130" s="166"/>
       <c r="D130" s="20">
         <v>1</v>
       </c>
@@ -9822,11 +10361,11 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="155" t="s">
+      <c r="A131" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="157"/>
+      <c r="B131" s="165"/>
+      <c r="C131" s="166"/>
       <c r="D131" s="20">
         <v>3</v>
       </c>
@@ -9862,11 +10401,11 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="155" t="s">
+      <c r="A132" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="B132" s="156"/>
-      <c r="C132" s="157"/>
+      <c r="B132" s="165"/>
+      <c r="C132" s="166"/>
       <c r="D132" s="20">
         <v>3</v>
       </c>
@@ -9902,11 +10441,11 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="155" t="s">
+      <c r="A133" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="B133" s="156"/>
-      <c r="C133" s="157"/>
+      <c r="B133" s="165"/>
+      <c r="C133" s="166"/>
       <c r="D133" s="20">
         <v>3</v>
       </c>
@@ -9958,11 +10497,11 @@
       <c r="N134" s="97"/>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="160" t="s">
+      <c r="A135" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="161"/>
-      <c r="C135" s="162"/>
+      <c r="B135" s="159"/>
+      <c r="C135" s="163"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5"/>
       <c r="F135" s="84"/>
@@ -9976,11 +10515,11 @@
       <c r="N135" s="84"/>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="155" t="s">
+      <c r="A136" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="B136" s="156"/>
-      <c r="C136" s="157"/>
+      <c r="B136" s="165"/>
+      <c r="C136" s="166"/>
       <c r="D136" s="20"/>
       <c r="E136" s="6" t="s">
         <v>5</v>
@@ -10014,11 +10553,11 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="155" t="s">
+      <c r="A137" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="B137" s="156"/>
-      <c r="C137" s="157"/>
+      <c r="B137" s="165"/>
+      <c r="C137" s="166"/>
       <c r="D137" s="20">
         <v>2</v>
       </c>
@@ -10054,11 +10593,11 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="155" t="s">
+      <c r="A138" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="B138" s="156"/>
-      <c r="C138" s="157"/>
+      <c r="B138" s="165"/>
+      <c r="C138" s="166"/>
       <c r="D138" s="20">
         <v>2</v>
       </c>
@@ -10094,11 +10633,11 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="155" t="s">
+      <c r="A139" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="B139" s="156"/>
-      <c r="C139" s="157"/>
+      <c r="B139" s="165"/>
+      <c r="C139" s="166"/>
       <c r="D139" s="20">
         <v>2</v>
       </c>
@@ -10134,11 +10673,11 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="155" t="s">
+      <c r="A140" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="B140" s="156"/>
-      <c r="C140" s="157"/>
+      <c r="B140" s="165"/>
+      <c r="C140" s="166"/>
       <c r="D140" s="20">
         <v>2</v>
       </c>
@@ -10174,11 +10713,11 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="155" t="s">
+      <c r="A141" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="B141" s="156"/>
-      <c r="C141" s="157"/>
+      <c r="B141" s="165"/>
+      <c r="C141" s="166"/>
       <c r="D141" s="20">
         <v>2</v>
       </c>
@@ -10214,11 +10753,11 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="155" t="s">
+      <c r="A142" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="157"/>
+      <c r="B142" s="165"/>
+      <c r="C142" s="166"/>
       <c r="D142" s="20">
         <v>2</v>
       </c>
@@ -10254,11 +10793,11 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="155" t="s">
+      <c r="A143" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="B143" s="156"/>
-      <c r="C143" s="157"/>
+      <c r="B143" s="165"/>
+      <c r="C143" s="166"/>
       <c r="D143" s="20">
         <v>2</v>
       </c>
@@ -10294,11 +10833,11 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="155" t="s">
+      <c r="A144" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="156"/>
-      <c r="C144" s="157"/>
+      <c r="B144" s="165"/>
+      <c r="C144" s="166"/>
       <c r="D144" s="20">
         <v>2</v>
       </c>
@@ -10334,11 +10873,11 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="155" t="s">
+      <c r="A145" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="B145" s="156"/>
-      <c r="C145" s="157"/>
+      <c r="B145" s="165"/>
+      <c r="C145" s="166"/>
       <c r="D145" s="20">
         <v>2</v>
       </c>
@@ -10374,11 +10913,11 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="155" t="s">
+      <c r="A146" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="B146" s="156"/>
-      <c r="C146" s="157"/>
+      <c r="B146" s="165"/>
+      <c r="C146" s="166"/>
       <c r="D146" s="20">
         <v>2</v>
       </c>
@@ -10414,11 +10953,11 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="155" t="s">
+      <c r="A147" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="B147" s="156"/>
-      <c r="C147" s="157"/>
+      <c r="B147" s="165"/>
+      <c r="C147" s="166"/>
       <c r="D147" s="20">
         <v>2</v>
       </c>
@@ -10454,11 +10993,11 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="155" t="s">
+      <c r="A148" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="B148" s="156"/>
-      <c r="C148" s="157"/>
+      <c r="B148" s="165"/>
+      <c r="C148" s="166"/>
       <c r="D148" s="20">
         <v>2</v>
       </c>
@@ -10494,11 +11033,11 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="155" t="s">
+      <c r="A149" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="B149" s="156"/>
-      <c r="C149" s="157"/>
+      <c r="B149" s="165"/>
+      <c r="C149" s="166"/>
       <c r="D149" s="20">
         <v>2</v>
       </c>
@@ -10534,11 +11073,11 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="155" t="s">
+      <c r="A150" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="B150" s="156"/>
-      <c r="C150" s="157"/>
+      <c r="B150" s="165"/>
+      <c r="C150" s="166"/>
       <c r="D150" s="20">
         <v>2</v>
       </c>
@@ -10574,11 +11113,11 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="155" t="s">
+      <c r="A151" s="164" t="s">
         <v>196</v>
       </c>
-      <c r="B151" s="156"/>
-      <c r="C151" s="157"/>
+      <c r="B151" s="165"/>
+      <c r="C151" s="166"/>
       <c r="D151" s="20">
         <v>2</v>
       </c>
@@ -10614,11 +11153,11 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="155" t="s">
+      <c r="A152" s="164" t="s">
         <v>197</v>
       </c>
-      <c r="B152" s="156"/>
-      <c r="C152" s="157"/>
+      <c r="B152" s="165"/>
+      <c r="C152" s="166"/>
       <c r="D152" s="20">
         <v>2</v>
       </c>
@@ -10654,11 +11193,11 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="155" t="s">
+      <c r="A153" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="B153" s="156"/>
-      <c r="C153" s="157"/>
+      <c r="B153" s="165"/>
+      <c r="C153" s="166"/>
       <c r="D153" s="20">
         <v>2</v>
       </c>
@@ -10694,11 +11233,11 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="155" t="s">
+      <c r="A154" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="B154" s="156"/>
-      <c r="C154" s="157"/>
+      <c r="B154" s="165"/>
+      <c r="C154" s="166"/>
       <c r="D154" s="20">
         <v>2</v>
       </c>
@@ -10734,11 +11273,11 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="155" t="s">
+      <c r="A155" s="164" t="s">
         <v>200</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="157"/>
+      <c r="B155" s="165"/>
+      <c r="C155" s="166"/>
       <c r="D155" s="20">
         <v>2</v>
       </c>
@@ -10774,11 +11313,11 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="155" t="s">
+      <c r="A156" s="164" t="s">
         <v>201</v>
       </c>
-      <c r="B156" s="156"/>
-      <c r="C156" s="157"/>
+      <c r="B156" s="165"/>
+      <c r="C156" s="166"/>
       <c r="D156" s="20">
         <v>2</v>
       </c>
@@ -10814,11 +11353,11 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="155" t="s">
+      <c r="A157" s="164" t="s">
         <v>202</v>
       </c>
-      <c r="B157" s="156"/>
-      <c r="C157" s="157"/>
+      <c r="B157" s="165"/>
+      <c r="C157" s="166"/>
       <c r="D157" s="20">
         <v>2</v>
       </c>
@@ -10854,11 +11393,11 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="155" t="s">
+      <c r="A158" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="B158" s="156"/>
-      <c r="C158" s="157"/>
+      <c r="B158" s="165"/>
+      <c r="C158" s="166"/>
       <c r="D158" s="20">
         <v>2</v>
       </c>
@@ -10910,11 +11449,11 @@
       <c r="N159" s="97"/>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="160" t="s">
+      <c r="A160" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="B160" s="161"/>
-      <c r="C160" s="162"/>
+      <c r="B160" s="159"/>
+      <c r="C160" s="163"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5"/>
       <c r="F160" s="84"/>
@@ -10928,11 +11467,11 @@
       <c r="N160" s="84"/>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="155" t="s">
+      <c r="A161" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="B161" s="156"/>
-      <c r="C161" s="157"/>
+      <c r="B161" s="165"/>
+      <c r="C161" s="166"/>
       <c r="D161" s="20">
         <v>1</v>
       </c>
@@ -10968,11 +11507,11 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="155" t="s">
+      <c r="A162" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="156"/>
-      <c r="C162" s="157"/>
+      <c r="B162" s="165"/>
+      <c r="C162" s="166"/>
       <c r="D162" s="20">
         <v>1</v>
       </c>
@@ -11008,11 +11547,11 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="155" t="s">
+      <c r="A163" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="156"/>
-      <c r="C163" s="157"/>
+      <c r="B163" s="165"/>
+      <c r="C163" s="166"/>
       <c r="D163" s="20">
         <v>1</v>
       </c>
@@ -11048,11 +11587,11 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="155" t="s">
+      <c r="A164" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="B164" s="156"/>
-      <c r="C164" s="157"/>
+      <c r="B164" s="165"/>
+      <c r="C164" s="166"/>
       <c r="D164" s="20">
         <v>1</v>
       </c>
@@ -11088,11 +11627,11 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="155" t="s">
+      <c r="A165" s="164" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="156"/>
-      <c r="C165" s="157"/>
+      <c r="B165" s="165"/>
+      <c r="C165" s="166"/>
       <c r="D165" s="20">
         <v>1</v>
       </c>
@@ -11128,11 +11667,11 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="155" t="s">
+      <c r="A166" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="B166" s="156"/>
-      <c r="C166" s="157"/>
+      <c r="B166" s="165"/>
+      <c r="C166" s="166"/>
       <c r="D166" s="20">
         <v>1</v>
       </c>
@@ -11168,11 +11707,11 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="155" t="s">
+      <c r="A167" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="156"/>
-      <c r="C167" s="157"/>
+      <c r="B167" s="165"/>
+      <c r="C167" s="166"/>
       <c r="D167" s="20"/>
       <c r="E167" s="6" t="s">
         <v>5</v>
@@ -11222,11 +11761,11 @@
       <c r="N168" s="97"/>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="160" t="s">
+      <c r="A169" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="B169" s="161"/>
-      <c r="C169" s="162"/>
+      <c r="B169" s="159"/>
+      <c r="C169" s="163"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5"/>
       <c r="F169" s="84"/>
@@ -11240,11 +11779,11 @@
       <c r="N169" s="84"/>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="155" t="s">
+      <c r="A170" s="164" t="s">
         <v>210</v>
       </c>
-      <c r="B170" s="156"/>
-      <c r="C170" s="157"/>
+      <c r="B170" s="165"/>
+      <c r="C170" s="166"/>
       <c r="D170" s="20">
         <v>2</v>
       </c>
@@ -11280,11 +11819,11 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="155" t="s">
+      <c r="A171" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="156"/>
-      <c r="C171" s="157"/>
+      <c r="B171" s="165"/>
+      <c r="C171" s="166"/>
       <c r="D171" s="20">
         <v>2</v>
       </c>
@@ -11336,11 +11875,11 @@
       <c r="N172" s="97"/>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="160" t="s">
+      <c r="A173" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B173" s="161"/>
-      <c r="C173" s="162"/>
+      <c r="B173" s="159"/>
+      <c r="C173" s="163"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5"/>
       <c r="F173" s="84"/>
@@ -11354,11 +11893,11 @@
       <c r="N173" s="84"/>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="155" t="s">
+      <c r="A174" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="B174" s="156"/>
-      <c r="C174" s="157"/>
+      <c r="B174" s="165"/>
+      <c r="C174" s="166"/>
       <c r="D174" s="20">
         <v>1</v>
       </c>
@@ -11394,11 +11933,11 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="155" t="s">
+      <c r="A175" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="B175" s="156"/>
-      <c r="C175" s="157"/>
+      <c r="B175" s="165"/>
+      <c r="C175" s="166"/>
       <c r="D175" s="20">
         <v>1</v>
       </c>
@@ -11434,11 +11973,11 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="155" t="s">
+      <c r="A176" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="B176" s="156"/>
-      <c r="C176" s="157"/>
+      <c r="B176" s="165"/>
+      <c r="C176" s="166"/>
       <c r="D176" s="20">
         <v>1</v>
       </c>
@@ -11474,11 +12013,11 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="155" t="s">
+      <c r="A177" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="B177" s="156"/>
-      <c r="C177" s="157"/>
+      <c r="B177" s="165"/>
+      <c r="C177" s="166"/>
       <c r="D177" s="20">
         <v>1</v>
       </c>
@@ -11514,11 +12053,11 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="155" t="s">
+      <c r="A178" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="B178" s="156"/>
-      <c r="C178" s="157"/>
+      <c r="B178" s="165"/>
+      <c r="C178" s="166"/>
       <c r="D178" s="20">
         <v>1</v>
       </c>
@@ -11554,11 +12093,11 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="155" t="s">
+      <c r="A179" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="B179" s="156"/>
-      <c r="C179" s="157"/>
+      <c r="B179" s="165"/>
+      <c r="C179" s="166"/>
       <c r="D179" s="20">
         <v>1</v>
       </c>
@@ -11594,11 +12133,11 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="155" t="s">
+      <c r="A180" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="B180" s="156"/>
-      <c r="C180" s="157"/>
+      <c r="B180" s="165"/>
+      <c r="C180" s="166"/>
       <c r="D180" s="20">
         <v>1</v>
       </c>
@@ -11634,11 +12173,11 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="155" t="s">
+      <c r="A181" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="B181" s="156"/>
-      <c r="C181" s="157"/>
+      <c r="B181" s="165"/>
+      <c r="C181" s="166"/>
       <c r="D181" s="20">
         <v>1</v>
       </c>
@@ -11674,11 +12213,11 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="155" t="s">
+      <c r="A182" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="B182" s="156"/>
-      <c r="C182" s="157"/>
+      <c r="B182" s="165"/>
+      <c r="C182" s="166"/>
       <c r="D182" s="20">
         <v>1</v>
       </c>
@@ -11714,11 +12253,11 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="155" t="s">
+      <c r="A183" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="B183" s="156"/>
-      <c r="C183" s="157"/>
+      <c r="B183" s="165"/>
+      <c r="C183" s="166"/>
       <c r="D183" s="20">
         <v>1</v>
       </c>
@@ -11754,11 +12293,11 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="155" t="s">
+      <c r="A184" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="B184" s="156"/>
-      <c r="C184" s="157"/>
+      <c r="B184" s="165"/>
+      <c r="C184" s="166"/>
       <c r="D184" s="20">
         <v>1</v>
       </c>
@@ -11794,11 +12333,11 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="155" t="s">
+      <c r="A185" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="B185" s="156"/>
-      <c r="C185" s="157"/>
+      <c r="B185" s="165"/>
+      <c r="C185" s="166"/>
       <c r="D185" s="20">
         <v>1</v>
       </c>
@@ -11866,11 +12405,11 @@
       <c r="N187" s="102"/>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="158" t="s">
+      <c r="A188" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="B188" s="159"/>
-      <c r="C188" s="164"/>
+      <c r="B188" s="171"/>
+      <c r="C188" s="172"/>
       <c r="D188" s="32"/>
       <c r="E188" s="103"/>
       <c r="F188" s="104"/>
@@ -11884,11 +12423,11 @@
       <c r="N188" s="104"/>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="163" t="s">
+      <c r="A189" s="173" t="s">
         <v>226</v>
       </c>
-      <c r="B189" s="161"/>
-      <c r="C189" s="162"/>
+      <c r="B189" s="159"/>
+      <c r="C189" s="163"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5"/>
       <c r="F189" s="84"/>
@@ -11902,11 +12441,11 @@
       <c r="N189" s="84"/>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="155" t="s">
+      <c r="A190" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="B190" s="156"/>
-      <c r="C190" s="157"/>
+      <c r="B190" s="165"/>
+      <c r="C190" s="166"/>
       <c r="D190" s="20">
         <v>1</v>
       </c>
@@ -11942,11 +12481,11 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="155" t="s">
+      <c r="A191" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="B191" s="156"/>
-      <c r="C191" s="157"/>
+      <c r="B191" s="165"/>
+      <c r="C191" s="166"/>
       <c r="D191" s="20">
         <v>1</v>
       </c>
@@ -11982,11 +12521,11 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="155" t="s">
+      <c r="A192" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="B192" s="156"/>
-      <c r="C192" s="157"/>
+      <c r="B192" s="165"/>
+      <c r="C192" s="166"/>
       <c r="D192" s="20"/>
       <c r="E192" s="6" t="s">
         <v>5</v>
@@ -12020,11 +12559,11 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="155" t="s">
+      <c r="A193" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="B193" s="156"/>
-      <c r="C193" s="157"/>
+      <c r="B193" s="165"/>
+      <c r="C193" s="166"/>
       <c r="D193" s="20"/>
       <c r="E193" s="6" t="s">
         <v>5</v>
@@ -12058,11 +12597,11 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="155" t="s">
+      <c r="A194" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="B194" s="156"/>
-      <c r="C194" s="157"/>
+      <c r="B194" s="165"/>
+      <c r="C194" s="166"/>
       <c r="D194" s="20"/>
       <c r="E194" s="6" t="s">
         <v>5</v>
@@ -12096,11 +12635,11 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="155" t="s">
+      <c r="A195" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="B195" s="156"/>
-      <c r="C195" s="157"/>
+      <c r="B195" s="165"/>
+      <c r="C195" s="166"/>
       <c r="D195" s="20"/>
       <c r="E195" s="6" t="s">
         <v>5</v>
@@ -12134,11 +12673,11 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="155" t="s">
+      <c r="A196" s="164" t="s">
         <v>234</v>
       </c>
-      <c r="B196" s="156"/>
-      <c r="C196" s="157"/>
+      <c r="B196" s="165"/>
+      <c r="C196" s="166"/>
       <c r="D196" s="20"/>
       <c r="E196" s="6" t="s">
         <v>5</v>
@@ -12172,11 +12711,11 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="155" t="s">
+      <c r="A197" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="B197" s="156"/>
-      <c r="C197" s="157"/>
+      <c r="B197" s="165"/>
+      <c r="C197" s="166"/>
       <c r="D197" s="20"/>
       <c r="E197" s="6" t="s">
         <v>5</v>
@@ -12210,11 +12749,11 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="155" t="s">
+      <c r="A198" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="B198" s="156"/>
-      <c r="C198" s="157"/>
+      <c r="B198" s="165"/>
+      <c r="C198" s="166"/>
       <c r="D198" s="20"/>
       <c r="E198" s="6" t="s">
         <v>5</v>
@@ -12248,11 +12787,11 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="155" t="s">
+      <c r="A199" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="B199" s="156"/>
-      <c r="C199" s="157"/>
+      <c r="B199" s="165"/>
+      <c r="C199" s="166"/>
       <c r="D199" s="20"/>
       <c r="E199" s="6" t="s">
         <v>5</v>
@@ -12302,11 +12841,11 @@
       <c r="N200" s="97"/>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="163" t="s">
+      <c r="A201" s="173" t="s">
         <v>238</v>
       </c>
-      <c r="B201" s="161"/>
-      <c r="C201" s="162"/>
+      <c r="B201" s="159"/>
+      <c r="C201" s="163"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5"/>
       <c r="F201" s="84"/>
@@ -12320,11 +12859,11 @@
       <c r="N201" s="84"/>
     </row>
     <row r="202" spans="1:14">
-      <c r="A202" s="155" t="s">
+      <c r="A202" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="B202" s="156"/>
-      <c r="C202" s="157"/>
+      <c r="B202" s="165"/>
+      <c r="C202" s="166"/>
       <c r="D202" s="20">
         <v>1</v>
       </c>
@@ -12360,11 +12899,11 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="155" t="s">
+      <c r="A203" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="B203" s="156"/>
-      <c r="C203" s="157"/>
+      <c r="B203" s="165"/>
+      <c r="C203" s="166"/>
       <c r="D203" s="20">
         <v>1</v>
       </c>
@@ -12400,11 +12939,11 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="155" t="s">
+      <c r="A204" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B204" s="156"/>
-      <c r="C204" s="157"/>
+      <c r="B204" s="165"/>
+      <c r="C204" s="166"/>
       <c r="D204" s="20">
         <v>1</v>
       </c>
@@ -12440,11 +12979,11 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="155" t="s">
+      <c r="A205" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B205" s="156"/>
-      <c r="C205" s="157"/>
+      <c r="B205" s="165"/>
+      <c r="C205" s="166"/>
       <c r="D205" s="20"/>
       <c r="E205" s="6" t="s">
         <v>5</v>
@@ -12478,11 +13017,11 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="155" t="s">
+      <c r="A206" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="B206" s="156"/>
-      <c r="C206" s="157"/>
+      <c r="B206" s="165"/>
+      <c r="C206" s="166"/>
       <c r="D206" s="20"/>
       <c r="E206" s="6" t="s">
         <v>5</v>
@@ -12516,11 +13055,11 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="155" t="s">
+      <c r="A207" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="B207" s="156"/>
-      <c r="C207" s="157"/>
+      <c r="B207" s="165"/>
+      <c r="C207" s="166"/>
       <c r="D207" s="20"/>
       <c r="E207" s="6" t="s">
         <v>5</v>
@@ -12554,11 +13093,11 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="155" t="s">
+      <c r="A208" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="B208" s="156"/>
-      <c r="C208" s="157"/>
+      <c r="B208" s="165"/>
+      <c r="C208" s="166"/>
       <c r="D208" s="20"/>
       <c r="E208" s="6" t="s">
         <v>5</v>
@@ -12592,11 +13131,11 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="155" t="s">
+      <c r="A209" s="164" t="s">
         <v>246</v>
       </c>
-      <c r="B209" s="156"/>
-      <c r="C209" s="157"/>
+      <c r="B209" s="165"/>
+      <c r="C209" s="166"/>
       <c r="D209" s="20"/>
       <c r="E209" s="6" t="s">
         <v>5</v>
@@ -12630,11 +13169,11 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="155" t="s">
+      <c r="A210" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="B210" s="156"/>
-      <c r="C210" s="157"/>
+      <c r="B210" s="165"/>
+      <c r="C210" s="166"/>
       <c r="D210" s="20"/>
       <c r="E210" s="6" t="s">
         <v>5</v>
@@ -12684,11 +13223,11 @@
       <c r="N211" s="97"/>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="163" t="s">
+      <c r="A212" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="B212" s="161"/>
-      <c r="C212" s="162"/>
+      <c r="B212" s="159"/>
+      <c r="C212" s="163"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5"/>
       <c r="F212" s="84"/>
@@ -12702,11 +13241,11 @@
       <c r="N212" s="105"/>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="155" t="s">
+      <c r="A213" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="B213" s="156"/>
-      <c r="C213" s="157"/>
+      <c r="B213" s="165"/>
+      <c r="C213" s="166"/>
       <c r="D213" s="20">
         <v>1</v>
       </c>
@@ -12742,11 +13281,11 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="155" t="s">
+      <c r="A214" s="164" t="s">
         <v>250</v>
       </c>
-      <c r="B214" s="156"/>
-      <c r="C214" s="157"/>
+      <c r="B214" s="165"/>
+      <c r="C214" s="166"/>
       <c r="D214" s="20">
         <v>1</v>
       </c>
@@ -12782,11 +13321,11 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="155" t="s">
+      <c r="A215" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="B215" s="156"/>
-      <c r="C215" s="157"/>
+      <c r="B215" s="165"/>
+      <c r="C215" s="166"/>
       <c r="D215" s="20">
         <v>1</v>
       </c>
@@ -12822,11 +13361,11 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="155" t="s">
+      <c r="A216" s="164" t="s">
         <v>252</v>
       </c>
-      <c r="B216" s="156"/>
-      <c r="C216" s="157"/>
+      <c r="B216" s="165"/>
+      <c r="C216" s="166"/>
       <c r="D216" s="20">
         <v>1</v>
       </c>
@@ -12862,11 +13401,11 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="155" t="s">
+      <c r="A217" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="B217" s="156"/>
-      <c r="C217" s="157"/>
+      <c r="B217" s="165"/>
+      <c r="C217" s="166"/>
       <c r="D217" s="20"/>
       <c r="E217" s="6" t="s">
         <v>5</v>
@@ -12900,11 +13439,11 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="155" t="s">
+      <c r="A218" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="B218" s="156"/>
-      <c r="C218" s="157"/>
+      <c r="B218" s="165"/>
+      <c r="C218" s="166"/>
       <c r="D218" s="20"/>
       <c r="E218" s="6" t="s">
         <v>5</v>
@@ -12938,11 +13477,11 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="155" t="s">
+      <c r="A219" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="B219" s="156"/>
-      <c r="C219" s="157"/>
+      <c r="B219" s="165"/>
+      <c r="C219" s="166"/>
       <c r="D219" s="20"/>
       <c r="E219" s="6" t="s">
         <v>5</v>
@@ -12976,11 +13515,11 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="155" t="s">
+      <c r="A220" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="B220" s="156"/>
-      <c r="C220" s="157"/>
+      <c r="B220" s="165"/>
+      <c r="C220" s="166"/>
       <c r="D220" s="20"/>
       <c r="E220" s="6" t="s">
         <v>5</v>
@@ -13014,11 +13553,11 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="155" t="s">
+      <c r="A221" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="B221" s="156"/>
-      <c r="C221" s="157"/>
+      <c r="B221" s="165"/>
+      <c r="C221" s="166"/>
       <c r="D221" s="20"/>
       <c r="E221" s="6" t="s">
         <v>5</v>
@@ -13052,11 +13591,11 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="155" t="s">
+      <c r="A222" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="B222" s="156"/>
-      <c r="C222" s="157"/>
+      <c r="B222" s="165"/>
+      <c r="C222" s="166"/>
       <c r="D222" s="20"/>
       <c r="E222" s="6" t="s">
         <v>5</v>
@@ -13106,11 +13645,11 @@
       <c r="N223" s="97"/>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="163" t="s">
+      <c r="A224" s="173" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="161"/>
-      <c r="C224" s="162"/>
+      <c r="B224" s="159"/>
+      <c r="C224" s="163"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5"/>
       <c r="F224" s="84"/>
@@ -13124,11 +13663,11 @@
       <c r="N224" s="84"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="155" t="s">
+      <c r="A225" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="156"/>
-      <c r="C225" s="157"/>
+      <c r="B225" s="165"/>
+      <c r="C225" s="166"/>
       <c r="D225" s="20">
         <v>1</v>
       </c>
@@ -13164,11 +13703,11 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="155" t="s">
+      <c r="A226" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="156"/>
-      <c r="C226" s="157"/>
+      <c r="B226" s="165"/>
+      <c r="C226" s="166"/>
       <c r="D226" s="20">
         <v>1</v>
       </c>
@@ -13204,11 +13743,11 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="155" t="s">
+      <c r="A227" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="156"/>
-      <c r="C227" s="157"/>
+      <c r="B227" s="165"/>
+      <c r="C227" s="166"/>
       <c r="D227" s="20"/>
       <c r="E227" s="6" t="s">
         <v>5</v>
@@ -13242,11 +13781,11 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="155" t="s">
+      <c r="A228" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="156"/>
-      <c r="C228" s="157"/>
+      <c r="B228" s="165"/>
+      <c r="C228" s="166"/>
       <c r="D228" s="20"/>
       <c r="E228" s="6" t="s">
         <v>5</v>
@@ -13280,11 +13819,11 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="155" t="s">
+      <c r="A229" s="164" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="156"/>
-      <c r="C229" s="157"/>
+      <c r="B229" s="165"/>
+      <c r="C229" s="166"/>
       <c r="D229" s="20"/>
       <c r="E229" s="6" t="s">
         <v>5</v>
@@ -13318,11 +13857,11 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="155" t="s">
+      <c r="A230" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="156"/>
-      <c r="C230" s="157"/>
+      <c r="B230" s="165"/>
+      <c r="C230" s="166"/>
       <c r="D230" s="20"/>
       <c r="E230" s="6" t="s">
         <v>5</v>
@@ -13356,11 +13895,11 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="155" t="s">
+      <c r="A231" s="164" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="156"/>
-      <c r="C231" s="157"/>
+      <c r="B231" s="165"/>
+      <c r="C231" s="166"/>
       <c r="D231" s="20"/>
       <c r="E231" s="6" t="s">
         <v>5</v>
@@ -13410,11 +13949,11 @@
       <c r="N232" s="97"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="163" t="s">
+      <c r="A233" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="B233" s="161"/>
-      <c r="C233" s="162"/>
+      <c r="B233" s="159"/>
+      <c r="C233" s="163"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5"/>
       <c r="F233" s="84"/>
@@ -13428,11 +13967,11 @@
       <c r="N233" s="84"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="155" t="s">
+      <c r="A234" s="164" t="s">
         <v>268</v>
       </c>
-      <c r="B234" s="156"/>
-      <c r="C234" s="157"/>
+      <c r="B234" s="165"/>
+      <c r="C234" s="166"/>
       <c r="D234" s="20"/>
       <c r="E234" s="6" t="s">
         <v>0</v>
@@ -13482,11 +14021,11 @@
       <c r="N235" s="107"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="160" t="s">
+      <c r="A236" s="158" t="s">
         <v>269</v>
       </c>
-      <c r="B236" s="161"/>
-      <c r="C236" s="162"/>
+      <c r="B236" s="159"/>
+      <c r="C236" s="163"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5"/>
       <c r="F236" s="84"/>
@@ -13502,11 +14041,11 @@
       <c r="N236" s="84"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="155" t="s">
+      <c r="A237" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="B237" s="156"/>
-      <c r="C237" s="157"/>
+      <c r="B237" s="165"/>
+      <c r="C237" s="166"/>
       <c r="D237" s="20"/>
       <c r="E237" s="6" t="s">
         <v>5</v>
@@ -13540,11 +14079,11 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="155" t="s">
+      <c r="A238" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="B238" s="156"/>
-      <c r="C238" s="157"/>
+      <c r="B238" s="165"/>
+      <c r="C238" s="166"/>
       <c r="D238" s="20"/>
       <c r="E238" s="6" t="s">
         <v>5</v>
@@ -13594,11 +14133,11 @@
       <c r="N239" s="97"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="160" t="s">
+      <c r="A240" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="B240" s="161"/>
-      <c r="C240" s="162"/>
+      <c r="B240" s="159"/>
+      <c r="C240" s="163"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5"/>
       <c r="F240" s="84"/>
@@ -13612,11 +14151,11 @@
       <c r="N240" s="84"/>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="155" t="s">
+      <c r="A241" s="164" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="156"/>
-      <c r="C241" s="157"/>
+      <c r="B241" s="165"/>
+      <c r="C241" s="166"/>
       <c r="D241" s="20">
         <v>6</v>
       </c>
@@ -13652,11 +14191,11 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="155" t="s">
+      <c r="A242" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="B242" s="156"/>
-      <c r="C242" s="157"/>
+      <c r="B242" s="165"/>
+      <c r="C242" s="166"/>
       <c r="D242" s="20">
         <v>6</v>
       </c>
@@ -13692,11 +14231,11 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="155" t="s">
+      <c r="A243" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="B243" s="156"/>
-      <c r="C243" s="157"/>
+      <c r="B243" s="165"/>
+      <c r="C243" s="166"/>
       <c r="D243" s="20">
         <v>6</v>
       </c>
@@ -13732,11 +14271,11 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="155" t="s">
+      <c r="A244" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="B244" s="156"/>
-      <c r="C244" s="157"/>
+      <c r="B244" s="165"/>
+      <c r="C244" s="166"/>
       <c r="D244" s="20">
         <v>6</v>
       </c>
@@ -13804,11 +14343,11 @@
       <c r="N246" s="109"/>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="158" t="s">
+      <c r="A247" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="B247" s="159"/>
-      <c r="C247" s="159"/>
+      <c r="B247" s="171"/>
+      <c r="C247" s="171"/>
       <c r="D247" s="33"/>
       <c r="E247" s="103"/>
       <c r="F247" s="104"/>
@@ -13822,11 +14361,11 @@
       <c r="N247" s="104"/>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="160" t="s">
+      <c r="A248" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="B248" s="161"/>
-      <c r="C248" s="162"/>
+      <c r="B248" s="159"/>
+      <c r="C248" s="163"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5"/>
       <c r="F248" s="84"/>
@@ -13840,11 +14379,11 @@
       <c r="N248" s="84"/>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="155" t="s">
+      <c r="A249" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="156"/>
-      <c r="C249" s="157"/>
+      <c r="B249" s="165"/>
+      <c r="C249" s="166"/>
       <c r="D249" s="20"/>
       <c r="E249" s="6" t="s">
         <v>5</v>
@@ -13878,11 +14417,11 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="155" t="s">
+      <c r="A250" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="B250" s="156"/>
-      <c r="C250" s="157"/>
+      <c r="B250" s="165"/>
+      <c r="C250" s="166"/>
       <c r="D250" s="20"/>
       <c r="E250" s="6" t="s">
         <v>5</v>
@@ -13916,11 +14455,11 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="155" t="s">
+      <c r="A251" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="B251" s="156"/>
-      <c r="C251" s="157"/>
+      <c r="B251" s="165"/>
+      <c r="C251" s="166"/>
       <c r="D251" s="20"/>
       <c r="E251" s="6" t="s">
         <v>5</v>
@@ -13954,11 +14493,11 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="155" t="s">
+      <c r="A252" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B252" s="156"/>
-      <c r="C252" s="157"/>
+      <c r="B252" s="165"/>
+      <c r="C252" s="166"/>
       <c r="D252" s="20"/>
       <c r="E252" s="6" t="s">
         <v>5</v>
@@ -13992,11 +14531,11 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="155" t="s">
+      <c r="A253" s="164" t="s">
         <v>277</v>
       </c>
-      <c r="B253" s="156"/>
-      <c r="C253" s="157"/>
+      <c r="B253" s="165"/>
+      <c r="C253" s="166"/>
       <c r="D253" s="20"/>
       <c r="E253" s="6" t="s">
         <v>5</v>
@@ -14030,11 +14569,11 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="155" t="s">
+      <c r="A254" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="B254" s="156"/>
-      <c r="C254" s="157"/>
+      <c r="B254" s="165"/>
+      <c r="C254" s="166"/>
       <c r="D254" s="20"/>
       <c r="E254" s="6" t="s">
         <v>5</v>
@@ -14144,11 +14683,11 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="155" t="s">
+      <c r="A257" s="164" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="156"/>
-      <c r="C257" s="157"/>
+      <c r="B257" s="165"/>
+      <c r="C257" s="166"/>
       <c r="D257" s="20"/>
       <c r="E257" s="6" t="s">
         <v>5</v>
@@ -14182,11 +14721,11 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="155" t="s">
+      <c r="A258" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="B258" s="156"/>
-      <c r="C258" s="157"/>
+      <c r="B258" s="165"/>
+      <c r="C258" s="166"/>
       <c r="D258" s="20"/>
       <c r="E258" s="6" t="s">
         <v>5</v>
@@ -14220,11 +14759,11 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="155" t="s">
+      <c r="A259" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="B259" s="156"/>
-      <c r="C259" s="157"/>
+      <c r="B259" s="165"/>
+      <c r="C259" s="166"/>
       <c r="D259" s="20"/>
       <c r="E259" s="6" t="s">
         <v>5</v>
@@ -14258,11 +14797,11 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="155" t="s">
+      <c r="A260" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="B260" s="156"/>
-      <c r="C260" s="157"/>
+      <c r="B260" s="165"/>
+      <c r="C260" s="166"/>
       <c r="D260" s="20"/>
       <c r="E260" s="6" t="s">
         <v>5</v>
@@ -14296,11 +14835,11 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="155" t="s">
+      <c r="A261" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="B261" s="156"/>
-      <c r="C261" s="157"/>
+      <c r="B261" s="165"/>
+      <c r="C261" s="166"/>
       <c r="D261" s="20"/>
       <c r="E261" s="6" t="s">
         <v>5</v>
@@ -14366,9 +14905,9 @@
       <c r="N263" s="109"/>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="158"/>
-      <c r="B264" s="159"/>
-      <c r="C264" s="159"/>
+      <c r="A264" s="170"/>
+      <c r="B264" s="171"/>
+      <c r="C264" s="171"/>
       <c r="D264" s="33"/>
       <c r="E264" s="103"/>
       <c r="F264" s="104"/>
@@ -14382,9 +14921,9 @@
       <c r="N264" s="104"/>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="160"/>
-      <c r="B265" s="161"/>
-      <c r="C265" s="162"/>
+      <c r="A265" s="158"/>
+      <c r="B265" s="159"/>
+      <c r="C265" s="163"/>
       <c r="D265" s="4"/>
       <c r="E265" s="5"/>
       <c r="F265" s="84"/>
@@ -14398,9 +14937,9 @@
       <c r="N265" s="84"/>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="155"/>
-      <c r="B266" s="156"/>
-      <c r="C266" s="157"/>
+      <c r="A266" s="164"/>
+      <c r="B266" s="165"/>
+      <c r="C266" s="166"/>
       <c r="D266" s="20"/>
       <c r="E266" s="6"/>
       <c r="F266" s="95"/>
@@ -14414,9 +14953,9 @@
       <c r="N266" s="95"/>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="155"/>
-      <c r="B267" s="156"/>
-      <c r="C267" s="157"/>
+      <c r="A267" s="164"/>
+      <c r="B267" s="165"/>
+      <c r="C267" s="166"/>
       <c r="D267" s="20"/>
       <c r="E267" s="6"/>
       <c r="F267" s="95"/>
@@ -14430,9 +14969,9 @@
       <c r="N267" s="95"/>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="155"/>
-      <c r="B268" s="156"/>
-      <c r="C268" s="157"/>
+      <c r="A268" s="164"/>
+      <c r="B268" s="165"/>
+      <c r="C268" s="166"/>
       <c r="D268" s="20"/>
       <c r="E268" s="6"/>
       <c r="F268" s="95"/>
@@ -14446,9 +14985,9 @@
       <c r="N268" s="95"/>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="155"/>
-      <c r="B269" s="156"/>
-      <c r="C269" s="157"/>
+      <c r="A269" s="164"/>
+      <c r="B269" s="165"/>
+      <c r="C269" s="166"/>
       <c r="D269" s="20"/>
       <c r="E269" s="6"/>
       <c r="F269" s="95"/>
@@ -14462,9 +15001,9 @@
       <c r="N269" s="95"/>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="155"/>
-      <c r="B270" s="156"/>
-      <c r="C270" s="157"/>
+      <c r="A270" s="164"/>
+      <c r="B270" s="165"/>
+      <c r="C270" s="166"/>
       <c r="D270" s="20"/>
       <c r="E270" s="6"/>
       <c r="F270" s="95"/>
@@ -14478,9 +15017,9 @@
       <c r="N270" s="95"/>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="155"/>
-      <c r="B271" s="156"/>
-      <c r="C271" s="157"/>
+      <c r="A271" s="164"/>
+      <c r="B271" s="165"/>
+      <c r="C271" s="166"/>
       <c r="D271" s="20"/>
       <c r="E271" s="6"/>
       <c r="F271" s="95"/>
@@ -14526,11 +15065,11 @@
       <c r="N273" s="109"/>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="158" t="s">
+      <c r="A274" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="B274" s="159"/>
-      <c r="C274" s="159"/>
+      <c r="B274" s="171"/>
+      <c r="C274" s="171"/>
       <c r="D274" s="33"/>
       <c r="E274" s="103"/>
       <c r="F274" s="104"/>
@@ -14544,11 +15083,11 @@
       <c r="N274" s="104"/>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="160" t="s">
+      <c r="A275" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="B275" s="161"/>
-      <c r="C275" s="162"/>
+      <c r="B275" s="159"/>
+      <c r="C275" s="163"/>
       <c r="D275" s="4"/>
       <c r="E275" s="5"/>
       <c r="F275" s="84"/>
@@ -14562,11 +15101,11 @@
       <c r="N275" s="84"/>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="155" t="s">
+      <c r="A276" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="B276" s="156"/>
-      <c r="C276" s="157"/>
+      <c r="B276" s="165"/>
+      <c r="C276" s="166"/>
       <c r="D276" s="20">
         <v>1</v>
       </c>
@@ -14602,11 +15141,11 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="155" t="s">
+      <c r="A277" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="B277" s="156"/>
-      <c r="C277" s="157"/>
+      <c r="B277" s="165"/>
+      <c r="C277" s="166"/>
       <c r="D277" s="20">
         <v>2</v>
       </c>
@@ -14642,11 +15181,11 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="155" t="s">
+      <c r="A278" s="164" t="s">
         <v>286</v>
       </c>
-      <c r="B278" s="156"/>
-      <c r="C278" s="157"/>
+      <c r="B278" s="165"/>
+      <c r="C278" s="166"/>
       <c r="D278" s="20">
         <v>3</v>
       </c>
@@ -14682,11 +15221,11 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="155" t="s">
+      <c r="A279" s="164" t="s">
         <v>287</v>
       </c>
-      <c r="B279" s="156"/>
-      <c r="C279" s="157"/>
+      <c r="B279" s="165"/>
+      <c r="C279" s="166"/>
       <c r="D279" s="20">
         <v>6</v>
       </c>
@@ -14722,11 +15261,11 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="155" t="s">
+      <c r="A280" s="164" t="s">
         <v>630</v>
       </c>
-      <c r="B280" s="156"/>
-      <c r="C280" s="157"/>
+      <c r="B280" s="165"/>
+      <c r="C280" s="166"/>
       <c r="D280" s="20">
         <v>1</v>
       </c>
@@ -14762,11 +15301,11 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="155" t="s">
+      <c r="A281" s="164" t="s">
         <v>631</v>
       </c>
-      <c r="B281" s="156"/>
-      <c r="C281" s="157"/>
+      <c r="B281" s="165"/>
+      <c r="C281" s="166"/>
       <c r="D281" s="20">
         <v>2</v>
       </c>
@@ -14802,11 +15341,11 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="155" t="s">
+      <c r="A282" s="164" t="s">
         <v>632</v>
       </c>
-      <c r="B282" s="156"/>
-      <c r="C282" s="157"/>
+      <c r="B282" s="165"/>
+      <c r="C282" s="166"/>
       <c r="D282" s="20">
         <v>3</v>
       </c>
@@ -14842,11 +15381,11 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="155" t="s">
+      <c r="A283" s="164" t="s">
         <v>633</v>
       </c>
-      <c r="B283" s="156"/>
-      <c r="C283" s="157"/>
+      <c r="B283" s="165"/>
+      <c r="C283" s="166"/>
       <c r="D283" s="20">
         <v>6</v>
       </c>
@@ -14882,11 +15421,11 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="155" t="s">
+      <c r="A284" s="164" t="s">
         <v>288</v>
       </c>
-      <c r="B284" s="156"/>
-      <c r="C284" s="157"/>
+      <c r="B284" s="165"/>
+      <c r="C284" s="166"/>
       <c r="D284" s="20">
         <v>1</v>
       </c>
@@ -14922,11 +15461,11 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="155" t="s">
+      <c r="A285" s="164" t="s">
         <v>289</v>
       </c>
-      <c r="B285" s="156"/>
-      <c r="C285" s="157"/>
+      <c r="B285" s="165"/>
+      <c r="C285" s="166"/>
       <c r="D285" s="20">
         <v>2</v>
       </c>
@@ -14962,11 +15501,11 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="155" t="s">
+      <c r="A286" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="B286" s="156"/>
-      <c r="C286" s="157"/>
+      <c r="B286" s="165"/>
+      <c r="C286" s="166"/>
       <c r="D286" s="20">
         <v>3</v>
       </c>
@@ -15002,11 +15541,11 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="155" t="s">
+      <c r="A287" s="164" t="s">
         <v>291</v>
       </c>
-      <c r="B287" s="156"/>
-      <c r="C287" s="157"/>
+      <c r="B287" s="165"/>
+      <c r="C287" s="166"/>
       <c r="D287" s="20">
         <v>6</v>
       </c>
@@ -15042,11 +15581,11 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="155" t="s">
+      <c r="A288" s="164" t="s">
         <v>292</v>
       </c>
-      <c r="B288" s="156"/>
-      <c r="C288" s="157"/>
+      <c r="B288" s="165"/>
+      <c r="C288" s="166"/>
       <c r="D288" s="20">
         <v>1</v>
       </c>
@@ -15082,11 +15621,11 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="155" t="s">
+      <c r="A289" s="164" t="s">
         <v>293</v>
       </c>
-      <c r="B289" s="156"/>
-      <c r="C289" s="157"/>
+      <c r="B289" s="165"/>
+      <c r="C289" s="166"/>
       <c r="D289" s="20">
         <v>2</v>
       </c>
@@ -15122,11 +15661,11 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="155" t="s">
+      <c r="A290" s="164" t="s">
         <v>294</v>
       </c>
-      <c r="B290" s="156"/>
-      <c r="C290" s="157"/>
+      <c r="B290" s="165"/>
+      <c r="C290" s="166"/>
       <c r="D290" s="20">
         <v>3</v>
       </c>
@@ -15162,11 +15701,11 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="155" t="s">
+      <c r="A291" s="164" t="s">
         <v>295</v>
       </c>
-      <c r="B291" s="156"/>
-      <c r="C291" s="157"/>
+      <c r="B291" s="165"/>
+      <c r="C291" s="166"/>
       <c r="D291" s="20">
         <v>6</v>
       </c>
@@ -15202,11 +15741,11 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="155" t="s">
+      <c r="A292" s="164" t="s">
         <v>296</v>
       </c>
-      <c r="B292" s="156"/>
-      <c r="C292" s="157"/>
+      <c r="B292" s="165"/>
+      <c r="C292" s="166"/>
       <c r="D292" s="20">
         <v>1</v>
       </c>
@@ -15242,11 +15781,11 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="155" t="s">
+      <c r="A293" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="B293" s="156"/>
-      <c r="C293" s="157"/>
+      <c r="B293" s="165"/>
+      <c r="C293" s="166"/>
       <c r="D293" s="20">
         <v>2</v>
       </c>
@@ -15282,11 +15821,11 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="155" t="s">
+      <c r="A294" s="164" t="s">
         <v>298</v>
       </c>
-      <c r="B294" s="156"/>
-      <c r="C294" s="157"/>
+      <c r="B294" s="165"/>
+      <c r="C294" s="166"/>
       <c r="D294" s="20">
         <v>3</v>
       </c>
@@ -15322,11 +15861,11 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="155" t="s">
+      <c r="A295" s="164" t="s">
         <v>299</v>
       </c>
-      <c r="B295" s="156"/>
-      <c r="C295" s="157"/>
+      <c r="B295" s="165"/>
+      <c r="C295" s="166"/>
       <c r="D295" s="20">
         <v>6</v>
       </c>
@@ -15362,11 +15901,11 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="155" t="s">
+      <c r="A296" s="164" t="s">
         <v>300</v>
       </c>
-      <c r="B296" s="156"/>
-      <c r="C296" s="157"/>
+      <c r="B296" s="165"/>
+      <c r="C296" s="166"/>
       <c r="D296" s="20">
         <v>1</v>
       </c>
@@ -15402,11 +15941,11 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="155" t="s">
+      <c r="A297" s="164" t="s">
         <v>634</v>
       </c>
-      <c r="B297" s="156"/>
-      <c r="C297" s="157"/>
+      <c r="B297" s="165"/>
+      <c r="C297" s="166"/>
       <c r="D297" s="20">
         <v>2</v>
       </c>
@@ -15442,11 +15981,11 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="155" t="s">
+      <c r="A298" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="B298" s="156"/>
-      <c r="C298" s="157"/>
+      <c r="B298" s="165"/>
+      <c r="C298" s="166"/>
       <c r="D298" s="20">
         <v>3</v>
       </c>
@@ -15482,11 +16021,11 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="155" t="s">
+      <c r="A299" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="B299" s="156"/>
-      <c r="C299" s="157"/>
+      <c r="B299" s="165"/>
+      <c r="C299" s="166"/>
       <c r="D299" s="20">
         <v>6</v>
       </c>
@@ -15522,11 +16061,11 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="155" t="s">
+      <c r="A300" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="B300" s="156"/>
-      <c r="C300" s="157"/>
+      <c r="B300" s="165"/>
+      <c r="C300" s="166"/>
       <c r="D300" s="20">
         <v>1</v>
       </c>
@@ -15562,11 +16101,11 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="155" t="s">
+      <c r="A301" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="B301" s="156"/>
-      <c r="C301" s="157"/>
+      <c r="B301" s="165"/>
+      <c r="C301" s="166"/>
       <c r="D301" s="20">
         <v>2</v>
       </c>
@@ -15602,11 +16141,11 @@
       </c>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="155" t="s">
+      <c r="A302" s="164" t="s">
         <v>305</v>
       </c>
-      <c r="B302" s="156"/>
-      <c r="C302" s="157"/>
+      <c r="B302" s="165"/>
+      <c r="C302" s="166"/>
       <c r="D302" s="20">
         <v>3</v>
       </c>
@@ -15642,11 +16181,11 @@
       </c>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="155" t="s">
+      <c r="A303" s="164" t="s">
         <v>635</v>
       </c>
-      <c r="B303" s="156"/>
-      <c r="C303" s="157"/>
+      <c r="B303" s="165"/>
+      <c r="C303" s="166"/>
       <c r="D303" s="20">
         <v>6</v>
       </c>
@@ -15682,11 +16221,11 @@
       </c>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="155" t="s">
+      <c r="A304" s="164" t="s">
         <v>306</v>
       </c>
-      <c r="B304" s="156"/>
-      <c r="C304" s="157"/>
+      <c r="B304" s="165"/>
+      <c r="C304" s="166"/>
       <c r="D304" s="20">
         <v>1</v>
       </c>
@@ -15722,11 +16261,11 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="155" t="s">
+      <c r="A305" s="164" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="156"/>
-      <c r="C305" s="157"/>
+      <c r="B305" s="165"/>
+      <c r="C305" s="166"/>
       <c r="D305" s="20">
         <v>2</v>
       </c>
@@ -15762,11 +16301,11 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="155" t="s">
+      <c r="A306" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="156"/>
-      <c r="C306" s="157"/>
+      <c r="B306" s="165"/>
+      <c r="C306" s="166"/>
       <c r="D306" s="20">
         <v>3</v>
       </c>
@@ -15802,11 +16341,11 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="155" t="s">
+      <c r="A307" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="B307" s="156"/>
-      <c r="C307" s="157"/>
+      <c r="B307" s="165"/>
+      <c r="C307" s="166"/>
       <c r="D307" s="20">
         <v>6</v>
       </c>
@@ -15842,11 +16381,11 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="155" t="s">
+      <c r="A308" s="164" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="156"/>
-      <c r="C308" s="157"/>
+      <c r="B308" s="165"/>
+      <c r="C308" s="166"/>
       <c r="D308" s="20">
         <v>1</v>
       </c>
@@ -15882,11 +16421,11 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="155" t="s">
+      <c r="A309" s="164" t="s">
         <v>311</v>
       </c>
-      <c r="B309" s="156"/>
-      <c r="C309" s="157"/>
+      <c r="B309" s="165"/>
+      <c r="C309" s="166"/>
       <c r="D309" s="20">
         <v>2</v>
       </c>
@@ -15922,11 +16461,11 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="155" t="s">
+      <c r="A310" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="156"/>
-      <c r="C310" s="157"/>
+      <c r="B310" s="165"/>
+      <c r="C310" s="166"/>
       <c r="D310" s="20">
         <v>3</v>
       </c>
@@ -15962,11 +16501,11 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="155" t="s">
+      <c r="A311" s="164" t="s">
         <v>313</v>
       </c>
-      <c r="B311" s="156"/>
-      <c r="C311" s="157"/>
+      <c r="B311" s="165"/>
+      <c r="C311" s="166"/>
       <c r="D311" s="20">
         <v>6</v>
       </c>
@@ -16002,11 +16541,11 @@
       </c>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="155" t="s">
+      <c r="A312" s="164" t="s">
         <v>314</v>
       </c>
-      <c r="B312" s="156"/>
-      <c r="C312" s="157"/>
+      <c r="B312" s="165"/>
+      <c r="C312" s="166"/>
       <c r="D312" s="20">
         <v>1</v>
       </c>
@@ -16042,11 +16581,11 @@
       </c>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="155" t="s">
+      <c r="A313" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="B313" s="156"/>
-      <c r="C313" s="157"/>
+      <c r="B313" s="165"/>
+      <c r="C313" s="166"/>
       <c r="D313" s="20">
         <v>2</v>
       </c>
@@ -16082,11 +16621,11 @@
       </c>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="155" t="s">
+      <c r="A314" s="164" t="s">
         <v>316</v>
       </c>
-      <c r="B314" s="156"/>
-      <c r="C314" s="157"/>
+      <c r="B314" s="165"/>
+      <c r="C314" s="166"/>
       <c r="D314" s="20">
         <v>3</v>
       </c>
@@ -16122,11 +16661,11 @@
       </c>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="155" t="s">
+      <c r="A315" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="156"/>
-      <c r="C315" s="157"/>
+      <c r="B315" s="165"/>
+      <c r="C315" s="166"/>
       <c r="D315" s="20">
         <v>6</v>
       </c>
@@ -16162,11 +16701,11 @@
       </c>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="155" t="s">
+      <c r="A316" s="164" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="156"/>
-      <c r="C316" s="157"/>
+      <c r="B316" s="165"/>
+      <c r="C316" s="166"/>
       <c r="D316" s="20">
         <v>1</v>
       </c>
@@ -16202,11 +16741,11 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="155" t="s">
+      <c r="A317" s="164" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="156"/>
-      <c r="C317" s="157"/>
+      <c r="B317" s="165"/>
+      <c r="C317" s="166"/>
       <c r="D317" s="20">
         <v>2</v>
       </c>
@@ -16242,11 +16781,11 @@
       </c>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="155" t="s">
+      <c r="A318" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="156"/>
-      <c r="C318" s="157"/>
+      <c r="B318" s="165"/>
+      <c r="C318" s="166"/>
       <c r="D318" s="20">
         <v>3</v>
       </c>
@@ -16282,11 +16821,11 @@
       </c>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="155" t="s">
+      <c r="A319" s="164" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="156"/>
-      <c r="C319" s="157"/>
+      <c r="B319" s="165"/>
+      <c r="C319" s="166"/>
       <c r="D319" s="20">
         <v>6</v>
       </c>
@@ -16322,11 +16861,11 @@
       </c>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="155" t="s">
+      <c r="A320" s="164" t="s">
         <v>322</v>
       </c>
-      <c r="B320" s="156"/>
-      <c r="C320" s="157"/>
+      <c r="B320" s="165"/>
+      <c r="C320" s="166"/>
       <c r="D320" s="20">
         <v>1</v>
       </c>
@@ -16362,11 +16901,11 @@
       </c>
     </row>
     <row r="321" spans="1:14">
-      <c r="A321" s="155" t="s">
+      <c r="A321" s="164" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="156"/>
-      <c r="C321" s="157"/>
+      <c r="B321" s="165"/>
+      <c r="C321" s="166"/>
       <c r="D321" s="20">
         <v>2</v>
       </c>
@@ -16402,11 +16941,11 @@
       </c>
     </row>
     <row r="322" spans="1:14">
-      <c r="A322" s="155" t="s">
+      <c r="A322" s="164" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="156"/>
-      <c r="C322" s="157"/>
+      <c r="B322" s="165"/>
+      <c r="C322" s="166"/>
       <c r="D322" s="20">
         <v>3</v>
       </c>
@@ -16442,11 +16981,11 @@
       </c>
     </row>
     <row r="323" spans="1:14">
-      <c r="A323" s="155" t="s">
+      <c r="A323" s="164" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="156"/>
-      <c r="C323" s="157"/>
+      <c r="B323" s="165"/>
+      <c r="C323" s="166"/>
       <c r="D323" s="20">
         <v>6</v>
       </c>
@@ -16482,11 +17021,11 @@
       </c>
     </row>
     <row r="324" spans="1:14">
-      <c r="A324" s="155" t="s">
+      <c r="A324" s="164" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="156"/>
-      <c r="C324" s="157"/>
+      <c r="B324" s="165"/>
+      <c r="C324" s="166"/>
       <c r="D324" s="20">
         <v>1</v>
       </c>
@@ -16522,11 +17061,11 @@
       </c>
     </row>
     <row r="325" spans="1:14">
-      <c r="A325" s="155" t="s">
+      <c r="A325" s="164" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="156"/>
-      <c r="C325" s="157"/>
+      <c r="B325" s="165"/>
+      <c r="C325" s="166"/>
       <c r="D325" s="20">
         <v>2</v>
       </c>
@@ -16562,11 +17101,11 @@
       </c>
     </row>
     <row r="326" spans="1:14">
-      <c r="A326" s="155" t="s">
+      <c r="A326" s="164" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="156"/>
-      <c r="C326" s="157"/>
+      <c r="B326" s="165"/>
+      <c r="C326" s="166"/>
       <c r="D326" s="20">
         <v>3</v>
       </c>
@@ -16602,11 +17141,11 @@
       </c>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="155" t="s">
+      <c r="A327" s="164" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="156"/>
-      <c r="C327" s="157"/>
+      <c r="B327" s="165"/>
+      <c r="C327" s="166"/>
       <c r="D327" s="20">
         <v>6</v>
       </c>
@@ -16642,11 +17181,11 @@
       </c>
     </row>
     <row r="328" spans="1:14">
-      <c r="A328" s="155" t="s">
+      <c r="A328" s="164" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="156"/>
-      <c r="C328" s="157"/>
+      <c r="B328" s="165"/>
+      <c r="C328" s="166"/>
       <c r="D328" s="20">
         <v>1</v>
       </c>
@@ -16682,11 +17221,11 @@
       </c>
     </row>
     <row r="329" spans="1:14">
-      <c r="A329" s="155" t="s">
+      <c r="A329" s="164" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="156"/>
-      <c r="C329" s="157"/>
+      <c r="B329" s="165"/>
+      <c r="C329" s="166"/>
       <c r="D329" s="20">
         <v>2</v>
       </c>
@@ -16722,11 +17261,11 @@
       </c>
     </row>
     <row r="330" spans="1:14">
-      <c r="A330" s="155" t="s">
+      <c r="A330" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="156"/>
-      <c r="C330" s="157"/>
+      <c r="B330" s="165"/>
+      <c r="C330" s="166"/>
       <c r="D330" s="20">
         <v>3</v>
       </c>
@@ -16762,11 +17301,11 @@
       </c>
     </row>
     <row r="331" spans="1:14">
-      <c r="A331" s="155" t="s">
+      <c r="A331" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="156"/>
-      <c r="C331" s="157"/>
+      <c r="B331" s="165"/>
+      <c r="C331" s="166"/>
       <c r="D331" s="20">
         <v>6</v>
       </c>
@@ -16802,11 +17341,11 @@
       </c>
     </row>
     <row r="332" spans="1:14">
-      <c r="A332" s="155" t="s">
+      <c r="A332" s="164" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="156"/>
-      <c r="C332" s="157"/>
+      <c r="B332" s="165"/>
+      <c r="C332" s="166"/>
       <c r="D332" s="20">
         <v>1</v>
       </c>
@@ -16842,11 +17381,11 @@
       </c>
     </row>
     <row r="333" spans="1:14">
-      <c r="A333" s="155" t="s">
+      <c r="A333" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="B333" s="156"/>
-      <c r="C333" s="157"/>
+      <c r="B333" s="165"/>
+      <c r="C333" s="166"/>
       <c r="D333" s="20">
         <v>2</v>
       </c>
@@ -16882,11 +17421,11 @@
       </c>
     </row>
     <row r="334" spans="1:14">
-      <c r="A334" s="155" t="s">
+      <c r="A334" s="164" t="s">
         <v>336</v>
       </c>
-      <c r="B334" s="156"/>
-      <c r="C334" s="157"/>
+      <c r="B334" s="165"/>
+      <c r="C334" s="166"/>
       <c r="D334" s="20">
         <v>3</v>
       </c>
@@ -16922,11 +17461,11 @@
       </c>
     </row>
     <row r="335" spans="1:14">
-      <c r="A335" s="155" t="s">
+      <c r="A335" s="164" t="s">
         <v>337</v>
       </c>
-      <c r="B335" s="156"/>
-      <c r="C335" s="157"/>
+      <c r="B335" s="165"/>
+      <c r="C335" s="166"/>
       <c r="D335" s="20">
         <v>6</v>
       </c>
@@ -16962,11 +17501,11 @@
       </c>
     </row>
     <row r="336" spans="1:14">
-      <c r="A336" s="155" t="s">
+      <c r="A336" s="164" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="156"/>
-      <c r="C336" s="157"/>
+      <c r="B336" s="165"/>
+      <c r="C336" s="166"/>
       <c r="D336" s="20">
         <v>1</v>
       </c>
@@ -17002,11 +17541,11 @@
       </c>
     </row>
     <row r="337" spans="1:14">
-      <c r="A337" s="155" t="s">
+      <c r="A337" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="156"/>
-      <c r="C337" s="157"/>
+      <c r="B337" s="165"/>
+      <c r="C337" s="166"/>
       <c r="D337" s="20">
         <v>2</v>
       </c>
@@ -17042,11 +17581,11 @@
       </c>
     </row>
     <row r="338" spans="1:14">
-      <c r="A338" s="155" t="s">
+      <c r="A338" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="B338" s="156"/>
-      <c r="C338" s="157"/>
+      <c r="B338" s="165"/>
+      <c r="C338" s="166"/>
       <c r="D338" s="20">
         <v>3</v>
       </c>
@@ -17082,11 +17621,11 @@
       </c>
     </row>
     <row r="339" spans="1:14">
-      <c r="A339" s="155" t="s">
+      <c r="A339" s="164" t="s">
         <v>341</v>
       </c>
-      <c r="B339" s="156"/>
-      <c r="C339" s="157"/>
+      <c r="B339" s="165"/>
+      <c r="C339" s="166"/>
       <c r="D339" s="20">
         <v>6</v>
       </c>
@@ -17122,11 +17661,11 @@
       </c>
     </row>
     <row r="340" spans="1:14">
-      <c r="A340" s="155" t="s">
+      <c r="A340" s="164" t="s">
         <v>342</v>
       </c>
-      <c r="B340" s="156"/>
-      <c r="C340" s="157"/>
+      <c r="B340" s="165"/>
+      <c r="C340" s="166"/>
       <c r="D340" s="20">
         <v>1</v>
       </c>
@@ -17162,11 +17701,11 @@
       </c>
     </row>
     <row r="341" spans="1:14">
-      <c r="A341" s="155" t="s">
+      <c r="A341" s="164" t="s">
         <v>343</v>
       </c>
-      <c r="B341" s="156"/>
-      <c r="C341" s="157"/>
+      <c r="B341" s="165"/>
+      <c r="C341" s="166"/>
       <c r="D341" s="20">
         <v>2</v>
       </c>
@@ -17202,11 +17741,11 @@
       </c>
     </row>
     <row r="342" spans="1:14">
-      <c r="A342" s="155" t="s">
+      <c r="A342" s="164" t="s">
         <v>344</v>
       </c>
-      <c r="B342" s="156"/>
-      <c r="C342" s="157"/>
+      <c r="B342" s="165"/>
+      <c r="C342" s="166"/>
       <c r="D342" s="20">
         <v>3</v>
       </c>
@@ -17242,11 +17781,11 @@
       </c>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="155" t="s">
+      <c r="A343" s="164" t="s">
         <v>345</v>
       </c>
-      <c r="B343" s="156"/>
-      <c r="C343" s="157"/>
+      <c r="B343" s="165"/>
+      <c r="C343" s="166"/>
       <c r="D343" s="20">
         <v>6</v>
       </c>
@@ -17282,11 +17821,11 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="155" t="s">
+      <c r="A344" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="B344" s="156"/>
-      <c r="C344" s="157"/>
+      <c r="B344" s="165"/>
+      <c r="C344" s="166"/>
       <c r="D344" s="20">
         <v>1</v>
       </c>
@@ -17322,11 +17861,11 @@
       </c>
     </row>
     <row r="345" spans="1:14">
-      <c r="A345" s="155" t="s">
+      <c r="A345" s="164" t="s">
         <v>347</v>
       </c>
-      <c r="B345" s="156"/>
-      <c r="C345" s="157"/>
+      <c r="B345" s="165"/>
+      <c r="C345" s="166"/>
       <c r="D345" s="20">
         <v>2</v>
       </c>
@@ -17362,11 +17901,11 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="155" t="s">
+      <c r="A346" s="164" t="s">
         <v>348</v>
       </c>
-      <c r="B346" s="156"/>
-      <c r="C346" s="157"/>
+      <c r="B346" s="165"/>
+      <c r="C346" s="166"/>
       <c r="D346" s="20">
         <v>3</v>
       </c>
@@ -17402,11 +17941,11 @@
       </c>
     </row>
     <row r="347" spans="1:14">
-      <c r="A347" s="155" t="s">
+      <c r="A347" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="B347" s="156"/>
-      <c r="C347" s="157"/>
+      <c r="B347" s="165"/>
+      <c r="C347" s="166"/>
       <c r="D347" s="20">
         <v>6</v>
       </c>
@@ -17442,11 +17981,11 @@
       </c>
     </row>
     <row r="348" spans="1:14">
-      <c r="A348" s="155" t="s">
+      <c r="A348" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="B348" s="156"/>
-      <c r="C348" s="157"/>
+      <c r="B348" s="165"/>
+      <c r="C348" s="166"/>
       <c r="D348" s="20">
         <v>1</v>
       </c>
@@ -17482,11 +18021,11 @@
       </c>
     </row>
     <row r="349" spans="1:14">
-      <c r="A349" s="155" t="s">
+      <c r="A349" s="164" t="s">
         <v>351</v>
       </c>
-      <c r="B349" s="156"/>
-      <c r="C349" s="157"/>
+      <c r="B349" s="165"/>
+      <c r="C349" s="166"/>
       <c r="D349" s="20">
         <v>2</v>
       </c>
@@ -17522,11 +18061,11 @@
       </c>
     </row>
     <row r="350" spans="1:14">
-      <c r="A350" s="155" t="s">
+      <c r="A350" s="164" t="s">
         <v>352</v>
       </c>
-      <c r="B350" s="156"/>
-      <c r="C350" s="157"/>
+      <c r="B350" s="165"/>
+      <c r="C350" s="166"/>
       <c r="D350" s="20">
         <v>3</v>
       </c>
@@ -17562,11 +18101,11 @@
       </c>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="155" t="s">
+      <c r="A351" s="164" t="s">
         <v>353</v>
       </c>
-      <c r="B351" s="156"/>
-      <c r="C351" s="157"/>
+      <c r="B351" s="165"/>
+      <c r="C351" s="166"/>
       <c r="D351" s="20">
         <v>6</v>
       </c>
@@ -17602,11 +18141,11 @@
       </c>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352" s="155" t="s">
+      <c r="A352" s="164" t="s">
         <v>354</v>
       </c>
-      <c r="B352" s="156"/>
-      <c r="C352" s="157"/>
+      <c r="B352" s="165"/>
+      <c r="C352" s="166"/>
       <c r="D352" s="20">
         <v>1</v>
       </c>
@@ -17642,11 +18181,11 @@
       </c>
     </row>
     <row r="353" spans="1:14">
-      <c r="A353" s="155" t="s">
+      <c r="A353" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="B353" s="156"/>
-      <c r="C353" s="157"/>
+      <c r="B353" s="165"/>
+      <c r="C353" s="166"/>
       <c r="D353" s="20">
         <v>2</v>
       </c>
@@ -17682,11 +18221,11 @@
       </c>
     </row>
     <row r="354" spans="1:14">
-      <c r="A354" s="155" t="s">
+      <c r="A354" s="164" t="s">
         <v>356</v>
       </c>
-      <c r="B354" s="156"/>
-      <c r="C354" s="157"/>
+      <c r="B354" s="165"/>
+      <c r="C354" s="166"/>
       <c r="D354" s="20">
         <v>3</v>
       </c>
@@ -17722,11 +18261,11 @@
       </c>
     </row>
     <row r="355" spans="1:14">
-      <c r="A355" s="155" t="s">
+      <c r="A355" s="164" t="s">
         <v>357</v>
       </c>
-      <c r="B355" s="156"/>
-      <c r="C355" s="157"/>
+      <c r="B355" s="165"/>
+      <c r="C355" s="166"/>
       <c r="D355" s="20">
         <v>6</v>
       </c>
@@ -17762,11 +18301,11 @@
       </c>
     </row>
     <row r="356" spans="1:14">
-      <c r="A356" s="155" t="s">
+      <c r="A356" s="164" t="s">
         <v>358</v>
       </c>
-      <c r="B356" s="156"/>
-      <c r="C356" s="157"/>
+      <c r="B356" s="165"/>
+      <c r="C356" s="166"/>
       <c r="D356" s="20">
         <v>1</v>
       </c>
@@ -17802,11 +18341,11 @@
       </c>
     </row>
     <row r="357" spans="1:14">
-      <c r="A357" s="155" t="s">
+      <c r="A357" s="164" t="s">
         <v>359</v>
       </c>
-      <c r="B357" s="156"/>
-      <c r="C357" s="157"/>
+      <c r="B357" s="165"/>
+      <c r="C357" s="166"/>
       <c r="D357" s="20">
         <v>2</v>
       </c>
@@ -17842,11 +18381,11 @@
       </c>
     </row>
     <row r="358" spans="1:14">
-      <c r="A358" s="155" t="s">
+      <c r="A358" s="164" t="s">
         <v>360</v>
       </c>
-      <c r="B358" s="156"/>
-      <c r="C358" s="157"/>
+      <c r="B358" s="165"/>
+      <c r="C358" s="166"/>
       <c r="D358" s="20">
         <v>3</v>
       </c>
@@ -17882,11 +18421,11 @@
       </c>
     </row>
     <row r="359" spans="1:14">
-      <c r="A359" s="155" t="s">
+      <c r="A359" s="164" t="s">
         <v>361</v>
       </c>
-      <c r="B359" s="156"/>
-      <c r="C359" s="157"/>
+      <c r="B359" s="165"/>
+      <c r="C359" s="166"/>
       <c r="D359" s="20">
         <v>6</v>
       </c>
@@ -17954,11 +18493,11 @@
       <c r="N361" s="109"/>
     </row>
     <row r="362" spans="1:14">
-      <c r="A362" s="158" t="s">
+      <c r="A362" s="170" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="159"/>
-      <c r="C362" s="159"/>
+      <c r="B362" s="171"/>
+      <c r="C362" s="171"/>
       <c r="D362" s="33"/>
       <c r="E362" s="103"/>
       <c r="F362" s="104"/>
@@ -17972,11 +18511,11 @@
       <c r="N362" s="104"/>
     </row>
     <row r="363" spans="1:14">
-      <c r="A363" s="160" t="s">
+      <c r="A363" s="158" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="161"/>
-      <c r="C363" s="162"/>
+      <c r="B363" s="159"/>
+      <c r="C363" s="163"/>
       <c r="D363" s="4"/>
       <c r="E363" s="5"/>
       <c r="F363" s="84"/>
@@ -17990,11 +18529,11 @@
       <c r="N363" s="84"/>
     </row>
     <row r="364" spans="1:14">
-      <c r="A364" s="155" t="s">
+      <c r="A364" s="164" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="156"/>
-      <c r="C364" s="157"/>
+      <c r="B364" s="165"/>
+      <c r="C364" s="166"/>
       <c r="D364" s="20">
         <v>1</v>
       </c>
@@ -18030,11 +18569,11 @@
       </c>
     </row>
     <row r="365" spans="1:14">
-      <c r="A365" s="155" t="s">
+      <c r="A365" s="164" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="156"/>
-      <c r="C365" s="157"/>
+      <c r="B365" s="165"/>
+      <c r="C365" s="166"/>
       <c r="D365" s="20">
         <v>1</v>
       </c>
@@ -18070,11 +18609,11 @@
       </c>
     </row>
     <row r="366" spans="1:14">
-      <c r="A366" s="155" t="s">
+      <c r="A366" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="156"/>
-      <c r="C366" s="157"/>
+      <c r="B366" s="165"/>
+      <c r="C366" s="166"/>
       <c r="D366" s="20">
         <v>1</v>
       </c>
@@ -18110,11 +18649,11 @@
       </c>
     </row>
     <row r="367" spans="1:14">
-      <c r="A367" s="155" t="s">
+      <c r="A367" s="164" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="156"/>
-      <c r="C367" s="157"/>
+      <c r="B367" s="165"/>
+      <c r="C367" s="166"/>
       <c r="D367" s="20">
         <v>1</v>
       </c>
@@ -18150,11 +18689,11 @@
       </c>
     </row>
     <row r="368" spans="1:14">
-      <c r="A368" s="155" t="s">
+      <c r="A368" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B368" s="156"/>
-      <c r="C368" s="157"/>
+      <c r="B368" s="165"/>
+      <c r="C368" s="166"/>
       <c r="D368" s="20">
         <v>1</v>
       </c>
@@ -18190,11 +18729,11 @@
       </c>
     </row>
     <row r="369" spans="1:14">
-      <c r="A369" s="155" t="s">
+      <c r="A369" s="164" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="156"/>
-      <c r="C369" s="157"/>
+      <c r="B369" s="165"/>
+      <c r="C369" s="166"/>
       <c r="D369" s="20">
         <v>1</v>
       </c>
@@ -18230,11 +18769,11 @@
       </c>
     </row>
     <row r="370" spans="1:14">
-      <c r="A370" s="155" t="s">
+      <c r="A370" s="164" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="156"/>
-      <c r="C370" s="157"/>
+      <c r="B370" s="165"/>
+      <c r="C370" s="166"/>
       <c r="D370" s="20">
         <v>1</v>
       </c>
@@ -18270,11 +18809,11 @@
       </c>
     </row>
     <row r="371" spans="1:14">
-      <c r="A371" s="155" t="s">
+      <c r="A371" s="164" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="156"/>
-      <c r="C371" s="157"/>
+      <c r="B371" s="165"/>
+      <c r="C371" s="166"/>
       <c r="D371" s="20">
         <v>1</v>
       </c>
@@ -18310,11 +18849,11 @@
       </c>
     </row>
     <row r="372" spans="1:14">
-      <c r="A372" s="155" t="s">
+      <c r="A372" s="164" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="156"/>
-      <c r="C372" s="157"/>
+      <c r="B372" s="165"/>
+      <c r="C372" s="166"/>
       <c r="D372" s="20">
         <v>1</v>
       </c>
@@ -18350,11 +18889,11 @@
       </c>
     </row>
     <row r="373" spans="1:14">
-      <c r="A373" s="155" t="s">
+      <c r="A373" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B373" s="156"/>
-      <c r="C373" s="157"/>
+      <c r="B373" s="165"/>
+      <c r="C373" s="166"/>
       <c r="D373" s="20">
         <v>1</v>
       </c>
@@ -18390,11 +18929,11 @@
       </c>
     </row>
     <row r="374" spans="1:14">
-      <c r="A374" s="155" t="s">
+      <c r="A374" s="164" t="s">
         <v>372</v>
       </c>
-      <c r="B374" s="156"/>
-      <c r="C374" s="157"/>
+      <c r="B374" s="165"/>
+      <c r="C374" s="166"/>
       <c r="D374" s="20">
         <v>1</v>
       </c>
@@ -18430,11 +18969,11 @@
       </c>
     </row>
     <row r="375" spans="1:14">
-      <c r="A375" s="155" t="s">
+      <c r="A375" s="164" t="s">
         <v>373</v>
       </c>
-      <c r="B375" s="156"/>
-      <c r="C375" s="157"/>
+      <c r="B375" s="165"/>
+      <c r="C375" s="166"/>
       <c r="D375" s="20">
         <v>1</v>
       </c>
@@ -18470,11 +19009,11 @@
       </c>
     </row>
     <row r="376" spans="1:14">
-      <c r="A376" s="155" t="s">
+      <c r="A376" s="164" t="s">
         <v>374</v>
       </c>
-      <c r="B376" s="156"/>
-      <c r="C376" s="157"/>
+      <c r="B376" s="165"/>
+      <c r="C376" s="166"/>
       <c r="D376" s="20">
         <v>1</v>
       </c>
@@ -18510,11 +19049,11 @@
       </c>
     </row>
     <row r="377" spans="1:14">
-      <c r="A377" s="155" t="s">
+      <c r="A377" s="164" t="s">
         <v>375</v>
       </c>
-      <c r="B377" s="156"/>
-      <c r="C377" s="157"/>
+      <c r="B377" s="165"/>
+      <c r="C377" s="166"/>
       <c r="D377" s="20">
         <v>1</v>
       </c>
@@ -18550,11 +19089,11 @@
       </c>
     </row>
     <row r="378" spans="1:14">
-      <c r="A378" s="155" t="s">
+      <c r="A378" s="164" t="s">
         <v>376</v>
       </c>
-      <c r="B378" s="156"/>
-      <c r="C378" s="157"/>
+      <c r="B378" s="165"/>
+      <c r="C378" s="166"/>
       <c r="D378" s="20">
         <v>1</v>
       </c>
@@ -18590,11 +19129,11 @@
       </c>
     </row>
     <row r="379" spans="1:14">
-      <c r="A379" s="155" t="s">
+      <c r="A379" s="164" t="s">
         <v>377</v>
       </c>
-      <c r="B379" s="156"/>
-      <c r="C379" s="157"/>
+      <c r="B379" s="165"/>
+      <c r="C379" s="166"/>
       <c r="D379" s="20">
         <v>1</v>
       </c>
@@ -18630,11 +19169,11 @@
       </c>
     </row>
     <row r="380" spans="1:14">
-      <c r="A380" s="155" t="s">
+      <c r="A380" s="164" t="s">
         <v>378</v>
       </c>
-      <c r="B380" s="156"/>
-      <c r="C380" s="157"/>
+      <c r="B380" s="165"/>
+      <c r="C380" s="166"/>
       <c r="D380" s="20">
         <v>1</v>
       </c>
@@ -18670,11 +19209,11 @@
       </c>
     </row>
     <row r="381" spans="1:14">
-      <c r="A381" s="155" t="s">
+      <c r="A381" s="164" t="s">
         <v>379</v>
       </c>
-      <c r="B381" s="156"/>
-      <c r="C381" s="157"/>
+      <c r="B381" s="165"/>
+      <c r="C381" s="166"/>
       <c r="D381" s="20">
         <v>1</v>
       </c>
@@ -18710,11 +19249,11 @@
       </c>
     </row>
     <row r="382" spans="1:14">
-      <c r="A382" s="155" t="s">
+      <c r="A382" s="164" t="s">
         <v>380</v>
       </c>
-      <c r="B382" s="156"/>
-      <c r="C382" s="157"/>
+      <c r="B382" s="165"/>
+      <c r="C382" s="166"/>
       <c r="D382" s="20">
         <v>1</v>
       </c>
@@ -18750,11 +19289,11 @@
       </c>
     </row>
     <row r="383" spans="1:14">
-      <c r="A383" s="155" t="s">
+      <c r="A383" s="164" t="s">
         <v>381</v>
       </c>
-      <c r="B383" s="156"/>
-      <c r="C383" s="157"/>
+      <c r="B383" s="165"/>
+      <c r="C383" s="166"/>
       <c r="D383" s="20">
         <v>1</v>
       </c>
@@ -18790,11 +19329,11 @@
       </c>
     </row>
     <row r="384" spans="1:14">
-      <c r="A384" s="155" t="s">
+      <c r="A384" s="164" t="s">
         <v>382</v>
       </c>
-      <c r="B384" s="156"/>
-      <c r="C384" s="157"/>
+      <c r="B384" s="165"/>
+      <c r="C384" s="166"/>
       <c r="D384" s="20">
         <v>1</v>
       </c>
@@ -18830,11 +19369,11 @@
       </c>
     </row>
     <row r="385" spans="1:14">
-      <c r="A385" s="155" t="s">
+      <c r="A385" s="164" t="s">
         <v>383</v>
       </c>
-      <c r="B385" s="156"/>
-      <c r="C385" s="157"/>
+      <c r="B385" s="165"/>
+      <c r="C385" s="166"/>
       <c r="D385" s="20">
         <v>1</v>
       </c>
@@ -18870,11 +19409,11 @@
       </c>
     </row>
     <row r="386" spans="1:14">
-      <c r="A386" s="155" t="s">
+      <c r="A386" s="164" t="s">
         <v>384</v>
       </c>
-      <c r="B386" s="156"/>
-      <c r="C386" s="157"/>
+      <c r="B386" s="165"/>
+      <c r="C386" s="166"/>
       <c r="D386" s="20">
         <v>1</v>
       </c>
@@ -18910,11 +19449,11 @@
       </c>
     </row>
     <row r="387" spans="1:14">
-      <c r="A387" s="155" t="s">
+      <c r="A387" s="164" t="s">
         <v>385</v>
       </c>
-      <c r="B387" s="156"/>
-      <c r="C387" s="157"/>
+      <c r="B387" s="165"/>
+      <c r="C387" s="166"/>
       <c r="D387" s="20">
         <v>1</v>
       </c>
@@ -18950,11 +19489,11 @@
       </c>
     </row>
     <row r="388" spans="1:14">
-      <c r="A388" s="155" t="s">
+      <c r="A388" s="164" t="s">
         <v>386</v>
       </c>
-      <c r="B388" s="156"/>
-      <c r="C388" s="157"/>
+      <c r="B388" s="165"/>
+      <c r="C388" s="166"/>
       <c r="D388" s="20">
         <v>1</v>
       </c>
@@ -18990,11 +19529,11 @@
       </c>
     </row>
     <row r="389" spans="1:14">
-      <c r="A389" s="155" t="s">
+      <c r="A389" s="164" t="s">
         <v>387</v>
       </c>
-      <c r="B389" s="156"/>
-      <c r="C389" s="157"/>
+      <c r="B389" s="165"/>
+      <c r="C389" s="166"/>
       <c r="D389" s="20">
         <v>1</v>
       </c>
@@ -19030,11 +19569,11 @@
       </c>
     </row>
     <row r="390" spans="1:14">
-      <c r="A390" s="155" t="s">
+      <c r="A390" s="164" t="s">
         <v>388</v>
       </c>
-      <c r="B390" s="156"/>
-      <c r="C390" s="157"/>
+      <c r="B390" s="165"/>
+      <c r="C390" s="166"/>
       <c r="D390" s="20">
         <v>1</v>
       </c>
@@ -19070,11 +19609,11 @@
       </c>
     </row>
     <row r="391" spans="1:14">
-      <c r="A391" s="155" t="s">
+      <c r="A391" s="164" t="s">
         <v>389</v>
       </c>
-      <c r="B391" s="156"/>
-      <c r="C391" s="157"/>
+      <c r="B391" s="165"/>
+      <c r="C391" s="166"/>
       <c r="D391" s="20">
         <v>1</v>
       </c>
@@ -19110,11 +19649,11 @@
       </c>
     </row>
     <row r="392" spans="1:14">
-      <c r="A392" s="155" t="s">
+      <c r="A392" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="B392" s="156"/>
-      <c r="C392" s="157"/>
+      <c r="B392" s="165"/>
+      <c r="C392" s="166"/>
       <c r="D392" s="20">
         <v>1</v>
       </c>
@@ -19150,11 +19689,11 @@
       </c>
     </row>
     <row r="393" spans="1:14">
-      <c r="A393" s="155" t="s">
+      <c r="A393" s="164" t="s">
         <v>391</v>
       </c>
-      <c r="B393" s="156"/>
-      <c r="C393" s="157"/>
+      <c r="B393" s="165"/>
+      <c r="C393" s="166"/>
       <c r="D393" s="20">
         <v>1</v>
       </c>
@@ -19190,11 +19729,11 @@
       </c>
     </row>
     <row r="394" spans="1:14">
-      <c r="A394" s="155" t="s">
+      <c r="A394" s="164" t="s">
         <v>392</v>
       </c>
-      <c r="B394" s="156"/>
-      <c r="C394" s="157"/>
+      <c r="B394" s="165"/>
+      <c r="C394" s="166"/>
       <c r="D394" s="20">
         <v>1</v>
       </c>
@@ -19230,11 +19769,11 @@
       </c>
     </row>
     <row r="395" spans="1:14">
-      <c r="A395" s="155" t="s">
+      <c r="A395" s="164" t="s">
         <v>393</v>
       </c>
-      <c r="B395" s="156"/>
-      <c r="C395" s="157"/>
+      <c r="B395" s="165"/>
+      <c r="C395" s="166"/>
       <c r="D395" s="20">
         <v>1</v>
       </c>
@@ -19270,11 +19809,11 @@
       </c>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396" s="155" t="s">
+      <c r="A396" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="B396" s="156"/>
-      <c r="C396" s="157"/>
+      <c r="B396" s="165"/>
+      <c r="C396" s="166"/>
       <c r="D396" s="20">
         <v>1</v>
       </c>
@@ -19310,11 +19849,11 @@
       </c>
     </row>
     <row r="397" spans="1:14">
-      <c r="A397" s="155" t="s">
+      <c r="A397" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="B397" s="156"/>
-      <c r="C397" s="157"/>
+      <c r="B397" s="165"/>
+      <c r="C397" s="166"/>
       <c r="D397" s="20">
         <v>1</v>
       </c>
@@ -19350,11 +19889,11 @@
       </c>
     </row>
     <row r="398" spans="1:14">
-      <c r="A398" s="155" t="s">
+      <c r="A398" s="164" t="s">
         <v>396</v>
       </c>
-      <c r="B398" s="156"/>
-      <c r="C398" s="157"/>
+      <c r="B398" s="165"/>
+      <c r="C398" s="166"/>
       <c r="D398" s="20">
         <v>1</v>
       </c>
@@ -19390,11 +19929,11 @@
       </c>
     </row>
     <row r="399" spans="1:14">
-      <c r="A399" s="155" t="s">
+      <c r="A399" s="164" t="s">
         <v>397</v>
       </c>
-      <c r="B399" s="156"/>
-      <c r="C399" s="157"/>
+      <c r="B399" s="165"/>
+      <c r="C399" s="166"/>
       <c r="D399" s="20">
         <v>1</v>
       </c>
@@ -19430,11 +19969,11 @@
       </c>
     </row>
     <row r="400" spans="1:14">
-      <c r="A400" s="155" t="s">
+      <c r="A400" s="164" t="s">
         <v>398</v>
       </c>
-      <c r="B400" s="156"/>
-      <c r="C400" s="157"/>
+      <c r="B400" s="165"/>
+      <c r="C400" s="166"/>
       <c r="D400" s="20">
         <v>1</v>
       </c>
@@ -19470,11 +20009,11 @@
       </c>
     </row>
     <row r="401" spans="1:14">
-      <c r="A401" s="155" t="s">
+      <c r="A401" s="164" t="s">
         <v>399</v>
       </c>
-      <c r="B401" s="156"/>
-      <c r="C401" s="157"/>
+      <c r="B401" s="165"/>
+      <c r="C401" s="166"/>
       <c r="D401" s="20">
         <v>1</v>
       </c>
@@ -19510,11 +20049,11 @@
       </c>
     </row>
     <row r="402" spans="1:14">
-      <c r="A402" s="155" t="s">
+      <c r="A402" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="B402" s="156"/>
-      <c r="C402" s="157"/>
+      <c r="B402" s="165"/>
+      <c r="C402" s="166"/>
       <c r="D402" s="20">
         <v>1</v>
       </c>
@@ -19550,11 +20089,11 @@
       </c>
     </row>
     <row r="403" spans="1:14">
-      <c r="A403" s="155" t="s">
+      <c r="A403" s="164" t="s">
         <v>401</v>
       </c>
-      <c r="B403" s="156"/>
-      <c r="C403" s="157"/>
+      <c r="B403" s="165"/>
+      <c r="C403" s="166"/>
       <c r="D403" s="20">
         <v>1</v>
       </c>
@@ -19590,11 +20129,11 @@
       </c>
     </row>
     <row r="404" spans="1:14">
-      <c r="A404" s="155" t="s">
+      <c r="A404" s="164" t="s">
         <v>402</v>
       </c>
-      <c r="B404" s="156"/>
-      <c r="C404" s="157"/>
+      <c r="B404" s="165"/>
+      <c r="C404" s="166"/>
       <c r="D404" s="20">
         <v>1</v>
       </c>
@@ -19630,11 +20169,11 @@
       </c>
     </row>
     <row r="405" spans="1:14">
-      <c r="A405" s="155" t="s">
+      <c r="A405" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="B405" s="156"/>
-      <c r="C405" s="157"/>
+      <c r="B405" s="165"/>
+      <c r="C405" s="166"/>
       <c r="D405" s="20">
         <v>1</v>
       </c>
@@ -19670,11 +20209,11 @@
       </c>
     </row>
     <row r="406" spans="1:14">
-      <c r="A406" s="155" t="s">
+      <c r="A406" s="164" t="s">
         <v>404</v>
       </c>
-      <c r="B406" s="156"/>
-      <c r="C406" s="157"/>
+      <c r="B406" s="165"/>
+      <c r="C406" s="166"/>
       <c r="D406" s="20">
         <v>1</v>
       </c>
@@ -19710,11 +20249,11 @@
       </c>
     </row>
     <row r="407" spans="1:14">
-      <c r="A407" s="155" t="s">
+      <c r="A407" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="B407" s="156"/>
-      <c r="C407" s="157"/>
+      <c r="B407" s="165"/>
+      <c r="C407" s="166"/>
       <c r="D407" s="20">
         <v>1</v>
       </c>
@@ -19750,11 +20289,11 @@
       </c>
     </row>
     <row r="408" spans="1:14">
-      <c r="A408" s="155" t="s">
+      <c r="A408" s="164" t="s">
         <v>406</v>
       </c>
-      <c r="B408" s="156"/>
-      <c r="C408" s="157"/>
+      <c r="B408" s="165"/>
+      <c r="C408" s="166"/>
       <c r="D408" s="20">
         <v>1</v>
       </c>
@@ -19790,11 +20329,11 @@
       </c>
     </row>
     <row r="409" spans="1:14">
-      <c r="A409" s="155" t="s">
+      <c r="A409" s="164" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="156"/>
-      <c r="C409" s="157"/>
+      <c r="B409" s="165"/>
+      <c r="C409" s="166"/>
       <c r="D409" s="20">
         <v>1</v>
       </c>
@@ -19830,11 +20369,11 @@
       </c>
     </row>
     <row r="410" spans="1:14">
-      <c r="A410" s="155" t="s">
+      <c r="A410" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="B410" s="156"/>
-      <c r="C410" s="157"/>
+      <c r="B410" s="165"/>
+      <c r="C410" s="166"/>
       <c r="D410" s="20">
         <v>1</v>
       </c>
@@ -19870,11 +20409,11 @@
       </c>
     </row>
     <row r="411" spans="1:14">
-      <c r="A411" s="155" t="s">
+      <c r="A411" s="164" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="156"/>
-      <c r="C411" s="157"/>
+      <c r="B411" s="165"/>
+      <c r="C411" s="166"/>
       <c r="D411" s="20">
         <v>1</v>
       </c>
@@ -19910,11 +20449,11 @@
       </c>
     </row>
     <row r="412" spans="1:14">
-      <c r="A412" s="155" t="s">
+      <c r="A412" s="164" t="s">
         <v>410</v>
       </c>
-      <c r="B412" s="156"/>
-      <c r="C412" s="157"/>
+      <c r="B412" s="165"/>
+      <c r="C412" s="166"/>
       <c r="D412" s="20">
         <v>1</v>
       </c>
@@ -19950,11 +20489,11 @@
       </c>
     </row>
     <row r="413" spans="1:14">
-      <c r="A413" s="155" t="s">
+      <c r="A413" s="164" t="s">
         <v>411</v>
       </c>
-      <c r="B413" s="156"/>
-      <c r="C413" s="157"/>
+      <c r="B413" s="165"/>
+      <c r="C413" s="166"/>
       <c r="D413" s="20">
         <v>1</v>
       </c>
@@ -19990,11 +20529,11 @@
       </c>
     </row>
     <row r="414" spans="1:14">
-      <c r="A414" s="155" t="s">
+      <c r="A414" s="164" t="s">
         <v>412</v>
       </c>
-      <c r="B414" s="156"/>
-      <c r="C414" s="157"/>
+      <c r="B414" s="165"/>
+      <c r="C414" s="166"/>
       <c r="D414" s="20">
         <v>1</v>
       </c>
@@ -20030,11 +20569,11 @@
       </c>
     </row>
     <row r="415" spans="1:14">
-      <c r="A415" s="155" t="s">
+      <c r="A415" s="164" t="s">
         <v>413</v>
       </c>
-      <c r="B415" s="156"/>
-      <c r="C415" s="157"/>
+      <c r="B415" s="165"/>
+      <c r="C415" s="166"/>
       <c r="D415" s="20">
         <v>1</v>
       </c>
@@ -20070,11 +20609,11 @@
       </c>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416" s="155" t="s">
+      <c r="A416" s="164" t="s">
         <v>414</v>
       </c>
-      <c r="B416" s="156"/>
-      <c r="C416" s="157"/>
+      <c r="B416" s="165"/>
+      <c r="C416" s="166"/>
       <c r="D416" s="20">
         <v>1</v>
       </c>
@@ -20110,11 +20649,11 @@
       </c>
     </row>
     <row r="417" spans="1:14">
-      <c r="A417" s="155" t="s">
+      <c r="A417" s="164" t="s">
         <v>415</v>
       </c>
-      <c r="B417" s="156"/>
-      <c r="C417" s="157"/>
+      <c r="B417" s="165"/>
+      <c r="C417" s="166"/>
       <c r="D417" s="20">
         <v>1</v>
       </c>
@@ -20150,11 +20689,11 @@
       </c>
     </row>
     <row r="418" spans="1:14">
-      <c r="A418" s="155" t="s">
+      <c r="A418" s="164" t="s">
         <v>416</v>
       </c>
-      <c r="B418" s="156"/>
-      <c r="C418" s="157"/>
+      <c r="B418" s="165"/>
+      <c r="C418" s="166"/>
       <c r="D418" s="20">
         <v>1</v>
       </c>
@@ -20190,11 +20729,11 @@
       </c>
     </row>
     <row r="419" spans="1:14">
-      <c r="A419" s="155" t="s">
+      <c r="A419" s="164" t="s">
         <v>417</v>
       </c>
-      <c r="B419" s="156"/>
-      <c r="C419" s="157"/>
+      <c r="B419" s="165"/>
+      <c r="C419" s="166"/>
       <c r="D419" s="20">
         <v>1</v>
       </c>
@@ -20230,11 +20769,11 @@
       </c>
     </row>
     <row r="420" spans="1:14">
-      <c r="A420" s="155" t="s">
+      <c r="A420" s="164" t="s">
         <v>418</v>
       </c>
-      <c r="B420" s="156"/>
-      <c r="C420" s="157"/>
+      <c r="B420" s="165"/>
+      <c r="C420" s="166"/>
       <c r="D420" s="20">
         <v>1</v>
       </c>
@@ -20270,11 +20809,11 @@
       </c>
     </row>
     <row r="421" spans="1:14">
-      <c r="A421" s="155" t="s">
+      <c r="A421" s="164" t="s">
         <v>419</v>
       </c>
-      <c r="B421" s="156"/>
-      <c r="C421" s="157"/>
+      <c r="B421" s="165"/>
+      <c r="C421" s="166"/>
       <c r="D421" s="20">
         <v>1</v>
       </c>
@@ -20310,11 +20849,11 @@
       </c>
     </row>
     <row r="422" spans="1:14">
-      <c r="A422" s="155" t="s">
+      <c r="A422" s="164" t="s">
         <v>420</v>
       </c>
-      <c r="B422" s="156"/>
-      <c r="C422" s="157"/>
+      <c r="B422" s="165"/>
+      <c r="C422" s="166"/>
       <c r="D422" s="20">
         <v>1</v>
       </c>
@@ -20350,11 +20889,11 @@
       </c>
     </row>
     <row r="423" spans="1:14">
-      <c r="A423" s="155" t="s">
+      <c r="A423" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="B423" s="156"/>
-      <c r="C423" s="157"/>
+      <c r="B423" s="165"/>
+      <c r="C423" s="166"/>
       <c r="D423" s="20">
         <v>1</v>
       </c>
@@ -20390,11 +20929,11 @@
       </c>
     </row>
     <row r="424" spans="1:14">
-      <c r="A424" s="155" t="s">
+      <c r="A424" s="164" t="s">
         <v>422</v>
       </c>
-      <c r="B424" s="156"/>
-      <c r="C424" s="157"/>
+      <c r="B424" s="165"/>
+      <c r="C424" s="166"/>
       <c r="D424" s="20">
         <v>1</v>
       </c>
@@ -20430,11 +20969,11 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="155" t="s">
+      <c r="A425" s="164" t="s">
         <v>423</v>
       </c>
-      <c r="B425" s="156"/>
-      <c r="C425" s="157"/>
+      <c r="B425" s="165"/>
+      <c r="C425" s="166"/>
       <c r="D425" s="20">
         <v>1</v>
       </c>
@@ -20470,11 +21009,11 @@
       </c>
     </row>
     <row r="426" spans="1:14">
-      <c r="A426" s="155" t="s">
+      <c r="A426" s="164" t="s">
         <v>424</v>
       </c>
-      <c r="B426" s="156"/>
-      <c r="C426" s="157"/>
+      <c r="B426" s="165"/>
+      <c r="C426" s="166"/>
       <c r="D426" s="20">
         <v>1</v>
       </c>
@@ -20510,11 +21049,11 @@
       </c>
     </row>
     <row r="427" spans="1:14">
-      <c r="A427" s="155" t="s">
+      <c r="A427" s="164" t="s">
         <v>425</v>
       </c>
-      <c r="B427" s="156"/>
-      <c r="C427" s="157"/>
+      <c r="B427" s="165"/>
+      <c r="C427" s="166"/>
       <c r="D427" s="20">
         <v>1</v>
       </c>
@@ -20550,11 +21089,11 @@
       </c>
     </row>
     <row r="428" spans="1:14">
-      <c r="A428" s="155" t="s">
+      <c r="A428" s="164" t="s">
         <v>426</v>
       </c>
-      <c r="B428" s="156"/>
-      <c r="C428" s="157"/>
+      <c r="B428" s="165"/>
+      <c r="C428" s="166"/>
       <c r="D428" s="20">
         <v>1</v>
       </c>
@@ -20590,11 +21129,11 @@
       </c>
     </row>
     <row r="429" spans="1:14">
-      <c r="A429" s="155" t="s">
+      <c r="A429" s="164" t="s">
         <v>427</v>
       </c>
-      <c r="B429" s="156"/>
-      <c r="C429" s="157"/>
+      <c r="B429" s="165"/>
+      <c r="C429" s="166"/>
       <c r="D429" s="20">
         <v>1</v>
       </c>
@@ -20630,11 +21169,11 @@
       </c>
     </row>
     <row r="430" spans="1:14">
-      <c r="A430" s="155" t="s">
+      <c r="A430" s="164" t="s">
         <v>428</v>
       </c>
-      <c r="B430" s="156"/>
-      <c r="C430" s="157"/>
+      <c r="B430" s="165"/>
+      <c r="C430" s="166"/>
       <c r="D430" s="20">
         <v>1</v>
       </c>
@@ -20670,11 +21209,11 @@
       </c>
     </row>
     <row r="431" spans="1:14">
-      <c r="A431" s="155" t="s">
+      <c r="A431" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="B431" s="156"/>
-      <c r="C431" s="157"/>
+      <c r="B431" s="165"/>
+      <c r="C431" s="166"/>
       <c r="D431" s="20">
         <v>1</v>
       </c>
@@ -20710,11 +21249,11 @@
       </c>
     </row>
     <row r="432" spans="1:14">
-      <c r="A432" s="155" t="s">
+      <c r="A432" s="164" t="s">
         <v>430</v>
       </c>
-      <c r="B432" s="156"/>
-      <c r="C432" s="157"/>
+      <c r="B432" s="165"/>
+      <c r="C432" s="166"/>
       <c r="D432" s="20">
         <v>1</v>
       </c>
@@ -20750,11 +21289,11 @@
       </c>
     </row>
     <row r="433" spans="1:14">
-      <c r="A433" s="155" t="s">
+      <c r="A433" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="B433" s="156"/>
-      <c r="C433" s="157"/>
+      <c r="B433" s="165"/>
+      <c r="C433" s="166"/>
       <c r="D433" s="20">
         <v>1</v>
       </c>
@@ -20790,11 +21329,11 @@
       </c>
     </row>
     <row r="434" spans="1:14">
-      <c r="A434" s="155" t="s">
+      <c r="A434" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="B434" s="156"/>
-      <c r="C434" s="157"/>
+      <c r="B434" s="165"/>
+      <c r="C434" s="166"/>
       <c r="D434" s="20">
         <v>1</v>
       </c>
@@ -20830,11 +21369,11 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="155" t="s">
+      <c r="A435" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="B435" s="156"/>
-      <c r="C435" s="157"/>
+      <c r="B435" s="165"/>
+      <c r="C435" s="166"/>
       <c r="D435" s="20">
         <v>1</v>
       </c>
@@ -20870,11 +21409,11 @@
       </c>
     </row>
     <row r="436" spans="1:14">
-      <c r="A436" s="155" t="s">
+      <c r="A436" s="164" t="s">
         <v>434</v>
       </c>
-      <c r="B436" s="156"/>
-      <c r="C436" s="157"/>
+      <c r="B436" s="165"/>
+      <c r="C436" s="166"/>
       <c r="D436" s="20">
         <v>1</v>
       </c>
@@ -20910,11 +21449,11 @@
       </c>
     </row>
     <row r="437" spans="1:14">
-      <c r="A437" s="155" t="s">
+      <c r="A437" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="B437" s="156"/>
-      <c r="C437" s="157"/>
+      <c r="B437" s="165"/>
+      <c r="C437" s="166"/>
       <c r="D437" s="20">
         <v>1</v>
       </c>
@@ -20950,11 +21489,11 @@
       </c>
     </row>
     <row r="438" spans="1:14">
-      <c r="A438" s="155" t="s">
+      <c r="A438" s="164" t="s">
         <v>436</v>
       </c>
-      <c r="B438" s="156"/>
-      <c r="C438" s="157"/>
+      <c r="B438" s="165"/>
+      <c r="C438" s="166"/>
       <c r="D438" s="20">
         <v>1</v>
       </c>
@@ -20990,11 +21529,11 @@
       </c>
     </row>
     <row r="439" spans="1:14">
-      <c r="A439" s="155" t="s">
+      <c r="A439" s="164" t="s">
         <v>437</v>
       </c>
-      <c r="B439" s="156"/>
-      <c r="C439" s="157"/>
+      <c r="B439" s="165"/>
+      <c r="C439" s="166"/>
       <c r="D439" s="20">
         <v>1</v>
       </c>
@@ -21030,11 +21569,11 @@
       </c>
     </row>
     <row r="440" spans="1:14">
-      <c r="A440" s="155" t="s">
+      <c r="A440" s="164" t="s">
         <v>438</v>
       </c>
-      <c r="B440" s="156"/>
-      <c r="C440" s="157"/>
+      <c r="B440" s="165"/>
+      <c r="C440" s="166"/>
       <c r="D440" s="20">
         <v>1</v>
       </c>
@@ -21070,11 +21609,11 @@
       </c>
     </row>
     <row r="441" spans="1:14">
-      <c r="A441" s="155" t="s">
+      <c r="A441" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="B441" s="156"/>
-      <c r="C441" s="157"/>
+      <c r="B441" s="165"/>
+      <c r="C441" s="166"/>
       <c r="D441" s="20">
         <v>1</v>
       </c>
@@ -21110,11 +21649,11 @@
       </c>
     </row>
     <row r="442" spans="1:14">
-      <c r="A442" s="155" t="s">
+      <c r="A442" s="164" t="s">
         <v>440</v>
       </c>
-      <c r="B442" s="156"/>
-      <c r="C442" s="157"/>
+      <c r="B442" s="165"/>
+      <c r="C442" s="166"/>
       <c r="D442" s="20">
         <v>1</v>
       </c>
@@ -21150,11 +21689,11 @@
       </c>
     </row>
     <row r="443" spans="1:14">
-      <c r="A443" s="155" t="s">
+      <c r="A443" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="B443" s="156"/>
-      <c r="C443" s="157"/>
+      <c r="B443" s="165"/>
+      <c r="C443" s="166"/>
       <c r="D443" s="20">
         <v>1</v>
       </c>
@@ -21190,11 +21729,11 @@
       </c>
     </row>
     <row r="444" spans="1:14">
-      <c r="A444" s="155" t="s">
+      <c r="A444" s="164" t="s">
         <v>442</v>
       </c>
-      <c r="B444" s="156"/>
-      <c r="C444" s="157"/>
+      <c r="B444" s="165"/>
+      <c r="C444" s="166"/>
       <c r="D444" s="20">
         <v>1</v>
       </c>
@@ -21230,11 +21769,11 @@
       </c>
     </row>
     <row r="445" spans="1:14">
-      <c r="A445" s="155" t="s">
+      <c r="A445" s="164" t="s">
         <v>443</v>
       </c>
-      <c r="B445" s="156"/>
-      <c r="C445" s="157"/>
+      <c r="B445" s="165"/>
+      <c r="C445" s="166"/>
       <c r="D445" s="20">
         <v>1</v>
       </c>
@@ -21270,11 +21809,11 @@
       </c>
     </row>
     <row r="446" spans="1:14">
-      <c r="A446" s="155" t="s">
+      <c r="A446" s="164" t="s">
         <v>444</v>
       </c>
-      <c r="B446" s="156"/>
-      <c r="C446" s="157"/>
+      <c r="B446" s="165"/>
+      <c r="C446" s="166"/>
       <c r="D446" s="20">
         <v>1</v>
       </c>
@@ -21310,11 +21849,11 @@
       </c>
     </row>
     <row r="447" spans="1:14">
-      <c r="A447" s="155" t="s">
+      <c r="A447" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="B447" s="156"/>
-      <c r="C447" s="157"/>
+      <c r="B447" s="165"/>
+      <c r="C447" s="166"/>
       <c r="D447" s="20">
         <v>1</v>
       </c>
@@ -21350,11 +21889,11 @@
       </c>
     </row>
     <row r="448" spans="1:14">
-      <c r="A448" s="155" t="s">
+      <c r="A448" s="164" t="s">
         <v>446</v>
       </c>
-      <c r="B448" s="156"/>
-      <c r="C448" s="157"/>
+      <c r="B448" s="165"/>
+      <c r="C448" s="166"/>
       <c r="D448" s="20">
         <v>1</v>
       </c>
@@ -21390,11 +21929,11 @@
       </c>
     </row>
     <row r="449" spans="1:14">
-      <c r="A449" s="155" t="s">
+      <c r="A449" s="164" t="s">
         <v>447</v>
       </c>
-      <c r="B449" s="156"/>
-      <c r="C449" s="157"/>
+      <c r="B449" s="165"/>
+      <c r="C449" s="166"/>
       <c r="D449" s="20">
         <v>1</v>
       </c>
@@ -21430,11 +21969,11 @@
       </c>
     </row>
     <row r="450" spans="1:14">
-      <c r="A450" s="155" t="s">
+      <c r="A450" s="164" t="s">
         <v>448</v>
       </c>
-      <c r="B450" s="156"/>
-      <c r="C450" s="157"/>
+      <c r="B450" s="165"/>
+      <c r="C450" s="166"/>
       <c r="D450" s="20">
         <v>1</v>
       </c>
@@ -21470,11 +22009,11 @@
       </c>
     </row>
     <row r="451" spans="1:14">
-      <c r="A451" s="155" t="s">
+      <c r="A451" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="B451" s="156"/>
-      <c r="C451" s="157"/>
+      <c r="B451" s="165"/>
+      <c r="C451" s="166"/>
       <c r="D451" s="20">
         <v>1</v>
       </c>
@@ -21510,11 +22049,11 @@
       </c>
     </row>
     <row r="452" spans="1:14">
-      <c r="A452" s="155" t="s">
+      <c r="A452" s="164" t="s">
         <v>450</v>
       </c>
-      <c r="B452" s="156"/>
-      <c r="C452" s="157"/>
+      <c r="B452" s="165"/>
+      <c r="C452" s="166"/>
       <c r="D452" s="20">
         <v>1</v>
       </c>
@@ -21550,11 +22089,11 @@
       </c>
     </row>
     <row r="453" spans="1:14">
-      <c r="A453" s="155" t="s">
+      <c r="A453" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="B453" s="156"/>
-      <c r="C453" s="157"/>
+      <c r="B453" s="165"/>
+      <c r="C453" s="166"/>
       <c r="D453" s="20">
         <v>1</v>
       </c>
@@ -21590,11 +22129,11 @@
       </c>
     </row>
     <row r="454" spans="1:14">
-      <c r="A454" s="155" t="s">
+      <c r="A454" s="164" t="s">
         <v>452</v>
       </c>
-      <c r="B454" s="156"/>
-      <c r="C454" s="157"/>
+      <c r="B454" s="165"/>
+      <c r="C454" s="166"/>
       <c r="D454" s="20">
         <v>1</v>
       </c>
@@ -21630,11 +22169,11 @@
       </c>
     </row>
     <row r="455" spans="1:14">
-      <c r="A455" s="155" t="s">
+      <c r="A455" s="164" t="s">
         <v>453</v>
       </c>
-      <c r="B455" s="156"/>
-      <c r="C455" s="157"/>
+      <c r="B455" s="165"/>
+      <c r="C455" s="166"/>
       <c r="D455" s="20">
         <v>1</v>
       </c>
@@ -21670,11 +22209,11 @@
       </c>
     </row>
     <row r="456" spans="1:14">
-      <c r="A456" s="155" t="s">
+      <c r="A456" s="164" t="s">
         <v>454</v>
       </c>
-      <c r="B456" s="156"/>
-      <c r="C456" s="157"/>
+      <c r="B456" s="165"/>
+      <c r="C456" s="166"/>
       <c r="D456" s="20">
         <v>1</v>
       </c>
@@ -21710,11 +22249,11 @@
       </c>
     </row>
     <row r="457" spans="1:14">
-      <c r="A457" s="155" t="s">
+      <c r="A457" s="164" t="s">
         <v>455</v>
       </c>
-      <c r="B457" s="156"/>
-      <c r="C457" s="157"/>
+      <c r="B457" s="165"/>
+      <c r="C457" s="166"/>
       <c r="D457" s="20">
         <v>1</v>
       </c>
@@ -21750,11 +22289,11 @@
       </c>
     </row>
     <row r="458" spans="1:14">
-      <c r="A458" s="155" t="s">
+      <c r="A458" s="164" t="s">
         <v>456</v>
       </c>
-      <c r="B458" s="156"/>
-      <c r="C458" s="157"/>
+      <c r="B458" s="165"/>
+      <c r="C458" s="166"/>
       <c r="D458" s="20">
         <v>1</v>
       </c>
@@ -21790,11 +22329,11 @@
       </c>
     </row>
     <row r="459" spans="1:14">
-      <c r="A459" s="155" t="s">
+      <c r="A459" s="164" t="s">
         <v>457</v>
       </c>
-      <c r="B459" s="156"/>
-      <c r="C459" s="157"/>
+      <c r="B459" s="165"/>
+      <c r="C459" s="166"/>
       <c r="D459" s="20">
         <v>1</v>
       </c>
@@ -21830,11 +22369,11 @@
       </c>
     </row>
     <row r="460" spans="1:14">
-      <c r="A460" s="155" t="s">
+      <c r="A460" s="164" t="s">
         <v>458</v>
       </c>
-      <c r="B460" s="156"/>
-      <c r="C460" s="157"/>
+      <c r="B460" s="165"/>
+      <c r="C460" s="166"/>
       <c r="D460" s="20">
         <v>1</v>
       </c>
@@ -21870,11 +22409,11 @@
       </c>
     </row>
     <row r="461" spans="1:14">
-      <c r="A461" s="155" t="s">
+      <c r="A461" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="B461" s="156"/>
-      <c r="C461" s="157"/>
+      <c r="B461" s="165"/>
+      <c r="C461" s="166"/>
       <c r="D461" s="20">
         <v>1</v>
       </c>
@@ -21910,11 +22449,11 @@
       </c>
     </row>
     <row r="462" spans="1:14">
-      <c r="A462" s="155" t="s">
+      <c r="A462" s="164" t="s">
         <v>460</v>
       </c>
-      <c r="B462" s="156"/>
-      <c r="C462" s="157"/>
+      <c r="B462" s="165"/>
+      <c r="C462" s="166"/>
       <c r="D462" s="20">
         <v>1</v>
       </c>
@@ -21950,11 +22489,11 @@
       </c>
     </row>
     <row r="463" spans="1:14">
-      <c r="A463" s="155" t="s">
+      <c r="A463" s="164" t="s">
         <v>461</v>
       </c>
-      <c r="B463" s="156"/>
-      <c r="C463" s="157"/>
+      <c r="B463" s="165"/>
+      <c r="C463" s="166"/>
       <c r="D463" s="20">
         <v>1</v>
       </c>
@@ -21990,11 +22529,11 @@
       </c>
     </row>
     <row r="464" spans="1:14">
-      <c r="A464" s="155" t="s">
+      <c r="A464" s="164" t="s">
         <v>462</v>
       </c>
-      <c r="B464" s="156"/>
-      <c r="C464" s="157"/>
+      <c r="B464" s="165"/>
+      <c r="C464" s="166"/>
       <c r="D464" s="20">
         <v>1</v>
       </c>
@@ -22030,11 +22569,11 @@
       </c>
     </row>
     <row r="465" spans="1:14">
-      <c r="A465" s="155" t="s">
+      <c r="A465" s="164" t="s">
         <v>463</v>
       </c>
-      <c r="B465" s="156"/>
-      <c r="C465" s="157"/>
+      <c r="B465" s="165"/>
+      <c r="C465" s="166"/>
       <c r="D465" s="20">
         <v>1</v>
       </c>
@@ -22070,11 +22609,11 @@
       </c>
     </row>
     <row r="466" spans="1:14">
-      <c r="A466" s="155" t="s">
+      <c r="A466" s="164" t="s">
         <v>464</v>
       </c>
-      <c r="B466" s="156"/>
-      <c r="C466" s="157"/>
+      <c r="B466" s="165"/>
+      <c r="C466" s="166"/>
       <c r="D466" s="20">
         <v>1</v>
       </c>
@@ -22110,11 +22649,11 @@
       </c>
     </row>
     <row r="467" spans="1:14">
-      <c r="A467" s="155" t="s">
+      <c r="A467" s="164" t="s">
         <v>465</v>
       </c>
-      <c r="B467" s="156"/>
-      <c r="C467" s="157"/>
+      <c r="B467" s="165"/>
+      <c r="C467" s="166"/>
       <c r="D467" s="20">
         <v>1</v>
       </c>
@@ -22150,11 +22689,11 @@
       </c>
     </row>
     <row r="468" spans="1:14">
-      <c r="A468" s="155" t="s">
+      <c r="A468" s="164" t="s">
         <v>466</v>
       </c>
-      <c r="B468" s="156"/>
-      <c r="C468" s="157"/>
+      <c r="B468" s="165"/>
+      <c r="C468" s="166"/>
       <c r="D468" s="20">
         <v>1</v>
       </c>
@@ -22190,11 +22729,11 @@
       </c>
     </row>
     <row r="469" spans="1:14">
-      <c r="A469" s="155" t="s">
+      <c r="A469" s="164" t="s">
         <v>467</v>
       </c>
-      <c r="B469" s="156"/>
-      <c r="C469" s="157"/>
+      <c r="B469" s="165"/>
+      <c r="C469" s="166"/>
       <c r="D469" s="20">
         <v>1</v>
       </c>
@@ -22230,11 +22769,11 @@
       </c>
     </row>
     <row r="470" spans="1:14">
-      <c r="A470" s="155" t="s">
+      <c r="A470" s="164" t="s">
         <v>468</v>
       </c>
-      <c r="B470" s="156"/>
-      <c r="C470" s="157"/>
+      <c r="B470" s="165"/>
+      <c r="C470" s="166"/>
       <c r="D470" s="20">
         <v>1</v>
       </c>
@@ -22270,11 +22809,11 @@
       </c>
     </row>
     <row r="471" spans="1:14">
-      <c r="A471" s="155" t="s">
+      <c r="A471" s="164" t="s">
         <v>469</v>
       </c>
-      <c r="B471" s="156"/>
-      <c r="C471" s="157"/>
+      <c r="B471" s="165"/>
+      <c r="C471" s="166"/>
       <c r="D471" s="20">
         <v>1</v>
       </c>
@@ -22310,11 +22849,11 @@
       </c>
     </row>
     <row r="472" spans="1:14">
-      <c r="A472" s="155" t="s">
+      <c r="A472" s="164" t="s">
         <v>470</v>
       </c>
-      <c r="B472" s="156"/>
-      <c r="C472" s="157"/>
+      <c r="B472" s="165"/>
+      <c r="C472" s="166"/>
       <c r="D472" s="20">
         <v>1</v>
       </c>
@@ -22350,11 +22889,11 @@
       </c>
     </row>
     <row r="473" spans="1:14">
-      <c r="A473" s="155" t="s">
+      <c r="A473" s="164" t="s">
         <v>471</v>
       </c>
-      <c r="B473" s="156"/>
-      <c r="C473" s="157"/>
+      <c r="B473" s="165"/>
+      <c r="C473" s="166"/>
       <c r="D473" s="20">
         <v>1</v>
       </c>
@@ -22390,11 +22929,11 @@
       </c>
     </row>
     <row r="474" spans="1:14">
-      <c r="A474" s="155" t="s">
+      <c r="A474" s="164" t="s">
         <v>472</v>
       </c>
-      <c r="B474" s="156"/>
-      <c r="C474" s="157"/>
+      <c r="B474" s="165"/>
+      <c r="C474" s="166"/>
       <c r="D474" s="20">
         <v>1</v>
       </c>
@@ -22430,11 +22969,11 @@
       </c>
     </row>
     <row r="475" spans="1:14">
-      <c r="A475" s="155" t="s">
+      <c r="A475" s="164" t="s">
         <v>473</v>
       </c>
-      <c r="B475" s="156"/>
-      <c r="C475" s="157"/>
+      <c r="B475" s="165"/>
+      <c r="C475" s="166"/>
       <c r="D475" s="20">
         <v>1</v>
       </c>
@@ -22470,11 +23009,11 @@
       </c>
     </row>
     <row r="476" spans="1:14">
-      <c r="A476" s="155" t="s">
+      <c r="A476" s="164" t="s">
         <v>474</v>
       </c>
-      <c r="B476" s="156"/>
-      <c r="C476" s="157"/>
+      <c r="B476" s="165"/>
+      <c r="C476" s="166"/>
       <c r="D476" s="20">
         <v>1</v>
       </c>
@@ -22510,11 +23049,11 @@
       </c>
     </row>
     <row r="477" spans="1:14">
-      <c r="A477" s="155" t="s">
+      <c r="A477" s="164" t="s">
         <v>475</v>
       </c>
-      <c r="B477" s="156"/>
-      <c r="C477" s="157"/>
+      <c r="B477" s="165"/>
+      <c r="C477" s="166"/>
       <c r="D477" s="20">
         <v>1</v>
       </c>
@@ -22550,11 +23089,11 @@
       </c>
     </row>
     <row r="478" spans="1:14">
-      <c r="A478" s="155" t="s">
+      <c r="A478" s="164" t="s">
         <v>476</v>
       </c>
-      <c r="B478" s="156"/>
-      <c r="C478" s="157"/>
+      <c r="B478" s="165"/>
+      <c r="C478" s="166"/>
       <c r="D478" s="20">
         <v>1</v>
       </c>
@@ -22590,11 +23129,11 @@
       </c>
     </row>
     <row r="479" spans="1:14">
-      <c r="A479" s="155" t="s">
+      <c r="A479" s="164" t="s">
         <v>477</v>
       </c>
-      <c r="B479" s="156"/>
-      <c r="C479" s="157"/>
+      <c r="B479" s="165"/>
+      <c r="C479" s="166"/>
       <c r="D479" s="20">
         <v>1</v>
       </c>
@@ -22630,11 +23169,11 @@
       </c>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480" s="155" t="s">
+      <c r="A480" s="164" t="s">
         <v>478</v>
       </c>
-      <c r="B480" s="156"/>
-      <c r="C480" s="157"/>
+      <c r="B480" s="165"/>
+      <c r="C480" s="166"/>
       <c r="D480" s="20">
         <v>1</v>
       </c>
@@ -22670,11 +23209,11 @@
       </c>
     </row>
     <row r="481" spans="1:14">
-      <c r="A481" s="155" t="s">
+      <c r="A481" s="164" t="s">
         <v>479</v>
       </c>
-      <c r="B481" s="156"/>
-      <c r="C481" s="157"/>
+      <c r="B481" s="165"/>
+      <c r="C481" s="166"/>
       <c r="D481" s="20">
         <v>1</v>
       </c>
@@ -22710,11 +23249,11 @@
       </c>
     </row>
     <row r="482" spans="1:14">
-      <c r="A482" s="155" t="s">
+      <c r="A482" s="164" t="s">
         <v>480</v>
       </c>
-      <c r="B482" s="156"/>
-      <c r="C482" s="157"/>
+      <c r="B482" s="165"/>
+      <c r="C482" s="166"/>
       <c r="D482" s="20">
         <v>1</v>
       </c>
@@ -22750,11 +23289,11 @@
       </c>
     </row>
     <row r="483" spans="1:14">
-      <c r="A483" s="155" t="s">
+      <c r="A483" s="164" t="s">
         <v>481</v>
       </c>
-      <c r="B483" s="156"/>
-      <c r="C483" s="157"/>
+      <c r="B483" s="165"/>
+      <c r="C483" s="166"/>
       <c r="D483" s="20">
         <v>1</v>
       </c>
@@ -22790,11 +23329,11 @@
       </c>
     </row>
     <row r="484" spans="1:14">
-      <c r="A484" s="155" t="s">
+      <c r="A484" s="164" t="s">
         <v>482</v>
       </c>
-      <c r="B484" s="156"/>
-      <c r="C484" s="157"/>
+      <c r="B484" s="165"/>
+      <c r="C484" s="166"/>
       <c r="D484" s="20">
         <v>1</v>
       </c>
@@ -22830,11 +23369,11 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="155" t="s">
+      <c r="A485" s="164" t="s">
         <v>483</v>
       </c>
-      <c r="B485" s="156"/>
-      <c r="C485" s="157"/>
+      <c r="B485" s="165"/>
+      <c r="C485" s="166"/>
       <c r="D485" s="20">
         <v>1</v>
       </c>
@@ -22870,11 +23409,11 @@
       </c>
     </row>
     <row r="486" spans="1:14">
-      <c r="A486" s="155" t="s">
+      <c r="A486" s="164" t="s">
         <v>484</v>
       </c>
-      <c r="B486" s="156"/>
-      <c r="C486" s="157"/>
+      <c r="B486" s="165"/>
+      <c r="C486" s="166"/>
       <c r="D486" s="20">
         <v>1</v>
       </c>
@@ -22910,11 +23449,11 @@
       </c>
     </row>
     <row r="487" spans="1:14">
-      <c r="A487" s="155" t="s">
+      <c r="A487" s="164" t="s">
         <v>485</v>
       </c>
-      <c r="B487" s="156"/>
-      <c r="C487" s="157"/>
+      <c r="B487" s="165"/>
+      <c r="C487" s="166"/>
       <c r="D487" s="20">
         <v>1</v>
       </c>
@@ -22950,11 +23489,11 @@
       </c>
     </row>
     <row r="488" spans="1:14">
-      <c r="A488" s="155" t="s">
+      <c r="A488" s="164" t="s">
         <v>486</v>
       </c>
-      <c r="B488" s="156"/>
-      <c r="C488" s="157"/>
+      <c r="B488" s="165"/>
+      <c r="C488" s="166"/>
       <c r="D488" s="20">
         <v>1</v>
       </c>
@@ -22990,11 +23529,11 @@
       </c>
     </row>
     <row r="489" spans="1:14">
-      <c r="A489" s="155" t="s">
+      <c r="A489" s="164" t="s">
         <v>487</v>
       </c>
-      <c r="B489" s="156"/>
-      <c r="C489" s="157"/>
+      <c r="B489" s="165"/>
+      <c r="C489" s="166"/>
       <c r="D489" s="20">
         <v>1</v>
       </c>
@@ -23030,11 +23569,11 @@
       </c>
     </row>
     <row r="490" spans="1:14">
-      <c r="A490" s="155" t="s">
+      <c r="A490" s="164" t="s">
         <v>488</v>
       </c>
-      <c r="B490" s="156"/>
-      <c r="C490" s="157"/>
+      <c r="B490" s="165"/>
+      <c r="C490" s="166"/>
       <c r="D490" s="20">
         <v>1</v>
       </c>
@@ -23070,11 +23609,11 @@
       </c>
     </row>
     <row r="491" spans="1:14">
-      <c r="A491" s="155" t="s">
+      <c r="A491" s="164" t="s">
         <v>489</v>
       </c>
-      <c r="B491" s="156"/>
-      <c r="C491" s="157"/>
+      <c r="B491" s="165"/>
+      <c r="C491" s="166"/>
       <c r="D491" s="20">
         <v>1</v>
       </c>
@@ -23110,11 +23649,11 @@
       </c>
     </row>
     <row r="492" spans="1:14">
-      <c r="A492" s="155" t="s">
+      <c r="A492" s="164" t="s">
         <v>490</v>
       </c>
-      <c r="B492" s="156"/>
-      <c r="C492" s="157"/>
+      <c r="B492" s="165"/>
+      <c r="C492" s="166"/>
       <c r="D492" s="20">
         <v>1</v>
       </c>
@@ -23150,11 +23689,11 @@
       </c>
     </row>
     <row r="493" spans="1:14">
-      <c r="A493" s="155" t="s">
+      <c r="A493" s="164" t="s">
         <v>491</v>
       </c>
-      <c r="B493" s="156"/>
-      <c r="C493" s="157"/>
+      <c r="B493" s="165"/>
+      <c r="C493" s="166"/>
       <c r="D493" s="20">
         <v>1</v>
       </c>
@@ -23190,11 +23729,11 @@
       </c>
     </row>
     <row r="494" spans="1:14">
-      <c r="A494" s="155" t="s">
+      <c r="A494" s="164" t="s">
         <v>492</v>
       </c>
-      <c r="B494" s="156"/>
-      <c r="C494" s="157"/>
+      <c r="B494" s="165"/>
+      <c r="C494" s="166"/>
       <c r="D494" s="20">
         <v>1</v>
       </c>
@@ -23230,11 +23769,11 @@
       </c>
     </row>
     <row r="495" spans="1:14">
-      <c r="A495" s="155" t="s">
+      <c r="A495" s="164" t="s">
         <v>493</v>
       </c>
-      <c r="B495" s="156"/>
-      <c r="C495" s="157"/>
+      <c r="B495" s="165"/>
+      <c r="C495" s="166"/>
       <c r="D495" s="20">
         <v>1</v>
       </c>
@@ -23270,11 +23809,11 @@
       </c>
     </row>
     <row r="496" spans="1:14">
-      <c r="A496" s="155" t="s">
+      <c r="A496" s="164" t="s">
         <v>494</v>
       </c>
-      <c r="B496" s="156"/>
-      <c r="C496" s="157"/>
+      <c r="B496" s="165"/>
+      <c r="C496" s="166"/>
       <c r="D496" s="20">
         <v>1</v>
       </c>
@@ -23310,11 +23849,11 @@
       </c>
     </row>
     <row r="497" spans="1:14">
-      <c r="A497" s="155" t="s">
+      <c r="A497" s="164" t="s">
         <v>495</v>
       </c>
-      <c r="B497" s="156"/>
-      <c r="C497" s="157"/>
+      <c r="B497" s="165"/>
+      <c r="C497" s="166"/>
       <c r="D497" s="20">
         <v>1</v>
       </c>
@@ -23350,11 +23889,11 @@
       </c>
     </row>
     <row r="498" spans="1:14">
-      <c r="A498" s="155" t="s">
+      <c r="A498" s="164" t="s">
         <v>496</v>
       </c>
-      <c r="B498" s="156"/>
-      <c r="C498" s="157"/>
+      <c r="B498" s="165"/>
+      <c r="C498" s="166"/>
       <c r="D498" s="20">
         <v>1</v>
       </c>
@@ -23390,11 +23929,11 @@
       </c>
     </row>
     <row r="499" spans="1:14">
-      <c r="A499" s="155" t="s">
+      <c r="A499" s="164" t="s">
         <v>497</v>
       </c>
-      <c r="B499" s="156"/>
-      <c r="C499" s="157"/>
+      <c r="B499" s="165"/>
+      <c r="C499" s="166"/>
       <c r="D499" s="20">
         <v>1</v>
       </c>
@@ -23430,11 +23969,11 @@
       </c>
     </row>
     <row r="500" spans="1:14">
-      <c r="A500" s="155" t="s">
+      <c r="A500" s="164" t="s">
         <v>498</v>
       </c>
-      <c r="B500" s="156"/>
-      <c r="C500" s="157"/>
+      <c r="B500" s="165"/>
+      <c r="C500" s="166"/>
       <c r="D500" s="20">
         <v>1</v>
       </c>
@@ -23470,11 +24009,11 @@
       </c>
     </row>
     <row r="501" spans="1:14">
-      <c r="A501" s="155" t="s">
+      <c r="A501" s="164" t="s">
         <v>499</v>
       </c>
-      <c r="B501" s="156"/>
-      <c r="C501" s="157"/>
+      <c r="B501" s="165"/>
+      <c r="C501" s="166"/>
       <c r="D501" s="20">
         <v>1</v>
       </c>
@@ -23510,11 +24049,11 @@
       </c>
     </row>
     <row r="502" spans="1:14">
-      <c r="A502" s="155" t="s">
+      <c r="A502" s="164" t="s">
         <v>500</v>
       </c>
-      <c r="B502" s="156"/>
-      <c r="C502" s="157"/>
+      <c r="B502" s="165"/>
+      <c r="C502" s="166"/>
       <c r="D502" s="20">
         <v>1</v>
       </c>
@@ -23550,11 +24089,11 @@
       </c>
     </row>
     <row r="503" spans="1:14">
-      <c r="A503" s="155" t="s">
+      <c r="A503" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="B503" s="156"/>
-      <c r="C503" s="157"/>
+      <c r="B503" s="165"/>
+      <c r="C503" s="166"/>
       <c r="D503" s="20">
         <v>1</v>
       </c>
@@ -23590,11 +24129,11 @@
       </c>
     </row>
     <row r="504" spans="1:14">
-      <c r="A504" s="155" t="s">
+      <c r="A504" s="164" t="s">
         <v>502</v>
       </c>
-      <c r="B504" s="156"/>
-      <c r="C504" s="157"/>
+      <c r="B504" s="165"/>
+      <c r="C504" s="166"/>
       <c r="D504" s="20">
         <v>1</v>
       </c>
@@ -23630,11 +24169,11 @@
       </c>
     </row>
     <row r="505" spans="1:14">
-      <c r="A505" s="155" t="s">
+      <c r="A505" s="164" t="s">
         <v>503</v>
       </c>
-      <c r="B505" s="156"/>
-      <c r="C505" s="157"/>
+      <c r="B505" s="165"/>
+      <c r="C505" s="166"/>
       <c r="D505" s="20">
         <v>1</v>
       </c>
@@ -23670,11 +24209,11 @@
       </c>
     </row>
     <row r="506" spans="1:14">
-      <c r="A506" s="155" t="s">
+      <c r="A506" s="164" t="s">
         <v>504</v>
       </c>
-      <c r="B506" s="156"/>
-      <c r="C506" s="157"/>
+      <c r="B506" s="165"/>
+      <c r="C506" s="166"/>
       <c r="D506" s="20">
         <v>1</v>
       </c>
@@ -23710,11 +24249,11 @@
       </c>
     </row>
     <row r="507" spans="1:14">
-      <c r="A507" s="155" t="s">
+      <c r="A507" s="164" t="s">
         <v>505</v>
       </c>
-      <c r="B507" s="156"/>
-      <c r="C507" s="157"/>
+      <c r="B507" s="165"/>
+      <c r="C507" s="166"/>
       <c r="D507" s="20">
         <v>1</v>
       </c>
@@ -23750,11 +24289,11 @@
       </c>
     </row>
     <row r="508" spans="1:14">
-      <c r="A508" s="155" t="s">
+      <c r="A508" s="164" t="s">
         <v>506</v>
       </c>
-      <c r="B508" s="156"/>
-      <c r="C508" s="157"/>
+      <c r="B508" s="165"/>
+      <c r="C508" s="166"/>
       <c r="D508" s="20">
         <v>1</v>
       </c>
@@ -23790,11 +24329,11 @@
       </c>
     </row>
     <row r="509" spans="1:14">
-      <c r="A509" s="155" t="s">
+      <c r="A509" s="164" t="s">
         <v>507</v>
       </c>
-      <c r="B509" s="156"/>
-      <c r="C509" s="157"/>
+      <c r="B509" s="165"/>
+      <c r="C509" s="166"/>
       <c r="D509" s="20">
         <v>1</v>
       </c>
@@ -23830,11 +24369,11 @@
       </c>
     </row>
     <row r="510" spans="1:14">
-      <c r="A510" s="155" t="s">
+      <c r="A510" s="164" t="s">
         <v>508</v>
       </c>
-      <c r="B510" s="156"/>
-      <c r="C510" s="157"/>
+      <c r="B510" s="165"/>
+      <c r="C510" s="166"/>
       <c r="D510" s="20">
         <v>1</v>
       </c>
@@ -23870,11 +24409,11 @@
       </c>
     </row>
     <row r="511" spans="1:14">
-      <c r="A511" s="155" t="s">
+      <c r="A511" s="164" t="s">
         <v>509</v>
       </c>
-      <c r="B511" s="156"/>
-      <c r="C511" s="157"/>
+      <c r="B511" s="165"/>
+      <c r="C511" s="166"/>
       <c r="D511" s="20">
         <v>1</v>
       </c>
@@ -23910,11 +24449,11 @@
       </c>
     </row>
     <row r="512" spans="1:14">
-      <c r="A512" s="155" t="s">
+      <c r="A512" s="164" t="s">
         <v>510</v>
       </c>
-      <c r="B512" s="156"/>
-      <c r="C512" s="157"/>
+      <c r="B512" s="165"/>
+      <c r="C512" s="166"/>
       <c r="D512" s="20">
         <v>1</v>
       </c>
@@ -23950,11 +24489,11 @@
       </c>
     </row>
     <row r="513" spans="1:14">
-      <c r="A513" s="155" t="s">
+      <c r="A513" s="164" t="s">
         <v>511</v>
       </c>
-      <c r="B513" s="156"/>
-      <c r="C513" s="157"/>
+      <c r="B513" s="165"/>
+      <c r="C513" s="166"/>
       <c r="D513" s="20">
         <v>1</v>
       </c>
@@ -23990,11 +24529,11 @@
       </c>
     </row>
     <row r="514" spans="1:14">
-      <c r="A514" s="155" t="s">
+      <c r="A514" s="164" t="s">
         <v>512</v>
       </c>
-      <c r="B514" s="156"/>
-      <c r="C514" s="157"/>
+      <c r="B514" s="165"/>
+      <c r="C514" s="166"/>
       <c r="D514" s="20">
         <v>1</v>
       </c>
@@ -24030,11 +24569,11 @@
       </c>
     </row>
     <row r="515" spans="1:14">
-      <c r="A515" s="155" t="s">
+      <c r="A515" s="164" t="s">
         <v>513</v>
       </c>
-      <c r="B515" s="156"/>
-      <c r="C515" s="157"/>
+      <c r="B515" s="165"/>
+      <c r="C515" s="166"/>
       <c r="D515" s="20">
         <v>1</v>
       </c>
@@ -24070,11 +24609,11 @@
       </c>
     </row>
     <row r="516" spans="1:14">
-      <c r="A516" s="155" t="s">
+      <c r="A516" s="164" t="s">
         <v>514</v>
       </c>
-      <c r="B516" s="156"/>
-      <c r="C516" s="157"/>
+      <c r="B516" s="165"/>
+      <c r="C516" s="166"/>
       <c r="D516" s="20">
         <v>1</v>
       </c>
@@ -24110,11 +24649,11 @@
       </c>
     </row>
     <row r="517" spans="1:14">
-      <c r="A517" s="155" t="s">
+      <c r="A517" s="164" t="s">
         <v>515</v>
       </c>
-      <c r="B517" s="156"/>
-      <c r="C517" s="157"/>
+      <c r="B517" s="165"/>
+      <c r="C517" s="166"/>
       <c r="D517" s="20">
         <v>1</v>
       </c>
@@ -24150,11 +24689,11 @@
       </c>
     </row>
     <row r="518" spans="1:14">
-      <c r="A518" s="155" t="s">
+      <c r="A518" s="164" t="s">
         <v>516</v>
       </c>
-      <c r="B518" s="156"/>
-      <c r="C518" s="157"/>
+      <c r="B518" s="165"/>
+      <c r="C518" s="166"/>
       <c r="D518" s="20">
         <v>1</v>
       </c>
@@ -24190,11 +24729,11 @@
       </c>
     </row>
     <row r="519" spans="1:14">
-      <c r="A519" s="155" t="s">
+      <c r="A519" s="164" t="s">
         <v>517</v>
       </c>
-      <c r="B519" s="156"/>
-      <c r="C519" s="157"/>
+      <c r="B519" s="165"/>
+      <c r="C519" s="166"/>
       <c r="D519" s="20">
         <v>1</v>
       </c>
@@ -24230,11 +24769,11 @@
       </c>
     </row>
     <row r="520" spans="1:14">
-      <c r="A520" s="155" t="s">
+      <c r="A520" s="164" t="s">
         <v>518</v>
       </c>
-      <c r="B520" s="156"/>
-      <c r="C520" s="157"/>
+      <c r="B520" s="165"/>
+      <c r="C520" s="166"/>
       <c r="D520" s="20">
         <v>1</v>
       </c>
@@ -24270,11 +24809,11 @@
       </c>
     </row>
     <row r="521" spans="1:14">
-      <c r="A521" s="155" t="s">
+      <c r="A521" s="164" t="s">
         <v>519</v>
       </c>
-      <c r="B521" s="156"/>
-      <c r="C521" s="157"/>
+      <c r="B521" s="165"/>
+      <c r="C521" s="166"/>
       <c r="D521" s="20">
         <v>1</v>
       </c>
@@ -24310,11 +24849,11 @@
       </c>
     </row>
     <row r="522" spans="1:14">
-      <c r="A522" s="155" t="s">
+      <c r="A522" s="164" t="s">
         <v>520</v>
       </c>
-      <c r="B522" s="156"/>
-      <c r="C522" s="157"/>
+      <c r="B522" s="165"/>
+      <c r="C522" s="166"/>
       <c r="D522" s="20">
         <v>1</v>
       </c>
@@ -24350,11 +24889,11 @@
       </c>
     </row>
     <row r="523" spans="1:14">
-      <c r="A523" s="155" t="s">
+      <c r="A523" s="164" t="s">
         <v>521</v>
       </c>
-      <c r="B523" s="156"/>
-      <c r="C523" s="157"/>
+      <c r="B523" s="165"/>
+      <c r="C523" s="166"/>
       <c r="D523" s="20">
         <v>1</v>
       </c>
@@ -24390,11 +24929,11 @@
       </c>
     </row>
     <row r="524" spans="1:14">
-      <c r="A524" s="155" t="s">
+      <c r="A524" s="164" t="s">
         <v>522</v>
       </c>
-      <c r="B524" s="156"/>
-      <c r="C524" s="157"/>
+      <c r="B524" s="165"/>
+      <c r="C524" s="166"/>
       <c r="D524" s="20">
         <v>1</v>
       </c>
@@ -24430,11 +24969,11 @@
       </c>
     </row>
     <row r="525" spans="1:14">
-      <c r="A525" s="155" t="s">
+      <c r="A525" s="164" t="s">
         <v>523</v>
       </c>
-      <c r="B525" s="156"/>
-      <c r="C525" s="157"/>
+      <c r="B525" s="165"/>
+      <c r="C525" s="166"/>
       <c r="D525" s="20">
         <v>1</v>
       </c>
@@ -24470,11 +25009,11 @@
       </c>
     </row>
     <row r="526" spans="1:14">
-      <c r="A526" s="155" t="s">
+      <c r="A526" s="164" t="s">
         <v>524</v>
       </c>
-      <c r="B526" s="156"/>
-      <c r="C526" s="157"/>
+      <c r="B526" s="165"/>
+      <c r="C526" s="166"/>
       <c r="D526" s="20">
         <v>1</v>
       </c>
@@ -24510,11 +25049,11 @@
       </c>
     </row>
     <row r="527" spans="1:14">
-      <c r="A527" s="155" t="s">
+      <c r="A527" s="164" t="s">
         <v>525</v>
       </c>
-      <c r="B527" s="156"/>
-      <c r="C527" s="157"/>
+      <c r="B527" s="165"/>
+      <c r="C527" s="166"/>
       <c r="D527" s="20">
         <v>1</v>
       </c>
@@ -24550,11 +25089,11 @@
       </c>
     </row>
     <row r="528" spans="1:14">
-      <c r="A528" s="155" t="s">
+      <c r="A528" s="164" t="s">
         <v>526</v>
       </c>
-      <c r="B528" s="156"/>
-      <c r="C528" s="157"/>
+      <c r="B528" s="165"/>
+      <c r="C528" s="166"/>
       <c r="D528" s="20">
         <v>1</v>
       </c>
@@ -24590,11 +25129,11 @@
       </c>
     </row>
     <row r="529" spans="1:14">
-      <c r="A529" s="155" t="s">
+      <c r="A529" s="164" t="s">
         <v>527</v>
       </c>
-      <c r="B529" s="156"/>
-      <c r="C529" s="157"/>
+      <c r="B529" s="165"/>
+      <c r="C529" s="166"/>
       <c r="D529" s="20">
         <v>1</v>
       </c>
@@ -24630,11 +25169,11 @@
       </c>
     </row>
     <row r="530" spans="1:14">
-      <c r="A530" s="155" t="s">
+      <c r="A530" s="164" t="s">
         <v>528</v>
       </c>
-      <c r="B530" s="156"/>
-      <c r="C530" s="157"/>
+      <c r="B530" s="165"/>
+      <c r="C530" s="166"/>
       <c r="D530" s="20">
         <v>1</v>
       </c>
@@ -24670,11 +25209,11 @@
       </c>
     </row>
     <row r="531" spans="1:14">
-      <c r="A531" s="155" t="s">
+      <c r="A531" s="164" t="s">
         <v>529</v>
       </c>
-      <c r="B531" s="156"/>
-      <c r="C531" s="157"/>
+      <c r="B531" s="165"/>
+      <c r="C531" s="166"/>
       <c r="D531" s="20">
         <v>1</v>
       </c>
@@ -24710,11 +25249,11 @@
       </c>
     </row>
     <row r="532" spans="1:14">
-      <c r="A532" s="155" t="s">
+      <c r="A532" s="164" t="s">
         <v>530</v>
       </c>
-      <c r="B532" s="156"/>
-      <c r="C532" s="157"/>
+      <c r="B532" s="165"/>
+      <c r="C532" s="166"/>
       <c r="D532" s="20">
         <v>1</v>
       </c>
@@ -24751,24 +25290,473 @@
     </row>
   </sheetData>
   <mergeCells count="497">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A528:C528"/>
+    <mergeCell ref="A529:C529"/>
+    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A532:C532"/>
+    <mergeCell ref="A522:C522"/>
+    <mergeCell ref="A523:C523"/>
+    <mergeCell ref="A524:C524"/>
+    <mergeCell ref="A525:C525"/>
+    <mergeCell ref="A526:C526"/>
+    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A520:C520"/>
+    <mergeCell ref="A521:C521"/>
+    <mergeCell ref="A510:C510"/>
+    <mergeCell ref="A511:C511"/>
+    <mergeCell ref="A512:C512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A498:C498"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A501:C501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C503"/>
+    <mergeCell ref="A492:C492"/>
+    <mergeCell ref="A493:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="A490:C490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C481"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A478:C478"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A465:C465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A455:C455"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="A445:C445"/>
+    <mergeCell ref="A446:C446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A438:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="A426:C426"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C415"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
@@ -24781,473 +25769,24 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C415"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="A426:C426"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="A445:C445"/>
-    <mergeCell ref="A446:C446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A438:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A443:C443"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A455:C455"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A465:C465"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A478:C478"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A492:C492"/>
-    <mergeCell ref="A493:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="A490:C490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A498:C498"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A501:C501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C503"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A520:C520"/>
-    <mergeCell ref="A521:C521"/>
-    <mergeCell ref="A510:C510"/>
-    <mergeCell ref="A511:C511"/>
-    <mergeCell ref="A512:C512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="A528:C528"/>
-    <mergeCell ref="A529:C529"/>
-    <mergeCell ref="A530:C530"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A532:C532"/>
-    <mergeCell ref="A522:C522"/>
-    <mergeCell ref="A523:C523"/>
-    <mergeCell ref="A524:C524"/>
-    <mergeCell ref="A525:C525"/>
-    <mergeCell ref="A526:C526"/>
-    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/factories.xlsx
+++ b/resources/factories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vico/Sites/diggersfactory/api/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vico/Sites/diggers/api/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE6E6C-8271-084E-96EC-3DA28C43E23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A51500E-8754-CA4F-A1D6-FFF71D74561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="5140" windowWidth="29920" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38760" yWindow="5140" windowWidth="29920" windowHeight="18660" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNA" sheetId="13" r:id="rId1"/>
@@ -6548,31 +6548,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="47" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6580,6 +6560,26 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6881,7 +6881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C386B772-C70B-EA4B-9ADE-C2FCBCECB2C3}">
   <dimension ref="A1:Q338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:Q338"/>
     </sheetView>
   </sheetViews>
@@ -23831,7 +23831,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="234" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="229"/>
@@ -23871,7 +23871,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="235" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="229"/>
@@ -23889,7 +23889,7 @@
       <c r="N2" s="129"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="236" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="229"/>
@@ -23927,7 +23927,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="236" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="229"/>
@@ -23965,7 +23965,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="236" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="229"/>
@@ -24003,7 +24003,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="236" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="229"/>
@@ -24041,7 +24041,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="236" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="229"/>
@@ -24079,7 +24079,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="236" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="229"/>
@@ -24117,7 +24117,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="234" t="s">
+      <c r="A9" s="236" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="229"/>
@@ -24155,7 +24155,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="236" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="229"/>
@@ -24193,7 +24193,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="236" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="229"/>
@@ -24231,7 +24231,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="236" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="229"/>
@@ -24269,7 +24269,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="234" t="s">
+      <c r="A13" s="236" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="229"/>
@@ -24307,7 +24307,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="236" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="229"/>
@@ -24345,7 +24345,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="234" t="s">
+      <c r="A15" s="236" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="229"/>
@@ -24383,7 +24383,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="236" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="229"/>
@@ -24421,7 +24421,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="234" t="s">
+      <c r="A17" s="236" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="229"/>
@@ -24459,7 +24459,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="236" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="229"/>
@@ -24497,7 +24497,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="235" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="229"/>
@@ -24515,7 +24515,7 @@
       <c r="N19" s="129"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="236" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="229"/>
@@ -24553,7 +24553,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="234" t="s">
+      <c r="A21" s="236" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="229"/>
@@ -24591,7 +24591,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="236" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="229"/>
@@ -24629,7 +24629,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="236" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="229"/>
@@ -24667,7 +24667,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="232" t="s">
+      <c r="A24" s="235" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="229"/>
@@ -24685,7 +24685,7 @@
       <c r="N24" s="129"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="234" t="s">
+      <c r="A25" s="236" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="229"/>
@@ -24723,7 +24723,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="235" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="229"/>
@@ -24741,7 +24741,7 @@
       <c r="N26" s="129"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="234" t="s">
+      <c r="A27" s="236" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="229"/>
@@ -24779,7 +24779,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="234" t="s">
+      <c r="A28" s="236" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="229"/>
@@ -24817,7 +24817,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="234" t="s">
+      <c r="A29" s="236" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="229"/>
@@ -24855,7 +24855,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="234" t="s">
+      <c r="A30" s="236" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="229"/>
@@ -24893,7 +24893,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="234" t="s">
+      <c r="A31" s="236" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="229"/>
@@ -24931,7 +24931,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="234" t="s">
+      <c r="A32" s="236" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="229"/>
@@ -25037,11 +25037,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="235" t="s">
+      <c r="A36" s="238" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="236"/>
-      <c r="C36" s="237"/>
+      <c r="B36" s="239"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="143"/>
       <c r="E36" s="125" t="s">
         <v>72</v>
@@ -25093,7 +25093,7 @@
       <c r="N37" s="149"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="235" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="229"/>
@@ -25111,7 +25111,7 @@
       <c r="N38" s="129"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="228" t="s">
+      <c r="A39" s="237" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="229"/>
@@ -25149,7 +25149,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="228" t="s">
+      <c r="A40" s="237" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="229"/>
@@ -25187,7 +25187,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="228" t="s">
+      <c r="A41" s="237" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="229"/>
@@ -25225,7 +25225,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="228" t="s">
+      <c r="A42" s="237" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="229"/>
@@ -25263,7 +25263,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="228" t="s">
+      <c r="A43" s="237" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="229"/>
@@ -25301,7 +25301,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="237" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="229"/>
@@ -25339,7 +25339,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="228" t="s">
+      <c r="A45" s="237" t="s">
         <v>111</v>
       </c>
       <c r="B45" s="229"/>
@@ -25393,7 +25393,7 @@
       <c r="N46" s="157"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="232" t="s">
+      <c r="A47" s="235" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="229"/>
@@ -25411,7 +25411,7 @@
       <c r="N47" s="129"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="228" t="s">
+      <c r="A48" s="237" t="s">
         <v>113</v>
       </c>
       <c r="B48" s="229"/>
@@ -25449,7 +25449,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="228" t="s">
+      <c r="A49" s="237" t="s">
         <v>114</v>
       </c>
       <c r="B49" s="229"/>
@@ -25487,7 +25487,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="228" t="s">
+      <c r="A50" s="237" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="229"/>
@@ -25525,7 +25525,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="228" t="s">
+      <c r="A51" s="237" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="229"/>
@@ -25563,7 +25563,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="228" t="s">
+      <c r="A52" s="237" t="s">
         <v>116</v>
       </c>
       <c r="B52" s="229"/>
@@ -25601,7 +25601,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A53" s="228" t="s">
+      <c r="A53" s="237" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="229"/>
@@ -25639,7 +25639,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A54" s="228" t="s">
+      <c r="A54" s="237" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="229"/>
@@ -25677,7 +25677,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A55" s="228" t="s">
+      <c r="A55" s="237" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="229"/>
@@ -25715,7 +25715,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A56" s="228" t="s">
+      <c r="A56" s="237" t="s">
         <v>120</v>
       </c>
       <c r="B56" s="229"/>
@@ -25753,7 +25753,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A57" s="228" t="s">
+      <c r="A57" s="237" t="s">
         <v>121</v>
       </c>
       <c r="B57" s="229"/>
@@ -25791,7 +25791,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="228" t="s">
+      <c r="A58" s="237" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="229"/>
@@ -25829,7 +25829,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="237" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="229"/>
@@ -25867,7 +25867,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A60" s="228" t="s">
+      <c r="A60" s="237" t="s">
         <v>124</v>
       </c>
       <c r="B60" s="229"/>
@@ -25905,7 +25905,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A61" s="228" t="s">
+      <c r="A61" s="237" t="s">
         <v>125</v>
       </c>
       <c r="B61" s="229"/>
@@ -25943,7 +25943,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A62" s="228" t="s">
+      <c r="A62" s="237" t="s">
         <v>126</v>
       </c>
       <c r="B62" s="229"/>
@@ -25981,7 +25981,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A63" s="228" t="s">
+      <c r="A63" s="237" t="s">
         <v>127</v>
       </c>
       <c r="B63" s="229"/>
@@ -26019,7 +26019,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A64" s="228" t="s">
+      <c r="A64" s="237" t="s">
         <v>128</v>
       </c>
       <c r="B64" s="229"/>
@@ -26057,7 +26057,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A65" s="228" t="s">
+      <c r="A65" s="237" t="s">
         <v>628</v>
       </c>
       <c r="B65" s="229"/>
@@ -26095,7 +26095,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A66" s="228" t="s">
+      <c r="A66" s="237" t="s">
         <v>629</v>
       </c>
       <c r="B66" s="229"/>
@@ -26133,7 +26133,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A67" s="228" t="s">
+      <c r="A67" s="237" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="229"/>
@@ -26171,7 +26171,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A68" s="228" t="s">
+      <c r="A68" s="237" t="s">
         <v>130</v>
       </c>
       <c r="B68" s="229"/>
@@ -26225,7 +26225,7 @@
       <c r="N69" s="135"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A70" s="232" t="s">
+      <c r="A70" s="235" t="s">
         <v>131</v>
       </c>
       <c r="B70" s="229"/>
@@ -26243,7 +26243,7 @@
       <c r="N70" s="129"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A71" s="228" t="s">
+      <c r="A71" s="237" t="s">
         <v>132</v>
       </c>
       <c r="B71" s="229"/>
@@ -26281,7 +26281,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A72" s="228" t="s">
+      <c r="A72" s="237" t="s">
         <v>133</v>
       </c>
       <c r="B72" s="229"/>
@@ -26319,7 +26319,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="228" t="s">
+      <c r="A73" s="237" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="229"/>
@@ -26357,7 +26357,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="228" t="s">
+      <c r="A74" s="237" t="s">
         <v>134</v>
       </c>
       <c r="B74" s="229"/>
@@ -26395,7 +26395,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="228" t="s">
+      <c r="A75" s="237" t="s">
         <v>135</v>
       </c>
       <c r="B75" s="229"/>
@@ -26433,7 +26433,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="228" t="s">
+      <c r="A76" s="237" t="s">
         <v>136</v>
       </c>
       <c r="B76" s="229"/>
@@ -26487,7 +26487,7 @@
       <c r="N77" s="135"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="232" t="s">
+      <c r="A78" s="235" t="s">
         <v>137</v>
       </c>
       <c r="B78" s="229"/>
@@ -26505,7 +26505,7 @@
       <c r="N78" s="129"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="228" t="s">
+      <c r="A79" s="237" t="s">
         <v>138</v>
       </c>
       <c r="B79" s="229"/>
@@ -26543,7 +26543,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="228" t="s">
+      <c r="A80" s="237" t="s">
         <v>139</v>
       </c>
       <c r="B80" s="229"/>
@@ -26581,7 +26581,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="228" t="s">
+      <c r="A81" s="237" t="s">
         <v>140</v>
       </c>
       <c r="B81" s="229"/>
@@ -26619,7 +26619,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A82" s="228" t="s">
+      <c r="A82" s="237" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="229"/>
@@ -26657,7 +26657,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A83" s="228" t="s">
+      <c r="A83" s="237" t="s">
         <v>142</v>
       </c>
       <c r="B83" s="229"/>
@@ -26695,7 +26695,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A84" s="228" t="s">
+      <c r="A84" s="237" t="s">
         <v>143</v>
       </c>
       <c r="B84" s="229"/>
@@ -26733,7 +26733,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A85" s="228" t="s">
+      <c r="A85" s="237" t="s">
         <v>144</v>
       </c>
       <c r="B85" s="229"/>
@@ -26771,7 +26771,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A86" s="228" t="s">
+      <c r="A86" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B86" s="229"/>
@@ -26859,7 +26859,7 @@
       <c r="N89" s="163"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A90" s="232" t="s">
+      <c r="A90" s="235" t="s">
         <v>147</v>
       </c>
       <c r="B90" s="229"/>
@@ -26877,7 +26877,7 @@
       <c r="N90" s="129"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A91" s="228" t="s">
+      <c r="A91" s="237" t="s">
         <v>148</v>
       </c>
       <c r="B91" s="229"/>
@@ -26915,7 +26915,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A92" s="228" t="s">
+      <c r="A92" s="237" t="s">
         <v>149</v>
       </c>
       <c r="B92" s="229"/>
@@ -26953,7 +26953,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A93" s="228" t="s">
+      <c r="A93" s="237" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="229"/>
@@ -26993,7 +26993,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A94" s="228" t="s">
+      <c r="A94" s="237" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="229"/>
@@ -27033,7 +27033,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A95" s="228" t="s">
+      <c r="A95" s="237" t="s">
         <v>152</v>
       </c>
       <c r="B95" s="229"/>
@@ -27073,7 +27073,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A96" s="228" t="s">
+      <c r="A96" s="237" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="229"/>
@@ -27113,7 +27113,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A97" s="228" t="s">
+      <c r="A97" s="237" t="s">
         <v>153</v>
       </c>
       <c r="B97" s="229"/>
@@ -27153,7 +27153,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A98" s="228" t="s">
+      <c r="A98" s="237" t="s">
         <v>154</v>
       </c>
       <c r="B98" s="229"/>
@@ -27193,7 +27193,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A99" s="228" t="s">
+      <c r="A99" s="237" t="s">
         <v>155</v>
       </c>
       <c r="B99" s="229"/>
@@ -27233,7 +27233,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A100" s="228" t="s">
+      <c r="A100" s="237" t="s">
         <v>156</v>
       </c>
       <c r="B100" s="229"/>
@@ -27289,7 +27289,7 @@
       <c r="N101" s="157"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A102" s="232" t="s">
+      <c r="A102" s="235" t="s">
         <v>157</v>
       </c>
       <c r="B102" s="229"/>
@@ -27307,7 +27307,7 @@
       <c r="N102" s="129"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A103" s="228" t="s">
+      <c r="A103" s="237" t="s">
         <v>10</v>
       </c>
       <c r="B103" s="229"/>
@@ -27345,7 +27345,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A104" s="228" t="s">
+      <c r="A104" s="237" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="229"/>
@@ -27383,7 +27383,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A105" s="228" t="s">
+      <c r="A105" s="237" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="229"/>
@@ -27421,7 +27421,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A106" s="228" t="s">
+      <c r="A106" s="237" t="s">
         <v>13</v>
       </c>
       <c r="B106" s="229"/>
@@ -27459,7 +27459,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A107" s="228" t="s">
+      <c r="A107" s="237" t="s">
         <v>158</v>
       </c>
       <c r="B107" s="229"/>
@@ -27497,7 +27497,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A108" s="228" t="s">
+      <c r="A108" s="237" t="s">
         <v>159</v>
       </c>
       <c r="B108" s="229"/>
@@ -27535,7 +27535,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A109" s="228" t="s">
+      <c r="A109" s="237" t="s">
         <v>160</v>
       </c>
       <c r="B109" s="229"/>
@@ -27573,7 +27573,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A110" s="228" t="s">
+      <c r="A110" s="237" t="s">
         <v>161</v>
       </c>
       <c r="B110" s="229"/>
@@ -27611,7 +27611,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A111" s="228" t="s">
+      <c r="A111" s="237" t="s">
         <v>162</v>
       </c>
       <c r="B111" s="229"/>
@@ -27649,7 +27649,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A112" s="228" t="s">
+      <c r="A112" s="237" t="s">
         <v>163</v>
       </c>
       <c r="B112" s="229"/>
@@ -27687,7 +27687,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A113" s="228" t="s">
+      <c r="A113" s="237" t="s">
         <v>164</v>
       </c>
       <c r="B113" s="229"/>
@@ -27725,7 +27725,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A114" s="228" t="s">
+      <c r="A114" s="237" t="s">
         <v>165</v>
       </c>
       <c r="B114" s="229"/>
@@ -27763,7 +27763,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A115" s="228" t="s">
+      <c r="A115" s="237" t="s">
         <v>166</v>
       </c>
       <c r="B115" s="229"/>
@@ -27817,7 +27817,7 @@
       <c r="N116" s="157"/>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A117" s="232" t="s">
+      <c r="A117" s="235" t="s">
         <v>167</v>
       </c>
       <c r="B117" s="229"/>
@@ -27835,7 +27835,7 @@
       <c r="N117" s="129"/>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A118" s="228" t="s">
+      <c r="A118" s="237" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="229"/>
@@ -27875,7 +27875,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A119" s="228" t="s">
+      <c r="A119" s="237" t="s">
         <v>169</v>
       </c>
       <c r="B119" s="229"/>
@@ -27915,7 +27915,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A120" s="228" t="s">
+      <c r="A120" s="237" t="s">
         <v>170</v>
       </c>
       <c r="B120" s="229"/>
@@ -27955,7 +27955,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A121" s="228" t="s">
+      <c r="A121" s="237" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="229"/>
@@ -27995,7 +27995,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A122" s="228" t="s">
+      <c r="A122" s="237" t="s">
         <v>172</v>
       </c>
       <c r="B122" s="229"/>
@@ -28035,7 +28035,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A123" s="228" t="s">
+      <c r="A123" s="237" t="s">
         <v>173</v>
       </c>
       <c r="B123" s="229"/>
@@ -28075,7 +28075,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A124" s="228" t="s">
+      <c r="A124" s="237" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="229"/>
@@ -28115,7 +28115,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A125" s="228" t="s">
+      <c r="A125" s="237" t="s">
         <v>175</v>
       </c>
       <c r="B125" s="229"/>
@@ -28171,7 +28171,7 @@
       <c r="N126" s="157"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A127" s="232" t="s">
+      <c r="A127" s="235" t="s">
         <v>176</v>
       </c>
       <c r="B127" s="229"/>
@@ -28189,7 +28189,7 @@
       <c r="N127" s="129"/>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A128" s="228" t="s">
+      <c r="A128" s="237" t="s">
         <v>14</v>
       </c>
       <c r="B128" s="229"/>
@@ -28229,7 +28229,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A129" s="228" t="s">
+      <c r="A129" s="237" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="229"/>
@@ -28269,7 +28269,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A130" s="228" t="s">
+      <c r="A130" s="237" t="s">
         <v>15</v>
       </c>
       <c r="B130" s="229"/>
@@ -28309,7 +28309,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A131" s="228" t="s">
+      <c r="A131" s="237" t="s">
         <v>177</v>
       </c>
       <c r="B131" s="229"/>
@@ -28349,7 +28349,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A132" s="228" t="s">
+      <c r="A132" s="237" t="s">
         <v>178</v>
       </c>
       <c r="B132" s="229"/>
@@ -28389,7 +28389,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A133" s="228" t="s">
+      <c r="A133" s="237" t="s">
         <v>179</v>
       </c>
       <c r="B133" s="229"/>
@@ -28445,7 +28445,7 @@
       <c r="N134" s="157"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A135" s="232" t="s">
+      <c r="A135" s="235" t="s">
         <v>180</v>
       </c>
       <c r="B135" s="229"/>
@@ -28463,7 +28463,7 @@
       <c r="N135" s="129"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A136" s="228" t="s">
+      <c r="A136" s="237" t="s">
         <v>181</v>
       </c>
       <c r="B136" s="229"/>
@@ -28501,7 +28501,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A137" s="228" t="s">
+      <c r="A137" s="237" t="s">
         <v>182</v>
       </c>
       <c r="B137" s="229"/>
@@ -28541,7 +28541,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A138" s="228" t="s">
+      <c r="A138" s="237" t="s">
         <v>183</v>
       </c>
       <c r="B138" s="229"/>
@@ -28581,7 +28581,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A139" s="228" t="s">
+      <c r="A139" s="237" t="s">
         <v>184</v>
       </c>
       <c r="B139" s="229"/>
@@ -28621,7 +28621,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A140" s="228" t="s">
+      <c r="A140" s="237" t="s">
         <v>185</v>
       </c>
       <c r="B140" s="229"/>
@@ -28661,7 +28661,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A141" s="228" t="s">
+      <c r="A141" s="237" t="s">
         <v>186</v>
       </c>
       <c r="B141" s="229"/>
@@ -28701,7 +28701,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A142" s="228" t="s">
+      <c r="A142" s="237" t="s">
         <v>187</v>
       </c>
       <c r="B142" s="229"/>
@@ -28741,7 +28741,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A143" s="228" t="s">
+      <c r="A143" s="237" t="s">
         <v>188</v>
       </c>
       <c r="B143" s="229"/>
@@ -28781,7 +28781,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A144" s="228" t="s">
+      <c r="A144" s="237" t="s">
         <v>189</v>
       </c>
       <c r="B144" s="229"/>
@@ -28821,7 +28821,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A145" s="228" t="s">
+      <c r="A145" s="237" t="s">
         <v>190</v>
       </c>
       <c r="B145" s="229"/>
@@ -28861,7 +28861,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A146" s="228" t="s">
+      <c r="A146" s="237" t="s">
         <v>191</v>
       </c>
       <c r="B146" s="229"/>
@@ -28901,7 +28901,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A147" s="228" t="s">
+      <c r="A147" s="237" t="s">
         <v>192</v>
       </c>
       <c r="B147" s="229"/>
@@ -28941,7 +28941,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A148" s="228" t="s">
+      <c r="A148" s="237" t="s">
         <v>193</v>
       </c>
       <c r="B148" s="229"/>
@@ -28981,7 +28981,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A149" s="228" t="s">
+      <c r="A149" s="237" t="s">
         <v>194</v>
       </c>
       <c r="B149" s="229"/>
@@ -29021,7 +29021,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A150" s="228" t="s">
+      <c r="A150" s="237" t="s">
         <v>195</v>
       </c>
       <c r="B150" s="229"/>
@@ -29061,7 +29061,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A151" s="228" t="s">
+      <c r="A151" s="237" t="s">
         <v>196</v>
       </c>
       <c r="B151" s="229"/>
@@ -29101,7 +29101,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A152" s="228" t="s">
+      <c r="A152" s="237" t="s">
         <v>197</v>
       </c>
       <c r="B152" s="229"/>
@@ -29141,7 +29141,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A153" s="228" t="s">
+      <c r="A153" s="237" t="s">
         <v>198</v>
       </c>
       <c r="B153" s="229"/>
@@ -29181,7 +29181,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A154" s="228" t="s">
+      <c r="A154" s="237" t="s">
         <v>199</v>
       </c>
       <c r="B154" s="229"/>
@@ -29221,7 +29221,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A155" s="228" t="s">
+      <c r="A155" s="237" t="s">
         <v>200</v>
       </c>
       <c r="B155" s="229"/>
@@ -29261,7 +29261,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A156" s="228" t="s">
+      <c r="A156" s="237" t="s">
         <v>201</v>
       </c>
       <c r="B156" s="229"/>
@@ -29301,7 +29301,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A157" s="228" t="s">
+      <c r="A157" s="237" t="s">
         <v>202</v>
       </c>
       <c r="B157" s="229"/>
@@ -29341,7 +29341,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A158" s="228" t="s">
+      <c r="A158" s="237" t="s">
         <v>203</v>
       </c>
       <c r="B158" s="229"/>
@@ -29397,7 +29397,7 @@
       <c r="N159" s="157"/>
     </row>
     <row r="160" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A160" s="232" t="s">
+      <c r="A160" s="235" t="s">
         <v>204</v>
       </c>
       <c r="B160" s="229"/>
@@ -29415,7 +29415,7 @@
       <c r="N160" s="129"/>
     </row>
     <row r="161" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A161" s="228" t="s">
+      <c r="A161" s="237" t="s">
         <v>205</v>
       </c>
       <c r="B161" s="229"/>
@@ -29455,7 +29455,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A162" s="228" t="s">
+      <c r="A162" s="237" t="s">
         <v>17</v>
       </c>
       <c r="B162" s="229"/>
@@ -29495,7 +29495,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A163" s="228" t="s">
+      <c r="A163" s="237" t="s">
         <v>18</v>
       </c>
       <c r="B163" s="229"/>
@@ -29535,7 +29535,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A164" s="228" t="s">
+      <c r="A164" s="237" t="s">
         <v>206</v>
       </c>
       <c r="B164" s="229"/>
@@ -29575,7 +29575,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A165" s="228" t="s">
+      <c r="A165" s="237" t="s">
         <v>207</v>
       </c>
       <c r="B165" s="229"/>
@@ -29615,7 +29615,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A166" s="228" t="s">
+      <c r="A166" s="237" t="s">
         <v>208</v>
       </c>
       <c r="B166" s="229"/>
@@ -29655,7 +29655,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A167" s="228" t="s">
+      <c r="A167" s="237" t="s">
         <v>29</v>
       </c>
       <c r="B167" s="229"/>
@@ -29709,7 +29709,7 @@
       <c r="N168" s="157"/>
     </row>
     <row r="169" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A169" s="232" t="s">
+      <c r="A169" s="235" t="s">
         <v>209</v>
       </c>
       <c r="B169" s="229"/>
@@ -29727,7 +29727,7 @@
       <c r="N169" s="129"/>
     </row>
     <row r="170" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A170" s="228" t="s">
+      <c r="A170" s="237" t="s">
         <v>210</v>
       </c>
       <c r="B170" s="229"/>
@@ -29767,7 +29767,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A171" s="228" t="s">
+      <c r="A171" s="237" t="s">
         <v>211</v>
       </c>
       <c r="B171" s="229"/>
@@ -29823,7 +29823,7 @@
       <c r="N172" s="157"/>
     </row>
     <row r="173" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A173" s="232" t="s">
+      <c r="A173" s="235" t="s">
         <v>212</v>
       </c>
       <c r="B173" s="229"/>
@@ -29841,7 +29841,7 @@
       <c r="N173" s="129"/>
     </row>
     <row r="174" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A174" s="228" t="s">
+      <c r="A174" s="237" t="s">
         <v>213</v>
       </c>
       <c r="B174" s="229"/>
@@ -29881,7 +29881,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A175" s="228" t="s">
+      <c r="A175" s="237" t="s">
         <v>214</v>
       </c>
       <c r="B175" s="229"/>
@@ -29921,7 +29921,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A176" s="228" t="s">
+      <c r="A176" s="237" t="s">
         <v>215</v>
       </c>
       <c r="B176" s="229"/>
@@ -29961,7 +29961,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A177" s="228" t="s">
+      <c r="A177" s="237" t="s">
         <v>216</v>
       </c>
       <c r="B177" s="229"/>
@@ -30001,7 +30001,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A178" s="228" t="s">
+      <c r="A178" s="237" t="s">
         <v>217</v>
       </c>
       <c r="B178" s="229"/>
@@ -30041,7 +30041,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A179" s="228" t="s">
+      <c r="A179" s="237" t="s">
         <v>218</v>
       </c>
       <c r="B179" s="229"/>
@@ -30081,7 +30081,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A180" s="228" t="s">
+      <c r="A180" s="237" t="s">
         <v>219</v>
       </c>
       <c r="B180" s="229"/>
@@ -30121,7 +30121,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A181" s="228" t="s">
+      <c r="A181" s="237" t="s">
         <v>220</v>
       </c>
       <c r="B181" s="229"/>
@@ -30161,7 +30161,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A182" s="228" t="s">
+      <c r="A182" s="237" t="s">
         <v>221</v>
       </c>
       <c r="B182" s="229"/>
@@ -30201,7 +30201,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A183" s="228" t="s">
+      <c r="A183" s="237" t="s">
         <v>222</v>
       </c>
       <c r="B183" s="229"/>
@@ -30241,7 +30241,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A184" s="228" t="s">
+      <c r="A184" s="237" t="s">
         <v>223</v>
       </c>
       <c r="B184" s="229"/>
@@ -30281,7 +30281,7 @@
       </c>
     </row>
     <row r="185" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A185" s="228" t="s">
+      <c r="A185" s="237" t="s">
         <v>224</v>
       </c>
       <c r="B185" s="229"/>
@@ -30353,7 +30353,7 @@
       <c r="N187" s="167"/>
     </row>
     <row r="188" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A188" s="231" t="s">
+      <c r="A188" s="241" t="s">
         <v>225</v>
       </c>
       <c r="B188" s="229"/>
@@ -30371,7 +30371,7 @@
       <c r="N188" s="170"/>
     </row>
     <row r="189" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A189" s="233" t="s">
+      <c r="A189" s="242" t="s">
         <v>226</v>
       </c>
       <c r="B189" s="229"/>
@@ -30389,7 +30389,7 @@
       <c r="N189" s="129"/>
     </row>
     <row r="190" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A190" s="228" t="s">
+      <c r="A190" s="237" t="s">
         <v>227</v>
       </c>
       <c r="B190" s="229"/>
@@ -30429,7 +30429,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A191" s="228" t="s">
+      <c r="A191" s="237" t="s">
         <v>229</v>
       </c>
       <c r="B191" s="229"/>
@@ -30469,7 +30469,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A192" s="228" t="s">
+      <c r="A192" s="237" t="s">
         <v>230</v>
       </c>
       <c r="B192" s="229"/>
@@ -30507,7 +30507,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A193" s="228" t="s">
+      <c r="A193" s="237" t="s">
         <v>231</v>
       </c>
       <c r="B193" s="229"/>
@@ -30545,7 +30545,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A194" s="228" t="s">
+      <c r="A194" s="237" t="s">
         <v>232</v>
       </c>
       <c r="B194" s="229"/>
@@ -30583,7 +30583,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A195" s="228" t="s">
+      <c r="A195" s="237" t="s">
         <v>233</v>
       </c>
       <c r="B195" s="229"/>
@@ -30621,7 +30621,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A196" s="228" t="s">
+      <c r="A196" s="237" t="s">
         <v>234</v>
       </c>
       <c r="B196" s="229"/>
@@ -30659,7 +30659,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A197" s="228" t="s">
+      <c r="A197" s="237" t="s">
         <v>235</v>
       </c>
       <c r="B197" s="229"/>
@@ -30697,7 +30697,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A198" s="228" t="s">
+      <c r="A198" s="237" t="s">
         <v>236</v>
       </c>
       <c r="B198" s="229"/>
@@ -30735,7 +30735,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A199" s="228" t="s">
+      <c r="A199" s="237" t="s">
         <v>237</v>
       </c>
       <c r="B199" s="229"/>
@@ -30789,7 +30789,7 @@
       <c r="N200" s="157"/>
     </row>
     <row r="201" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A201" s="233" t="s">
+      <c r="A201" s="242" t="s">
         <v>238</v>
       </c>
       <c r="B201" s="229"/>
@@ -30807,7 +30807,7 @@
       <c r="N201" s="129"/>
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A202" s="228" t="s">
+      <c r="A202" s="237" t="s">
         <v>239</v>
       </c>
       <c r="B202" s="229"/>
@@ -30847,7 +30847,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A203" s="228" t="s">
+      <c r="A203" s="237" t="s">
         <v>240</v>
       </c>
       <c r="B203" s="229"/>
@@ -30887,7 +30887,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A204" s="228" t="s">
+      <c r="A204" s="237" t="s">
         <v>241</v>
       </c>
       <c r="B204" s="229"/>
@@ -30927,7 +30927,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A205" s="228" t="s">
+      <c r="A205" s="237" t="s">
         <v>242</v>
       </c>
       <c r="B205" s="229"/>
@@ -30965,7 +30965,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A206" s="228" t="s">
+      <c r="A206" s="237" t="s">
         <v>243</v>
       </c>
       <c r="B206" s="229"/>
@@ -31003,7 +31003,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A207" s="228" t="s">
+      <c r="A207" s="237" t="s">
         <v>244</v>
       </c>
       <c r="B207" s="229"/>
@@ -31041,7 +31041,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A208" s="228" t="s">
+      <c r="A208" s="237" t="s">
         <v>245</v>
       </c>
       <c r="B208" s="229"/>
@@ -31079,7 +31079,7 @@
       </c>
     </row>
     <row r="209" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A209" s="228" t="s">
+      <c r="A209" s="237" t="s">
         <v>246</v>
       </c>
       <c r="B209" s="229"/>
@@ -31117,7 +31117,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A210" s="228" t="s">
+      <c r="A210" s="237" t="s">
         <v>247</v>
       </c>
       <c r="B210" s="229"/>
@@ -31171,7 +31171,7 @@
       <c r="N211" s="157"/>
     </row>
     <row r="212" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A212" s="233" t="s">
+      <c r="A212" s="242" t="s">
         <v>248</v>
       </c>
       <c r="B212" s="229"/>
@@ -31189,7 +31189,7 @@
       <c r="N212" s="171"/>
     </row>
     <row r="213" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A213" s="228" t="s">
+      <c r="A213" s="237" t="s">
         <v>249</v>
       </c>
       <c r="B213" s="229"/>
@@ -31229,7 +31229,7 @@
       </c>
     </row>
     <row r="214" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A214" s="228" t="s">
+      <c r="A214" s="237" t="s">
         <v>250</v>
       </c>
       <c r="B214" s="229"/>
@@ -31269,7 +31269,7 @@
       </c>
     </row>
     <row r="215" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A215" s="228" t="s">
+      <c r="A215" s="237" t="s">
         <v>251</v>
       </c>
       <c r="B215" s="229"/>
@@ -31309,7 +31309,7 @@
       </c>
     </row>
     <row r="216" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A216" s="228" t="s">
+      <c r="A216" s="237" t="s">
         <v>252</v>
       </c>
       <c r="B216" s="229"/>
@@ -31349,7 +31349,7 @@
       </c>
     </row>
     <row r="217" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A217" s="228" t="s">
+      <c r="A217" s="237" t="s">
         <v>253</v>
       </c>
       <c r="B217" s="229"/>
@@ -31387,7 +31387,7 @@
       </c>
     </row>
     <row r="218" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A218" s="228" t="s">
+      <c r="A218" s="237" t="s">
         <v>254</v>
       </c>
       <c r="B218" s="229"/>
@@ -31425,7 +31425,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A219" s="228" t="s">
+      <c r="A219" s="237" t="s">
         <v>255</v>
       </c>
       <c r="B219" s="229"/>
@@ -31463,7 +31463,7 @@
       </c>
     </row>
     <row r="220" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A220" s="228" t="s">
+      <c r="A220" s="237" t="s">
         <v>256</v>
       </c>
       <c r="B220" s="229"/>
@@ -31501,7 +31501,7 @@
       </c>
     </row>
     <row r="221" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A221" s="228" t="s">
+      <c r="A221" s="237" t="s">
         <v>257</v>
       </c>
       <c r="B221" s="229"/>
@@ -31539,7 +31539,7 @@
       </c>
     </row>
     <row r="222" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A222" s="228" t="s">
+      <c r="A222" s="237" t="s">
         <v>258</v>
       </c>
       <c r="B222" s="229"/>
@@ -31593,7 +31593,7 @@
       <c r="N223" s="157"/>
     </row>
     <row r="224" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A224" s="233" t="s">
+      <c r="A224" s="242" t="s">
         <v>259</v>
       </c>
       <c r="B224" s="229"/>
@@ -31611,7 +31611,7 @@
       <c r="N224" s="129"/>
     </row>
     <row r="225" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A225" s="228" t="s">
+      <c r="A225" s="237" t="s">
         <v>260</v>
       </c>
       <c r="B225" s="229"/>
@@ -31651,7 +31651,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A226" s="228" t="s">
+      <c r="A226" s="237" t="s">
         <v>261</v>
       </c>
       <c r="B226" s="229"/>
@@ -31691,7 +31691,7 @@
       </c>
     </row>
     <row r="227" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A227" s="228" t="s">
+      <c r="A227" s="237" t="s">
         <v>262</v>
       </c>
       <c r="B227" s="229"/>
@@ -31729,7 +31729,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A228" s="228" t="s">
+      <c r="A228" s="237" t="s">
         <v>263</v>
       </c>
       <c r="B228" s="229"/>
@@ -31767,7 +31767,7 @@
       </c>
     </row>
     <row r="229" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A229" s="228" t="s">
+      <c r="A229" s="237" t="s">
         <v>264</v>
       </c>
       <c r="B229" s="229"/>
@@ -31805,7 +31805,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A230" s="228" t="s">
+      <c r="A230" s="237" t="s">
         <v>265</v>
       </c>
       <c r="B230" s="229"/>
@@ -31843,7 +31843,7 @@
       </c>
     </row>
     <row r="231" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A231" s="228" t="s">
+      <c r="A231" s="237" t="s">
         <v>266</v>
       </c>
       <c r="B231" s="229"/>
@@ -31897,7 +31897,7 @@
       <c r="N232" s="157"/>
     </row>
     <row r="233" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A233" s="233" t="s">
+      <c r="A233" s="242" t="s">
         <v>267</v>
       </c>
       <c r="B233" s="229"/>
@@ -31915,7 +31915,7 @@
       <c r="N233" s="129"/>
     </row>
     <row r="234" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A234" s="228" t="s">
+      <c r="A234" s="237" t="s">
         <v>268</v>
       </c>
       <c r="B234" s="229"/>
@@ -31969,7 +31969,7 @@
       <c r="N235" s="173"/>
     </row>
     <row r="236" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A236" s="232" t="s">
+      <c r="A236" s="235" t="s">
         <v>269</v>
       </c>
       <c r="B236" s="229"/>
@@ -31989,7 +31989,7 @@
       <c r="N236" s="129"/>
     </row>
     <row r="237" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A237" s="228" t="s">
+      <c r="A237" s="237" t="s">
         <v>270</v>
       </c>
       <c r="B237" s="229"/>
@@ -32027,7 +32027,7 @@
       </c>
     </row>
     <row r="238" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A238" s="228" t="s">
+      <c r="A238" s="237" t="s">
         <v>271</v>
       </c>
       <c r="B238" s="229"/>
@@ -32081,7 +32081,7 @@
       <c r="N239" s="157"/>
     </row>
     <row r="240" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A240" s="232" t="s">
+      <c r="A240" s="235" t="s">
         <v>272</v>
       </c>
       <c r="B240" s="229"/>
@@ -32099,7 +32099,7 @@
       <c r="N240" s="129"/>
     </row>
     <row r="241" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A241" s="228" t="s">
+      <c r="A241" s="237" t="s">
         <v>273</v>
       </c>
       <c r="B241" s="229"/>
@@ -32139,7 +32139,7 @@
       </c>
     </row>
     <row r="242" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A242" s="228" t="s">
+      <c r="A242" s="237" t="s">
         <v>274</v>
       </c>
       <c r="B242" s="229"/>
@@ -32179,7 +32179,7 @@
       </c>
     </row>
     <row r="243" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A243" s="228" t="s">
+      <c r="A243" s="237" t="s">
         <v>275</v>
       </c>
       <c r="B243" s="229"/>
@@ -32219,7 +32219,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A244" s="228" t="s">
+      <c r="A244" s="237" t="s">
         <v>21</v>
       </c>
       <c r="B244" s="229"/>
@@ -32291,7 +32291,7 @@
       <c r="N246" s="183"/>
     </row>
     <row r="247" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A247" s="231" t="s">
+      <c r="A247" s="241" t="s">
         <v>276</v>
       </c>
       <c r="B247" s="229"/>
@@ -32309,7 +32309,7 @@
       <c r="N247" s="170"/>
     </row>
     <row r="248" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A248" s="232" t="s">
+      <c r="A248" s="235" t="s">
         <v>276</v>
       </c>
       <c r="B248" s="229"/>
@@ -32327,7 +32327,7 @@
       <c r="N248" s="129"/>
     </row>
     <row r="249" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A249" s="228" t="s">
+      <c r="A249" s="237" t="s">
         <v>23</v>
       </c>
       <c r="B249" s="229"/>
@@ -32365,7 +32365,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A250" s="228" t="s">
+      <c r="A250" s="237" t="s">
         <v>24</v>
       </c>
       <c r="B250" s="229"/>
@@ -32403,7 +32403,7 @@
       </c>
     </row>
     <row r="251" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A251" s="228" t="s">
+      <c r="A251" s="237" t="s">
         <v>25</v>
       </c>
       <c r="B251" s="229"/>
@@ -32441,7 +32441,7 @@
       </c>
     </row>
     <row r="252" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A252" s="228" t="s">
+      <c r="A252" s="237" t="s">
         <v>26</v>
       </c>
       <c r="B252" s="229"/>
@@ -32479,7 +32479,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A253" s="228" t="s">
+      <c r="A253" s="237" t="s">
         <v>277</v>
       </c>
       <c r="B253" s="229"/>
@@ -32517,7 +32517,7 @@
       </c>
     </row>
     <row r="254" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A254" s="228" t="s">
+      <c r="A254" s="237" t="s">
         <v>278</v>
       </c>
       <c r="B254" s="229"/>
@@ -32631,7 +32631,7 @@
       </c>
     </row>
     <row r="257" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A257" s="228" t="s">
+      <c r="A257" s="237" t="s">
         <v>280</v>
       </c>
       <c r="B257" s="229"/>
@@ -32669,7 +32669,7 @@
       </c>
     </row>
     <row r="258" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A258" s="228" t="s">
+      <c r="A258" s="237" t="s">
         <v>281</v>
       </c>
       <c r="B258" s="229"/>
@@ -32707,7 +32707,7 @@
       </c>
     </row>
     <row r="259" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A259" s="228" t="s">
+      <c r="A259" s="237" t="s">
         <v>282</v>
       </c>
       <c r="B259" s="229"/>
@@ -32745,7 +32745,7 @@
       </c>
     </row>
     <row r="260" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A260" s="228" t="s">
+      <c r="A260" s="237" t="s">
         <v>27</v>
       </c>
       <c r="B260" s="229"/>
@@ -32783,7 +32783,7 @@
       </c>
     </row>
     <row r="261" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A261" s="228" t="s">
+      <c r="A261" s="237" t="s">
         <v>28</v>
       </c>
       <c r="B261" s="229"/>
@@ -32853,7 +32853,7 @@
       <c r="N263" s="183"/>
     </row>
     <row r="264" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A264" s="231"/>
+      <c r="A264" s="241"/>
       <c r="B264" s="229"/>
       <c r="C264" s="229"/>
       <c r="D264" s="184"/>
@@ -32869,7 +32869,7 @@
       <c r="N264" s="170"/>
     </row>
     <row r="265" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A265" s="232"/>
+      <c r="A265" s="235"/>
       <c r="B265" s="229"/>
       <c r="C265" s="230"/>
       <c r="D265" s="127"/>
@@ -32885,7 +32885,7 @@
       <c r="N265" s="129"/>
     </row>
     <row r="266" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A266" s="228"/>
+      <c r="A266" s="237"/>
       <c r="B266" s="229"/>
       <c r="C266" s="230"/>
       <c r="D266" s="151"/>
@@ -32901,7 +32901,7 @@
       <c r="N266" s="152"/>
     </row>
     <row r="267" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A267" s="228"/>
+      <c r="A267" s="237"/>
       <c r="B267" s="229"/>
       <c r="C267" s="230"/>
       <c r="D267" s="151"/>
@@ -32917,7 +32917,7 @@
       <c r="N267" s="152"/>
     </row>
     <row r="268" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A268" s="228"/>
+      <c r="A268" s="237"/>
       <c r="B268" s="229"/>
       <c r="C268" s="230"/>
       <c r="D268" s="151"/>
@@ -32933,7 +32933,7 @@
       <c r="N268" s="152"/>
     </row>
     <row r="269" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A269" s="228"/>
+      <c r="A269" s="237"/>
       <c r="B269" s="229"/>
       <c r="C269" s="230"/>
       <c r="D269" s="151"/>
@@ -32949,7 +32949,7 @@
       <c r="N269" s="152"/>
     </row>
     <row r="270" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A270" s="228"/>
+      <c r="A270" s="237"/>
       <c r="B270" s="229"/>
       <c r="C270" s="230"/>
       <c r="D270" s="151"/>
@@ -32965,7 +32965,7 @@
       <c r="N270" s="152"/>
     </row>
     <row r="271" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A271" s="228"/>
+      <c r="A271" s="237"/>
       <c r="B271" s="229"/>
       <c r="C271" s="230"/>
       <c r="D271" s="151"/>
@@ -33013,7 +33013,7 @@
       <c r="N273" s="183"/>
     </row>
     <row r="274" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A274" s="231" t="s">
+      <c r="A274" s="241" t="s">
         <v>283</v>
       </c>
       <c r="B274" s="229"/>
@@ -33031,7 +33031,7 @@
       <c r="N274" s="170"/>
     </row>
     <row r="275" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A275" s="232" t="s">
+      <c r="A275" s="235" t="s">
         <v>283</v>
       </c>
       <c r="B275" s="229"/>
@@ -33049,7 +33049,7 @@
       <c r="N275" s="129"/>
     </row>
     <row r="276" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A276" s="228" t="s">
+      <c r="A276" s="237" t="s">
         <v>284</v>
       </c>
       <c r="B276" s="229"/>
@@ -33089,7 +33089,7 @@
       </c>
     </row>
     <row r="277" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A277" s="228" t="s">
+      <c r="A277" s="237" t="s">
         <v>285</v>
       </c>
       <c r="B277" s="229"/>
@@ -33129,7 +33129,7 @@
       </c>
     </row>
     <row r="278" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A278" s="228" t="s">
+      <c r="A278" s="237" t="s">
         <v>286</v>
       </c>
       <c r="B278" s="229"/>
@@ -33169,7 +33169,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A279" s="228" t="s">
+      <c r="A279" s="237" t="s">
         <v>287</v>
       </c>
       <c r="B279" s="229"/>
@@ -33209,7 +33209,7 @@
       </c>
     </row>
     <row r="280" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A280" s="228" t="s">
+      <c r="A280" s="237" t="s">
         <v>630</v>
       </c>
       <c r="B280" s="229"/>
@@ -33249,7 +33249,7 @@
       </c>
     </row>
     <row r="281" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A281" s="228" t="s">
+      <c r="A281" s="237" t="s">
         <v>631</v>
       </c>
       <c r="B281" s="229"/>
@@ -33289,7 +33289,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A282" s="228" t="s">
+      <c r="A282" s="237" t="s">
         <v>632</v>
       </c>
       <c r="B282" s="229"/>
@@ -33329,7 +33329,7 @@
       </c>
     </row>
     <row r="283" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A283" s="228" t="s">
+      <c r="A283" s="237" t="s">
         <v>633</v>
       </c>
       <c r="B283" s="229"/>
@@ -33369,7 +33369,7 @@
       </c>
     </row>
     <row r="284" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A284" s="228" t="s">
+      <c r="A284" s="237" t="s">
         <v>288</v>
       </c>
       <c r="B284" s="229"/>
@@ -33409,7 +33409,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A285" s="228" t="s">
+      <c r="A285" s="237" t="s">
         <v>289</v>
       </c>
       <c r="B285" s="229"/>
@@ -33449,7 +33449,7 @@
       </c>
     </row>
     <row r="286" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A286" s="228" t="s">
+      <c r="A286" s="237" t="s">
         <v>290</v>
       </c>
       <c r="B286" s="229"/>
@@ -33489,7 +33489,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A287" s="228" t="s">
+      <c r="A287" s="237" t="s">
         <v>291</v>
       </c>
       <c r="B287" s="229"/>
@@ -33529,7 +33529,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A288" s="228" t="s">
+      <c r="A288" s="237" t="s">
         <v>292</v>
       </c>
       <c r="B288" s="229"/>
@@ -33569,7 +33569,7 @@
       </c>
     </row>
     <row r="289" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A289" s="228" t="s">
+      <c r="A289" s="237" t="s">
         <v>293</v>
       </c>
       <c r="B289" s="229"/>
@@ -33609,7 +33609,7 @@
       </c>
     </row>
     <row r="290" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A290" s="228" t="s">
+      <c r="A290" s="237" t="s">
         <v>294</v>
       </c>
       <c r="B290" s="229"/>
@@ -33649,7 +33649,7 @@
       </c>
     </row>
     <row r="291" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A291" s="228" t="s">
+      <c r="A291" s="237" t="s">
         <v>295</v>
       </c>
       <c r="B291" s="229"/>
@@ -33689,7 +33689,7 @@
       </c>
     </row>
     <row r="292" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A292" s="228" t="s">
+      <c r="A292" s="237" t="s">
         <v>296</v>
       </c>
       <c r="B292" s="229"/>
@@ -33729,7 +33729,7 @@
       </c>
     </row>
     <row r="293" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A293" s="228" t="s">
+      <c r="A293" s="237" t="s">
         <v>297</v>
       </c>
       <c r="B293" s="229"/>
@@ -33769,7 +33769,7 @@
       </c>
     </row>
     <row r="294" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A294" s="228" t="s">
+      <c r="A294" s="237" t="s">
         <v>298</v>
       </c>
       <c r="B294" s="229"/>
@@ -33809,7 +33809,7 @@
       </c>
     </row>
     <row r="295" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A295" s="228" t="s">
+      <c r="A295" s="237" t="s">
         <v>299</v>
       </c>
       <c r="B295" s="229"/>
@@ -33849,7 +33849,7 @@
       </c>
     </row>
     <row r="296" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A296" s="228" t="s">
+      <c r="A296" s="237" t="s">
         <v>300</v>
       </c>
       <c r="B296" s="229"/>
@@ -33889,7 +33889,7 @@
       </c>
     </row>
     <row r="297" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A297" s="228" t="s">
+      <c r="A297" s="237" t="s">
         <v>634</v>
       </c>
       <c r="B297" s="229"/>
@@ -33929,7 +33929,7 @@
       </c>
     </row>
     <row r="298" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A298" s="228" t="s">
+      <c r="A298" s="237" t="s">
         <v>301</v>
       </c>
       <c r="B298" s="229"/>
@@ -33969,7 +33969,7 @@
       </c>
     </row>
     <row r="299" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A299" s="228" t="s">
+      <c r="A299" s="237" t="s">
         <v>302</v>
       </c>
       <c r="B299" s="229"/>
@@ -34009,7 +34009,7 @@
       </c>
     </row>
     <row r="300" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A300" s="228" t="s">
+      <c r="A300" s="237" t="s">
         <v>303</v>
       </c>
       <c r="B300" s="229"/>
@@ -34049,7 +34049,7 @@
       </c>
     </row>
     <row r="301" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A301" s="228" t="s">
+      <c r="A301" s="237" t="s">
         <v>304</v>
       </c>
       <c r="B301" s="229"/>
@@ -34089,7 +34089,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A302" s="228" t="s">
+      <c r="A302" s="237" t="s">
         <v>305</v>
       </c>
       <c r="B302" s="229"/>
@@ -34129,7 +34129,7 @@
       </c>
     </row>
     <row r="303" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A303" s="228" t="s">
+      <c r="A303" s="237" t="s">
         <v>635</v>
       </c>
       <c r="B303" s="229"/>
@@ -34169,7 +34169,7 @@
       </c>
     </row>
     <row r="304" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A304" s="228" t="s">
+      <c r="A304" s="237" t="s">
         <v>306</v>
       </c>
       <c r="B304" s="229"/>
@@ -34209,7 +34209,7 @@
       </c>
     </row>
     <row r="305" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A305" s="228" t="s">
+      <c r="A305" s="237" t="s">
         <v>307</v>
       </c>
       <c r="B305" s="229"/>
@@ -34249,7 +34249,7 @@
       </c>
     </row>
     <row r="306" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A306" s="228" t="s">
+      <c r="A306" s="237" t="s">
         <v>308</v>
       </c>
       <c r="B306" s="229"/>
@@ -34289,7 +34289,7 @@
       </c>
     </row>
     <row r="307" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A307" s="228" t="s">
+      <c r="A307" s="237" t="s">
         <v>309</v>
       </c>
       <c r="B307" s="229"/>
@@ -34329,7 +34329,7 @@
       </c>
     </row>
     <row r="308" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A308" s="228" t="s">
+      <c r="A308" s="237" t="s">
         <v>310</v>
       </c>
       <c r="B308" s="229"/>
@@ -34369,7 +34369,7 @@
       </c>
     </row>
     <row r="309" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A309" s="228" t="s">
+      <c r="A309" s="237" t="s">
         <v>311</v>
       </c>
       <c r="B309" s="229"/>
@@ -34409,7 +34409,7 @@
       </c>
     </row>
     <row r="310" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A310" s="228" t="s">
+      <c r="A310" s="237" t="s">
         <v>312</v>
       </c>
       <c r="B310" s="229"/>
@@ -34449,7 +34449,7 @@
       </c>
     </row>
     <row r="311" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A311" s="228" t="s">
+      <c r="A311" s="237" t="s">
         <v>313</v>
       </c>
       <c r="B311" s="229"/>
@@ -34489,7 +34489,7 @@
       </c>
     </row>
     <row r="312" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A312" s="228" t="s">
+      <c r="A312" s="237" t="s">
         <v>314</v>
       </c>
       <c r="B312" s="229"/>
@@ -34529,7 +34529,7 @@
       </c>
     </row>
     <row r="313" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A313" s="228" t="s">
+      <c r="A313" s="237" t="s">
         <v>315</v>
       </c>
       <c r="B313" s="229"/>
@@ -34569,7 +34569,7 @@
       </c>
     </row>
     <row r="314" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A314" s="228" t="s">
+      <c r="A314" s="237" t="s">
         <v>316</v>
       </c>
       <c r="B314" s="229"/>
@@ -34609,7 +34609,7 @@
       </c>
     </row>
     <row r="315" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A315" s="228" t="s">
+      <c r="A315" s="237" t="s">
         <v>317</v>
       </c>
       <c r="B315" s="229"/>
@@ -34649,7 +34649,7 @@
       </c>
     </row>
     <row r="316" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A316" s="228" t="s">
+      <c r="A316" s="237" t="s">
         <v>318</v>
       </c>
       <c r="B316" s="229"/>
@@ -34689,7 +34689,7 @@
       </c>
     </row>
     <row r="317" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A317" s="228" t="s">
+      <c r="A317" s="237" t="s">
         <v>319</v>
       </c>
       <c r="B317" s="229"/>
@@ -34729,7 +34729,7 @@
       </c>
     </row>
     <row r="318" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A318" s="228" t="s">
+      <c r="A318" s="237" t="s">
         <v>320</v>
       </c>
       <c r="B318" s="229"/>
@@ -34769,7 +34769,7 @@
       </c>
     </row>
     <row r="319" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A319" s="228" t="s">
+      <c r="A319" s="237" t="s">
         <v>321</v>
       </c>
       <c r="B319" s="229"/>
@@ -34809,7 +34809,7 @@
       </c>
     </row>
     <row r="320" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A320" s="228" t="s">
+      <c r="A320" s="237" t="s">
         <v>322</v>
       </c>
       <c r="B320" s="229"/>
@@ -34849,7 +34849,7 @@
       </c>
     </row>
     <row r="321" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A321" s="228" t="s">
+      <c r="A321" s="237" t="s">
         <v>323</v>
       </c>
       <c r="B321" s="229"/>
@@ -34889,7 +34889,7 @@
       </c>
     </row>
     <row r="322" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A322" s="228" t="s">
+      <c r="A322" s="237" t="s">
         <v>324</v>
       </c>
       <c r="B322" s="229"/>
@@ -34929,7 +34929,7 @@
       </c>
     </row>
     <row r="323" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A323" s="228" t="s">
+      <c r="A323" s="237" t="s">
         <v>325</v>
       </c>
       <c r="B323" s="229"/>
@@ -34969,7 +34969,7 @@
       </c>
     </row>
     <row r="324" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A324" s="228" t="s">
+      <c r="A324" s="237" t="s">
         <v>326</v>
       </c>
       <c r="B324" s="229"/>
@@ -35009,7 +35009,7 @@
       </c>
     </row>
     <row r="325" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A325" s="228" t="s">
+      <c r="A325" s="237" t="s">
         <v>327</v>
       </c>
       <c r="B325" s="229"/>
@@ -35049,7 +35049,7 @@
       </c>
     </row>
     <row r="326" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A326" s="228" t="s">
+      <c r="A326" s="237" t="s">
         <v>328</v>
       </c>
       <c r="B326" s="229"/>
@@ -35089,7 +35089,7 @@
       </c>
     </row>
     <row r="327" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A327" s="228" t="s">
+      <c r="A327" s="237" t="s">
         <v>329</v>
       </c>
       <c r="B327" s="229"/>
@@ -35129,7 +35129,7 @@
       </c>
     </row>
     <row r="328" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A328" s="228" t="s">
+      <c r="A328" s="237" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="229"/>
@@ -35169,7 +35169,7 @@
       </c>
     </row>
     <row r="329" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A329" s="228" t="s">
+      <c r="A329" s="237" t="s">
         <v>331</v>
       </c>
       <c r="B329" s="229"/>
@@ -35209,7 +35209,7 @@
       </c>
     </row>
     <row r="330" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A330" s="228" t="s">
+      <c r="A330" s="237" t="s">
         <v>332</v>
       </c>
       <c r="B330" s="229"/>
@@ -35249,7 +35249,7 @@
       </c>
     </row>
     <row r="331" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A331" s="228" t="s">
+      <c r="A331" s="237" t="s">
         <v>333</v>
       </c>
       <c r="B331" s="229"/>
@@ -35289,7 +35289,7 @@
       </c>
     </row>
     <row r="332" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A332" s="228" t="s">
+      <c r="A332" s="237" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="229"/>
@@ -35329,7 +35329,7 @@
       </c>
     </row>
     <row r="333" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A333" s="228" t="s">
+      <c r="A333" s="237" t="s">
         <v>335</v>
       </c>
       <c r="B333" s="229"/>
@@ -35369,7 +35369,7 @@
       </c>
     </row>
     <row r="334" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A334" s="228" t="s">
+      <c r="A334" s="237" t="s">
         <v>336</v>
       </c>
       <c r="B334" s="229"/>
@@ -35409,7 +35409,7 @@
       </c>
     </row>
     <row r="335" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A335" s="228" t="s">
+      <c r="A335" s="237" t="s">
         <v>337</v>
       </c>
       <c r="B335" s="229"/>
@@ -35449,7 +35449,7 @@
       </c>
     </row>
     <row r="336" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A336" s="228" t="s">
+      <c r="A336" s="237" t="s">
         <v>338</v>
       </c>
       <c r="B336" s="229"/>
@@ -35489,7 +35489,7 @@
       </c>
     </row>
     <row r="337" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A337" s="228" t="s">
+      <c r="A337" s="237" t="s">
         <v>339</v>
       </c>
       <c r="B337" s="229"/>
@@ -35529,7 +35529,7 @@
       </c>
     </row>
     <row r="338" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A338" s="228" t="s">
+      <c r="A338" s="237" t="s">
         <v>340</v>
       </c>
       <c r="B338" s="229"/>
@@ -35569,7 +35569,7 @@
       </c>
     </row>
     <row r="339" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A339" s="228" t="s">
+      <c r="A339" s="237" t="s">
         <v>341</v>
       </c>
       <c r="B339" s="229"/>
@@ -35609,7 +35609,7 @@
       </c>
     </row>
     <row r="340" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A340" s="228" t="s">
+      <c r="A340" s="237" t="s">
         <v>342</v>
       </c>
       <c r="B340" s="229"/>
@@ -35649,7 +35649,7 @@
       </c>
     </row>
     <row r="341" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A341" s="228" t="s">
+      <c r="A341" s="237" t="s">
         <v>343</v>
       </c>
       <c r="B341" s="229"/>
@@ -35689,7 +35689,7 @@
       </c>
     </row>
     <row r="342" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A342" s="228" t="s">
+      <c r="A342" s="237" t="s">
         <v>344</v>
       </c>
       <c r="B342" s="229"/>
@@ -35729,7 +35729,7 @@
       </c>
     </row>
     <row r="343" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A343" s="228" t="s">
+      <c r="A343" s="237" t="s">
         <v>345</v>
       </c>
       <c r="B343" s="229"/>
@@ -35769,7 +35769,7 @@
       </c>
     </row>
     <row r="344" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A344" s="228" t="s">
+      <c r="A344" s="237" t="s">
         <v>346</v>
       </c>
       <c r="B344" s="229"/>
@@ -35809,7 +35809,7 @@
       </c>
     </row>
     <row r="345" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A345" s="228" t="s">
+      <c r="A345" s="237" t="s">
         <v>347</v>
       </c>
       <c r="B345" s="229"/>
@@ -35849,7 +35849,7 @@
       </c>
     </row>
     <row r="346" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A346" s="228" t="s">
+      <c r="A346" s="237" t="s">
         <v>348</v>
       </c>
       <c r="B346" s="229"/>
@@ -35889,7 +35889,7 @@
       </c>
     </row>
     <row r="347" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A347" s="228" t="s">
+      <c r="A347" s="237" t="s">
         <v>349</v>
       </c>
       <c r="B347" s="229"/>
@@ -35929,7 +35929,7 @@
       </c>
     </row>
     <row r="348" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A348" s="228" t="s">
+      <c r="A348" s="237" t="s">
         <v>350</v>
       </c>
       <c r="B348" s="229"/>
@@ -35969,7 +35969,7 @@
       </c>
     </row>
     <row r="349" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A349" s="228" t="s">
+      <c r="A349" s="237" t="s">
         <v>351</v>
       </c>
       <c r="B349" s="229"/>
@@ -36009,7 +36009,7 @@
       </c>
     </row>
     <row r="350" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A350" s="228" t="s">
+      <c r="A350" s="237" t="s">
         <v>352</v>
       </c>
       <c r="B350" s="229"/>
@@ -36049,7 +36049,7 @@
       </c>
     </row>
     <row r="351" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A351" s="228" t="s">
+      <c r="A351" s="237" t="s">
         <v>353</v>
       </c>
       <c r="B351" s="229"/>
@@ -36089,7 +36089,7 @@
       </c>
     </row>
     <row r="352" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A352" s="228" t="s">
+      <c r="A352" s="237" t="s">
         <v>354</v>
       </c>
       <c r="B352" s="229"/>
@@ -36129,7 +36129,7 @@
       </c>
     </row>
     <row r="353" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A353" s="228" t="s">
+      <c r="A353" s="237" t="s">
         <v>355</v>
       </c>
       <c r="B353" s="229"/>
@@ -36169,7 +36169,7 @@
       </c>
     </row>
     <row r="354" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A354" s="228" t="s">
+      <c r="A354" s="237" t="s">
         <v>356</v>
       </c>
       <c r="B354" s="229"/>
@@ -36209,7 +36209,7 @@
       </c>
     </row>
     <row r="355" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A355" s="228" t="s">
+      <c r="A355" s="237" t="s">
         <v>357</v>
       </c>
       <c r="B355" s="229"/>
@@ -36249,7 +36249,7 @@
       </c>
     </row>
     <row r="356" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A356" s="228" t="s">
+      <c r="A356" s="237" t="s">
         <v>358</v>
       </c>
       <c r="B356" s="229"/>
@@ -36289,7 +36289,7 @@
       </c>
     </row>
     <row r="357" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A357" s="228" t="s">
+      <c r="A357" s="237" t="s">
         <v>359</v>
       </c>
       <c r="B357" s="229"/>
@@ -36329,7 +36329,7 @@
       </c>
     </row>
     <row r="358" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A358" s="228" t="s">
+      <c r="A358" s="237" t="s">
         <v>360</v>
       </c>
       <c r="B358" s="229"/>
@@ -36369,7 +36369,7 @@
       </c>
     </row>
     <row r="359" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A359" s="228" t="s">
+      <c r="A359" s="237" t="s">
         <v>361</v>
       </c>
       <c r="B359" s="229"/>
@@ -36441,7 +36441,7 @@
       <c r="N361" s="183"/>
     </row>
     <row r="362" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A362" s="231" t="s">
+      <c r="A362" s="241" t="s">
         <v>362</v>
       </c>
       <c r="B362" s="229"/>
@@ -36459,7 +36459,7 @@
       <c r="N362" s="170"/>
     </row>
     <row r="363" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A363" s="232" t="s">
+      <c r="A363" s="235" t="s">
         <v>363</v>
       </c>
       <c r="B363" s="229"/>
@@ -36477,7 +36477,7 @@
       <c r="N363" s="129"/>
     </row>
     <row r="364" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A364" s="228" t="s">
+      <c r="A364" s="237" t="s">
         <v>364</v>
       </c>
       <c r="B364" s="229"/>
@@ -36517,7 +36517,7 @@
       </c>
     </row>
     <row r="365" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A365" s="228" t="s">
+      <c r="A365" s="237" t="s">
         <v>365</v>
       </c>
       <c r="B365" s="229"/>
@@ -36557,7 +36557,7 @@
       </c>
     </row>
     <row r="366" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A366" s="228" t="s">
+      <c r="A366" s="237" t="s">
         <v>366</v>
       </c>
       <c r="B366" s="229"/>
@@ -36597,7 +36597,7 @@
       </c>
     </row>
     <row r="367" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A367" s="228" t="s">
+      <c r="A367" s="237" t="s">
         <v>367</v>
       </c>
       <c r="B367" s="229"/>
@@ -36637,7 +36637,7 @@
       </c>
     </row>
     <row r="368" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A368" s="228" t="s">
+      <c r="A368" s="237" t="s">
         <v>19</v>
       </c>
       <c r="B368" s="229"/>
@@ -36677,7 +36677,7 @@
       </c>
     </row>
     <row r="369" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A369" s="228" t="s">
+      <c r="A369" s="237" t="s">
         <v>368</v>
       </c>
       <c r="B369" s="229"/>
@@ -36717,7 +36717,7 @@
       </c>
     </row>
     <row r="370" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A370" s="228" t="s">
+      <c r="A370" s="237" t="s">
         <v>369</v>
       </c>
       <c r="B370" s="229"/>
@@ -36757,7 +36757,7 @@
       </c>
     </row>
     <row r="371" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A371" s="228" t="s">
+      <c r="A371" s="237" t="s">
         <v>370</v>
       </c>
       <c r="B371" s="229"/>
@@ -36797,7 +36797,7 @@
       </c>
     </row>
     <row r="372" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A372" s="228" t="s">
+      <c r="A372" s="237" t="s">
         <v>371</v>
       </c>
       <c r="B372" s="229"/>
@@ -36837,7 +36837,7 @@
       </c>
     </row>
     <row r="373" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A373" s="228" t="s">
+      <c r="A373" s="237" t="s">
         <v>20</v>
       </c>
       <c r="B373" s="229"/>
@@ -36877,7 +36877,7 @@
       </c>
     </row>
     <row r="374" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A374" s="228" t="s">
+      <c r="A374" s="237" t="s">
         <v>372</v>
       </c>
       <c r="B374" s="229"/>
@@ -36917,7 +36917,7 @@
       </c>
     </row>
     <row r="375" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A375" s="228" t="s">
+      <c r="A375" s="237" t="s">
         <v>373</v>
       </c>
       <c r="B375" s="229"/>
@@ -36957,7 +36957,7 @@
       </c>
     </row>
     <row r="376" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A376" s="228" t="s">
+      <c r="A376" s="237" t="s">
         <v>374</v>
       </c>
       <c r="B376" s="229"/>
@@ -36997,7 +36997,7 @@
       </c>
     </row>
     <row r="377" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A377" s="228" t="s">
+      <c r="A377" s="237" t="s">
         <v>375</v>
       </c>
       <c r="B377" s="229"/>
@@ -37037,7 +37037,7 @@
       </c>
     </row>
     <row r="378" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A378" s="228" t="s">
+      <c r="A378" s="237" t="s">
         <v>376</v>
       </c>
       <c r="B378" s="229"/>
@@ -37077,7 +37077,7 @@
       </c>
     </row>
     <row r="379" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A379" s="228" t="s">
+      <c r="A379" s="237" t="s">
         <v>377</v>
       </c>
       <c r="B379" s="229"/>
@@ -37117,7 +37117,7 @@
       </c>
     </row>
     <row r="380" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A380" s="228" t="s">
+      <c r="A380" s="237" t="s">
         <v>378</v>
       </c>
       <c r="B380" s="229"/>
@@ -37157,7 +37157,7 @@
       </c>
     </row>
     <row r="381" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A381" s="228" t="s">
+      <c r="A381" s="237" t="s">
         <v>379</v>
       </c>
       <c r="B381" s="229"/>
@@ -37197,7 +37197,7 @@
       </c>
     </row>
     <row r="382" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A382" s="228" t="s">
+      <c r="A382" s="237" t="s">
         <v>380</v>
       </c>
       <c r="B382" s="229"/>
@@ -37237,7 +37237,7 @@
       </c>
     </row>
     <row r="383" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A383" s="228" t="s">
+      <c r="A383" s="237" t="s">
         <v>381</v>
       </c>
       <c r="B383" s="229"/>
@@ -37277,7 +37277,7 @@
       </c>
     </row>
     <row r="384" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A384" s="228" t="s">
+      <c r="A384" s="237" t="s">
         <v>382</v>
       </c>
       <c r="B384" s="229"/>
@@ -37317,7 +37317,7 @@
       </c>
     </row>
     <row r="385" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A385" s="228" t="s">
+      <c r="A385" s="237" t="s">
         <v>383</v>
       </c>
       <c r="B385" s="229"/>
@@ -37357,7 +37357,7 @@
       </c>
     </row>
     <row r="386" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A386" s="228" t="s">
+      <c r="A386" s="237" t="s">
         <v>384</v>
       </c>
       <c r="B386" s="229"/>
@@ -37397,7 +37397,7 @@
       </c>
     </row>
     <row r="387" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A387" s="228" t="s">
+      <c r="A387" s="237" t="s">
         <v>385</v>
       </c>
       <c r="B387" s="229"/>
@@ -37437,7 +37437,7 @@
       </c>
     </row>
     <row r="388" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A388" s="228" t="s">
+      <c r="A388" s="237" t="s">
         <v>386</v>
       </c>
       <c r="B388" s="229"/>
@@ -37477,7 +37477,7 @@
       </c>
     </row>
     <row r="389" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A389" s="228" t="s">
+      <c r="A389" s="237" t="s">
         <v>387</v>
       </c>
       <c r="B389" s="229"/>
@@ -37517,7 +37517,7 @@
       </c>
     </row>
     <row r="390" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A390" s="228" t="s">
+      <c r="A390" s="237" t="s">
         <v>388</v>
       </c>
       <c r="B390" s="229"/>
@@ -37557,7 +37557,7 @@
       </c>
     </row>
     <row r="391" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A391" s="228" t="s">
+      <c r="A391" s="237" t="s">
         <v>389</v>
       </c>
       <c r="B391" s="229"/>
@@ -37597,7 +37597,7 @@
       </c>
     </row>
     <row r="392" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A392" s="228" t="s">
+      <c r="A392" s="237" t="s">
         <v>390</v>
       </c>
       <c r="B392" s="229"/>
@@ -37637,7 +37637,7 @@
       </c>
     </row>
     <row r="393" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A393" s="228" t="s">
+      <c r="A393" s="237" t="s">
         <v>391</v>
       </c>
       <c r="B393" s="229"/>
@@ -37677,7 +37677,7 @@
       </c>
     </row>
     <row r="394" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A394" s="228" t="s">
+      <c r="A394" s="237" t="s">
         <v>392</v>
       </c>
       <c r="B394" s="229"/>
@@ -37717,7 +37717,7 @@
       </c>
     </row>
     <row r="395" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A395" s="228" t="s">
+      <c r="A395" s="237" t="s">
         <v>393</v>
       </c>
       <c r="B395" s="229"/>
@@ -37757,7 +37757,7 @@
       </c>
     </row>
     <row r="396" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A396" s="228" t="s">
+      <c r="A396" s="237" t="s">
         <v>394</v>
       </c>
       <c r="B396" s="229"/>
@@ -37797,7 +37797,7 @@
       </c>
     </row>
     <row r="397" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A397" s="228" t="s">
+      <c r="A397" s="237" t="s">
         <v>395</v>
       </c>
       <c r="B397" s="229"/>
@@ -37837,7 +37837,7 @@
       </c>
     </row>
     <row r="398" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A398" s="228" t="s">
+      <c r="A398" s="237" t="s">
         <v>396</v>
       </c>
       <c r="B398" s="229"/>
@@ -37877,7 +37877,7 @@
       </c>
     </row>
     <row r="399" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A399" s="228" t="s">
+      <c r="A399" s="237" t="s">
         <v>397</v>
       </c>
       <c r="B399" s="229"/>
@@ -37917,7 +37917,7 @@
       </c>
     </row>
     <row r="400" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A400" s="228" t="s">
+      <c r="A400" s="237" t="s">
         <v>398</v>
       </c>
       <c r="B400" s="229"/>
@@ -37957,7 +37957,7 @@
       </c>
     </row>
     <row r="401" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A401" s="228" t="s">
+      <c r="A401" s="237" t="s">
         <v>399</v>
       </c>
       <c r="B401" s="229"/>
@@ -37997,7 +37997,7 @@
       </c>
     </row>
     <row r="402" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A402" s="228" t="s">
+      <c r="A402" s="237" t="s">
         <v>400</v>
       </c>
       <c r="B402" s="229"/>
@@ -38037,7 +38037,7 @@
       </c>
     </row>
     <row r="403" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A403" s="228" t="s">
+      <c r="A403" s="237" t="s">
         <v>401</v>
       </c>
       <c r="B403" s="229"/>
@@ -38077,7 +38077,7 @@
       </c>
     </row>
     <row r="404" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A404" s="228" t="s">
+      <c r="A404" s="237" t="s">
         <v>402</v>
       </c>
       <c r="B404" s="229"/>
@@ -38117,7 +38117,7 @@
       </c>
     </row>
     <row r="405" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A405" s="228" t="s">
+      <c r="A405" s="237" t="s">
         <v>403</v>
       </c>
       <c r="B405" s="229"/>
@@ -38157,7 +38157,7 @@
       </c>
     </row>
     <row r="406" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A406" s="228" t="s">
+      <c r="A406" s="237" t="s">
         <v>404</v>
       </c>
       <c r="B406" s="229"/>
@@ -38197,7 +38197,7 @@
       </c>
     </row>
     <row r="407" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A407" s="228" t="s">
+      <c r="A407" s="237" t="s">
         <v>405</v>
       </c>
       <c r="B407" s="229"/>
@@ -38237,7 +38237,7 @@
       </c>
     </row>
     <row r="408" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A408" s="228" t="s">
+      <c r="A408" s="237" t="s">
         <v>406</v>
       </c>
       <c r="B408" s="229"/>
@@ -38277,7 +38277,7 @@
       </c>
     </row>
     <row r="409" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A409" s="228" t="s">
+      <c r="A409" s="237" t="s">
         <v>407</v>
       </c>
       <c r="B409" s="229"/>
@@ -38317,7 +38317,7 @@
       </c>
     </row>
     <row r="410" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A410" s="228" t="s">
+      <c r="A410" s="237" t="s">
         <v>408</v>
       </c>
       <c r="B410" s="229"/>
@@ -38357,7 +38357,7 @@
       </c>
     </row>
     <row r="411" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A411" s="228" t="s">
+      <c r="A411" s="237" t="s">
         <v>409</v>
       </c>
       <c r="B411" s="229"/>
@@ -38397,7 +38397,7 @@
       </c>
     </row>
     <row r="412" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A412" s="228" t="s">
+      <c r="A412" s="237" t="s">
         <v>410</v>
       </c>
       <c r="B412" s="229"/>
@@ -38437,7 +38437,7 @@
       </c>
     </row>
     <row r="413" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A413" s="228" t="s">
+      <c r="A413" s="237" t="s">
         <v>411</v>
       </c>
       <c r="B413" s="229"/>
@@ -38477,7 +38477,7 @@
       </c>
     </row>
     <row r="414" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A414" s="228" t="s">
+      <c r="A414" s="237" t="s">
         <v>412</v>
       </c>
       <c r="B414" s="229"/>
@@ -38517,7 +38517,7 @@
       </c>
     </row>
     <row r="415" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A415" s="228" t="s">
+      <c r="A415" s="237" t="s">
         <v>413</v>
       </c>
       <c r="B415" s="229"/>
@@ -38557,7 +38557,7 @@
       </c>
     </row>
     <row r="416" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A416" s="228" t="s">
+      <c r="A416" s="237" t="s">
         <v>414</v>
       </c>
       <c r="B416" s="229"/>
@@ -38597,7 +38597,7 @@
       </c>
     </row>
     <row r="417" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A417" s="228" t="s">
+      <c r="A417" s="237" t="s">
         <v>415</v>
       </c>
       <c r="B417" s="229"/>
@@ -38637,7 +38637,7 @@
       </c>
     </row>
     <row r="418" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A418" s="228" t="s">
+      <c r="A418" s="237" t="s">
         <v>416</v>
       </c>
       <c r="B418" s="229"/>
@@ -38677,7 +38677,7 @@
       </c>
     </row>
     <row r="419" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A419" s="228" t="s">
+      <c r="A419" s="237" t="s">
         <v>417</v>
       </c>
       <c r="B419" s="229"/>
@@ -38717,7 +38717,7 @@
       </c>
     </row>
     <row r="420" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A420" s="228" t="s">
+      <c r="A420" s="237" t="s">
         <v>418</v>
       </c>
       <c r="B420" s="229"/>
@@ -38757,7 +38757,7 @@
       </c>
     </row>
     <row r="421" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A421" s="228" t="s">
+      <c r="A421" s="237" t="s">
         <v>419</v>
       </c>
       <c r="B421" s="229"/>
@@ -38797,7 +38797,7 @@
       </c>
     </row>
     <row r="422" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A422" s="228" t="s">
+      <c r="A422" s="237" t="s">
         <v>420</v>
       </c>
       <c r="B422" s="229"/>
@@ -38837,7 +38837,7 @@
       </c>
     </row>
     <row r="423" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A423" s="228" t="s">
+      <c r="A423" s="237" t="s">
         <v>421</v>
       </c>
       <c r="B423" s="229"/>
@@ -38877,7 +38877,7 @@
       </c>
     </row>
     <row r="424" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A424" s="228" t="s">
+      <c r="A424" s="237" t="s">
         <v>422</v>
       </c>
       <c r="B424" s="229"/>
@@ -38917,7 +38917,7 @@
       </c>
     </row>
     <row r="425" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A425" s="228" t="s">
+      <c r="A425" s="237" t="s">
         <v>423</v>
       </c>
       <c r="B425" s="229"/>
@@ -38957,7 +38957,7 @@
       </c>
     </row>
     <row r="426" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A426" s="228" t="s">
+      <c r="A426" s="237" t="s">
         <v>424</v>
       </c>
       <c r="B426" s="229"/>
@@ -38997,7 +38997,7 @@
       </c>
     </row>
     <row r="427" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A427" s="228" t="s">
+      <c r="A427" s="237" t="s">
         <v>425</v>
       </c>
       <c r="B427" s="229"/>
@@ -39037,7 +39037,7 @@
       </c>
     </row>
     <row r="428" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A428" s="228" t="s">
+      <c r="A428" s="237" t="s">
         <v>426</v>
       </c>
       <c r="B428" s="229"/>
@@ -39077,7 +39077,7 @@
       </c>
     </row>
     <row r="429" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A429" s="228" t="s">
+      <c r="A429" s="237" t="s">
         <v>427</v>
       </c>
       <c r="B429" s="229"/>
@@ -39117,7 +39117,7 @@
       </c>
     </row>
     <row r="430" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A430" s="228" t="s">
+      <c r="A430" s="237" t="s">
         <v>428</v>
       </c>
       <c r="B430" s="229"/>
@@ -39157,7 +39157,7 @@
       </c>
     </row>
     <row r="431" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A431" s="228" t="s">
+      <c r="A431" s="237" t="s">
         <v>429</v>
       </c>
       <c r="B431" s="229"/>
@@ -39197,7 +39197,7 @@
       </c>
     </row>
     <row r="432" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A432" s="228" t="s">
+      <c r="A432" s="237" t="s">
         <v>430</v>
       </c>
       <c r="B432" s="229"/>
@@ -39237,7 +39237,7 @@
       </c>
     </row>
     <row r="433" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A433" s="228" t="s">
+      <c r="A433" s="237" t="s">
         <v>431</v>
       </c>
       <c r="B433" s="229"/>
@@ -39277,7 +39277,7 @@
       </c>
     </row>
     <row r="434" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A434" s="228" t="s">
+      <c r="A434" s="237" t="s">
         <v>432</v>
       </c>
       <c r="B434" s="229"/>
@@ -39317,7 +39317,7 @@
       </c>
     </row>
     <row r="435" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A435" s="228" t="s">
+      <c r="A435" s="237" t="s">
         <v>433</v>
       </c>
       <c r="B435" s="229"/>
@@ -39357,7 +39357,7 @@
       </c>
     </row>
     <row r="436" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A436" s="228" t="s">
+      <c r="A436" s="237" t="s">
         <v>434</v>
       </c>
       <c r="B436" s="229"/>
@@ -39397,7 +39397,7 @@
       </c>
     </row>
     <row r="437" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A437" s="228" t="s">
+      <c r="A437" s="237" t="s">
         <v>435</v>
       </c>
       <c r="B437" s="229"/>
@@ -39437,7 +39437,7 @@
       </c>
     </row>
     <row r="438" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A438" s="228" t="s">
+      <c r="A438" s="237" t="s">
         <v>436</v>
       </c>
       <c r="B438" s="229"/>
@@ -39477,7 +39477,7 @@
       </c>
     </row>
     <row r="439" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A439" s="228" t="s">
+      <c r="A439" s="237" t="s">
         <v>437</v>
       </c>
       <c r="B439" s="229"/>
@@ -39517,7 +39517,7 @@
       </c>
     </row>
     <row r="440" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A440" s="228" t="s">
+      <c r="A440" s="237" t="s">
         <v>438</v>
       </c>
       <c r="B440" s="229"/>
@@ -39557,7 +39557,7 @@
       </c>
     </row>
     <row r="441" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A441" s="228" t="s">
+      <c r="A441" s="237" t="s">
         <v>439</v>
       </c>
       <c r="B441" s="229"/>
@@ -39597,7 +39597,7 @@
       </c>
     </row>
     <row r="442" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A442" s="228" t="s">
+      <c r="A442" s="237" t="s">
         <v>440</v>
       </c>
       <c r="B442" s="229"/>
@@ -39637,7 +39637,7 @@
       </c>
     </row>
     <row r="443" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A443" s="228" t="s">
+      <c r="A443" s="237" t="s">
         <v>441</v>
       </c>
       <c r="B443" s="229"/>
@@ -39677,7 +39677,7 @@
       </c>
     </row>
     <row r="444" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A444" s="228" t="s">
+      <c r="A444" s="237" t="s">
         <v>442</v>
       </c>
       <c r="B444" s="229"/>
@@ -39717,7 +39717,7 @@
       </c>
     </row>
     <row r="445" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A445" s="228" t="s">
+      <c r="A445" s="237" t="s">
         <v>443</v>
       </c>
       <c r="B445" s="229"/>
@@ -39757,7 +39757,7 @@
       </c>
     </row>
     <row r="446" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A446" s="228" t="s">
+      <c r="A446" s="237" t="s">
         <v>444</v>
       </c>
       <c r="B446" s="229"/>
@@ -39797,7 +39797,7 @@
       </c>
     </row>
     <row r="447" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A447" s="228" t="s">
+      <c r="A447" s="237" t="s">
         <v>445</v>
       </c>
       <c r="B447" s="229"/>
@@ -39837,7 +39837,7 @@
       </c>
     </row>
     <row r="448" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A448" s="228" t="s">
+      <c r="A448" s="237" t="s">
         <v>446</v>
       </c>
       <c r="B448" s="229"/>
@@ -39877,7 +39877,7 @@
       </c>
     </row>
     <row r="449" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A449" s="228" t="s">
+      <c r="A449" s="237" t="s">
         <v>447</v>
       </c>
       <c r="B449" s="229"/>
@@ -39917,7 +39917,7 @@
       </c>
     </row>
     <row r="450" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A450" s="228" t="s">
+      <c r="A450" s="237" t="s">
         <v>448</v>
       </c>
       <c r="B450" s="229"/>
@@ -39957,7 +39957,7 @@
       </c>
     </row>
     <row r="451" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A451" s="228" t="s">
+      <c r="A451" s="237" t="s">
         <v>449</v>
       </c>
       <c r="B451" s="229"/>
@@ -39997,7 +39997,7 @@
       </c>
     </row>
     <row r="452" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A452" s="228" t="s">
+      <c r="A452" s="237" t="s">
         <v>450</v>
       </c>
       <c r="B452" s="229"/>
@@ -40037,7 +40037,7 @@
       </c>
     </row>
     <row r="453" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A453" s="228" t="s">
+      <c r="A453" s="237" t="s">
         <v>451</v>
       </c>
       <c r="B453" s="229"/>
@@ -40077,7 +40077,7 @@
       </c>
     </row>
     <row r="454" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A454" s="228" t="s">
+      <c r="A454" s="237" t="s">
         <v>452</v>
       </c>
       <c r="B454" s="229"/>
@@ -40117,7 +40117,7 @@
       </c>
     </row>
     <row r="455" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A455" s="228" t="s">
+      <c r="A455" s="237" t="s">
         <v>453</v>
       </c>
       <c r="B455" s="229"/>
@@ -40157,7 +40157,7 @@
       </c>
     </row>
     <row r="456" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A456" s="228" t="s">
+      <c r="A456" s="237" t="s">
         <v>454</v>
       </c>
       <c r="B456" s="229"/>
@@ -40197,7 +40197,7 @@
       </c>
     </row>
     <row r="457" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A457" s="228" t="s">
+      <c r="A457" s="237" t="s">
         <v>455</v>
       </c>
       <c r="B457" s="229"/>
@@ -40237,7 +40237,7 @@
       </c>
     </row>
     <row r="458" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A458" s="228" t="s">
+      <c r="A458" s="237" t="s">
         <v>456</v>
       </c>
       <c r="B458" s="229"/>
@@ -40277,7 +40277,7 @@
       </c>
     </row>
     <row r="459" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A459" s="228" t="s">
+      <c r="A459" s="237" t="s">
         <v>457</v>
       </c>
       <c r="B459" s="229"/>
@@ -40317,7 +40317,7 @@
       </c>
     </row>
     <row r="460" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A460" s="228" t="s">
+      <c r="A460" s="237" t="s">
         <v>458</v>
       </c>
       <c r="B460" s="229"/>
@@ -40357,7 +40357,7 @@
       </c>
     </row>
     <row r="461" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A461" s="228" t="s">
+      <c r="A461" s="237" t="s">
         <v>459</v>
       </c>
       <c r="B461" s="229"/>
@@ -40397,7 +40397,7 @@
       </c>
     </row>
     <row r="462" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A462" s="228" t="s">
+      <c r="A462" s="237" t="s">
         <v>460</v>
       </c>
       <c r="B462" s="229"/>
@@ -40437,7 +40437,7 @@
       </c>
     </row>
     <row r="463" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A463" s="228" t="s">
+      <c r="A463" s="237" t="s">
         <v>461</v>
       </c>
       <c r="B463" s="229"/>
@@ -40477,7 +40477,7 @@
       </c>
     </row>
     <row r="464" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A464" s="228" t="s">
+      <c r="A464" s="237" t="s">
         <v>462</v>
       </c>
       <c r="B464" s="229"/>
@@ -40517,7 +40517,7 @@
       </c>
     </row>
     <row r="465" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A465" s="228" t="s">
+      <c r="A465" s="237" t="s">
         <v>463</v>
       </c>
       <c r="B465" s="229"/>
@@ -40557,7 +40557,7 @@
       </c>
     </row>
     <row r="466" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A466" s="228" t="s">
+      <c r="A466" s="237" t="s">
         <v>464</v>
       </c>
       <c r="B466" s="229"/>
@@ -40597,7 +40597,7 @@
       </c>
     </row>
     <row r="467" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A467" s="228" t="s">
+      <c r="A467" s="237" t="s">
         <v>465</v>
       </c>
       <c r="B467" s="229"/>
@@ -40637,7 +40637,7 @@
       </c>
     </row>
     <row r="468" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A468" s="228" t="s">
+      <c r="A468" s="237" t="s">
         <v>466</v>
       </c>
       <c r="B468" s="229"/>
@@ -40677,7 +40677,7 @@
       </c>
     </row>
     <row r="469" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A469" s="228" t="s">
+      <c r="A469" s="237" t="s">
         <v>467</v>
       </c>
       <c r="B469" s="229"/>
@@ -40717,7 +40717,7 @@
       </c>
     </row>
     <row r="470" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A470" s="228" t="s">
+      <c r="A470" s="237" t="s">
         <v>468</v>
       </c>
       <c r="B470" s="229"/>
@@ -40757,7 +40757,7 @@
       </c>
     </row>
     <row r="471" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A471" s="228" t="s">
+      <c r="A471" s="237" t="s">
         <v>469</v>
       </c>
       <c r="B471" s="229"/>
@@ -40797,7 +40797,7 @@
       </c>
     </row>
     <row r="472" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A472" s="228" t="s">
+      <c r="A472" s="237" t="s">
         <v>470</v>
       </c>
       <c r="B472" s="229"/>
@@ -40837,7 +40837,7 @@
       </c>
     </row>
     <row r="473" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A473" s="228" t="s">
+      <c r="A473" s="237" t="s">
         <v>471</v>
       </c>
       <c r="B473" s="229"/>
@@ -40877,7 +40877,7 @@
       </c>
     </row>
     <row r="474" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A474" s="228" t="s">
+      <c r="A474" s="237" t="s">
         <v>472</v>
       </c>
       <c r="B474" s="229"/>
@@ -40917,7 +40917,7 @@
       </c>
     </row>
     <row r="475" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A475" s="228" t="s">
+      <c r="A475" s="237" t="s">
         <v>473</v>
       </c>
       <c r="B475" s="229"/>
@@ -40957,7 +40957,7 @@
       </c>
     </row>
     <row r="476" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A476" s="228" t="s">
+      <c r="A476" s="237" t="s">
         <v>474</v>
       </c>
       <c r="B476" s="229"/>
@@ -40997,7 +40997,7 @@
       </c>
     </row>
     <row r="477" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A477" s="228" t="s">
+      <c r="A477" s="237" t="s">
         <v>475</v>
       </c>
       <c r="B477" s="229"/>
@@ -41037,7 +41037,7 @@
       </c>
     </row>
     <row r="478" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A478" s="228" t="s">
+      <c r="A478" s="237" t="s">
         <v>476</v>
       </c>
       <c r="B478" s="229"/>
@@ -41077,7 +41077,7 @@
       </c>
     </row>
     <row r="479" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A479" s="228" t="s">
+      <c r="A479" s="237" t="s">
         <v>477</v>
       </c>
       <c r="B479" s="229"/>
@@ -41117,7 +41117,7 @@
       </c>
     </row>
     <row r="480" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A480" s="228" t="s">
+      <c r="A480" s="237" t="s">
         <v>478</v>
       </c>
       <c r="B480" s="229"/>
@@ -41157,7 +41157,7 @@
       </c>
     </row>
     <row r="481" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A481" s="228" t="s">
+      <c r="A481" s="237" t="s">
         <v>479</v>
       </c>
       <c r="B481" s="229"/>
@@ -41197,7 +41197,7 @@
       </c>
     </row>
     <row r="482" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A482" s="228" t="s">
+      <c r="A482" s="237" t="s">
         <v>480</v>
       </c>
       <c r="B482" s="229"/>
@@ -41237,7 +41237,7 @@
       </c>
     </row>
     <row r="483" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A483" s="228" t="s">
+      <c r="A483" s="237" t="s">
         <v>481</v>
       </c>
       <c r="B483" s="229"/>
@@ -41277,7 +41277,7 @@
       </c>
     </row>
     <row r="484" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A484" s="228" t="s">
+      <c r="A484" s="237" t="s">
         <v>482</v>
       </c>
       <c r="B484" s="229"/>
@@ -41317,7 +41317,7 @@
       </c>
     </row>
     <row r="485" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A485" s="228" t="s">
+      <c r="A485" s="237" t="s">
         <v>483</v>
       </c>
       <c r="B485" s="229"/>
@@ -41357,7 +41357,7 @@
       </c>
     </row>
     <row r="486" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A486" s="228" t="s">
+      <c r="A486" s="237" t="s">
         <v>484</v>
       </c>
       <c r="B486" s="229"/>
@@ -41397,7 +41397,7 @@
       </c>
     </row>
     <row r="487" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A487" s="228" t="s">
+      <c r="A487" s="237" t="s">
         <v>485</v>
       </c>
       <c r="B487" s="229"/>
@@ -41437,7 +41437,7 @@
       </c>
     </row>
     <row r="488" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A488" s="228" t="s">
+      <c r="A488" s="237" t="s">
         <v>486</v>
       </c>
       <c r="B488" s="229"/>
@@ -41477,7 +41477,7 @@
       </c>
     </row>
     <row r="489" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A489" s="228" t="s">
+      <c r="A489" s="237" t="s">
         <v>487</v>
       </c>
       <c r="B489" s="229"/>
@@ -41517,7 +41517,7 @@
       </c>
     </row>
     <row r="490" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A490" s="228" t="s">
+      <c r="A490" s="237" t="s">
         <v>488</v>
       </c>
       <c r="B490" s="229"/>
@@ -41557,7 +41557,7 @@
       </c>
     </row>
     <row r="491" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A491" s="228" t="s">
+      <c r="A491" s="237" t="s">
         <v>489</v>
       </c>
       <c r="B491" s="229"/>
@@ -41597,7 +41597,7 @@
       </c>
     </row>
     <row r="492" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A492" s="228" t="s">
+      <c r="A492" s="237" t="s">
         <v>490</v>
       </c>
       <c r="B492" s="229"/>
@@ -41637,7 +41637,7 @@
       </c>
     </row>
     <row r="493" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A493" s="228" t="s">
+      <c r="A493" s="237" t="s">
         <v>491</v>
       </c>
       <c r="B493" s="229"/>
@@ -41677,7 +41677,7 @@
       </c>
     </row>
     <row r="494" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A494" s="228" t="s">
+      <c r="A494" s="237" t="s">
         <v>492</v>
       </c>
       <c r="B494" s="229"/>
@@ -41717,7 +41717,7 @@
       </c>
     </row>
     <row r="495" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A495" s="228" t="s">
+      <c r="A495" s="237" t="s">
         <v>493</v>
       </c>
       <c r="B495" s="229"/>
@@ -41757,7 +41757,7 @@
       </c>
     </row>
     <row r="496" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A496" s="228" t="s">
+      <c r="A496" s="237" t="s">
         <v>494</v>
       </c>
       <c r="B496" s="229"/>
@@ -41797,7 +41797,7 @@
       </c>
     </row>
     <row r="497" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A497" s="228" t="s">
+      <c r="A497" s="237" t="s">
         <v>495</v>
       </c>
       <c r="B497" s="229"/>
@@ -41837,7 +41837,7 @@
       </c>
     </row>
     <row r="498" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A498" s="228" t="s">
+      <c r="A498" s="237" t="s">
         <v>496</v>
       </c>
       <c r="B498" s="229"/>
@@ -41877,7 +41877,7 @@
       </c>
     </row>
     <row r="499" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A499" s="228" t="s">
+      <c r="A499" s="237" t="s">
         <v>497</v>
       </c>
       <c r="B499" s="229"/>
@@ -41917,7 +41917,7 @@
       </c>
     </row>
     <row r="500" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A500" s="228" t="s">
+      <c r="A500" s="237" t="s">
         <v>498</v>
       </c>
       <c r="B500" s="229"/>
@@ -41957,7 +41957,7 @@
       </c>
     </row>
     <row r="501" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A501" s="228" t="s">
+      <c r="A501" s="237" t="s">
         <v>499</v>
       </c>
       <c r="B501" s="229"/>
@@ -41997,7 +41997,7 @@
       </c>
     </row>
     <row r="502" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A502" s="228" t="s">
+      <c r="A502" s="237" t="s">
         <v>500</v>
       </c>
       <c r="B502" s="229"/>
@@ -42037,7 +42037,7 @@
       </c>
     </row>
     <row r="503" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A503" s="228" t="s">
+      <c r="A503" s="237" t="s">
         <v>501</v>
       </c>
       <c r="B503" s="229"/>
@@ -42077,7 +42077,7 @@
       </c>
     </row>
     <row r="504" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A504" s="228" t="s">
+      <c r="A504" s="237" t="s">
         <v>502</v>
       </c>
       <c r="B504" s="229"/>
@@ -42117,7 +42117,7 @@
       </c>
     </row>
     <row r="505" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A505" s="228" t="s">
+      <c r="A505" s="237" t="s">
         <v>503</v>
       </c>
       <c r="B505" s="229"/>
@@ -42157,7 +42157,7 @@
       </c>
     </row>
     <row r="506" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A506" s="228" t="s">
+      <c r="A506" s="237" t="s">
         <v>504</v>
       </c>
       <c r="B506" s="229"/>
@@ -42197,7 +42197,7 @@
       </c>
     </row>
     <row r="507" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A507" s="228" t="s">
+      <c r="A507" s="237" t="s">
         <v>505</v>
       </c>
       <c r="B507" s="229"/>
@@ -42237,7 +42237,7 @@
       </c>
     </row>
     <row r="508" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A508" s="228" t="s">
+      <c r="A508" s="237" t="s">
         <v>506</v>
       </c>
       <c r="B508" s="229"/>
@@ -42277,7 +42277,7 @@
       </c>
     </row>
     <row r="509" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A509" s="228" t="s">
+      <c r="A509" s="237" t="s">
         <v>507</v>
       </c>
       <c r="B509" s="229"/>
@@ -42317,7 +42317,7 @@
       </c>
     </row>
     <row r="510" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A510" s="228" t="s">
+      <c r="A510" s="237" t="s">
         <v>508</v>
       </c>
       <c r="B510" s="229"/>
@@ -42357,7 +42357,7 @@
       </c>
     </row>
     <row r="511" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A511" s="228" t="s">
+      <c r="A511" s="237" t="s">
         <v>509</v>
       </c>
       <c r="B511" s="229"/>
@@ -42397,7 +42397,7 @@
       </c>
     </row>
     <row r="512" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A512" s="228" t="s">
+      <c r="A512" s="237" t="s">
         <v>510</v>
       </c>
       <c r="B512" s="229"/>
@@ -42437,7 +42437,7 @@
       </c>
     </row>
     <row r="513" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A513" s="228" t="s">
+      <c r="A513" s="237" t="s">
         <v>511</v>
       </c>
       <c r="B513" s="229"/>
@@ -42477,7 +42477,7 @@
       </c>
     </row>
     <row r="514" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A514" s="228" t="s">
+      <c r="A514" s="237" t="s">
         <v>512</v>
       </c>
       <c r="B514" s="229"/>
@@ -42517,7 +42517,7 @@
       </c>
     </row>
     <row r="515" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A515" s="228" t="s">
+      <c r="A515" s="237" t="s">
         <v>513</v>
       </c>
       <c r="B515" s="229"/>
@@ -42557,7 +42557,7 @@
       </c>
     </row>
     <row r="516" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A516" s="228" t="s">
+      <c r="A516" s="237" t="s">
         <v>514</v>
       </c>
       <c r="B516" s="229"/>
@@ -42597,7 +42597,7 @@
       </c>
     </row>
     <row r="517" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A517" s="228" t="s">
+      <c r="A517" s="237" t="s">
         <v>515</v>
       </c>
       <c r="B517" s="229"/>
@@ -42637,7 +42637,7 @@
       </c>
     </row>
     <row r="518" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A518" s="228" t="s">
+      <c r="A518" s="237" t="s">
         <v>516</v>
       </c>
       <c r="B518" s="229"/>
@@ -42677,7 +42677,7 @@
       </c>
     </row>
     <row r="519" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A519" s="228" t="s">
+      <c r="A519" s="237" t="s">
         <v>517</v>
       </c>
       <c r="B519" s="229"/>
@@ -42717,7 +42717,7 @@
       </c>
     </row>
     <row r="520" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A520" s="228" t="s">
+      <c r="A520" s="237" t="s">
         <v>518</v>
       </c>
       <c r="B520" s="229"/>
@@ -42757,7 +42757,7 @@
       </c>
     </row>
     <row r="521" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A521" s="228" t="s">
+      <c r="A521" s="237" t="s">
         <v>519</v>
       </c>
       <c r="B521" s="229"/>
@@ -42797,7 +42797,7 @@
       </c>
     </row>
     <row r="522" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A522" s="228" t="s">
+      <c r="A522" s="237" t="s">
         <v>520</v>
       </c>
       <c r="B522" s="229"/>
@@ -42837,7 +42837,7 @@
       </c>
     </row>
     <row r="523" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A523" s="228" t="s">
+      <c r="A523" s="237" t="s">
         <v>521</v>
       </c>
       <c r="B523" s="229"/>
@@ -42877,7 +42877,7 @@
       </c>
     </row>
     <row r="524" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A524" s="228" t="s">
+      <c r="A524" s="237" t="s">
         <v>522</v>
       </c>
       <c r="B524" s="229"/>
@@ -42917,7 +42917,7 @@
       </c>
     </row>
     <row r="525" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A525" s="228" t="s">
+      <c r="A525" s="237" t="s">
         <v>523</v>
       </c>
       <c r="B525" s="229"/>
@@ -42957,7 +42957,7 @@
       </c>
     </row>
     <row r="526" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A526" s="228" t="s">
+      <c r="A526" s="237" t="s">
         <v>524</v>
       </c>
       <c r="B526" s="229"/>
@@ -42997,7 +42997,7 @@
       </c>
     </row>
     <row r="527" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A527" s="228" t="s">
+      <c r="A527" s="237" t="s">
         <v>525</v>
       </c>
       <c r="B527" s="229"/>
@@ -43037,7 +43037,7 @@
       </c>
     </row>
     <row r="528" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A528" s="228" t="s">
+      <c r="A528" s="237" t="s">
         <v>526</v>
       </c>
       <c r="B528" s="229"/>
@@ -43077,7 +43077,7 @@
       </c>
     </row>
     <row r="529" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A529" s="228" t="s">
+      <c r="A529" s="237" t="s">
         <v>527</v>
       </c>
       <c r="B529" s="229"/>
@@ -43117,7 +43117,7 @@
       </c>
     </row>
     <row r="530" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A530" s="228" t="s">
+      <c r="A530" s="237" t="s">
         <v>528</v>
       </c>
       <c r="B530" s="229"/>
@@ -43157,7 +43157,7 @@
       </c>
     </row>
     <row r="531" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A531" s="228" t="s">
+      <c r="A531" s="237" t="s">
         <v>529</v>
       </c>
       <c r="B531" s="229"/>
@@ -43197,7 +43197,7 @@
       </c>
     </row>
     <row r="532" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A532" s="228" t="s">
+      <c r="A532" s="237" t="s">
         <v>530</v>
       </c>
       <c r="B532" s="229"/>
@@ -43238,7 +43238,7 @@
     </row>
     <row r="533" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="534" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A534" s="238" t="s">
+      <c r="A534" s="228" t="s">
         <v>881</v>
       </c>
       <c r="B534" s="229"/>
@@ -43277,11 +43277,11 @@
       <c r="O534" s="185"/>
     </row>
     <row r="535" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A535" s="239" t="s">
+      <c r="A535" s="231" t="s">
         <v>882</v>
       </c>
-      <c r="B535" s="240"/>
-      <c r="C535" s="241"/>
+      <c r="B535" s="232"/>
+      <c r="C535" s="233"/>
       <c r="D535" s="104"/>
       <c r="E535" s="188" t="s">
         <v>5</v>
@@ -43782,6 +43782,481 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="499">
+    <mergeCell ref="A528:C528"/>
+    <mergeCell ref="A529:C529"/>
+    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A532:C532"/>
+    <mergeCell ref="A522:C522"/>
+    <mergeCell ref="A523:C523"/>
+    <mergeCell ref="A524:C524"/>
+    <mergeCell ref="A525:C525"/>
+    <mergeCell ref="A526:C526"/>
+    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="A518:C518"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A520:C520"/>
+    <mergeCell ref="A521:C521"/>
+    <mergeCell ref="A510:C510"/>
+    <mergeCell ref="A511:C511"/>
+    <mergeCell ref="A512:C512"/>
+    <mergeCell ref="A513:C513"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:C508"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A498:C498"/>
+    <mergeCell ref="A499:C499"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A501:C501"/>
+    <mergeCell ref="A502:C502"/>
+    <mergeCell ref="A503:C503"/>
+    <mergeCell ref="A492:C492"/>
+    <mergeCell ref="A493:C493"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="A495:C495"/>
+    <mergeCell ref="A496:C496"/>
+    <mergeCell ref="A497:C497"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="A490:C490"/>
+    <mergeCell ref="A491:C491"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A481:C481"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A483:C483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A478:C478"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A473:C473"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="A465:C465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A455:C455"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="A445:C445"/>
+    <mergeCell ref="A446:C446"/>
+    <mergeCell ref="A447:C447"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A438:C438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="A426:C426"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A420:C420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C415"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A398:C398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A387:C387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A382:C382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A375:C375"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A370:C370"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A534:C534"/>
     <mergeCell ref="A535:C535"/>
     <mergeCell ref="A1:C1"/>
@@ -43806,481 +44281,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A375:C375"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A370:C370"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A387:C387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A382:C382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A398:C398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A420:C420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A415:C415"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="A426:C426"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="A445:C445"/>
-    <mergeCell ref="A446:C446"/>
-    <mergeCell ref="A447:C447"/>
-    <mergeCell ref="A448:C448"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A438:C438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A443:C443"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A459:C459"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A452:C452"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A455:C455"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A473:C473"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="A465:C465"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A483:C483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A478:C478"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A492:C492"/>
-    <mergeCell ref="A493:C493"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="A495:C495"/>
-    <mergeCell ref="A496:C496"/>
-    <mergeCell ref="A497:C497"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="A490:C490"/>
-    <mergeCell ref="A491:C491"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:C508"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A498:C498"/>
-    <mergeCell ref="A499:C499"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A501:C501"/>
-    <mergeCell ref="A502:C502"/>
-    <mergeCell ref="A503:C503"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="A518:C518"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A520:C520"/>
-    <mergeCell ref="A521:C521"/>
-    <mergeCell ref="A510:C510"/>
-    <mergeCell ref="A511:C511"/>
-    <mergeCell ref="A512:C512"/>
-    <mergeCell ref="A513:C513"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="A528:C528"/>
-    <mergeCell ref="A529:C529"/>
-    <mergeCell ref="A530:C530"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A532:C532"/>
-    <mergeCell ref="A522:C522"/>
-    <mergeCell ref="A523:C523"/>
-    <mergeCell ref="A524:C524"/>
-    <mergeCell ref="A525:C525"/>
-    <mergeCell ref="A526:C526"/>
-    <mergeCell ref="A527:C527"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44290,8 +44290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A76CB59-6BAC-6D4E-8145-A88D53DA566F}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -45737,26 +45737,26 @@
       <c r="A58" s="113" t="s">
         <v>854</v>
       </c>
-      <c r="B58" s="94">
-        <v>1.21</v>
-      </c>
-      <c r="C58" s="95">
-        <v>0.63</v>
-      </c>
-      <c r="D58" s="94">
-        <v>0.4</v>
-      </c>
-      <c r="E58" s="94">
-        <v>0.37</v>
-      </c>
-      <c r="F58" s="94">
-        <v>0.24</v>
-      </c>
-      <c r="G58" s="94">
-        <v>0.19</v>
-      </c>
-      <c r="H58" s="94">
-        <v>0.11</v>
+      <c r="B58" s="190">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C58" s="190">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D58" s="190">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E58" s="190">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F58" s="190">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G58" s="190">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H58" s="190">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
